--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A735C183-2CFC-44D5-9EA6-7652F7AB28A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADC9EDC-910E-47CD-B51E-C634E0CB9616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="OOPS" sheetId="18" r:id="rId18"/>
     <sheet name="Erlang Basics" sheetId="20" r:id="rId19"/>
     <sheet name="BlockChain" sheetId="22" r:id="rId20"/>
+    <sheet name="ML" sheetId="23" r:id="rId21"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="826">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -4082,9 +4083,6 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=kDEX1HXybrU</t>
-  </si>
-  <si>
-    <t>Fold Linked List\</t>
   </si>
   <si>
     <t>Unfold Linked List</t>
@@ -4706,6 +4704,80 @@
   <si>
     <t>Because the block chain is fair, it's democratized and completely public, in addition, thanks to the nature of the decentralized system. The block chain is also highly secure. There's not one central point of failure hacker need to only take down one bank in a centralized system to get access to a lot of the data in the blocking. The attacker would need to take over thousands, if not millions of nodes and computers to hijack the network.</t>
   </si>
+  <si>
+    <t>Fold Linked List</t>
+  </si>
+  <si>
+    <t>Using 2 dummy nodes(one forms chain of odd and others form chain of even). At last currOdd.next=NULL, currEven=dummyOdd.next, dummyOdd.next=NULL, and return dummyEven.next.</t>
+  </si>
+  <si>
+    <t>merge2(h1,h2){
+    if(h1==NULL||h2==NULL) return h1==NULL?h2:h1;
+    t1=h1 and t2=h2, dummy(-1);dum=dummy;
+    while(t1!=NULL&amp;&amp;t2!=NULL){
+        if(t1.data&lt;t2.data){dummy.next=t1; dummy=t1; t1=t1.next;}
+        else{dummy.next=t2; dummy=t2 t2=t2-&gt;next;}
+    }if(t1==NULL||t2==NULL){dummy.next=(t1==NULL?t2:t1);}
+    return dum-&gt;next;
+}</t>
+  </si>
+  <si>
+    <t>node* mid(node* head){
+    fast=slow=head;
+    while(fast-&gt;next!=NULL &amp;&amp; fast-&gt;next-&gt;next!=NULL){
+        fast=fast-&gt;next-&gt;next; slow=slow-&gt;next;
+    }
+}
+node* mergeSort(h){
+    if(h.next==NULL)return h;
+    node* t=mid(h);   node*p=t-&gt;next;t-&gt;next=NULL;
+    node*x=mergeSort(h);node*y=mergeSort(p);
+    node* z=merge2(x,y);
+    return z;
+}</t>
+  </si>
+  <si>
+    <t>2 dummy nodes to separate nodes; reverse second chain; connect first chain to second;</t>
+  </si>
+  <si>
+    <t>Add digits</t>
+  </si>
+  <si>
+    <t>Subtract digits</t>
+  </si>
+  <si>
+    <t>Multiply Digits</t>
+  </si>
+  <si>
+    <t>Count number of Nodes in Circular LL</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>CS field that make use of statistical techniques to give the machine an ability to learn with data without being explicitly programmed.
+Here Computers role is to identify the patterns among different attributes of data by training on a sample data and use this identified pattern as a model to predict outcome on similar dataset.</t>
+  </si>
+  <si>
+    <t>When to use (above trditional programming)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When traditional problem solving gets to a bottleneck sort of scenario. Where we humans can easily do things but for machines the acitivity becomes complicated.
+Where traditional programming is incorporating massive if-else block.
+</t>
+  </si>
+  <si>
+    <t>Copy Liist wth random pointers</t>
+  </si>
+  <si>
+    <t>Quick Sort Linked List</t>
+  </si>
+  <si>
+    <t>Segregate 01 Nodes in LL</t>
+  </si>
+  <si>
+    <t>Segregate nodes over a pivot index</t>
+  </si>
 </sst>
 </file>
 
@@ -4854,7 +4926,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7466,7 +7540,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B16" t="s">
         <v>747</v>
@@ -7477,7 +7551,7 @@
         <v>738</v>
       </c>
       <c r="B17" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -7555,95 +7629,95 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>774</v>
+      </c>
+      <c r="B41" t="s">
         <v>775</v>
-      </c>
-      <c r="B41" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>776</v>
+      </c>
+      <c r="B42" t="s">
         <v>777</v>
-      </c>
-      <c r="B42" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>778</v>
+      </c>
+      <c r="B43" t="s">
         <v>779</v>
-      </c>
-      <c r="B43" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>780</v>
+      </c>
+      <c r="B44" t="s">
         <v>781</v>
-      </c>
-      <c r="B44" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>782</v>
+      </c>
+      <c r="B45" t="s">
         <v>783</v>
-      </c>
-      <c r="B45" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>785</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>786</v>
+      </c>
+      <c r="B47" t="s">
         <v>787</v>
-      </c>
-      <c r="B47" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>789</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>791</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>793</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>797</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>798</v>
       </c>
     </row>
   </sheetData>
@@ -8152,31 +8226,66 @@
   <sheetData>
     <row r="1" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>804</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>806</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>808</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>809</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BCC8FF-F300-411D-9A51-322985FEB518}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="69.90625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="105" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>821</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8184,7 +8293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -8196,10 +8305,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="B1" t="s">
         <v>799</v>
-      </c>
-      <c r="B1" t="s">
-        <v>800</v>
       </c>
       <c r="C1" s="3">
         <v>3</v>
@@ -8207,10 +8316,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
+        <v>800</v>
+      </c>
+      <c r="B2" t="s">
         <v>801</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>802</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -8218,7 +8327,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -8231,10 +8340,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8255,11 +8364,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>699</v>
       </c>
       <c r="C2" s="10">
@@ -8342,6 +8451,9 @@
       <c r="A12" s="3" t="s">
         <v>709</v>
       </c>
+      <c r="B12" s="3" t="s">
+        <v>811</v>
+      </c>
       <c r="C12" s="10">
         <v>2</v>
       </c>
@@ -8350,6 +8462,9 @@
       <c r="A13" s="4" t="s">
         <v>710</v>
       </c>
+      <c r="B13" s="3" t="s">
+        <v>812</v>
+      </c>
       <c r="C13" s="10">
         <v>3</v>
       </c>
@@ -8366,6 +8481,9 @@
       <c r="A15" s="4" t="s">
         <v>712</v>
       </c>
+      <c r="B15" s="3" t="s">
+        <v>810</v>
+      </c>
       <c r="C15" s="10">
         <v>2</v>
       </c>
@@ -8412,10 +8530,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>769</v>
+        <v>809</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C21" s="10">
         <v>3</v>
@@ -8423,7 +8541,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>813</v>
       </c>
       <c r="C22" s="10">
         <v>3</v>
@@ -8431,7 +8552,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C23" s="10">
         <v>2</v>
@@ -8439,10 +8560,65 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C24" s="10">
         <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="C26" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="C27" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="C29" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -8713,8 +8889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8754,11 +8930,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="10">
@@ -8802,11 +8978,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="10">
@@ -8840,11 +9016,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C14" s="10">

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADC9EDC-910E-47CD-B51E-C634E0CB9616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377E342A-56F5-4E0D-A8FA-49D90B5E78A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="9" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="830">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -4762,11 +4762,6 @@
     <t>When to use (above trditional programming)</t>
   </si>
   <si>
-    <t xml:space="preserve">When traditional problem solving gets to a bottleneck sort of scenario. Where we humans can easily do things but for machines the acitivity becomes complicated.
-Where traditional programming is incorporating massive if-else block.
-</t>
-  </si>
-  <si>
     <t>Copy Liist wth random pointers</t>
   </si>
   <si>
@@ -4777,6 +4772,36 @@
   </si>
   <si>
     <t>Segregate nodes over a pivot index</t>
+  </si>
+  <si>
+    <t>AI vs ML vs ML</t>
+  </si>
+  <si>
+    <t>Human Intelligence &gt; AI &gt; ML &gt; DL
+Artificial intelligence, or AI, is the ability of a computer or machine to mimic or imitate human intelligent behavior and perform human-like tasks. AI: the theory and development of computer systems able to perform tasks that normally require human intelligence, such as visual perception, speech recognition, decision-making, and translation between languages. These intellgence model currently solely depends on pattern recongnition within provided dataset.
+ML uses statistical techniques to find pattern within data. ML does not involve explicit programming. Instead it uses data to form the rules and recognize patterns.  Learning in ML refers to a machine’s ability to learn based on data and an ML algorithm’s ability to train a model, evaluate its performance or accuracy, and then make predictions.
+DL: Deep learning makes use of Neural Networks—a neural network or simulated neural network (SNN)—which is an interconnected group of natural or artificial neurons that uses a mathematical or computational model for information processing based on a connectionist approach to computation) to mimic human brain-like behavior.
+AI does not focus as much on accuracy but focuses heavily on success and output. In ML, the aim is to increase accuracy but there is not much focus on the success rate. Deep Learning mainly focuses on accuracy, and out of the three delivers the best results. DL needs to be trained with a large amount of data.
+There are certain things where DL wins over ML. Like where logic of discrimination or prediction is fuzzy, where features to be extracted are not known. Model in DL will automatically extract/form dominant features. Accuracy of DL model depends on depth of model (directly proportional) and amount of training data (directly proportional).</t>
+  </si>
+  <si>
+    <t>Types of ML algorithms</t>
+  </si>
+  <si>
+    <t>When traditional problem solving gets to a bottleneck sort of scenario. Where we humans can easily do things but for machines the acitivity becomes complicated.
+Where traditional programming is incorporating massive if-else block.</t>
+  </si>
+  <si>
+    <t>Supervised (utilizes learning from data where i/p and o/p are known)
+    -Regression(o/p is continuous)
+    -Classification(o/p is categorical)
+Unsupervised (utilized learning from only input data via following methods)
+    -Clustering (Grouping of like i/p data for the desired o/p)
+    -dimensionality reduction (removal/subsitute of useless features)
+    -Anamoly detection (detect outliers, )
+    -ARL (Assocation rule based learning): (Find out association between items/ i/ps).
+Semi-supervised (data is clustered with unsupervised and then labled with supervised ML)[involves a small number of labeled examples and a large number of unlabeled examples.]
+Reinforcement (Based on reward system, forms system rules ans workspace by utilizing success and failure rewards.)</t>
   </si>
 </sst>
 </file>
@@ -4869,7 +4894,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4929,6 +4954,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8256,32 +8282,48 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BCC8FF-F300-411D-9A51-322985FEB518}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="69.90625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="105" style="5" customWidth="1"/>
+    <col min="2" max="2" width="105" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="21" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>821</v>
+      <c r="B2" s="21" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -8342,7 +8384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -8600,7 +8642,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C29" s="10">
         <v>3</v>
@@ -8608,17 +8650,17 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
   </sheetData>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377E342A-56F5-4E0D-A8FA-49D90B5E78A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABE4E8B-1476-4289-BC07-AA57DB6D79BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="9" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="834">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -4803,6 +4803,23 @@
 Semi-supervised (data is clustered with unsupervised and then labled with supervised ML)[involves a small number of labeled examples and a large number of unlabeled examples.]
 Reinforcement (Based on reward system, forms system rules ans workspace by utilizing success and failure rewards.)</t>
   </si>
+  <si>
+    <t>Batch Learning vs Online learnin</t>
+  </si>
+  <si>
+    <t>Batch Learning involves: Taining on whole dataset locally and push the trained model to server after completion of training.
+This approach is bad if the training dataset evolves in size or chnages by time.(will require recurring training).
+Loss updation because of faulty recurring period or no connectivity. If you want to update the model/train on new data you would need to pull it from server and train it and redeploy it.
+In case of online learning, model is fed with small batches of data which is used to train it online on a server where it is deployed and dynamically with available batch it it trained on the go. A trained model is pushed to the server as a service and it predicts as well as trains on the new upcoming data there on the server itself.</t>
+  </si>
+  <si>
+    <t>Learning rate is a crucial component that is needed to be decided when using recurring training in online learning.
+Out of Core Learning: Form of batch learning where dataset is too big. Here dataset is broken down into smaller mangable chunks and processed/trained offline.
+Disadvanages of Online learning: Training with recurrence is tricky. It is risky as new arriving data used as training set can be controlled by an external body thereby modifying your model with there terms. This may require you to build a system in such a way that it detects the incoming traffic anamolies to filter out and require a continuos monitoring system.</t>
+  </si>
+  <si>
+    <t>Issues with Online learning (River-&gt; library for online learning)</t>
+  </si>
 </sst>
 </file>
 
@@ -4894,7 +4911,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4954,7 +4971,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8282,23 +8298,23 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BCC8FF-F300-411D-9A51-322985FEB518}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="69.90625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="105" style="21" customWidth="1"/>
+    <col min="2" max="2" width="105" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" t="s">
         <v>819</v>
       </c>
     </row>
@@ -8306,7 +8322,7 @@
       <c r="A2" s="3" t="s">
         <v>820</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" t="s">
         <v>828</v>
       </c>
     </row>
@@ -8314,7 +8330,7 @@
       <c r="A3" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" t="s">
         <v>826</v>
       </c>
     </row>
@@ -8322,8 +8338,24 @@
       <c r="A4" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" t="s">
         <v>829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>832</v>
       </c>
     </row>
   </sheetData>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABE4E8B-1476-4289-BC07-AA57DB6D79BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAEEF7B-A7C9-4CA2-9425-DF2642CDCBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -24,16 +24,17 @@
     <sheet name="Recusion and BT" sheetId="8" r:id="rId9"/>
     <sheet name="Sliding Window" sheetId="7" r:id="rId10"/>
     <sheet name="Number Theory" sheetId="19" r:id="rId11"/>
-    <sheet name="Trie" sheetId="9" r:id="rId12"/>
-    <sheet name="FlutterWidgets" sheetId="10" r:id="rId13"/>
-    <sheet name="React and Node" sheetId="5" r:id="rId14"/>
-    <sheet name="Misc" sheetId="6" r:id="rId15"/>
-    <sheet name="CP Errors and Constraints" sheetId="16" r:id="rId16"/>
-    <sheet name="System Arch" sheetId="17" r:id="rId17"/>
-    <sheet name="OOPS" sheetId="18" r:id="rId18"/>
-    <sheet name="Erlang Basics" sheetId="20" r:id="rId19"/>
-    <sheet name="BlockChain" sheetId="22" r:id="rId20"/>
-    <sheet name="ML" sheetId="23" r:id="rId21"/>
+    <sheet name="Computational Geometry" sheetId="24" r:id="rId12"/>
+    <sheet name="Trie" sheetId="9" r:id="rId13"/>
+    <sheet name="FlutterWidgets" sheetId="10" r:id="rId14"/>
+    <sheet name="React and Node" sheetId="5" r:id="rId15"/>
+    <sheet name="Misc" sheetId="6" r:id="rId16"/>
+    <sheet name="CP Errors and Constraints" sheetId="16" r:id="rId17"/>
+    <sheet name="System Arch" sheetId="17" r:id="rId18"/>
+    <sheet name="OOPS" sheetId="18" r:id="rId19"/>
+    <sheet name="Erlang Basics" sheetId="20" r:id="rId20"/>
+    <sheet name="BlockChain" sheetId="22" r:id="rId21"/>
+    <sheet name="ML" sheetId="23" r:id="rId22"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="848">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -4820,6 +4821,48 @@
   <si>
     <t>Issues with Online learning (River-&gt; library for online learning)</t>
   </si>
+  <si>
+    <t>Notes on Vectors</t>
+  </si>
+  <si>
+    <t>Scalar product</t>
+  </si>
+  <si>
+    <t>Vector Product and application</t>
+  </si>
+  <si>
+    <t>Distance between points</t>
+  </si>
+  <si>
+    <t>Area of triangle with 3 given points</t>
+  </si>
+  <si>
+    <t>Area of Parallelogram with 4 given points</t>
+  </si>
+  <si>
+    <t>Area of polygon with n given points</t>
+  </si>
+  <si>
+    <t>Intersection of 2 lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perpendicula distance between a point and a line </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perpendicula distance between a point and a line segment </t>
+  </si>
+  <si>
+    <t>Quadratic solvongs and properties</t>
+  </si>
+  <si>
+    <t>Normal to the plane</t>
+  </si>
+  <si>
+    <t>ConvexHull</t>
+  </si>
+  <si>
+    <t>Colinear points</t>
+  </si>
 </sst>
 </file>
 
@@ -4911,7 +4954,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4970,6 +5013,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6273,7 +6319,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6428,6 +6474,99 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953DD369-6282-4F4A-98A5-5E73460558CD}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="54.81640625" customWidth="1"/>
+    <col min="2" max="2" width="87" style="5" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>846</v>
+      </c>
+      <c r="C13" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>847</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -6545,7 +6684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -6580,7 +6719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B48"/>
   <sheetViews>
@@ -6973,7 +7112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -7127,7 +7266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -7178,7 +7317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -7246,7 +7385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
@@ -7455,317 +7594,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795963BA-6859-4123-9D30-33303FC34949}">
-  <dimension ref="A1:B51"/>
-  <sheetViews>
-    <sheetView topLeftCell="B50" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="69.81640625" customWidth="1"/>
-    <col min="2" max="2" width="104.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="145" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>715</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>719</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B5" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>721</v>
-      </c>
-      <c r="B6" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>724</v>
-      </c>
-      <c r="B7" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>726</v>
-      </c>
-      <c r="B8" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>727</v>
-      </c>
-      <c r="B9" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>728</v>
-      </c>
-      <c r="B10" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>734</v>
-      </c>
-      <c r="B11" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>736</v>
-      </c>
-      <c r="B14" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>737</v>
-      </c>
-      <c r="B15" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>794</v>
-      </c>
-      <c r="B16" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>738</v>
-      </c>
-      <c r="B17" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>741</v>
-      </c>
-      <c r="B20" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>742</v>
-      </c>
-      <c r="B21" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>743</v>
-      </c>
-      <c r="B22" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
-        <v>751</v>
-      </c>
-      <c r="B25" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>755</v>
-      </c>
-      <c r="B29" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>756</v>
-      </c>
-      <c r="B30" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>774</v>
-      </c>
-      <c r="B41" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>776</v>
-      </c>
-      <c r="B42" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>778</v>
-      </c>
-      <c r="B43" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>780</v>
-      </c>
-      <c r="B44" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>782</v>
-      </c>
-      <c r="B45" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>786</v>
-      </c>
-      <c r="B47" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>790</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="116" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>797</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8253,6 +8081,317 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795963BA-6859-4123-9D30-33303FC34949}">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView topLeftCell="B50" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="69.81640625" customWidth="1"/>
+    <col min="2" max="2" width="104.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>715</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B5" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>721</v>
+      </c>
+      <c r="B6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>724</v>
+      </c>
+      <c r="B7" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B8" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>727</v>
+      </c>
+      <c r="B9" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>728</v>
+      </c>
+      <c r="B10" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>734</v>
+      </c>
+      <c r="B11" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>736</v>
+      </c>
+      <c r="B14" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>737</v>
+      </c>
+      <c r="B15" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>794</v>
+      </c>
+      <c r="B16" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>738</v>
+      </c>
+      <c r="B17" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>741</v>
+      </c>
+      <c r="B20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>742</v>
+      </c>
+      <c r="B21" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>743</v>
+      </c>
+      <c r="B22" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
+        <v>751</v>
+      </c>
+      <c r="B25" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="17" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>755</v>
+      </c>
+      <c r="B29" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>756</v>
+      </c>
+      <c r="B30" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>774</v>
+      </c>
+      <c r="B41" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>776</v>
+      </c>
+      <c r="B42" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>778</v>
+      </c>
+      <c r="B43" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>780</v>
+      </c>
+      <c r="B44" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>782</v>
+      </c>
+      <c r="B45" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>786</v>
+      </c>
+      <c r="B47" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>797</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83DB964-4164-49D0-ADB4-4FC69C0AAC83}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -8296,11 +8435,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BCC8FF-F300-411D-9A51-322985FEB518}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAEEF7B-A7C9-4CA2-9425-DF2642CDCBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD9735D-2ADF-42A0-A86C-2461F859F9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="854">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -4863,6 +4863,24 @@
   <si>
     <t>Colinear points</t>
   </si>
+  <si>
+    <t>Maximum XOR of 2 integers in an integer array</t>
+  </si>
+  <si>
+    <t>Print unique rows in given boolean matrix</t>
+  </si>
+  <si>
+    <t>Insert each row in the trie and calculate number of leafs (print root to leaf paths)</t>
+  </si>
+  <si>
+    <t>Shortest Unique prefix</t>
+  </si>
+  <si>
+    <t>Phone directory</t>
+  </si>
+  <si>
+    <t>Given a list of contacts contact[] of length n where each contact is a string which exist in a phone directory and a query string s. The task is to implement a search query for the phone directory. Run a search query for each prefix p of the query string s (i.e. from  index 1 to |s|) that prints all the distinct contacts which have the same prefix as p in lexicographical increasing order. Please refer the explanation part for better understanding</t>
+  </si>
 </sst>
 </file>
 
@@ -4954,7 +4972,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5017,6 +5035,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6477,7 +6496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953DD369-6282-4F4A-98A5-5E73460558CD}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -6568,10 +6587,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6639,7 +6658,7 @@
       <c r="A6" t="s">
         <v>246</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="22" t="s">
         <v>254</v>
       </c>
       <c r="C6">
@@ -6672,10 +6691,48 @@
       <c r="A9" t="s">
         <v>273</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="22" t="s">
         <v>274</v>
       </c>
       <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>848</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>849</v>
+      </c>
+      <c r="B11" t="s">
+        <v>850</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>851</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>852</v>
+      </c>
+      <c r="B13" t="s">
+        <v>853</v>
+      </c>
+      <c r="C13">
         <v>3</v>
       </c>
     </row>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD9735D-2ADF-42A0-A86C-2461F859F9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA9BE06-A353-4E78-94AD-9F48FF9B9B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="873">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -4880,6 +4880,63 @@
   </si>
   <si>
     <t>Given a list of contacts contact[] of length n where each contact is a string which exist in a phone directory and a query string s. The task is to implement a search query for the phone directory. Run a search query for each prefix p of the query string s (i.e. from  index 1 to |s|) that prints all the distinct contacts which have the same prefix as p in lexicographical increasing order. Please refer the explanation part for better understanding</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>How intergers are Stored in Machine code</t>
+  </si>
+  <si>
+    <t>Approach: check MSB and if that is 1, get its 2's complement and add 1 and then result is appended in a negative sign.</t>
+  </si>
+  <si>
+    <t>Integer Appended with 0 or 0x</t>
+  </si>
+  <si>
+    <t>Dec 2 Bin</t>
+  </si>
+  <si>
+    <t>Bin 2 Dec</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Convert to binary ignoring sign, if sign find 2's complement.</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>AND 0</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>OR 1</t>
+  </si>
+  <si>
+    <t>UNSET</t>
+  </si>
+  <si>
+    <t>AND 1</t>
+  </si>
+  <si>
+    <t>TOGGEL</t>
+  </si>
+  <si>
+    <t>XOR 1</t>
+  </si>
+  <si>
+    <t>n bit all zeros = 0</t>
+  </si>
+  <si>
+    <t>n bits all ones = (2^n)-1</t>
+  </si>
+  <si>
+    <t>One Complement also flips the bit = ~</t>
   </si>
 </sst>
 </file>
@@ -6589,8 +6646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8898,10 +8955,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9147,6 +9204,90 @@
       </c>
       <c r="C27" s="10">
         <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="13" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>872</v>
       </c>
     </row>
   </sheetData>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA9BE06-A353-4E78-94AD-9F48FF9B9B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B6B385-106B-4014-B131-986CE9ACF97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="881">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -4936,7 +4936,35 @@
     <t>n bits all ones = (2^n)-1</t>
   </si>
   <si>
-    <t>One Complement also flips the bit = ~</t>
+    <t xml:space="preserve">One Complement also flips the bit = ~X </t>
+  </si>
+  <si>
+    <t>Two's complement is ones complement +1, -X or ~X+1</t>
+  </si>
+  <si>
+    <t>X AND -X</t>
+  </si>
+  <si>
+    <t>RSBMask</t>
+  </si>
+  <si>
+    <t>RSB (Imp) integer/number</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>Subtracting a small number from a big number replaces all the set bets to 0 in larger numbers binary representation.</t>
+  </si>
+  <si>
+    <t>Kernigham's algorithm</t>
+  </si>
+  <si>
+    <t>Count set bits.
+While n!=0:
+    Find right most mask
+    count++
+    n=n-rsbm</t>
   </si>
 </sst>
 </file>
@@ -8955,10 +8983,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9287,7 +9315,41 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
         <v>872</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>880</v>
       </c>
     </row>
   </sheetData>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B6B385-106B-4014-B131-986CE9ACF97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D63B7F-F5C7-4F3E-A0A9-B54838753A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="894">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -4945,12 +4945,6 @@
     <t>X AND -X</t>
   </si>
   <si>
-    <t>RSBMask</t>
-  </si>
-  <si>
-    <t>RSB (Imp) integer/number</t>
-  </si>
-  <si>
     <t>NOTE</t>
   </si>
   <si>
@@ -4958,13 +4952,70 @@
   </si>
   <si>
     <t>Kernigham's algorithm</t>
+  </si>
+  <si>
+    <t>Gray bit strings</t>
+  </si>
+  <si>
+    <t>Given an n, print all the gray bit strings of length n. Gray bit strings sequence is a sequence where 2 adjacent binary strings who have only one bit changed.
+Hint Recursion, Notice the pattern for n=1,2,3,4….</t>
+  </si>
+  <si>
+    <t>Minimum number of developers to fulfill skills</t>
+  </si>
+  <si>
+    <t>Kernigham's algorithm.</t>
+  </si>
+  <si>
+    <t>Josephus problem</t>
+  </si>
+  <si>
+    <t>Given an n find the number which survives in the end when each alternate alive number is killed in cycle. Killing starts at second.
+Hint: This is formula based but the understanding creates the formula.
+Understanding is: Last number's Binary[1:n-2] bit tells you what all are the numbers that are going to be killed after the completion of one cycle.
+If n=12: in first all evens are dead. Now focus on binary of 12: 1100. now bit of n (i.e 12 here in this example) tells which bit will be alive in the next round. Here 0 tell that alive number conatining 0 bit at second last position will remain alive. Next 0 tells that alive numbers with 0 bit at third last position will remain alive. Next 1 tells that alive number conatining 1 bit at fourth last position with remain alive.
+"For a number unsing N bits to represent itself, only N-1 killing cycles are made to finally get one alive number at the last." 
+Hence we only need N. binary[1:n-2], that is remainder when we subtract closest power of 2 from N. And in first round of killing last bit alive is always odd hence last bit must be 1 in our answer. We have remainder and last bit shoud be one. remainder is appended with 1 which makes ans = (remainder&lt;&lt;1)+1, 2*rem + 1.</t>
+  </si>
+  <si>
+    <t>Valid words</t>
+  </si>
+  <si>
+    <t>Given a list of words and puzzleWord (in advance version a list of puzzles). Cpunt how many words are valid.
+A valid word is one which has first character of puzzle present in it and all characters of it are present in the puzzleWord.
+PuzzleWord[0] --&gt; word[i] and all characters of word[i] belongs to PuzzleWord.
+Form masks of all words and puzzleWord, say m and Pm
+if(pm&amp;m==m) word is contained in puzzleWord
+and form map of char-&gt;int which will store key=starting char and int=mask of all words so we have map helping us to retrieve only those words who have the first character of puzzle word.</t>
+  </si>
+  <si>
+    <t>Trick.</t>
   </si>
   <si>
     <t>Count set bits.
 While n!=0:
-    Find right most mask
+    Find right most bit mask
     count++
-    n=n-rsbm</t>
+    n=n-rbm</t>
+  </si>
+  <si>
+    <t>RB (Imp) integer/number</t>
+  </si>
+  <si>
+    <t>RBMask</t>
+  </si>
+  <si>
+    <t>All repeating except 2</t>
+  </si>
+  <si>
+    <t>XOR of all use RSBM of answer to classify numbers and finallyXOR 2 groups of classified numbers</t>
+  </si>
+  <si>
+    <t>Find the missing and the Duplicate number</t>
+  </si>
+  <si>
+    <t>Given a integer array with N elements from 1-N and a number ids duplicated within replacing one number. Find both duplicated and missing number,
+Ans: Create Duplicacy and XOR all. XOR=duplicate ^ missing now use previous questions logic here.</t>
   </si>
 </sst>
 </file>
@@ -8983,10 +9034,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9056,11 +9107,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>454</v>
       </c>
       <c r="C7" s="10">
@@ -9071,8 +9122,11 @@
       <c r="A8" s="3" t="s">
         <v>445</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>881</v>
+      </c>
       <c r="C8" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -9171,7 +9225,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>598</v>
       </c>
       <c r="C19" s="10">
@@ -9179,8 +9233,11 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>599</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>886</v>
       </c>
       <c r="C20" s="10">
         <v>3</v>
@@ -9197,159 +9254,227 @@
         <v>1</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="C22" s="10">
+        <v>2</v>
+      </c>
+    </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C23" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C24" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="C28" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C25" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="C29" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C30" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C31" s="10">
         <v>3</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C32" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="C33" s="10">
+        <v>3</v>
+      </c>
+    </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="C34" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="13" t="s">
         <v>854</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="C35" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>863</v>
+        <v>856</v>
+      </c>
+      <c r="C39" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>870</v>
+        <v>862</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>871</v>
+        <v>864</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>873</v>
+        <v>866</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>876</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="4" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
+      <c r="B53" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>879</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>880</v>
+      <c r="B54" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C54" s="10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D63B7F-F5C7-4F3E-A0A9-B54838753A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF46CA9F-5633-451E-B827-63A2023696F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9037,7 +9037,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9277,7 +9277,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>892</v>
       </c>
       <c r="B24" s="1" t="s">

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF46CA9F-5633-451E-B827-63A2023696F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F654E0B-85A9-4418-8C6F-6894F5F26886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="894">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="916">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -5017,6 +5017,103 @@
     <t>Given a integer array with N elements from 1-N and a number ids duplicated within replacing one number. Find both duplicated and missing number,
 Ans: Create Duplicacy and XOR all. XOR=duplicate ^ missing now use previous questions logic here.</t>
   </si>
+  <si>
+    <t>XOR Triplets</t>
+  </si>
+  <si>
+    <t>Given an integer array, find I,j,k such that 0&lt;=i&lt;j&lt;=k&lt;length of array, XOR of all elements in portion [i,j-1] is equal to XOR of elements in portion [j,k].
+Note that portions are connected and both have same XOR values of all elements under them.
+Hint, define loop of i from 0 to n-1 and inner loop of k from i+1 to n. If XOR[i,k]==0 then all elements are repeating in [i,k].
+so what ever be the j in between [i+1,k] all form the triplet hence ans += (k-i) whenever XOR[i,k]==0;</t>
+  </si>
+  <si>
+    <t>Reduce a number to 1 in minimum steps</t>
+  </si>
+  <si>
+    <t>If N is even reduce it to N/2 else either reduce it by 1 or increase it by 1.
+Hint : even is always reduced to half of the value but an odd can be increased or decreased. Use examples to figure.
+Use even as 4x, off as 4x+1 or 4x+3 and try to find which operation (add or subtract by 1) is suitable for both type of odds. 
+3 is an exceptional case.</t>
+  </si>
+  <si>
+    <t>Find number of numbers with same set bits less than N</t>
+  </si>
+  <si>
+    <t>Clear from the question
+Hint: use recursion to reduce number and PNC
+def( number, setbits_count, pos ){
+     if(pos==0) return 0;
+     res=0;
+     mask=1&lt;&lt;pos;
+     if(number&amp;mask==0){
+         res+=def( number,setbits_count, pos-1 );
+     }else{
+         res+= ( def(number,setbits_count-1,pos-1) + posCsetbits_count)//PNC
+     }
+}</t>
+  </si>
+  <si>
+    <t>Write code for nCr</t>
+  </si>
+  <si>
+    <t>def(n,r){
+    if(n&lt;r)return 0;
+    res=1;
+    for(int i=1;i&lt;=r;i++){
+        res=res*(n-i+1);
+        res=res/i;
+    }return res;
+}</t>
+  </si>
+  <si>
+    <t>XOR of sum of all pairs</t>
+  </si>
+  <si>
+    <t>Hint: use example</t>
+  </si>
+  <si>
+    <t>Print string abbreviations</t>
+  </si>
+  <si>
+    <t>Use bit manipulation. Number of abbreviations = 1&lt;&lt;(len(str))</t>
+  </si>
+  <si>
+    <t>Swap odd even bits/swap bits in adjacent pairs</t>
+  </si>
+  <si>
+    <t>Make use of masks</t>
+  </si>
+  <si>
+    <t>UTF-8 checking</t>
+  </si>
+  <si>
+    <t>Given a list of positive integers&lt;256, check if they are all utf-8 compatible.
+Compatibility: UTF-8 number can be 1byte, 2byte, 3 byte, 4 byte in length.
+If it is 1 byte long, it should start with 0,
+If it is 2 byte long it should start with 110 in first byte and 10 in second byte
+If it is 3 byte long it should start with 1110 and next 2 bytes should start with 10.
+If it is 3 byte long it should start with 11110 and next 3 bytes should start with 10.
+Determine if list is utf-8 compatible. Make use of recursion to check length of remaining list at each call.</t>
+  </si>
+  <si>
+    <t>Minimum bit flips to convert A to B</t>
+  </si>
+  <si>
+    <t>Copy set bits in a range</t>
+  </si>
+  <si>
+    <t>Multiply by a number of the form 2^x</t>
+  </si>
+  <si>
+    <t>Divide by number of the form 2^x</t>
+  </si>
+  <si>
+    <t>Remainder of a division, where divisor is of the form 2^x</t>
+  </si>
+  <si>
+    <t>Given 2 integers A and B and 2 pointers l,r&lt;32, l&lt;r copy all bit between position [l,r] in A to B. 
+Hint: Use Mask</t>
+  </si>
 </sst>
 </file>
 
@@ -5108,7 +5205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5172,6 +5269,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9034,10 +9137,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9284,197 +9387,316 @@
         <v>893</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
+    <row r="25" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
+        <v>902</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="23" t="s">
+        <v>904</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C27" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A28" s="23" t="s">
+        <v>908</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C28" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="23"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="C28" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="C32" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C29" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="C33" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>602</v>
-      </c>
-      <c r="C30" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="C31" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>880</v>
-      </c>
-      <c r="C32" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>883</v>
-      </c>
-      <c r="C33" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>884</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>885</v>
       </c>
       <c r="C34" s="10">
         <v>3</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C35" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C36" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>882</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="C37" s="10">
+        <v>3</v>
+      </c>
+    </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="13" t="s">
-        <v>854</v>
+      <c r="A38" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="C38" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>855</v>
+        <v>906</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>856</v>
+        <v>907</v>
       </c>
       <c r="C39" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>861</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>860</v>
+      <c r="A42" s="13" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>863</v>
+        <v>856</v>
+      </c>
+      <c r="C43" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>870</v>
+        <v>862</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>871</v>
+        <v>864</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>873</v>
+        <v>866</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>872</v>
+        <v>868</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="4" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="4" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+    <row r="57" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+    <row r="58" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C58" s="10">
         <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="174" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>899</v>
+      </c>
+      <c r="C59" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C60" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="C61" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C62" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="C63" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="C64" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="C65" s="10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9647,7 +9869,7 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9806,6 +10028,17 @@
         <v>490</v>
       </c>
       <c r="C18" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="C19" s="10">
         <v>2</v>
       </c>
     </row>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F654E0B-85A9-4418-8C6F-6894F5F26886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80110BB0-080A-4F96-9E0E-6DF170075BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="924">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -5114,6 +5114,71 @@
     <t>Given 2 integers A and B and 2 pointers l,r&lt;32, l&lt;r copy all bit between position [l,r] in A to B. 
 Hint: Use Mask</t>
   </si>
+  <si>
+    <t>Count number of set bit from 0 to n (given)</t>
+  </si>
+  <si>
+    <t>Hint: from 0 to a 2^x - 1, number of set bits are 2^(x-1)*x.
+int closestpowerof2(int n){
+    int x=0;
+    while((1&lt;&lt;x)&lt;=n){
+        x++;
+    }return x-1;
+}
+int bitcount(int n){
+    if(n==0)return 0;
+    int m=closestpowerof2(n);
+    int lower=(1&lt;&lt;m-1)*m; // for an integer which is power of 2, sum of number of set bits in all numbers less then this will be 2^(x-1)*x;
+    int msb=n-(1&lt;&lt;m)+1; //add all msb in sum nd recurse.
+    int rem=bitcount(n-(1&lt;&lt;m));
+    return lower+msb+rem;
+}</t>
+  </si>
+  <si>
+    <t>Check if Binary string is divisible by 3</t>
+  </si>
+  <si>
+    <t>Use binary representation of 3</t>
+  </si>
+  <si>
+    <t>Nth Palindrommic binary substring</t>
+  </si>
+  <si>
+    <t>int main()
+{
+    int n=20;
+    int total=0,len=1,temp=0;
+    int count=1;
+    while(total&lt;n){
+        temp=total;
+        total+=len;
+        if(count%2==0){
+            len=len*2;
+        }count++;
+    }
+    int requiredlen=count-1;
+    int offset=n-temp-1;
+    cout&lt;&lt;requiredlen&lt;&lt;" "&lt;&lt;offset&lt;&lt;" ";
+    int ans=1&lt;&lt;(requiredlen-1);
+    ans|= offset&lt;&lt;(requiredlen/2);
+    //now our Half palindrome is set;
+    int val;
+    if(requiredlen%2==1){
+        val = ans&gt;&gt;((requiredlen+1)/2);
+    }else{
+        val = ans&gt;&gt;(requiredlen/2);
+    }
+    int rev=getreverse(val);
+    cout&lt;&lt; ans|rev;//ans
+    return 0;
+}</t>
+  </si>
+  <si>
+    <t>reverse bits</t>
+  </si>
+  <si>
+    <t>Use flag and bit mask to set in our answer</t>
+  </si>
 </sst>
 </file>
 
@@ -5205,7 +5270,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5267,13 +5332,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6897,7 +6955,7 @@
       <c r="A6" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" t="s">
         <v>254</v>
       </c>
       <c r="C6">
@@ -6930,7 +6988,7 @@
       <c r="A9" t="s">
         <v>273</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" t="s">
         <v>274</v>
       </c>
       <c r="C9">
@@ -9137,10 +9195,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9399,7 +9457,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="3" t="s">
         <v>902</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -9410,7 +9468,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="3" t="s">
         <v>904</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -9421,7 +9479,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="3" t="s">
         <v>908</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -9432,7 +9490,6 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="23"/>
       <c r="B29" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -9638,7 +9695,7 @@
       <c r="A59" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="1" t="s">
         <v>899</v>
       </c>
       <c r="C59" s="10">
@@ -9697,6 +9754,50 @@
       </c>
       <c r="C65" s="10">
         <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="232" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C66" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="C67" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C68" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="C69" s="10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80110BB0-080A-4F96-9E0E-6DF170075BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23362D7E-CDB6-43DC-B416-AB0440E7E768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="927">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -5178,6 +5178,15 @@
   </si>
   <si>
     <t>Use flag and bit mask to set in our answer</t>
+  </si>
+  <si>
+    <t>LIS</t>
+  </si>
+  <si>
+    <t>Loot House</t>
+  </si>
+  <si>
+    <t>Maximum sum subsequence with non-adjacent element</t>
   </si>
 </sst>
 </file>
@@ -9197,8 +9206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9268,11 +9277,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>454</v>
       </c>
       <c r="C7" s="10">
@@ -9437,19 +9446,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>894</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>895</v>
       </c>
       <c r="C25" s="10">
@@ -9460,7 +9469,7 @@
       <c r="A26" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>903</v>
       </c>
       <c r="C26" s="10">
@@ -9471,26 +9480,23 @@
       <c r="A27" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>905</v>
       </c>
       <c r="C27" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>909</v>
       </c>
       <c r="C28" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B29" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
@@ -9672,41 +9678,41 @@
         <v>889</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>875</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="3" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="3" t="s">
         <v>887</v>
       </c>
       <c r="C58" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="174" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="3" t="s">
         <v>899</v>
       </c>
       <c r="C59" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="3" t="s">
         <v>901</v>
       </c>
       <c r="C60" s="10">
@@ -9721,11 +9727,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="3" t="s">
         <v>915</v>
       </c>
       <c r="C62" s="10">
@@ -9756,11 +9762,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="232" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="3" t="s">
         <v>917</v>
       </c>
       <c r="C66" s="10">
@@ -9778,11 +9784,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>920</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="3" t="s">
         <v>921</v>
       </c>
       <c r="C68" s="10">
@@ -9967,15 +9973,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="63.90625" style="3" customWidth="1"/>
     <col min="2" max="2" width="82.1796875" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" style="10"/>
   </cols>
@@ -9990,10 +9996,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>351</v>
+        <v>565</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -10001,7 +10004,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>924</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -10009,66 +10012,42 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>71</v>
+        <v>926</v>
       </c>
       <c r="C4" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>72</v>
+        <v>925</v>
       </c>
       <c r="C5" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C9" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C10" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
@@ -10076,41 +10055,42 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C12" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="B13" s="10"/>
+        <v>74</v>
+      </c>
       <c r="C13" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="B14" s="10"/>
+      <c r="A14" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C14" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>489</v>
+        <v>75</v>
       </c>
       <c r="C15" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>492</v>
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>352</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
@@ -10118,66 +10098,124 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>491</v>
+        <v>77</v>
       </c>
       <c r="C17" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C22" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C18" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="C25" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>897</v>
       </c>
-      <c r="C19" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="13" t="s">
+      <c r="C26" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="13" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
+    <row r="58" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B58" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C58" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+    <row r="59" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B59" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C59" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B60" t="s">
         <v>626</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C60" s="10">
         <v>3</v>
       </c>
     </row>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23362D7E-CDB6-43DC-B416-AB0440E7E768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007CF0E3-C77F-479E-96FE-32D619373BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -22,19 +22,20 @@
     <sheet name="DP" sheetId="4" r:id="rId7"/>
     <sheet name="Binary Tree and BST" sheetId="3" r:id="rId8"/>
     <sheet name="Recusion and BT" sheetId="8" r:id="rId9"/>
-    <sheet name="Sliding Window" sheetId="7" r:id="rId10"/>
-    <sheet name="Number Theory" sheetId="19" r:id="rId11"/>
-    <sheet name="Computational Geometry" sheetId="24" r:id="rId12"/>
-    <sheet name="Trie" sheetId="9" r:id="rId13"/>
-    <sheet name="FlutterWidgets" sheetId="10" r:id="rId14"/>
-    <sheet name="React and Node" sheetId="5" r:id="rId15"/>
-    <sheet name="Misc" sheetId="6" r:id="rId16"/>
-    <sheet name="CP Errors and Constraints" sheetId="16" r:id="rId17"/>
-    <sheet name="System Arch" sheetId="17" r:id="rId18"/>
-    <sheet name="OOPS" sheetId="18" r:id="rId19"/>
-    <sheet name="Erlang Basics" sheetId="20" r:id="rId20"/>
-    <sheet name="BlockChain" sheetId="22" r:id="rId21"/>
-    <sheet name="ML" sheetId="23" r:id="rId22"/>
+    <sheet name="Graphs" sheetId="25" r:id="rId10"/>
+    <sheet name="Sliding Window" sheetId="7" r:id="rId11"/>
+    <sheet name="Number Theory" sheetId="19" r:id="rId12"/>
+    <sheet name="Computational Geometry" sheetId="24" r:id="rId13"/>
+    <sheet name="Trie" sheetId="9" r:id="rId14"/>
+    <sheet name="FlutterWidgets" sheetId="10" r:id="rId15"/>
+    <sheet name="React and Node" sheetId="5" r:id="rId16"/>
+    <sheet name="Misc" sheetId="6" r:id="rId17"/>
+    <sheet name="CP Errors and Constraints" sheetId="16" r:id="rId18"/>
+    <sheet name="System Arch" sheetId="17" r:id="rId19"/>
+    <sheet name="OOPS" sheetId="18" r:id="rId20"/>
+    <sheet name="Erlang Basics" sheetId="20" r:id="rId21"/>
+    <sheet name="BlockChain" sheetId="22" r:id="rId22"/>
+    <sheet name="ML" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="945">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -5187,6 +5188,63 @@
   </si>
   <si>
     <t>Maximum sum subsequence with non-adjacent element</t>
+  </si>
+  <si>
+    <t>Simple Graph Def.</t>
+  </si>
+  <si>
+    <t>Trivial Graph</t>
+  </si>
+  <si>
+    <t>Multi Graph</t>
+  </si>
+  <si>
+    <t>Full/Complete Graph</t>
+  </si>
+  <si>
+    <t>Creation Adjacency Matrix unweighted/weighted Undirected</t>
+  </si>
+  <si>
+    <t>Creation Adjacency Matrix unweighted/weighted Directed</t>
+  </si>
+  <si>
+    <t>Creation of Adjacency List unweighted undirected</t>
+  </si>
+  <si>
+    <t>Creation of Adjacency List unweighted directed</t>
+  </si>
+  <si>
+    <t>Creation of Adjacency Lsit weighted undirected</t>
+  </si>
+  <si>
+    <t>In fuction definition</t>
+  </si>
+  <si>
+    <t>Function( vector&lt;int&gt; graph[] )
+Function(  map&lt;int,vector&lt;int&gt; &gt;  graph)
+or
+class Graph{  int V, vector&lt;int&gt;* li;  }</t>
+  </si>
+  <si>
+    <t>Has Path</t>
+  </si>
+  <si>
+    <t>Find Path in Graph between 2 nodes</t>
+  </si>
+  <si>
+    <t>Find all Paths in Graph between 2 nodes</t>
+  </si>
+  <si>
+    <t>Count number of Islands in matrix</t>
+  </si>
+  <si>
+    <t>IsConnected</t>
+  </si>
+  <si>
+    <t>Get all connected Components</t>
+  </si>
+  <si>
+    <t>Is Cyclic</t>
   </si>
 </sst>
 </file>
@@ -6500,6 +6558,123 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A68FC6C-D8B6-49E3-9532-0BB228ABC33E}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="61.08984375" customWidth="1"/>
+    <col min="2" max="2" width="87.08984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>939</v>
+      </c>
+      <c r="C12" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>938</v>
+      </c>
+      <c r="C13" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>940</v>
+      </c>
+      <c r="C14" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>944</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -6639,7 +6814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -6798,7 +6973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953DD369-6282-4F4A-98A5-5E73460558CD}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -6891,7 +7066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -7047,7 +7222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -7082,7 +7257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B48"/>
   <sheetViews>
@@ -7475,7 +7650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -7629,7 +7804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -7680,7 +7855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -7745,218 +7920,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:B35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="45.7265625" customWidth="1"/>
-    <col min="2" max="2" width="82.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>416</v>
-      </c>
-      <c r="B21" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>415</v>
-      </c>
-      <c r="B24" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>420</v>
-      </c>
-      <c r="B28" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>424</v>
-      </c>
-      <c r="B31" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>427</v>
-      </c>
-      <c r="B34" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>431</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8444,6 +8407,218 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="45.7265625" customWidth="1"/>
+    <col min="2" max="2" width="82.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>416</v>
+      </c>
+      <c r="B21" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>415</v>
+      </c>
+      <c r="B24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>420</v>
+      </c>
+      <c r="B28" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>424</v>
+      </c>
+      <c r="B31" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>427</v>
+      </c>
+      <c r="B34" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>431</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795963BA-6859-4123-9D30-33303FC34949}">
   <dimension ref="A1:B51"/>
   <sheetViews>
@@ -8754,7 +8929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83DB964-4164-49D0-ADB4-4FC69C0AAC83}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -8798,7 +8973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BCC8FF-F300-411D-9A51-322985FEB518}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -9975,8 +10150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007CF0E3-C77F-479E-96FE-32D619373BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA2CC8E-6ACC-4221-8FE3-75366FE156A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="970">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -5245,6 +5245,81 @@
   </si>
   <si>
     <t>Is Cyclic</t>
+  </si>
+  <si>
+    <t>01 bounded Knapsack</t>
+  </si>
+  <si>
+    <t>Subset Sum</t>
+  </si>
+  <si>
+    <t>Equal Sum</t>
+  </si>
+  <si>
+    <t>Count of Subset Sum</t>
+  </si>
+  <si>
+    <t>Target Sum</t>
+  </si>
+  <si>
+    <t>01 Unbounded Knapsack</t>
+  </si>
+  <si>
+    <t>Rod Cutting</t>
+  </si>
+  <si>
+    <t>Coin Change minimum number of coins</t>
+  </si>
+  <si>
+    <t>Coin Change maximum number of coins</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>Longest common Substring</t>
+  </si>
+  <si>
+    <t>Print LCS</t>
+  </si>
+  <si>
+    <t>Shortest Common Supersequence</t>
+  </si>
+  <si>
+    <t>Minimum number of insertion and deletion to convert a string to b string</t>
+  </si>
+  <si>
+    <t>Print SCS</t>
+  </si>
+  <si>
+    <t>Longest Repeating subsequence</t>
+  </si>
+  <si>
+    <t>Minimum insertions to make it palindrome</t>
+  </si>
+  <si>
+    <t>Sequence Pattern matching</t>
+  </si>
+  <si>
+    <t>Matrix chain multiplication</t>
+  </si>
+  <si>
+    <t>Palindrome partitioning</t>
+  </si>
+  <si>
+    <t>Evaluate boolean expresssion to true</t>
+  </si>
+  <si>
+    <t>Egg droping</t>
+  </si>
+  <si>
+    <t>Scrambled String</t>
+  </si>
+  <si>
+    <t>Regular expression matching</t>
+  </si>
+  <si>
+    <t>Wildcard matching</t>
   </si>
 </sst>
 </file>
@@ -6561,7 +6636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A68FC6C-D8B6-49E3-9532-0BB228ABC33E}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -10150,8 +10225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10354,6 +10429,131 @@
       </c>
       <c r="C26" s="10">
         <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA2CC8E-6ACC-4221-8FE3-75366FE156A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1309451E-4930-4741-BA98-A1B4F36B6378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="970">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="975">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -5320,6 +5320,21 @@
   </si>
   <si>
     <t>Wildcard matching</t>
+  </si>
+  <si>
+    <t>Perfect friends</t>
+  </si>
+  <si>
+    <t>Hamiltonion path</t>
+  </si>
+  <si>
+    <t>Hamiltonian Cycle</t>
+  </si>
+  <si>
+    <t>Path that covers all vertex without using a single edge twice</t>
+  </si>
+  <si>
+    <t>Cyclic hamiltonian path</t>
   </si>
 </sst>
 </file>
@@ -6634,10 +6649,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A68FC6C-D8B6-49E3-9532-0BB228ABC33E}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6734,14 +6749,41 @@
         <v>942</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>944</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>971</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="C20" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>972</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="C21" s="21">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -10225,7 +10267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1309451E-4930-4741-BA98-A1B4F36B6378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CE0817-F61F-4515-90B9-DAEA40F3A6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="1003">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -1737,9 +1737,6 @@
   </si>
   <si>
     <t>Allowed at a time: 1/2 or 2/3 jumps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d[i][2]=number of binary strings of length "i" without consecutive ones/zeros ending with 0 or 1 (j=0,1) </t>
   </si>
   <si>
     <t>Time Limit</t>
@@ -5184,9 +5181,6 @@
     <t>LIS</t>
   </si>
   <si>
-    <t>Loot House</t>
-  </si>
-  <si>
     <t>Maximum sum subsequence with non-adjacent element</t>
   </si>
   <si>
@@ -5335,6 +5329,163 @@
   </si>
   <si>
     <t>Cyclic hamiltonian path</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>Spread Infection/Fill Colour</t>
+  </si>
+  <si>
+    <t>Bipartite Graph</t>
+  </si>
+  <si>
+    <t>f(n)=f(n-1)+f(n-2)</t>
+  </si>
+  <si>
+    <t>Number of ways to climb stairs if 1,2,3 steps are allowed</t>
+  </si>
+  <si>
+    <t>temp=inc;
+inc=arr[i]+exc;
+exc=max(temp,exc);</t>
+  </si>
+  <si>
+    <t>Loot House/House Robber 1</t>
+  </si>
+  <si>
+    <t>Count Derangements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given n find number of arrangements of elements from 0 to n-1 in an array such that arr[i]!=i. 
+(i.e, Derangement) 
+Logic: pick one number, where can it be placed such that this number is not equal to the index, "n-1". Now the number this chosen number replaces is either swapped with the chosen where problem reduces to f(n-2) or is not swapped to the chosen number and has choice anywhere which reduces to f(n-1). Hence f(n) = n-1*(f(n-2)+f(n-1))
+</t>
+  </si>
+  <si>
+    <t>Painting Fence</t>
+  </si>
+  <si>
+    <t>Given n and k we need to find number of ways in which n fences can be painted such that at max only 2 adjacent fence can have same color out of given k color.
+Intuition: 1 fence can be painted in k ways.
+2 fences can be painted in  k-1.f(1)+k ways, (different+same last 2)
+3 fences can be painted in f(2)*k-1 + f(1)*k-1, (different + same last 2)
+f(2) number of ways to paint 2 fences * k-1 choices for different color then tail color.
+f(1) number of way to color 1 fence * k-1 options to attach same color tail for last 2.
+n fences can be painted in f(n-1)*(k-1) + f(n-2)*k-1</t>
+  </si>
+  <si>
+    <t>Perfect Square Number of ways</t>
+  </si>
+  <si>
+    <t>Perfect Square minimum numbers</t>
+  </si>
+  <si>
+    <t>Given a number n find minimum number of perfect squares summing upto n.
+f(n){
+    if(n==0)return 0;
+    if(dp[n]!=-1) return dp[n];
+    ans=n;
+    for(i=1;i*i&lt;=n;i++){
+        ans=min(ans, f(n-(i*i)));
+    }return dp[n]=ans;
+}</t>
+  </si>
+  <si>
+    <t>Given a number n find number of ways perfect squares sum upto n.
+dp[0]=0;
+dp[1]=1;
+d[2]=2;
+for(i=3;i&lt;=n;i++){
+    for(j=1;j*j&lt;=i;j++){
+        dp[i]+=dp[i-(j*j)]
+    }
+}</t>
+  </si>
+  <si>
+    <t>Minimum cost in maze</t>
+  </si>
+  <si>
+    <t>Same as minimum cost in maze, except that we traverse from left to right</t>
+  </si>
+  <si>
+    <t>Goldmine digging, maximum gold</t>
+  </si>
+  <si>
+    <t>Discussed in array</t>
+  </si>
+  <si>
+    <t>Arrange buildings/Develop a colony</t>
+  </si>
+  <si>
+    <t>Given n describing n empty plots on one side of road, you need to find number of ways to develop a colony on both sides of road such that no 2 buildings are consecutive but 2 or more spaces can be consecutive.
+Same as numbr of binary string without cosecutive 1/0.</t>
+  </si>
+  <si>
+    <t>Lets talk about no 2 consecutive ones.
+Size =1, no. of string ending with 1 = 1, number of strings ending with 0=1
+Size =2, number of strings ending with 1 = 1, number of strings ending with 0 = 2
+Size =3, number of strings ending with 1 = number of strings ending size 2 ending with zero, 
+                                                                            number of string size 2 ending with 1 and ending with 0.
+Size =n,  number of string ending wiith 1 = number of strings of size n-1 ending with 0,
+                number of strings ending with 0=number of strings of size n-1 ending with 0+number of strings of size n-1 ending with 1.
+e0,e1=1;
+for(i=2,i&lt;=n;i++){
+    temp=e1;
+    e1=e0;
+    e0=e0+temp;
+}return e1+e0;</t>
+  </si>
+  <si>
+    <t>Paint house</t>
+  </si>
+  <si>
+    <t>Given n following n lines of 3 integers denoting cost to paint a house in red, blue and green, for n houses find minimum cost to paint all houses such that no 2 house have same color.
+Answer: Maximum sum of non adjacent elements problem variation.
+Form a 3*n grid, dp[i][j] minimum cost to color till jth house while jth house having ith color.
+IDEA: dp[red][j]=arr[red][j] + min( dp[blue][j-1], dp[green][j-1] )</t>
+  </si>
+  <si>
+    <t>Decode ways</t>
+  </si>
+  <si>
+    <t>dp[0]=1 if arr[0]!=0
+if( 0 0 ){
+    dp[i]=0;
+}else if( 0 _ ){
+    dp[i]=dp[i-1];
+}else if( _ 0){
+    if( 1 0 and 2 0 ){ dp[i]=(i&gt;1 ? dp[i-2] : 1); }
+    else{  dp[i]=0;  }
+}else{
+    if( &lt; 27) dp[i]=dp[i-1]+(i&gt;1 ? dp[i-2] : 1);
+    else{  dp[i]=dp[i-1];  }
+}</t>
+  </si>
+  <si>
+    <t>TCP vs UDP</t>
+  </si>
+  <si>
+    <t>const net=require('net')
+const server=net.createServer(socket=&gt;{
+    socket.write("Connection made")//sends to client when client connection is successful
+    socket.on("data", data=&gt;{clg(data.toString();)})
+})
+server.listen(8080)
+//used telnet &lt;ip&gt; &lt;port&gt; to contact this server
+const dgram=require('dgram')
+const socket=dgram.createSocket('udp4')
+socket.on('message',(message,rinfo)=&gt;{clg('recieved from client ${rinfo.address} ${rinfo.port}message=  ${message}');});
+socket.bind(8081);
+//used echo "&lt;msg&gt;" | nc -w1 -u &lt;ip&gt; &lt;port&gt;</t>
+  </si>
+  <si>
+    <t>TCP is a transport layer protocol which allows us to send a message from one end to another by attaching Port and IP to the segment. TCP ensures gauranteed delivery with acknowledgement. It is a connection based protocol, which means server and client needs to establish a unique connection for a message exchange. It supports congestion control (If there is huge traffic the protocol stops recieveing requests untill the condition calms.) Also it ensures packet ordering. But there are some cons here. The packet size is huge even if your message size is 1 B. This results in requirement of more bandwidth. This is slower UDP. The protocol is Stateful. Because of which server memory requirement is comparitively bigger (DOS attack risk)
+UPD User Datagram protocol, is also a transport layer protocol which serves the same purpose as TCP but there are few feature changes. There is no acknowledgements upon recieveing. Hence no gaurantee on delivery. It is connecctionless in nature and there is no congestion control and packet ordering is not done here. This is why security here is a concern. Because of that packets are small and bandwidth requirement is less and fast exchnage. Plus this protocol ensures stateless architecture for server. UDP protocol really promotes scalability.
+https://www.youtube.com/watch?v=qqRYkcta6IE</t>
+  </si>
+  <si>
+    <t>OSI model Open system interconnection model</t>
   </si>
 </sst>
 </file>
@@ -5427,7 +5578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5489,6 +5640,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5649,6 +5803,143 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28112</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4838700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276EA63F-43B5-1BE4-10C6-144CB87B29E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857162" y="13087350"/>
+          <a:ext cx="4810588" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4857750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4692650</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5A2EED6-0927-B492-40C5-86519953F7AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8686800" y="13081000"/>
+          <a:ext cx="5575300" cy="3949700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4836379</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97344BFC-82B2-1B98-D8A0-B1C4B0F04FEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848100" y="15106650"/>
+          <a:ext cx="4817329" cy="1955800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1352550</xdr:colOff>
       <xdr:row>30</xdr:row>
@@ -5694,7 +5985,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6591,10 +6882,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>458</v>
       </c>
       <c r="C58" s="3">
         <v>3</v>
@@ -6602,10 +6893,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>460</v>
       </c>
       <c r="C59" s="3">
         <v>3</v>
@@ -6613,7 +6904,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C60" s="3">
         <v>2</v>
@@ -6621,10 +6912,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>463</v>
       </c>
       <c r="C61" s="3">
         <v>2</v>
@@ -6632,10 +6923,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>465</v>
       </c>
       <c r="C62" s="3">
         <v>3</v>
@@ -6649,10 +6940,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A68FC6C-D8B6-49E3-9532-0BB228ABC33E}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6664,126 +6955,148 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>939</v>
-      </c>
-      <c r="C12" s="21">
-        <v>1</v>
-      </c>
+      <c r="A12" s="6" t="s">
+        <v>973</v>
+      </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>938</v>
-      </c>
-      <c r="C13" s="21">
-        <v>1</v>
-      </c>
+      <c r="A13" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C14" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>941</v>
+        <v>936</v>
+      </c>
+      <c r="C15" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>942</v>
+        <v>938</v>
+      </c>
+      <c r="C16" s="21">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>970</v>
+        <v>941</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>971</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="C20" s="21">
-        <v>3</v>
+        <v>942</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>969</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C22" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>970</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>972</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C23" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>974</v>
       </c>
-      <c r="C21" s="21">
-        <v>3</v>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>975</v>
       </c>
     </row>
   </sheetData>
@@ -6948,10 +7261,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1" t="s">
         <v>478</v>
-      </c>
-      <c r="B1" t="s">
-        <v>479</v>
       </c>
       <c r="C1" s="3">
         <v>2</v>
@@ -6959,10 +7272,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2" t="s">
         <v>480</v>
-      </c>
-      <c r="B2" t="s">
-        <v>481</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -6970,23 +7283,23 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3" t="s">
         <v>482</v>
-      </c>
-      <c r="B3" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B4" t="s">
         <v>592</v>
-      </c>
-      <c r="B4" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -6994,7 +7307,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -7002,10 +7315,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B8" t="s">
         <v>606</v>
-      </c>
-      <c r="B8" t="s">
-        <v>607</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -7013,34 +7326,34 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B9" t="s">
         <v>608</v>
-      </c>
-      <c r="B9" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B10" t="s">
         <v>610</v>
-      </c>
-      <c r="B10" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B12" t="s">
         <v>613</v>
-      </c>
-      <c r="B12" t="s">
-        <v>614</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -7048,10 +7361,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B13" t="s">
         <v>615</v>
-      </c>
-      <c r="B13" t="s">
-        <v>616</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -7059,26 +7372,26 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="B14" t="s">
         <v>618</v>
-      </c>
-      <c r="B14" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B16" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="B17" t="s">
         <v>628</v>
-      </c>
-      <c r="B17" t="s">
-        <v>629</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -7107,67 +7420,67 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C13" s="21">
         <v>3</v>
@@ -7175,7 +7488,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
   </sheetData>
@@ -7298,7 +7611,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -7306,10 +7619,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>848</v>
+      </c>
+      <c r="B11" t="s">
         <v>849</v>
-      </c>
-      <c r="B11" t="s">
-        <v>850</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -7317,7 +7630,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -7325,10 +7638,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>851</v>
+      </c>
+      <c r="B13" t="s">
         <v>852</v>
-      </c>
-      <c r="B13" t="s">
-        <v>853</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -7608,156 +7921,156 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="319" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>538</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="406" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="319" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -7769,16 +8082,17 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="54.81640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="82.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="78.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="87" x14ac:dyDescent="0.35">
@@ -7827,84 +8141,100 @@
     </row>
     <row r="8" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>473</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>763</v>
       </c>
-      <c r="B16" s="11" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="B17" s="11" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="11" t="s">
         <v>767</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>768</v>
+    </row>
+    <row r="20" spans="1:3" ht="232" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -7918,6 +8248,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -7937,34 +8268,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -7988,50 +8319,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -8098,7 +8429,7 @@
         <v>271</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -8153,7 +8484,7 @@
         <v>294</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
@@ -8207,10 +8538,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -8337,10 +8668,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="C30" s="3">
         <v>3</v>
@@ -8348,10 +8679,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C31" s="3">
         <v>2</v>
@@ -8359,12 +8690,12 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
@@ -8372,10 +8703,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>583</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>584</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
@@ -8383,10 +8714,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>587</v>
       </c>
       <c r="C35" s="3">
         <v>2</v>
@@ -8509,10 +8840,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="C56" s="3">
         <v>2</v>
@@ -8539,195 +8870,195 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>419</v>
+      </c>
+      <c r="B28" t="s">
         <v>420</v>
-      </c>
-      <c r="B28" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>426</v>
+      </c>
+      <c r="B34" t="s">
         <v>427</v>
-      </c>
-      <c r="B34" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -8751,292 +9082,292 @@
   <sheetData>
     <row r="1" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>714</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>715</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B5" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B6" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>723</v>
+      </c>
+      <c r="B7" t="s">
         <v>724</v>
-      </c>
-      <c r="B7" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B15" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B16" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B17" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B20" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B21" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>742</v>
+      </c>
+      <c r="B22" t="s">
         <v>743</v>
-      </c>
-      <c r="B22" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
+        <v>750</v>
+      </c>
+      <c r="B25" t="s">
         <v>751</v>
-      </c>
-      <c r="B25" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B29" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B30" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>773</v>
+      </c>
+      <c r="B41" t="s">
         <v>774</v>
-      </c>
-      <c r="B41" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>775</v>
+      </c>
+      <c r="B42" t="s">
         <v>776</v>
-      </c>
-      <c r="B42" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>777</v>
+      </c>
+      <c r="B43" t="s">
         <v>778</v>
-      </c>
-      <c r="B43" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>779</v>
+      </c>
+      <c r="B44" t="s">
         <v>780</v>
-      </c>
-      <c r="B44" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>781</v>
+      </c>
+      <c r="B45" t="s">
         <v>782</v>
-      </c>
-      <c r="B45" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>784</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>785</v>
+      </c>
+      <c r="B47" t="s">
         <v>786</v>
-      </c>
-      <c r="B47" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>788</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>790</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>792</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>796</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>797</v>
       </c>
     </row>
   </sheetData>
@@ -9062,26 +9393,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>803</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>805</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>807</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -9106,50 +9437,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="B1" t="s">
         <v>818</v>
-      </c>
-      <c r="B1" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="B3" t="s">
         <v>825</v>
-      </c>
-      <c r="B3" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>830</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -9173,10 +9504,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="B1" t="s">
         <v>798</v>
-      </c>
-      <c r="B1" t="s">
-        <v>799</v>
       </c>
       <c r="C1" s="3">
         <v>3</v>
@@ -9184,10 +9515,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="B2" t="s">
         <v>800</v>
-      </c>
-      <c r="B2" t="s">
-        <v>801</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -9195,7 +9526,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -9237,7 +9568,7 @@
         <v>344</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C2" s="10">
         <v>2</v>
@@ -9245,7 +9576,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -9253,7 +9584,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
@@ -9261,7 +9592,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -9269,7 +9600,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -9277,7 +9608,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
@@ -9285,7 +9616,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C8" s="10">
         <v>2</v>
@@ -9293,7 +9624,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C9" s="10">
         <v>2</v>
@@ -9301,7 +9632,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C10" s="10">
         <v>2</v>
@@ -9309,7 +9640,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C11" s="10">
         <v>2</v>
@@ -9317,10 +9648,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C12" s="10">
         <v>2</v>
@@ -9328,10 +9659,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C13" s="10">
         <v>3</v>
@@ -9339,7 +9670,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -9347,10 +9678,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C15" s="10">
         <v>2</v>
@@ -9358,7 +9689,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C16" s="10">
         <v>3</v>
@@ -9366,7 +9697,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C17" s="10">
         <v>2</v>
@@ -9374,7 +9705,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -9382,7 +9713,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C19" s="10">
         <v>2</v>
@@ -9390,7 +9721,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
@@ -9398,10 +9729,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C21" s="10">
         <v>3</v>
@@ -9409,10 +9740,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C22" s="10">
         <v>3</v>
@@ -9420,7 +9751,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C23" s="10">
         <v>2</v>
@@ -9428,7 +9759,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C24" s="10">
         <v>2</v>
@@ -9436,7 +9767,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
@@ -9444,7 +9775,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C26" s="10">
         <v>3</v>
@@ -9452,7 +9783,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C27" s="10">
         <v>3</v>
@@ -9460,7 +9791,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C28" s="10">
         <v>1</v>
@@ -9468,7 +9799,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C29" s="10">
         <v>3</v>
@@ -9476,17 +9807,17 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>
@@ -9511,10 +9842,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="C1" s="10">
         <v>1</v>
@@ -9522,10 +9853,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>437</v>
       </c>
       <c r="C2" s="10">
         <v>2</v>
@@ -9533,7 +9864,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -9541,10 +9872,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
@@ -9552,7 +9883,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -9560,10 +9891,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>443</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -9571,10 +9902,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C7" s="10">
         <v>2</v>
@@ -9582,10 +9913,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C8" s="10">
         <v>3</v>
@@ -9593,7 +9924,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
@@ -9601,10 +9932,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>447</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>448</v>
       </c>
       <c r="C10" s="10">
         <v>1</v>
@@ -9612,10 +9943,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="C11" s="10">
         <v>3</v>
@@ -9623,10 +9954,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>451</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>452</v>
       </c>
       <c r="C12" s="10">
         <v>3</v>
@@ -9634,10 +9965,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C13" s="10">
         <v>3</v>
@@ -9645,10 +9976,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -9656,7 +9987,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C15" s="10">
         <v>1</v>
@@ -9664,7 +9995,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C16" s="10">
         <v>1</v>
@@ -9672,7 +10003,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C17" s="10">
         <v>1</v>
@@ -9680,7 +10011,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C18" s="10">
         <v>1</v>
@@ -9688,7 +10019,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C19" s="10">
         <v>1</v>
@@ -9696,10 +10027,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C20" s="10">
         <v>3</v>
@@ -9707,10 +10038,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>601</v>
       </c>
       <c r="C21" s="10">
         <v>1</v>
@@ -9718,10 +10049,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>878</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>879</v>
       </c>
       <c r="C22" s="10">
         <v>2</v>
@@ -9729,10 +10060,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>890</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>891</v>
       </c>
       <c r="C23" s="10">
         <v>3</v>
@@ -9740,18 +10071,18 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>892</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>894</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>895</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
@@ -9759,10 +10090,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>902</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>903</v>
       </c>
       <c r="C26" s="10">
         <v>1</v>
@@ -9770,10 +10101,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>904</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>905</v>
       </c>
       <c r="C27" s="10">
         <v>2</v>
@@ -9781,10 +10112,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>908</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>909</v>
       </c>
       <c r="C28" s="10">
         <v>2</v>
@@ -9792,12 +10123,12 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C32" s="10">
         <v>2</v>
@@ -9805,7 +10136,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C33" s="10">
         <v>2</v>
@@ -9813,7 +10144,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C34" s="10">
         <v>3</v>
@@ -9821,7 +10152,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C35" s="10">
         <v>3</v>
@@ -9829,7 +10160,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C36" s="10">
         <v>3</v>
@@ -9837,10 +10168,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>882</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>883</v>
       </c>
       <c r="C37" s="10">
         <v>3</v>
@@ -9848,10 +10179,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>884</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>885</v>
       </c>
       <c r="C38" s="10">
         <v>3</v>
@@ -9859,10 +10190,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>906</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>907</v>
       </c>
       <c r="C39" s="10">
         <v>3</v>
@@ -9870,15 +10201,15 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="13" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>855</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>856</v>
       </c>
       <c r="C43" s="10">
         <v>1</v>
@@ -9886,104 +10217,104 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>859</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>862</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>864</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>866</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>868</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>875</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C58" s="10">
         <v>3</v>
@@ -9991,10 +10322,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>898</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>899</v>
       </c>
       <c r="C59" s="10">
         <v>3</v>
@@ -10002,10 +10333,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>900</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>901</v>
       </c>
       <c r="C60" s="10">
         <v>1</v>
@@ -10013,7 +10344,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C61" s="10">
         <v>1</v>
@@ -10021,10 +10352,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C62" s="10">
         <v>2</v>
@@ -10032,7 +10363,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C63" s="10">
         <v>1</v>
@@ -10040,7 +10371,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C64" s="10">
         <v>1</v>
@@ -10048,7 +10379,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C65" s="10">
         <v>1</v>
@@ -10056,10 +10387,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>916</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>917</v>
       </c>
       <c r="C66" s="10">
         <v>3</v>
@@ -10067,10 +10398,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>918</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>919</v>
       </c>
       <c r="C67" s="10">
         <v>1</v>
@@ -10078,10 +10409,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>920</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>921</v>
       </c>
       <c r="C68" s="10">
         <v>3</v>
@@ -10089,10 +10420,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>922</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>923</v>
       </c>
       <c r="C69" s="10">
         <v>2</v>
@@ -10265,10 +10596,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10282,13 +10613,19 @@
       <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="B1" t="s">
+        <v>976</v>
+      </c>
       <c r="C1" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
+      </c>
+      <c r="B2" t="s">
+        <v>977</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -10296,7 +10633,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -10304,7 +10641,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>926</v>
+        <v>924</v>
+      </c>
+      <c r="B4" t="s">
+        <v>978</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -10312,66 +10652,100 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>925</v>
+        <v>995</v>
+      </c>
+      <c r="B5" t="s">
+        <v>996</v>
       </c>
       <c r="C5" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="B7" t="s">
+        <v>981</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="B8" t="s">
+        <v>983</v>
+      </c>
+      <c r="C8" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s">
-        <v>351</v>
+        <v>984</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>987</v>
       </c>
       <c r="C9" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>985</v>
+      </c>
+      <c r="B10" t="s">
+        <v>986</v>
       </c>
       <c r="C10" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>71</v>
+        <v>997</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>998</v>
       </c>
       <c r="C11" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>351</v>
       </c>
       <c r="C13" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C14" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C15" s="10">
         <v>1</v>
@@ -10379,60 +10753,64 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" t="s">
-        <v>352</v>
+        <v>72</v>
       </c>
       <c r="C16" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C17" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" t="s">
+        <v>991</v>
+      </c>
+      <c r="C18" s="10">
         <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="10">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C19" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="B20" s="10"/>
+        <v>76</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>994</v>
+      </c>
       <c r="C20" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="B21" s="10"/>
+        <v>77</v>
+      </c>
       <c r="C21" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>489</v>
+      <c r="A22" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="B22" t="s">
+        <v>993</v>
       </c>
       <c r="C22" s="10">
         <v>2</v>
@@ -10440,199 +10818,260 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>492</v>
+        <v>78</v>
       </c>
       <c r="C23" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>491</v>
+        <v>79</v>
       </c>
       <c r="C24" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>490</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="B25" s="10"/>
       <c r="C25" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>897</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="B26" s="10"/>
       <c r="C26" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C27" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>945</v>
+        <v>491</v>
+      </c>
+      <c r="C28" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>946</v>
+        <v>490</v>
+      </c>
+      <c r="C29" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>947</v>
+        <v>489</v>
+      </c>
+      <c r="C30" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>949</v>
+        <v>895</v>
+      </c>
+      <c r="B31" t="s">
+        <v>896</v>
+      </c>
+      <c r="C31" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>967</v>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="13" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C61" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="B62" t="s">
+        <v>989</v>
+      </c>
+      <c r="C62" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="13" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+      <c r="B69" t="s">
         <v>621</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="C69" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C58" s="10">
+      <c r="B70" t="s">
+        <v>623</v>
+      </c>
+      <c r="C70" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="B59" s="5" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C59" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
+      <c r="B71" t="s">
         <v>625</v>
       </c>
-      <c r="B60" t="s">
-        <v>626</v>
-      </c>
-      <c r="C60" s="10">
+      <c r="C71" s="10">
         <v>3</v>
       </c>
     </row>
@@ -10748,7 +11187,7 @@
         <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C11" s="10">
         <v>2</v>
@@ -10770,7 +11209,7 @@
         <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
@@ -10972,7 +11411,7 @@
         <v>330</v>
       </c>
       <c r="B36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C36" s="10">
         <v>2</v>
@@ -10983,7 +11422,7 @@
         <v>331</v>
       </c>
       <c r="B37" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C37" s="10">
         <v>2</v>
@@ -11013,7 +11452,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C40" s="10">
         <v>3</v>
@@ -11032,10 +11471,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B42" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C42" s="10">
         <v>3</v>
@@ -11043,10 +11482,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="C43" s="10">
         <v>3</v>
@@ -11054,10 +11493,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B44" t="s">
         <v>388</v>
-      </c>
-      <c r="B44" t="s">
-        <v>389</v>
       </c>
       <c r="C44" s="10">
         <v>3</v>
@@ -11065,10 +11504,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>475</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>476</v>
       </c>
       <c r="C45" s="10">
         <v>3</v>
@@ -11076,10 +11515,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B46" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C46" s="10">
         <v>3</v>
@@ -11087,10 +11526,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B47" t="s">
         <v>485</v>
-      </c>
-      <c r="B47" t="s">
-        <v>486</v>
       </c>
       <c r="C47" s="10">
         <v>3</v>
@@ -11098,10 +11537,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B48" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C48" s="10">
         <v>2</v>
@@ -11109,10 +11548,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B49" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C49" s="10">
         <v>2</v>
@@ -11120,10 +11559,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B50" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C50" s="10">
         <v>2</v>
@@ -11131,10 +11570,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B51" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C51" s="10">
         <v>3</v>
@@ -11142,10 +11581,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B52" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C52" s="10">
         <v>3</v>
@@ -11153,10 +11592,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B53" t="s">
         <v>541</v>
-      </c>
-      <c r="B53" t="s">
-        <v>542</v>
       </c>
       <c r="C53" s="10">
         <v>3</v>
@@ -11164,10 +11603,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B54" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C54" s="10">
         <v>2</v>
@@ -11175,10 +11614,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B55" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C55" s="10">
         <v>2</v>
@@ -11186,10 +11625,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B56" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C56" s="10">
         <v>2</v>
@@ -11197,10 +11636,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B57" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C57" s="10">
         <v>2</v>
@@ -11208,20 +11647,20 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B60" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C60" s="10">
         <v>2</v>
@@ -11229,25 +11668,25 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B64" t="s">
         <v>559</v>
-      </c>
-      <c r="B64" t="s">
-        <v>560</v>
       </c>
       <c r="C64" s="10">
         <v>2</v>
@@ -11255,10 +11694,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B65" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C65" s="10">
         <v>2</v>
@@ -11266,15 +11705,15 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B67" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C67" s="10">
         <v>2</v>
@@ -11282,10 +11721,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="B68" t="s">
         <v>649</v>
-      </c>
-      <c r="B68" t="s">
-        <v>650</v>
       </c>
       <c r="C68" s="10">
         <v>3</v>
@@ -11293,10 +11732,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B69" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C69" s="10">
         <v>2</v>
@@ -11304,10 +11743,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B70" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C70" s="10">
         <v>3</v>
@@ -11315,7 +11754,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C71" s="10">
         <v>2</v>
@@ -11323,10 +11762,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="B72" t="s">
         <v>639</v>
-      </c>
-      <c r="B72" t="s">
-        <v>640</v>
       </c>
       <c r="C72" s="10">
         <v>3</v>
@@ -11334,10 +11773,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="B73" t="s">
         <v>641</v>
-      </c>
-      <c r="B73" t="s">
-        <v>642</v>
       </c>
       <c r="C73" s="10">
         <v>3</v>
@@ -11345,7 +11784,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C74" s="10">
         <v>2</v>
@@ -11353,10 +11792,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B75" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C75" s="10">
         <v>3</v>
@@ -11364,10 +11803,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B76" t="s">
         <v>645</v>
-      </c>
-      <c r="B76" t="s">
-        <v>646</v>
       </c>
       <c r="C76" s="10">
         <v>2</v>
@@ -11375,10 +11814,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B77" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C77" s="10">
         <v>3</v>
@@ -11389,7 +11828,7 @@
         <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C78" s="10">
         <v>2</v>
@@ -11397,10 +11836,10 @@
     </row>
     <row r="79" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C79" s="10">
         <v>2</v>
@@ -11408,10 +11847,10 @@
     </row>
     <row r="80" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C80" s="10">
         <v>3</v>
@@ -11419,7 +11858,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C81" s="10">
         <v>3</v>
@@ -11427,10 +11866,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B82" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C82" s="10">
         <v>2</v>
@@ -11438,7 +11877,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C83" s="10">
         <v>2</v>
@@ -11446,7 +11885,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C84" s="10">
         <v>2</v>
@@ -11454,7 +11893,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C85" s="10">
         <v>2</v>
@@ -11462,10 +11901,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B86" t="s">
         <v>697</v>
-      </c>
-      <c r="B86" t="s">
-        <v>698</v>
       </c>
       <c r="C86" s="10">
         <v>3</v>
@@ -11473,15 +11912,15 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>673</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>674</v>
       </c>
       <c r="C89" s="10">
         <v>3</v>
@@ -11489,10 +11928,10 @@
     </row>
     <row r="90" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>675</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>676</v>
       </c>
       <c r="C90" s="10">
         <v>3</v>
@@ -11500,10 +11939,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="B91" t="s">
         <v>677</v>
-      </c>
-      <c r="B91" t="s">
-        <v>678</v>
       </c>
       <c r="C91" s="10">
         <v>3</v>
@@ -11532,7 +11971,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C1" s="3">
         <v>2</v>
@@ -11540,10 +11979,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
@@ -11551,10 +11990,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B3" t="s">
         <v>563</v>
-      </c>
-      <c r="B3" t="s">
-        <v>564</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -11562,10 +12001,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B4" t="s">
         <v>565</v>
-      </c>
-      <c r="B4" t="s">
-        <v>566</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -11573,7 +12012,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -11581,7 +12020,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -11589,7 +12028,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
@@ -11597,10 +12036,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B8" t="s">
         <v>570</v>
-      </c>
-      <c r="B8" t="s">
-        <v>571</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
@@ -11608,7 +12047,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -11616,10 +12055,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B10" t="s">
         <v>573</v>
-      </c>
-      <c r="B10" t="s">
-        <v>574</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -11627,10 +12066,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B11" t="s">
         <v>575</v>
-      </c>
-      <c r="B11" t="s">
-        <v>576</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
@@ -11638,7 +12077,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -11646,7 +12085,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -11654,10 +12093,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B14" t="s">
         <v>579</v>
-      </c>
-      <c r="B14" t="s">
-        <v>580</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -11665,7 +12104,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
@@ -11673,10 +12112,10 @@
     </row>
     <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -11684,107 +12123,107 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9CE0817-F61F-4515-90B9-DAEA40F3A6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AB9531-B5B6-4317-A5A6-CB3766C0F522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="1015">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -5486,6 +5486,50 @@
   </si>
   <si>
     <t>OSI model Open system interconnection model</t>
+  </si>
+  <si>
+    <t>Given n friends find number of ways tey can pair or stay single.
+Hint
+f(n)=f(n-1)+(n-1)*f(n-2)</t>
+  </si>
+  <si>
+    <t>Find Number of ways to partition n people in k groups where each group must have atleast one member</t>
+  </si>
+  <si>
+    <t>HINT: remove one from n and ans for n-1 and multiply it with k + find ans for n-1 people for k-1 groups.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy and Sell Stock 1 </t>
+  </si>
+  <si>
+    <t>Only one buy then sell transaction allowed</t>
+  </si>
+  <si>
+    <t>Buy and Sell Stock 2</t>
+  </si>
+  <si>
+    <t>Infinite transaction allowed and you can one share at a time (no consecutive buy or sell)</t>
+  </si>
+  <si>
+    <t>Buy and Sell Stock 3</t>
+  </si>
+  <si>
+    <t>Infinite transaction allowed and you can one share at a time (no consecutive buy or sell). Here each buy then sell transaction has a transaction fee of k.
+Hint: Try DP.
+At ith day you can either do no buy or buy after the sell. Or you can do no sell or sell after the buy.
+2D DP-&gt; size=n*2
+n=share price of a stock for n days.
+dp[i][0]=max(buy after the sell, do nothing)
+dp[i][1]=max(sell after the buy - k, do nothing)</t>
+  </si>
+  <si>
+    <t>Buy and Sell Stock 4</t>
+  </si>
+  <si>
+    <t>Buy and Sell Stock 6</t>
+  </si>
+  <si>
+    <t>Buy and Sell Stock 5</t>
   </si>
 </sst>
 </file>
@@ -8084,7 +8128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
@@ -10596,10 +10640,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10724,6 +10768,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>70</v>
@@ -10778,9 +10833,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>75</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1003</v>
       </c>
       <c r="C19" s="10">
         <v>1</v>
@@ -10893,185 +10951,233 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C34" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
         <v>967</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="C61" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
-        <v>990</v>
-      </c>
-      <c r="B62" t="s">
-        <v>989</v>
-      </c>
-      <c r="C62" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="13" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="B69" t="s">
-        <v>621</v>
+        <v>988</v>
       </c>
       <c r="C69" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="B70" t="s">
+        <v>989</v>
+      </c>
+      <c r="C70" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="13" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B77" t="s">
+        <v>621</v>
+      </c>
+      <c r="C77" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B78" t="s">
         <v>623</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C78" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B79" t="s">
         <v>625</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C79" s="10">
         <v>3</v>
       </c>
     </row>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AB9531-B5B6-4317-A5A6-CB3766C0F522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C56F559-FD8E-408A-B291-F564F97197B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="1020">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -5531,6 +5531,33 @@
   <si>
     <t>Buy and Sell Stock 5</t>
   </si>
+  <si>
+    <t>Maximum revenue from highway billboards</t>
+  </si>
+  <si>
+    <t>Given a number n (number of billboard stops on highway) and 2 arrays denoting ()</t>
+  </si>
+  <si>
+    <t>Same as above question but now we have to take a cooldown period of 1 day and there is no transaaction fee involved.
+Here the transaction looks like BSCBSCCBS…...
+So instead of n*2 array we must have n*3 array where the 3rd states denote cooldown state.
+dp[i][0]=max(dp[i-1][0],-arr[i]+dp[i-1][2])
+dp[i][1]=max(dp[i-1][1],arr[i]+dp[i-1][0])
+dp[i][0]=max(dp[i-1][2],dp[i-1][1])</t>
+  </si>
+  <si>
+    <t>If 2 transactions are allowed. Exactly 2 must be done.
+This is a phenomenal question.
+Use 2 arrays to store a1[i]=how much amount can be profited if one transaction can be done before ith day(L-&gt;R)
+a2[i]=how much amount can be profited if a stock is purchased and selled after ith day.
+ans=max(a1[i],a2[i]);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If k transactions are allowed. Exactly k. (Extension to this question=upto k transactions)
+2D dp.
+Dp[i][j]=max profit that can earned till jth day if i transaction were made.
+            =profit if i transactions were already made till j-1th day | profit if ith tranaction is made today and i-1 transactions were already made "from 0 to j-1 days" </t>
+  </si>
 </sst>
 </file>
 
@@ -5622,7 +5649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5688,6 +5715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10640,16 +10668,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="63.90625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="23" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
@@ -10657,7 +10685,7 @@
       <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="23" t="s">
         <v>976</v>
       </c>
       <c r="C1" s="10">
@@ -10668,7 +10696,7 @@
       <c r="A2" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="23" t="s">
         <v>977</v>
       </c>
       <c r="C2" s="10">
@@ -10685,21 +10713,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="B4" t="s">
-        <v>978</v>
-      </c>
-      <c r="C4" s="10">
-        <v>2</v>
+        <v>1015</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="B5" t="s">
-        <v>996</v>
+        <v>924</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>978</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
@@ -10707,7 +10732,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>979</v>
+        <v>995</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>996</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
@@ -10715,10 +10743,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>980</v>
-      </c>
-      <c r="B7" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C7" s="10">
         <v>2</v>
@@ -10726,10 +10751,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="B8" t="s">
-        <v>983</v>
+        <v>980</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>981</v>
       </c>
       <c r="C8" s="10">
         <v>2</v>
@@ -10737,21 +10762,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>987</v>
+        <v>982</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>983</v>
       </c>
       <c r="C9" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="B10" t="s">
-        <v>986</v>
+        <v>984</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>987</v>
       </c>
       <c r="C10" s="10">
         <v>3</v>
@@ -10759,56 +10784,59 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>986</v>
+      </c>
+      <c r="C11" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="C11" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="23" t="s">
         <v>1005</v>
       </c>
-      <c r="C12" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C14" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="C15" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="10">
         <v>1</v>
@@ -10816,92 +10844,91 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" s="23" t="s">
         <v>991</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C19" s="10">
         <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C19" s="10">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>994</v>
+        <v>75</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>1003</v>
       </c>
       <c r="C20" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C22" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="C22" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="C23" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B25" s="10"/>
+        <v>79</v>
+      </c>
       <c r="C25" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10">
@@ -10910,15 +10937,16 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>488</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="B27" s="10"/>
       <c r="C27" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C28" s="10">
         <v>2</v>
@@ -10926,7 +10954,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C29" s="10">
         <v>2</v>
@@ -10934,7 +10962,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C30" s="10">
         <v>2</v>
@@ -10942,229 +10970,244 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C31" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" s="23" t="s">
         <v>896</v>
       </c>
-      <c r="C31" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1007</v>
-      </c>
       <c r="C32" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1009</v>
+        <v>1006</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>1007</v>
       </c>
       <c r="C33" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>1011</v>
+        <v>1008</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>1009</v>
       </c>
       <c r="C34" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>1012</v>
+        <v>1010</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C35" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>1014</v>
+        <v>1012</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C36" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C37" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>943</v>
+      <c r="B38" s="23" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C38" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
         <v>965</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
         <v>967</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="C69" s="10">
-        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C70" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" s="23" t="s">
         <v>989</v>
       </c>
-      <c r="C70" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="13" t="s">
+      <c r="C71" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="13" t="s">
         <v>619</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="B77" t="s">
-        <v>621</v>
-      </c>
-      <c r="C77" s="10">
-        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="B78" t="s">
-        <v>623</v>
+        <v>620</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>621</v>
       </c>
       <c r="C78" s="10">
         <v>3</v>
@@ -11172,12 +11215,23 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="C79" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" s="23" t="s">
         <v>625</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C80" s="10">
         <v>3</v>
       </c>
     </row>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C56F559-FD8E-408A-B291-F564F97197B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5DBF97-40E6-463B-99E5-692ACB338B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="12" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <sheet name="Erlang Basics" sheetId="20" r:id="rId21"/>
     <sheet name="BlockChain" sheetId="22" r:id="rId22"/>
     <sheet name="ML" sheetId="23" r:id="rId23"/>
+    <sheet name="Redis" sheetId="26" r:id="rId24"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="1034">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -5558,6 +5559,204 @@
 Dp[i][j]=max profit that can earned till jth day if i transaction were made.
             =profit if i transactions were already made till j-1th day | profit if ith tranaction is made today and i-1 transactions were already made "from 0 to j-1 days" </t>
   </si>
+  <si>
+    <t>What is redis?</t>
+  </si>
+  <si>
+    <t>PORT (by default)</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Run as Admin in CMD
+Just run redis-server and redis-cli after adding the application location to the environment variable.</t>
+  </si>
+  <si>
+    <t>Commands CLI</t>
+  </si>
+  <si>
+    <t>Keys</t>
+  </si>
+  <si>
+    <t>Value=String
+set &lt;Key&gt; &lt;Value&gt; [EX &lt;time_in sec&gt;]
+mset &lt;Key&gt; &lt;Value&gt; &lt;Key&gt; &lt;Value&gt;….
+setnx &lt;Key&gt; &lt;Value&gt;        {update if Key not present}
+get &lt;Key&gt;
+mget &lt;Key&gt; &lt;Key&gt; &lt;Key&gt; …..
+strlen &lt;Key&gt;                      {0 if not found}
+decr &lt;Key&gt;
+incr &lt;Key&gt;
+decr &lt;Key&gt; &lt;by&gt;
+incr &lt;Key&gt; &lt;by&gt;
+clear     {scren clear}
+incrbyfloat &lt;Key&gt; &lt;by&gt;
+append &lt;Key&gt; &lt;to_append_value&gt;
+setex &lt;Key&gt; &lt;ttl_sec&gt; &lt;Value&gt;    OR     expire &lt;Key&gt; &lt;milisecond&gt;     
+ttl &lt;Key&gt;
+pttl &lt;Key&gt;
+keys &lt;reg_exp&gt;
+keys *                      {all keys}
+flushall                    {remove all K-V pairs}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512 MB, Unique, Binary represented and Flat namespace
+Can be made up of any sequence of bytes.
+Convention decided by dvelopment team.
+Generally used convention is object_name:ID:Column
+Key command blocks req. until complete, never use in production. Useful for debugging. 
+Scan command iterate using cursor and retun slot reference. Slot can be of size 0 or more. Safe for production.
+command: scan &lt;slot_number&gt; [MATCH exp_to_match] [count &lt;slot_size&gt;]
+return slot reference to next slot. Greater slot size is equivalent to keys command.
+del &lt;Key&gt;           {blocking}
+unlink &lt;Key&gt;      {non-blocking as memory associated with the key is reclaimed asynchronously}
+exists &lt;Key&gt;      {1/0}
+set &lt;Key&gt; &lt;Value&gt; [EX &lt;seconds&gt;] [PX &lt;milliseconds&gt;] [NX/XX]
+persist &lt;Key&gt;    {Key is needed to be retained if send to expiration}
+EXPIREAT &lt;Key&gt; &lt;timestamp/UNIX&gt;
+PEXPIREAT &lt;Key&gt; &lt;milisecond-timestamp&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value=JSON
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value=HashMap (Think of each K-V pair as a record in RDB, ID-&gt;RecordAttributes:Value)
+hset &lt;Key&gt; &lt;Field/Attr&gt; &lt;Value&gt;
+hmset &lt;Key&gt; &lt;Field/Attr&gt; &lt;Value&gt; &lt;Field/Attr&gt; &lt;Value&gt;…..
+hget &lt;Key&gt; &lt;Field/Attr&gt;
+hmget &lt;Ket&gt; &lt;Fields/Attrs&gt;......
+hgetall &lt;Key&gt;
+hmget &lt;Key&gt; &lt;Field/Attr1&gt; &lt;Field/Attr2&gt;.....
+hexists &lt;Key&gt; &lt;Field/Attr&gt;        {0/1 depending upon if the attribute exists in record with ID=Key}
+hdel &lt;Key&gt; &lt;Field/Attr&gt;
+hsetnx &lt;Key&gt; &lt;Field/Attr&gt; &lt;Value&gt;    {The value will be added to with attribute in record with ID=Key if it does not exist already}
+hkeys &lt;Key&gt;                                 {return all attributes in this record}
+hvals &lt;Key&gt;                                  {return all values in this record}
+hlen &lt;Key&gt;
+hstrlen &lt;Key&gt; &lt;Field/Attr&gt;
+hincrby &lt;Key&gt; &lt;Field/Attr&gt; &lt;increment_value&gt;             {can increment and decrement value in the record's specified field/attribute}.
+hincrbyfloat &lt;Key&gt; &lt;Field/Attr&gt; &lt;increment_in floating integer&gt;
+</t>
+  </si>
+  <si>
+    <t>Value=Set (Unordered unique element's collection)
+sadd &lt;Key&gt; &lt;Value1&gt; &lt;Value2&gt;…… {returns number of elements added}
+smembers &lt;Key&gt;
+scard &lt;Key&gt;                                          {set size}
+sdiff &lt;Key of Set from where we subtract&gt; &lt;Keys of remaining sets that will subtract our first set&gt;
+sdiffstore &lt;Store Set Key&gt; &lt;Key of Set from where we subtract&gt; &lt;Keys of remaining sets that will subtract our first set&gt;
+sexists &lt;Key&gt;                                        {0/1 if the set=Key is present=1 or does not exist/empyty=0}
+sunion &lt;Key of Set&gt; &lt;Keys of remaining sets that will unioned with our first set&gt;
+sunionstore &lt;Destination Set Key&gt; &lt;Key of Set&gt; &lt;Keys of remaining sets that will unioned with our first set&gt;
+srem &lt;Key&gt; &lt;Values&gt;.....
+spop &lt;Key&gt; &lt;number of values to be pop&gt;    {random values}
+sinter &lt;Key1&gt; &lt;Key2&gt;.....                                     {intersection of all sets with specified Keys}
+sinterstore &lt;Destination Set Key&gt; &lt;Key1&gt; &lt;Key2&gt; ...    {Store intersection of all sets with keys=Key1, Key2...... to Destination Set with key=Key}
+smove &lt;Source Set Key&gt; &lt;Destination Set Key&gt; &lt;Value&gt;</t>
+  </si>
+  <si>
+    <t>Value=List
+lpush &lt;Key&gt; &lt;Value&gt;.....           {left push}
+lrange &lt;Key&gt; &lt;start&gt; &lt;end&gt;     {0-indexing, last index can be -1, start and end are inclusive}
+rpush &lt;Key&gt; &lt;Value&gt;.....           {right push}
+llen &lt;Key&gt;                                     {0 is empty or not found}
+lpop &lt;Key&gt;                                    {pop from left}
+rpop &lt;Key&gt;                                   {pop from right}
+lmpop &lt;Key&gt; &lt;RIGHT/LEFT&gt; &lt;count&gt;    {pop count elements from l/r}
+lset &lt;Key&gt; &lt;index&gt; &lt;Value&gt;      {update via index}
+linsert &lt;Key&gt; BEFORE|AFTER &lt;Value&gt; &lt;Value to be inserted&gt; {insert}
+lindex &lt;Key&gt; &lt;index&gt;                  {access via index}
+lpushx &lt;Key&gt; &lt;Value&gt;                 {If Key list is available then only push}
+rpushx &lt;Key&gt; &lt;Value&gt;
+lmove &lt;sourceList&gt; &lt;destinationList&gt; &lt;LEFT | RIGHT&gt; &lt;LEFT | RIGHT&gt;      {from source's l/r to destination l/r}
+lpushx &lt;Key&gt; &lt;Value&gt;....           {only push if Key exists}
+lrem &lt;Key&gt; &lt;count&gt; &lt;Value&gt;    {remove count values from List=Key, count=0(all), count=-ve (tail to head or right to left), count=+ve(head to tail or left to right)}
+ltrim &lt;Key&gt; &lt;startindex&gt; &lt;lastindex&gt;    {retain from [start,end]}
+sort &lt;Key&gt;  ASC/DESC [APLHA]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Value=Sorted Set {Same as set but sorted based on Score provided}
+zadd &lt;Key&gt; &lt;Score&gt; &lt;Value&gt;
+zrange &lt;initial&gt; &lt;end&gt; [WITHSCORES]        {return all values in [initial index,end index] elemets}
+zrangebyscore &lt;initial rank&gt; &lt;end rank&gt;
+zrangebylex &lt;Key&gt; (start) (end) -----&gt; example zrangebylex key1 [c (k     gives all elemets with values [c,j]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When all the elements in a sorted set are inserted with the same score, in order to force lexicographical ordering, this command returns all the elements in the sorted set at key with a value between min and max.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+If the elements in the sorted set have different scores, the returned elements are unspecified.
+zlexcount &lt;Key&gt; &lt;min&gt; &lt;max&gt;    {reurn values between [min,max] if set is sorted in lexicographical order}
+zcard &lt;Key&gt;
+zmpop &lt;num_of_keys&gt; &lt;Keys&gt;..... &lt;MIN|MAX&gt; [Count]    {remove from num_of_keys sorted sets having ID=Keys count (1 by default) from minimum/maximum side}
+zpopmin &lt;Key&gt;
+zpopmax &lt;Key&gt;      {remove and returns max/min}
+zcount &lt;Key&gt; &lt;min&gt; &lt;max&gt; {returns all elements in the set with id=Key between scores [min-max]}
+zrem &lt;Key&gt; &lt;Value&gt;
+zrank &lt;Key&gt; &lt;Value&gt;     {returns index of Value in the set}
+zrevrank &lt;Key&gt; &lt;Value&gt;  {reverse index starting from 0 (from right to left) for the element in set ID=Key}
+zscore &lt;Key&gt; &lt;Value&gt;    {returns score associated with the value or nil}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NOTE multiple elements can have same score.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>zunionstore destination numkeys key [key ...] [WEIGHTS weight  [weight ...]] [AGGREGATE &lt;SUM | MIN | MAX&gt;]
+zinterstore destination numkeys key [key ...] [WEIGHTS weight  [weight ...]] [AGGREGATE &lt;SUM | MIN | MAX&gt;]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">In memory DS store used as a persistent storage option, Cache and message broker. It is NoSQL in nature.
+Allows the user to store vast amount of data without RDB constraints.
+It can store K-V pairs where value can be string or DS like(Map/Hashmap, List, Sets, Sorted Sets, Bitmaps, Hyperloglog, Geospatial Indexes)
+Architecture: Redis Cli (Client) &lt;===&gt; Redis Server. They both can be on same or diff. machine. We can also implement same in Master slave architecture. 
+10^6 SETS/sec and 8*10^5 GETS/sec. Exceptionally fast. 
+In memory data can be stored in the disk/persistent storage option asynchronously. 
+Atomicity is matained. If 2 clients concurrently access data, redis server makes sure to maintain consistency after the whole transaction cycle.
+Hold rich support of Data Types. 
+Is widely used for caching solutions, session maintainence and messaging queue.
+Criteria that Redis use to determine if an operation can be performed against a key is Data type and encoding of values
+Redis does not support nested indexes/compound or secondary.
+</t>
+  </si>
 </sst>
 </file>
 
@@ -5649,7 +5848,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5715,7 +5914,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6106,6 +6304,143 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>168320</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2025651</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB090CCB-4380-92BB-DB06-D64DDBC2627B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10979150" y="12522201"/>
+          <a:ext cx="1997120" cy="2025650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>88901</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2338879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A9CB06E-44B0-B579-5120-78312BE698E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10979151" y="10128251"/>
+          <a:ext cx="1917700" cy="2338878"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2137687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FB40C9F-2C93-AD85-5119-78C69F060C62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10979150" y="15468600"/>
+          <a:ext cx="1981199" cy="2137687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9560,6 +9895,107 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317DF638-5B61-47BB-BC39-3309BACE0451}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="70" style="3" customWidth="1"/>
+    <col min="2" max="2" width="87.1796875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="290" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="319" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="290" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
@@ -10670,14 +11106,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="63.90625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
@@ -10685,7 +11121,7 @@
       <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" t="s">
         <v>976</v>
       </c>
       <c r="C1" s="10">
@@ -10696,7 +11132,7 @@
       <c r="A2" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" t="s">
         <v>977</v>
       </c>
       <c r="C2" s="10">
@@ -10715,7 +11151,7 @@
       <c r="A4" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" t="s">
         <v>1016</v>
       </c>
     </row>
@@ -10723,7 +11159,7 @@
       <c r="A5" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" t="s">
         <v>978</v>
       </c>
       <c r="C5" s="10">
@@ -10734,7 +11170,7 @@
       <c r="A6" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" t="s">
         <v>996</v>
       </c>
       <c r="C6" s="10">
@@ -10753,7 +11189,7 @@
       <c r="A8" s="3" t="s">
         <v>980</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" t="s">
         <v>981</v>
       </c>
       <c r="C8" s="10">
@@ -10764,7 +11200,7 @@
       <c r="A9" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" t="s">
         <v>983</v>
       </c>
       <c r="C9" s="10">
@@ -10786,7 +11222,7 @@
       <c r="A11" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" t="s">
         <v>986</v>
       </c>
       <c r="C11" s="10">
@@ -10808,7 +11244,7 @@
       <c r="A13" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" t="s">
         <v>1005</v>
       </c>
       <c r="C13" s="10">
@@ -10819,7 +11255,7 @@
       <c r="A14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" t="s">
         <v>351</v>
       </c>
       <c r="C14" s="10">
@@ -10862,7 +11298,7 @@
       <c r="A19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" t="s">
         <v>991</v>
       </c>
       <c r="C19" s="10">
@@ -10873,7 +11309,7 @@
       <c r="A20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" t="s">
         <v>1003</v>
       </c>
       <c r="C20" s="10">
@@ -10903,7 +11339,7 @@
       <c r="A23" s="4" t="s">
         <v>992</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" t="s">
         <v>993</v>
       </c>
       <c r="C23" s="10">
@@ -10980,7 +11416,7 @@
       <c r="A32" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" t="s">
         <v>896</v>
       </c>
       <c r="C32" s="10">
@@ -10991,7 +11427,7 @@
       <c r="A33" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" t="s">
         <v>1007</v>
       </c>
       <c r="C33" s="10">
@@ -11002,7 +11438,7 @@
       <c r="A34" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" t="s">
         <v>1009</v>
       </c>
       <c r="C34" s="10">
@@ -11013,7 +11449,7 @@
       <c r="A35" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" t="s">
         <v>1011</v>
       </c>
       <c r="C35" s="10">
@@ -11024,7 +11460,7 @@
       <c r="A36" s="4" t="s">
         <v>1012</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" t="s">
         <v>1017</v>
       </c>
       <c r="C36" s="10">
@@ -11035,7 +11471,7 @@
       <c r="A37" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" t="s">
         <v>1018</v>
       </c>
       <c r="C37" s="10">
@@ -11046,7 +11482,7 @@
       <c r="A38" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" t="s">
         <v>1019</v>
       </c>
       <c r="C38" s="10">
@@ -11190,7 +11626,7 @@
       <c r="A71" s="3" t="s">
         <v>990</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" t="s">
         <v>989</v>
       </c>
       <c r="C71" s="10">
@@ -11206,7 +11642,7 @@
       <c r="A78" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B78" t="s">
         <v>621</v>
       </c>
       <c r="C78" s="10">
@@ -11217,7 +11653,7 @@
       <c r="A79" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" t="s">
         <v>623</v>
       </c>
       <c r="C79" s="10">
@@ -11228,7 +11664,7 @@
       <c r="A80" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" t="s">
         <v>625</v>
       </c>
       <c r="C80" s="10">

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5DBF97-40E6-463B-99E5-692ACB338B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F33E41-5763-45CB-AF7E-C76F9E8107AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="12" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="1042">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -5393,17 +5393,6 @@
 }</t>
   </si>
   <si>
-    <t>Given a number n find number of ways perfect squares sum upto n.
-dp[0]=0;
-dp[1]=1;
-d[2]=2;
-for(i=3;i&lt;=n;i++){
-    for(j=1;j*j&lt;=i;j++){
-        dp[i]+=dp[i-(j*j)]
-    }
-}</t>
-  </si>
-  <si>
     <t>Minimum cost in maze</t>
   </si>
   <si>
@@ -5756,6 +5745,68 @@
 Criteria that Redis use to determine if an operation can be performed against a key is Data type and encoding of values
 Redis does not support nested indexes/compound or secondary.
 </t>
+  </si>
+  <si>
+    <t>2 Keys</t>
+  </si>
+  <si>
+    <t>Given n (required number of As) you have a screen with initially one A on it. You can either copy all or paste. Find minimum number of steps to reach n As.
+1-&gt;A    0 steps
+2-&gt;AA CP    2 steps
+3-&gt;AAA CPP 3 steps
+4-&gt;CPCP or CPPP   4 steps
+5-&gt; CPPPP     5 teps
+6-&gt;CPCPP or CPPCP or CPPPPP   5 teps
+7-&gt; CPPPPPP  7 steps
+8-&gt;CPCPCP or CPPPCP or CPCPPP        6 steps
+9-&gt; CPPCPP  6 steps.........
+Note that primes are always printed via prime number of steps.
+On observing Carefully, if number is not prime it is formed by its prime factorization C/P representation. 
+18=2*3*3 = CP CPP CPP 
+so for(int i=2;i*i&lt;n;){
+       if(n%i==0){  n=n/i; count+=i;  }
+      else{ i++; }
+}
+if(n!=1){
+    count+=n;
+}return count;</t>
+  </si>
+  <si>
+    <t>Maximum size square with all ones in a binary matrix</t>
+  </si>
+  <si>
+    <t>Maximum sum Increasing subsequence</t>
+  </si>
+  <si>
+    <t>LIS variation</t>
+  </si>
+  <si>
+    <t>Maximum Bitonic subsequence</t>
+  </si>
+  <si>
+    <t>Maximum Non Overlapping bridges</t>
+  </si>
+  <si>
+    <t>Russian Doll Problem</t>
+  </si>
+  <si>
+    <t>Given a number n find number of ways perfect squares sum upto n.
+vector&lt;int&gt; psquare;
+void calcPsquare(int N)
+{
+    for (int i = 1; i * i &lt;= N; i++)
+        psquare.push_back(i * i);
+}
+vector&lt;vector&lt;int&gt; &gt; dp;
+ int countWaysUtil(int index, int target)
+{    if (target == 0)
+        return 1;
+    if (index &lt; 0 || target &lt; 0)
+        return 0;    
+   if (dp[index][target] != -1)
+        return dp[index][target];
+    return dp[index][target] = countWaysUtil(index, target - psquare[index])+ countWaysUtil( index - 1, target);   // include square, don't include square.
+}</t>
   </si>
 </sst>
 </file>
@@ -5848,7 +5899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5914,6 +5965,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8630,18 +8682,18 @@
     </row>
     <row r="20" spans="1:3" ht="232" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>999</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -9899,7 +9951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317DF638-5B61-47BB-BC39-3309BACE0451}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -9911,15 +9963,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B2" s="1">
         <v>6379</v>
@@ -9927,66 +9979,66 @@
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="290" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="319" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="290" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
   </sheetData>
@@ -11104,16 +11156,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="63.90625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="23" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
@@ -11121,7 +11173,7 @@
       <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="23" t="s">
         <v>976</v>
       </c>
       <c r="C1" s="10">
@@ -11132,7 +11184,7 @@
       <c r="A2" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="23" t="s">
         <v>977</v>
       </c>
       <c r="C2" s="10">
@@ -11149,18 +11201,21 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>1015</v>
       </c>
-      <c r="B4" t="s">
-        <v>1016</v>
+      <c r="C4" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="B5" t="s">
-        <v>978</v>
+        <v>1036</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>1037</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
@@ -11168,10 +11223,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="B6" t="s">
-        <v>996</v>
+        <v>1038</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>1037</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
@@ -11179,29 +11234,32 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>979</v>
+        <v>1039</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>1037</v>
       </c>
       <c r="C7" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>980</v>
-      </c>
-      <c r="B8" t="s">
-        <v>981</v>
+        <v>1040</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>1037</v>
       </c>
       <c r="C8" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="B9" t="s">
-        <v>983</v>
+        <v>924</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>978</v>
       </c>
       <c r="C9" s="10">
         <v>2</v>
@@ -11209,108 +11267,111 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>987</v>
+        <v>994</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>995</v>
       </c>
       <c r="C10" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>985</v>
-      </c>
-      <c r="B11" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="C11" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>998</v>
+        <v>980</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>981</v>
       </c>
       <c r="C12" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1005</v>
+      <c r="A13" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>983</v>
       </c>
       <c r="C13" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>351</v>
+      <c r="A14" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1041</v>
       </c>
       <c r="C14" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>73</v>
+      <c r="A15" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>986</v>
       </c>
       <c r="C15" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>71</v>
+        <v>996</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>997</v>
       </c>
       <c r="C16" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>72</v>
+      <c r="A17" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>1004</v>
       </c>
       <c r="C17" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>351</v>
       </c>
       <c r="C18" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" t="s">
-        <v>991</v>
+        <v>73</v>
       </c>
       <c r="C19" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1003</v>
+        <v>71</v>
       </c>
       <c r="C20" s="10">
         <v>1</v>
@@ -11318,37 +11379,37 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>994</v>
+        <v>72</v>
       </c>
       <c r="C21" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C22" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>992</v>
-      </c>
-      <c r="B23" t="s">
-        <v>993</v>
+        <v>69</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>990</v>
       </c>
       <c r="C23" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>1002</v>
       </c>
       <c r="C24" s="10">
         <v>1</v>
@@ -11356,318 +11417,375 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>993</v>
       </c>
       <c r="C25" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B26" s="10"/>
+        <v>77</v>
+      </c>
       <c r="C26" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="B27" s="10"/>
+      <c r="A27" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>992</v>
+      </c>
       <c r="C27" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>488</v>
+        <v>78</v>
       </c>
       <c r="C28" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>491</v>
+        <v>79</v>
       </c>
       <c r="C29" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>490</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="B30" s="10"/>
       <c r="C30" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>489</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="B31" s="10"/>
       <c r="C31" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C32" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C33" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C34" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C35" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" s="23" t="s">
         <v>896</v>
       </c>
-      <c r="C32" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C33" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C34" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C35" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1017</v>
-      </c>
       <c r="C36" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1018</v>
+        <v>1005</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>1006</v>
       </c>
       <c r="C37" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C39" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C40" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
         <v>1013</v>
       </c>
-      <c r="B38" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C38" s="10">
+      <c r="B41" s="23" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C41" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>943</v>
+      <c r="A42" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C42" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>946</v>
+        <v>1033</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C43" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>965</v>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="C70" s="10">
-        <v>2</v>
+        <v>965</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>990</v>
-      </c>
-      <c r="B71" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="C74" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="C71" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="13" t="s">
+      <c r="B75" s="23" t="s">
+        <v>988</v>
+      </c>
+      <c r="C75" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C76" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="13" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B82" s="23" t="s">
         <v>621</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C82" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B83" s="23" t="s">
         <v>623</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C83" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B84" s="23" t="s">
         <v>625</v>
       </c>
-      <c r="C80" s="10">
+      <c r="C84" s="10">
         <v>3</v>
       </c>
     </row>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F33E41-5763-45CB-AF7E-C76F9E8107AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA33776-73DD-4F19-822C-FF2B6E4A5F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,35 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA33776-73DD-4F19-822C-FF2B6E4A5F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13099C3D-9992-4ED0-9ED3-520118B0947F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="12" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
     <sheet name="Array" sheetId="11" r:id="rId2"/>
     <sheet name="String" sheetId="12" r:id="rId3"/>
-    <sheet name="LL" sheetId="14" r:id="rId4"/>
-    <sheet name="Bit Manipulation" sheetId="15" r:id="rId5"/>
-    <sheet name="Heap" sheetId="2" r:id="rId6"/>
-    <sheet name="DP" sheetId="4" r:id="rId7"/>
-    <sheet name="Binary Tree and BST" sheetId="3" r:id="rId8"/>
-    <sheet name="Recusion and BT" sheetId="8" r:id="rId9"/>
-    <sheet name="Graphs" sheetId="25" r:id="rId10"/>
-    <sheet name="Sliding Window" sheetId="7" r:id="rId11"/>
-    <sheet name="Number Theory" sheetId="19" r:id="rId12"/>
-    <sheet name="Computational Geometry" sheetId="24" r:id="rId13"/>
-    <sheet name="Trie" sheetId="9" r:id="rId14"/>
-    <sheet name="FlutterWidgets" sheetId="10" r:id="rId15"/>
-    <sheet name="React and Node" sheetId="5" r:id="rId16"/>
-    <sheet name="Misc" sheetId="6" r:id="rId17"/>
-    <sheet name="CP Errors and Constraints" sheetId="16" r:id="rId18"/>
-    <sheet name="System Arch" sheetId="17" r:id="rId19"/>
-    <sheet name="OOPS" sheetId="18" r:id="rId20"/>
-    <sheet name="Erlang Basics" sheetId="20" r:id="rId21"/>
-    <sheet name="BlockChain" sheetId="22" r:id="rId22"/>
-    <sheet name="ML" sheetId="23" r:id="rId23"/>
-    <sheet name="Redis" sheetId="26" r:id="rId24"/>
+    <sheet name="Stack Queue" sheetId="27" r:id="rId4"/>
+    <sheet name="LL" sheetId="14" r:id="rId5"/>
+    <sheet name="Bit Manipulation" sheetId="15" r:id="rId6"/>
+    <sheet name="Heap" sheetId="2" r:id="rId7"/>
+    <sheet name="DP" sheetId="4" r:id="rId8"/>
+    <sheet name="Binary Tree and BST" sheetId="3" r:id="rId9"/>
+    <sheet name="Recusion and BT" sheetId="8" r:id="rId10"/>
+    <sheet name="Graphs" sheetId="25" r:id="rId11"/>
+    <sheet name="Sliding Window" sheetId="7" r:id="rId12"/>
+    <sheet name="Number Theory" sheetId="19" r:id="rId13"/>
+    <sheet name="Computational Geometry" sheetId="24" r:id="rId14"/>
+    <sheet name="Trie" sheetId="9" r:id="rId15"/>
+    <sheet name="FlutterWidgets" sheetId="10" r:id="rId16"/>
+    <sheet name="JavaScript" sheetId="28" r:id="rId17"/>
+    <sheet name="React and Node" sheetId="5" r:id="rId18"/>
+    <sheet name="Misc" sheetId="6" r:id="rId19"/>
+    <sheet name="CP Errors and Constraints" sheetId="16" r:id="rId20"/>
+    <sheet name="System Arch" sheetId="17" r:id="rId21"/>
+    <sheet name="OOPS" sheetId="18" r:id="rId22"/>
+    <sheet name="Erlang Basics" sheetId="20" r:id="rId23"/>
+    <sheet name="BlockChain" sheetId="22" r:id="rId24"/>
+    <sheet name="ML" sheetId="23" r:id="rId25"/>
+    <sheet name="Redis" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="1112">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -5176,9 +5178,6 @@
     <t>reverse bits</t>
   </si>
   <si>
-    <t>Use flag and bit mask to set in our answer</t>
-  </si>
-  <si>
     <t>LIS</t>
   </si>
   <si>
@@ -5807,6 +5806,568 @@
         return dp[index][target];
     return dp[index][target] = countWaysUtil(index, target - psquare[index])+ countWaysUtil( index - 1, target);   // include square, don't include square.
 }</t>
+  </si>
+  <si>
+    <t>Second right most 0 bit position</t>
+  </si>
+  <si>
+    <t>log2( ~(n^(~n&amp;(n+1)))&amp;((n^(~n&amp;(n+1)))+1) )</t>
+  </si>
+  <si>
+    <t>Rightmost different bit</t>
+  </si>
+  <si>
+    <t>log2((n^m)&amp;-(n^m))</t>
+  </si>
+  <si>
+    <t>Use flag and bit mask to set in our answer
+int rev=0;
+    while(a!=0){
+        rev&lt;&lt;=1;
+        if(a&amp;1){
+            rev|=1;
+        }
+        a=a&gt;&gt;1;
+    }return rev;</t>
+  </si>
+  <si>
+    <t>log2((n^~m)&amp;-(n^~m))</t>
+  </si>
+  <si>
+    <t>Rightmost same bit</t>
+  </si>
+  <si>
+    <t>Minimum flips to convert a OR b == c</t>
+  </si>
+  <si>
+    <t>Find Longest Awesome substring</t>
+  </si>
+  <si>
+    <t>Given a numeric string find a substring which can for palindrome using infinite permutations.
+Use Binary nuber of size 10, 10 bits to represent a state. That is till numbers 3, 5, 1 our number will be 0000101010. If same integer again arises toggel it in the state. If same state arises again, we have found a sub string containing even characters. Update ans and state map</t>
+  </si>
+  <si>
+    <t>Proxy ve reverse Proxy</t>
+  </si>
+  <si>
+    <t>Proxy: Hides Client interface. Server doesn't know where the request is coming from. 
+Client Annonymity, Caching Solution scope, Blocking unwated sites on ISP level proxy (It can be tricked with VPN servers which then makes the request from your behalf), Geofencing.
+Reverse Proxy: Hides server side interface. Client is kept hidden from server set. 
+Load balancing solution, Loggin and Caching, Firewall implementation. Isolating internal traffic and Canary Deployment (For beta feature testing).</t>
+  </si>
+  <si>
+    <t>HTTP cookies</t>
+  </si>
+  <si>
+    <t>Valid Paranthesis string</t>
+  </si>
+  <si>
+    <t>Duplicate brackets</t>
+  </si>
+  <si>
+    <t>Next Greater on the right</t>
+  </si>
+  <si>
+    <t>Next smaller on the right</t>
+  </si>
+  <si>
+    <t>Next smaller on the left</t>
+  </si>
+  <si>
+    <t>Next Greater on the left</t>
+  </si>
+  <si>
+    <t>Stock Span</t>
+  </si>
+  <si>
+    <t>Largest Area in Histogram</t>
+  </si>
+  <si>
+    <t>Infix Evaluation</t>
+  </si>
+  <si>
+    <t>Infix Conversion</t>
+  </si>
+  <si>
+    <t>Merge overlapping intervals</t>
+  </si>
+  <si>
+    <t>Postfix Evaluation and Conversion</t>
+  </si>
+  <si>
+    <t>Smallest number following pattern</t>
+  </si>
+  <si>
+    <t>Stack with linked list</t>
+  </si>
+  <si>
+    <t>Dynamic Stack</t>
+  </si>
+  <si>
+    <t>Prefix Evaluation and conversion</t>
+  </si>
+  <si>
+    <t>Maximum Stack</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sovAIX4doOE</t>
+  </si>
+  <si>
+    <t>Same as above and start from left</t>
+  </si>
+  <si>
+    <r>
+      <t>Start from the right of the given array.
+ans[n-1]=-1; stack.push(arr[n-1]);
+for(int i=n-2;i&gt;=0;i--){
+    while(arr[i]&gt;=stack.top() &amp;&amp; !stack.empty()){
+        stack.pop()
+    }if(stack.empty()){
+        ans[i]=-1;  
+    }else{
+        ans[i]=stack.top();
+    }</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stack.push(arr[i]);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}return ans;</t>
+    </r>
+  </si>
+  <si>
+    <t>Use 
+while(arr[i]&lt;=stack.top() &amp;&amp; !stack.empty()) and start from right</t>
+  </si>
+  <si>
+    <t>Use 
+while(arr[i]&lt;=stack.top() &amp;&amp; !stack.empty()) and start from left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Next greater element on the left but on index. For ans[i], i-index of next greater element on the left. </t>
+  </si>
+  <si>
+    <t>Sliding window maximum</t>
+  </si>
+  <si>
+    <t>ECMAScript 6</t>
+  </si>
+  <si>
+    <t>JavaScript Engine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V8
+program or interpreter that understands and executes JavaScript code.
+JavaScript engines are commonly found in web browsers, including V8 in Chrome, SpiderMonkey in Firefox, and Chakra in Edge
+A JavaScript engine to a browser is like language comprehension to a person.
+Two people may recognize the command “jump”, but one may react to the command faster because the person can understand and process the command faster than the other person. Similarly, two browsers can understand JavaScript code, but one runs it faster because its JavaScript engine is implemented more efficiently.
+</t>
+  </si>
+  <si>
+    <t>JavaScript Runtime</t>
+  </si>
+  <si>
+    <t>The environment in which the JavaScript code runs and is interpreted by a JavaScript engine.The runtime provides the host objects that JavaScript can operate on and work with.
+For the client side, the JavaScript runtime would be the web browser, where host objects like windows and HTML documents are made available for manipulation.
+The window and document objects are not actually a part of the core JavaScript language. They are Web APIs, objects provided by a browser acting as JavaScript’s host environment. For the server side, the JavaScript runtime is Node.js. Server-related host objects such as the file system, processes, and requests are provided in Node.js.</t>
+  </si>
+  <si>
+    <t>2015
+ECMAScript is a JavaScript standard intended to ensure the interoperability of web applications across different browsers. It ensures application uniformity across variety of modern browsers which use JavaScript.
+The specification defined in ECMA-262 for creating a general purpose scripting language.</t>
+  </si>
+  <si>
+    <t>JavaScript Properties</t>
+  </si>
+  <si>
+    <t>Dynamically Typed</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit container
+start with alpha, _ or $. Can be alphanumeric and contain _ or $
+Case sensititve
+</t>
+  </si>
+  <si>
+    <t>Let vs Var</t>
+  </si>
+  <si>
+    <t>Const</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Declare Variables that cannot be changed throughout the program life.
+Must be defined during declaration.
+</t>
+  </si>
+  <si>
+    <t>Let is block-scoped and Var is globally scoped
+Var allows redeclaration of same variable but let will not. (reassignment is possible)
+var and let is initialized with undefined.</t>
+  </si>
+  <si>
+    <t>Primitive DT</t>
+  </si>
+  <si>
+    <t>Null (is actually a value)
+number
+string
+Symbol()
+BigInt("__")
+boolean
+undefined</t>
+  </si>
+  <si>
+    <t>typeof _____</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>defined as K-V pair in { K:V, }
+obj_var[Key]  OR obj_var.key  -&gt; accessing   (If key is a string "key", use this: obj_var["key"] OR obj_var.key)
+If an Object_variable is defined with const, this means that this variable will always point to the defined object (fixed reference). But you can change the content of the object.
+Add new key:value pair,   obj_var[&lt;new_key&gt;]=new_val;</t>
+  </si>
+  <si>
+    <t>Operators</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> +  -  *  /  **  %   {/operator will not give integer value, it will result out the value it was suppose to be, unlike C++}
+++ and -- {post decrement/increment and pre decrement/increment}
+=   +=   -=   *=   /=   **=  %=
+==  !=  ===  !== &gt;  &lt;  &gt;=  &lt;=  ?:
+&amp;&amp;  ||  !
+&amp; | ~</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> // single line
+/*   */ multiline</t>
+  </si>
+  <si>
+    <t>Typecasting</t>
+  </si>
+  <si>
+    <t>String(&lt;other_DT&gt;)
+Boolean(&lt;other_DT&gt;) Null, undefined, 0 and empty string will give false
+Number(&lt;other_DT&gt;) Null, false, "", and "\n" will store 0, undefined, "alphabet string" and NaN will store NaN.
+parseInt(&lt;other_DT&gt;)
+parseFloat(&lt;other_DT&gt;)</t>
+  </si>
+  <si>
+    <t>Conditional</t>
+  </si>
+  <si>
+    <t>if(&lt;condition&gt;) {    }
+if(&lt;condition&gt;) {    }else{     }
+if(&lt;condition&gt;) {    }else if(&lt;condition&gt;) {     }else{      } 
+switch(&lt;variable&gt;){
+    case &lt;value&gt;:
+         break;
+    default:
+}</t>
+  </si>
+  <si>
+    <t>Loops</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for(&lt;init&gt;;&lt;condition&gt;;&lt;increment/decrement&gt;) {  //loop body  }
+for(let &lt;key_vaiable&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;obj_ref&gt;){   //loop body utilizing &lt;key_variable&gt;   }
+for(let &lt;val_variable&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;iterable_ref&gt;){  //loop body utilizing &lt;va_variable&gt;  }     same as for(i:iterable) in C++
+&lt;init&gt;  while(&lt;condition&gt;) {   &lt;increment/decrement&gt;}
+&lt;init&gt;  do{  &lt;increment&gt;/&lt;decrement&gt; }while(&lt;condition&gt;)     //a while loop that executes atleast once</t>
+    </r>
+  </si>
+  <si>
+    <t>Function/Modularity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">function &lt;function_name&gt;(parameter1, parameter2,…...){
+} &lt;function_name&gt;(parameter1, parameter2, ...)
+const ref = (paramenter1, parameter2,…...)=&gt;{
+}    ref(parameter1, parameter2,….)
+</t>
+  </si>
+  <si>
+    <t>Escape sequence characters</t>
+  </si>
+  <si>
+    <t>\'
+\"
+\n
+\t
+\\
+\r =&gt; carraige return.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let/var &lt;string_variable&gt; = "_______"
+let &lt;string_wrapper&gt; = new String("________")     This will return a string wrapper
+can also be initialized in single quotes.
+&lt;string_variable&gt;.length                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;string_variable&gt;[index]     OR    &lt;string_variable&gt;.charAt(&lt;index&gt;)                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">character
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;string_variable&gt;.toLowerCase()
+&lt;string_variable&gt;.toUpperCase()
+&lt;string_variable&gt;.slice(starting_index, end_index_not_included*)     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">string
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;string_variable&gt;.replace(&lt;old_substr&gt; , &lt;new_substr&gt;)
+&lt;string_variable&gt;.replaceAll(&lt;old_substr&gt; , &lt;new_substr&gt;)
+&lt;string_variable&gt;.concat(&lt;string_variable_2&gt;, &lt;string_variable_3&gt;......)   OR use + operator
+&lt;string_variable&gt;.trim()        &lt;string_variable&gt;.trimEnd()          &lt;string_variable&gt;.trimStart()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">eval(&lt;mathematical_expression_string&gt;)             number
+eval(&lt;mathematical_string_wrapper&gt;.valueof())    same as above
+[...&lt;string_variable&gt;]  OR [..."_______"]   expand to list from string
+&lt;string_variable&gt;.split(&lt;delimiter&gt;)           expand to list from string on delimiter
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;string_variable&gt;.includes(&lt;searchstr&gt;)
+&lt;string_variable&gt;.indexOf(&lt;str&gt;)                first occurence
+&lt;string_variable&gt;.lastIndexOf(&lt;str&gt;)         last occurence
+&lt;string_variable&gt;.endsWith(&lt;str&gt;)    /  &lt;string_variable&gt;.startsWith(&lt;str&gt;)        boolean
+&lt;variable&gt;.toString()                                    conversion
+&lt;string_variable&gt;.match(&lt;regexp&gt;)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[...&lt;string_variable&gt;.matchAll(&lt;regexp&gt;)]      returns list of all matched substrings
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;string_variable&gt;.padEnd(total_length, padchar*)
+&lt;string_variable&gt;.padStart(total_length,padchar*)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;string_variable&gt;.repeat(&lt;times&gt;)              new string with repeating sequence
+&lt;string_variable&gt;.substring(index1,index2)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Strings are immutable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Template Literals: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+They are quite usefull for inserting variables in a string or including " or ' inside of a string
+let sentence = ` The value of var1 is: ${var1} `
+let sentence2 = `This sentence include "" and ''. `
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5899,7 +6460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5965,7 +6526,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7398,6 +7958,283 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="45.54296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="82.26953125" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B4" t="s">
+        <v>565</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B10" t="s">
+        <v>573</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B11" t="s">
+        <v>575</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B14" t="s">
+        <v>579</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>468</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A68FC6C-D8B6-49E3-9532-0BB228ABC33E}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -7414,60 +8251,60 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
+        <v>933</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>934</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B12" s="1"/>
     </row>
@@ -7479,7 +8316,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C14" s="21">
         <v>1</v>
@@ -7487,7 +8324,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C15" s="21">
         <v>1</v>
@@ -7495,7 +8332,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C16" s="21">
         <v>2</v>
@@ -7503,35 +8340,35 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C22" s="21">
         <v>3</v>
@@ -7539,10 +8376,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C23" s="21">
         <v>3</v>
@@ -7550,12 +8387,12 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
   </sheetData>
@@ -7563,7 +8400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -7703,12 +8540,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7718,11 +8555,11 @@
     <col min="3" max="3" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="116" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>478</v>
       </c>
       <c r="C1" s="3">
@@ -7862,7 +8699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953DD369-6282-4F4A-98A5-5E73460558CD}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -7955,7 +8792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -8111,7 +8948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
@@ -8146,7 +8983,168 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4140E-759C-470A-8A2C-5710FE199FCD}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="61.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="104.54296875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B48"/>
   <sheetViews>
@@ -8539,12 +9537,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8682,18 +9680,34 @@
     </row>
     <row r="20" spans="1:3" ht="232" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>998</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>1001</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>1071</v>
       </c>
     </row>
   </sheetData>
@@ -8704,129 +9718,11 @@
     <hyperlink ref="B18" r:id="rId4" xr:uid="{380A35C1-B608-49A6-BE55-919D13C19771}"/>
     <hyperlink ref="B17" r:id="rId5" xr:uid="{A09336A8-BC8F-4BD8-B228-65EF322A6F8F}"/>
     <hyperlink ref="B16" r:id="rId6" xr:uid="{C2505F33-6AF0-49FE-8E4F-CC55FDE37772}"/>
+    <hyperlink ref="B45" r:id="rId7" xr:uid="{8A31E5C5-C7F0-45AA-A855-7A46AC282B8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
-  <drawing r:id="rId8"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="54.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="73.1796875" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="45.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="82.453125" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="116" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -9314,6 +10210,125 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="54.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="73.1796875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="45.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="82.453125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
@@ -9525,7 +10540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795963BA-6859-4123-9D30-33303FC34949}">
   <dimension ref="A1:B51"/>
   <sheetViews>
@@ -9836,7 +10851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83DB964-4164-49D0-ADB4-4FC69C0AAC83}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -9880,7 +10895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BCC8FF-F300-411D-9A51-322985FEB518}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -9947,7 +10962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317DF638-5B61-47BB-BC39-3309BACE0451}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -9963,15 +10978,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B2" s="1">
         <v>6379</v>
@@ -9979,66 +10994,66 @@
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1021</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="290" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="319" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="290" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>
@@ -10098,6 +11113,153 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40FB394-4690-4F52-A2C9-F88A14F9CD7F}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="61.08984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="95.81640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C1" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
@@ -10385,23 +11547,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="73.1796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="54.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="99.81640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>433</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -10412,7 +11574,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>435</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -10423,7 +11585,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>437</v>
       </c>
       <c r="C3" s="10">
@@ -10431,7 +11593,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>438</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -10442,7 +11604,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>440</v>
       </c>
       <c r="C5" s="10">
@@ -10450,7 +11612,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -10461,7 +11623,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="12" t="s">
         <v>443</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -10472,7 +11634,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>444</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -10483,7 +11645,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>445</v>
       </c>
       <c r="C9" s="10">
@@ -10491,7 +11653,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>446</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -10502,7 +11664,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -10513,7 +11675,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -10535,7 +11697,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -10546,7 +11708,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>593</v>
       </c>
       <c r="C15" s="10">
@@ -10554,7 +11716,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>594</v>
       </c>
       <c r="C16" s="10">
@@ -10562,7 +11724,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>595</v>
       </c>
       <c r="C17" s="10">
@@ -10570,7 +11732,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>596</v>
       </c>
       <c r="C18" s="10">
@@ -10578,7 +11740,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="12" t="s">
         <v>597</v>
       </c>
       <c r="C19" s="10">
@@ -10586,7 +11748,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="12" t="s">
         <v>598</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -10597,7 +11759,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>599</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -10619,7 +11781,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="12" t="s">
         <v>889</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -10630,15 +11792,18 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="12" t="s">
         <v>891</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>892</v>
       </c>
+      <c r="C24" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="12" t="s">
         <v>893</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -10649,7 +11814,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>901</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -10660,7 +11825,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>903</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -10671,7 +11836,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>907</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -10682,12 +11847,12 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="9" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>589</v>
       </c>
       <c r="C32" s="10">
@@ -10695,7 +11860,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>590</v>
       </c>
       <c r="C33" s="10">
@@ -10703,7 +11868,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>601</v>
       </c>
       <c r="C34" s="10">
@@ -10711,7 +11876,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>602</v>
       </c>
       <c r="C35" s="10">
@@ -10719,7 +11884,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="12" t="s">
         <v>879</v>
       </c>
       <c r="C36" s="10">
@@ -10727,7 +11892,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="12" t="s">
         <v>881</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -10738,7 +11903,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="12" t="s">
         <v>883</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -10749,7 +11914,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>905</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -10760,12 +11925,12 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="9" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>854</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -10776,12 +11941,12 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="1" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="1" t="s">
         <v>857</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -10789,7 +11954,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>858</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -10797,15 +11962,15 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>861</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="1" t="s">
         <v>863</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -10813,15 +11978,15 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="1" t="s">
         <v>865</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>867</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -10829,27 +11994,27 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="1" t="s">
         <v>869</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="1" t="s">
         <v>871</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>887</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -10857,12 +12022,12 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="12" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="1" t="s">
         <v>874</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -10870,7 +12035,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="1" t="s">
         <v>876</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -10881,7 +12046,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="1" t="s">
         <v>897</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -10892,7 +12057,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="1" t="s">
         <v>899</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -10903,7 +12068,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="1" t="s">
         <v>909</v>
       </c>
       <c r="C61" s="10">
@@ -10911,7 +12076,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="1" t="s">
         <v>910</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -10922,7 +12087,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="1" t="s">
         <v>911</v>
       </c>
       <c r="C63" s="10">
@@ -10930,7 +12095,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="1" t="s">
         <v>912</v>
       </c>
       <c r="C64" s="10">
@@ -10938,7 +12103,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
         <v>913</v>
       </c>
       <c r="C65" s="10">
@@ -10946,7 +12111,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="1" t="s">
         <v>915</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -10957,7 +12122,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="1" t="s">
         <v>917</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -10968,7 +12133,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="1" t="s">
         <v>919</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -10979,14 +12144,66 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="1" t="s">
         <v>921</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>922</v>
+        <v>1045</v>
       </c>
       <c r="C69" s="10">
         <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C70" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C71" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C72" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C73" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="12" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C74" s="10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -10995,7 +12212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -11154,18 +12371,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="63.90625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
@@ -11173,8 +12390,8 @@
       <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>976</v>
+      <c r="B1" t="s">
+        <v>975</v>
       </c>
       <c r="C1" s="10">
         <v>1</v>
@@ -11184,8 +12401,8 @@
       <c r="A2" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>977</v>
+      <c r="B2" t="s">
+        <v>976</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -11193,7 +12410,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -11201,10 +12418,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B4" t="s">
         <v>1014</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>1015</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -11212,10 +12429,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B5" t="s">
         <v>1036</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>1037</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
@@ -11223,10 +12440,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B6" s="23" t="s">
         <v>1037</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1036</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
@@ -11234,10 +12451,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>1037</v>
+        <v>1038</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1036</v>
       </c>
       <c r="C7" s="10">
         <v>3</v>
@@ -11245,10 +12462,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>1040</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>1037</v>
+        <v>1039</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1036</v>
       </c>
       <c r="C8" s="10">
         <v>3</v>
@@ -11256,10 +12473,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>978</v>
+        <v>923</v>
+      </c>
+      <c r="B9" t="s">
+        <v>977</v>
       </c>
       <c r="C9" s="10">
         <v>2</v>
@@ -11267,10 +12484,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="B10" t="s">
         <v>994</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>995</v>
       </c>
       <c r="C10" s="10">
         <v>2</v>
@@ -11278,7 +12495,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C11" s="10">
         <v>2</v>
@@ -11286,10 +12503,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="B12" t="s">
         <v>980</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>981</v>
       </c>
       <c r="C12" s="10">
         <v>2</v>
@@ -11297,10 +12514,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B13" t="s">
         <v>982</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>983</v>
       </c>
       <c r="C13" s="10">
         <v>2</v>
@@ -11308,10 +12525,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C14" s="10">
         <v>3</v>
@@ -11319,10 +12536,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="B15" t="s">
         <v>985</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>986</v>
       </c>
       <c r="C15" s="10">
         <v>3</v>
@@ -11330,10 +12547,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>996</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>997</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
@@ -11341,10 +12558,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B17" t="s">
         <v>1003</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>1004</v>
       </c>
       <c r="C17" s="10">
         <v>2</v>
@@ -11354,7 +12571,7 @@
       <c r="A18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" t="s">
         <v>351</v>
       </c>
       <c r="C18" s="10">
@@ -11397,8 +12614,8 @@
       <c r="A23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>990</v>
+      <c r="B23" t="s">
+        <v>989</v>
       </c>
       <c r="C23" s="10">
         <v>3</v>
@@ -11408,8 +12625,8 @@
       <c r="A24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="23" t="s">
-        <v>1002</v>
+      <c r="B24" t="s">
+        <v>1001</v>
       </c>
       <c r="C24" s="10">
         <v>1</v>
@@ -11420,7 +12637,7 @@
         <v>76</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C25" s="10">
         <v>2</v>
@@ -11436,10 +12653,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="B27" t="s">
         <v>991</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>992</v>
       </c>
       <c r="C27" s="10">
         <v>2</v>
@@ -11515,7 +12732,7 @@
       <c r="A36" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" t="s">
         <v>896</v>
       </c>
       <c r="C36" s="10">
@@ -11524,10 +12741,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B37" t="s">
         <v>1005</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>1006</v>
       </c>
       <c r="C37" s="10">
         <v>1</v>
@@ -11535,10 +12752,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B38" t="s">
         <v>1007</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>1008</v>
       </c>
       <c r="C38" s="10">
         <v>1</v>
@@ -11546,10 +12763,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B39" t="s">
         <v>1009</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>1010</v>
       </c>
       <c r="C39" s="10">
         <v>3</v>
@@ -11557,10 +12774,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>1016</v>
+        <v>1010</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1015</v>
       </c>
       <c r="C40" s="10">
         <v>3</v>
@@ -11568,10 +12785,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>1017</v>
+        <v>1012</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1016</v>
       </c>
       <c r="C41" s="10">
         <v>3</v>
@@ -11579,10 +12796,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>1018</v>
+        <v>1011</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1017</v>
       </c>
       <c r="C42" s="10">
         <v>3</v>
@@ -11590,10 +12807,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B43" t="s">
         <v>1033</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>1034</v>
       </c>
       <c r="C43" s="10">
         <v>3</v>
@@ -11601,132 +12818,132 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C74" s="10">
         <v>2</v>
@@ -11734,10 +12951,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>989</v>
-      </c>
-      <c r="B75" s="23" t="s">
         <v>988</v>
+      </c>
+      <c r="B75" t="s">
+        <v>987</v>
       </c>
       <c r="C75" s="10">
         <v>2</v>
@@ -11745,7 +12962,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C76" s="10">
         <v>2</v>
@@ -11760,7 +12977,7 @@
       <c r="A82" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B82" s="23" t="s">
+      <c r="B82" t="s">
         <v>621</v>
       </c>
       <c r="C82" s="10">
@@ -11771,7 +12988,7 @@
       <c r="A83" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="B83" s="23" t="s">
+      <c r="B83" t="s">
         <v>623</v>
       </c>
       <c r="C83" s="10">
@@ -11782,7 +12999,7 @@
       <c r="A84" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B84" t="s">
         <v>625</v>
       </c>
       <c r="C84" s="10">
@@ -11795,7 +13012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C91"/>
   <sheetViews>
@@ -12666,281 +13883,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="45.54296875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="82.26953125" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="C1" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="B2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C2" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="B3" t="s">
-        <v>563</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="B4" t="s">
-        <v>565</v>
-      </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="B8" t="s">
-        <v>570</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="B10" t="s">
-        <v>573</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="B11" t="s">
-        <v>575</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="C13" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="B14" t="s">
-        <v>579</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
-        <v>468</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13099C3D-9992-4ED0-9ED3-520118B0947F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A560BC-E9E3-4169-A35F-C5C1CCFC7AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="12" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="1120">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -6368,6 +6368,100 @@
 let sentence2 = `This sentence include "" and ''. `
 </t>
     </r>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <r>
+      <t>let &lt;arr_variable&gt; = [];
+can hold multiple values of diff. DT
+Accessing:   &lt;arr_variable&gt;[index] //undefined if out of bound index
+&lt;arr_variable&gt;.length
+Mutable
+typeof &lt;arr_variable&gt; =&gt; Object
+&lt;arr_variable&gt;.toString()   //seperator is comma ","
+&lt;arr_variable&gt;.join(&lt;seperator&gt;)
+&lt;arr_variable&gt;.pop() //return pop element
+&lt;arr_variable&gt;.push(&lt;element&gt;)   //return new length
+&lt;arr_variable&gt;.shift()     //removes first element and returns it
+&lt;arr_variable&gt;unshift(&lt;element&gt;) //add infornt and returns new length
+&lt;arr_variable&gt;.concat(&lt;arr1&gt;,&lt;arr2&gt;.....)     //returns new array
+delete &lt;arr_variable&gt;[index] //</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">delete element and changes it yo undefined but array length remains the same
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;arr_variable&gt;.sort()   //void, modifies the array, sorted alphabetically [1,22,3,12,23] -&gt; [1,12,22,23,3]
+&lt;arr_variable&gt;.sort( cmp ); const cmp =(a,b)=&gt;{ a-b } //for normal sorting
+&lt;arr_variable&gt;.reverse()
+&lt;arr_variable&gt;.splice(startIndex, fromStartIndex_ReomveHowManyElements, new1, new2......)   //return deleted values in []
+&lt;arr_variable&gt;.slice(startIndex,endIndex) // return subarray from [start,end) , do not modify current array.
+Array.from(&lt;otherTypeOf Object&gt;)   //Use to form an array from object.
+simple for loop
+&lt;arr_variable&gt;.forEach((element) =&gt; {  ____  } )
+for(let item of &lt;arr_variable&gt;){  ___  }    //returns all values in object and elements in array
+for(let i in &lt;arr_variable&gt;) {  ___  }   //returns keys in object and indices in array
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Higher order array methods
+&lt;arr_variable&gt;.map(  (value, index*, array*) =&gt; {____}) //This performs desired function on every element while returning the new element.
+&lt;arr_variable&gt;.filter((element) =&gt; {&lt;boolean return on element&gt;})   //creates new array where current array's element are filtered out based on boolean.
+&lt;arr_variable&gt;.reduce((element, element2*...)=&gt;{______})   //reduces the array element to a single value based on operation returned in reduce function and returns this single value.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>CSS overriding order</t>
+  </si>
+  <si>
+    <t>Script tag advantage</t>
+  </si>
+  <si>
+    <t>In browser memory caching
+Seperation of methods/concerns</t>
+  </si>
+  <si>
+    <t>inline&gt;embedded&gt;external</t>
+  </si>
+  <si>
+    <t>Console object</t>
+  </si>
+  <si>
+    <t>console.log()
+console.error()     //output error script in console in a different, error specific format
+console.clear()       /clear console
+console.assert(&lt;condition&gt;)     //assertion to condition, if failed showcase assertion failed error
+console.table(&lt;object&gt;)     //tabularized output for an object
+console.warn()     //output warning script in console in a different, warning specific format
+console.time(&lt;label string&gt;)   // follwed by timeEnd
+console.timeEnd(&lt;same label string&gt;)   this will output the time associated with the label, that is time it took to hit timeEnd from time function of console object.</t>
   </si>
 </sst>
 </file>
@@ -8985,10 +9079,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4140E-759C-470A-8A2C-5710FE199FCD}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9136,6 +9230,38 @@
       </c>
       <c r="B18" s="1" t="s">
         <v>1110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1119</v>
       </c>
     </row>
   </sheetData>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A560BC-E9E3-4169-A35F-C5C1CCFC7AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6281E308-0FE8-4C62-ABDF-B242E8A93A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="12" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="1141">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -6462,6 +6462,136 @@
 console.warn()     //output warning script in console in a different, warning specific format
 console.time(&lt;label string&gt;)   // follwed by timeEnd
 console.timeEnd(&lt;same label string&gt;)   this will output the time associated with the label, that is time it took to hit timeEnd from time function of console object.</t>
+  </si>
+  <si>
+    <t>SSR vs SSG vs CSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSR: Page is initially prepared by the server and delivered to the client. It is  good if you are concerned for you SEO score and the website/applicaion holds lot of stati pages or has less dynamic nature or interactivity. FCP is fast here.
+SSG is same as SSR except for the fact that it is ideal if you want to deliver content that is always static and will not often require update. Page is prerendered and stoer on a CDN for fast delivery. FCP is nearly 0.
+CSR ships the whole package/bundle of HTML,CSS associated and JS to the client and let it work on the client end to render the desired page (components of bundle are shipped in order mentioned where JS takes up most amount of time). Here FCP is rendered comparitively slowly. </t>
+  </si>
+  <si>
+    <t>Next Greater element II</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Given circular array find next greater element to each element.
+Stack&lt;int&gt; st;
+st.push(lastElement);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">while(i&gt;=0){
+    while(!st.empty() &amp;&amp; arr[i]&gt;st.top()){st.pop();}
+    st.push(arr[i]);
+} // store a prior view of arr from left....viewing arr from left, we'll see only highest buildings.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for(int i=n-1;i&gt;=0;i--){
+    while(!st.empty() &amp;&amp; st.top()&lt;=arr[i]){st.pop();}
+    if(st.empty())ans[i]=-1;
+    else{
+        ans[i]=st.top();
+    }st.push(arr[i]);
+}
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Previous Greater Element</t>
+  </si>
+  <si>
+    <t>Maximum area of rectangle with all 1s</t>
+  </si>
+  <si>
+    <t>Valid Stack sequence</t>
+  </si>
+  <si>
+    <t>Given 2 sequences on denoting push and other denoting pop, find if pop sequence can be formed if we push/pop the element from push sequence in certain order. All elements are distince and both seqences have same length.
+Stack&lt;int&gt; st;
+int j=0;
+for(ele in push_seq){
+    st.push(ele);
+    while(!st.empty() &amp;&amp; pop[i]==st.top()){
+        j++; st.pop();
+    }
+} return j==st.size();</t>
+  </si>
+  <si>
+    <t>Minimum bracket to add and make valid parantheses sequence</t>
+  </si>
+  <si>
+    <t>Remove outtermost paranthases (from valid parantheses requence)</t>
+  </si>
+  <si>
+    <t>Score of parantheses (balanced parantheses string)</t>
+  </si>
+  <si>
+    <t>Given a balanced parantheses string, find its score by rules= () is 1, (string) =2*score of string, balanced_string1 balanced_string2 = sum of both scores. Example-&gt; ()() =2 and (())()=3
+Use stack to push scores.
+For(int i=0;i&lt;str.size();i++){
+    if(str[i]=="("){ st.push(-1) }
+    else{
+        if(st.top()&lt;0){  st.pop(); st.push(1);  }
+        else{
+            score=0;
+            while(st.top()&gt;0){ score+=st.top(); st.pop() }
+            st.pop();
+            st.push(score*2);
+        }
+    }
+}int score=0;
+while(st.size()!=1){ score+=st.top(); st.pop(); }
+return score;
+// Last while loop can be avaoided if we wrap string into () and return final score/2;</t>
+  </si>
+  <si>
+    <t>Reverse Substring between each pair of parantheses</t>
+  </si>
+  <si>
+    <t>Example:  (abcd) =&gt;dcba
+(ab)(er) =&gt; bare
+(amt)(ac(rt)q) =&gt; tmaqrtca</t>
+  </si>
+  <si>
+    <t>Minimum removes  to make valid parantheses</t>
+  </si>
+  <si>
+    <t>Return valid parantheses string. Given tring can contain a-z and ()</t>
+  </si>
+  <si>
+    <t>Exclusive time of functions</t>
+  </si>
+  <si>
+    <t>Given processes starting and ending time and one one processor, find total execution time for all the processes</t>
+  </si>
+  <si>
+    <t>Remove duplicates II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a string which I not sorted and has duplicates, return a lexicographically smallest string without duplicates holding same order as the given string.
+For example if str=bcabcd then return abcd, or if str = bbcaac return bac (not bca because bac&lt;bca)
+</t>
+  </si>
+  <si>
+    <t>132 Pattern</t>
   </si>
 </sst>
 </file>
@@ -9079,10 +9209,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4140E-759C-470A-8A2C-5710FE199FCD}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9262,6 +9392,14 @@
       </c>
       <c r="B22" s="1" t="s">
         <v>1119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1121</v>
       </c>
     </row>
   </sheetData>
@@ -11240,10 +11378,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40FB394-4690-4F52-A2C9-F88A14F9CD7F}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11369,14 +11507,136 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>1077</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C19" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C20" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C21" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C22" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="261" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C25" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C26" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C27" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C28" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C30" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>1140</v>
       </c>
     </row>
   </sheetData>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6281E308-0FE8-4C62-ABDF-B242E8A93A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF62F5F7-6250-4699-85CB-6A9FC9D639BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="1159">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -6592,6 +6592,76 @@
   </si>
   <si>
     <t>132 Pattern</t>
+  </si>
+  <si>
+    <t>Alert</t>
+  </si>
+  <si>
+    <t>Promt</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>Returns true or false according to the input chosen on the confirm("___") popup window.</t>
+  </si>
+  <si>
+    <t>Returns the string value of what is entered in the popup window of prompt("___")</t>
+  </si>
+  <si>
+    <t>Informs the user with the message in the popup alert box from alert("___")</t>
+  </si>
+  <si>
+    <t>Window Object</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global object (hence we need not to use windows.function/claas_member because it is available global)
+Windows object represent the browser window and provides methods to controll it. </t>
+  </si>
+  <si>
+    <t>BOM</t>
+  </si>
+  <si>
+    <t>Browser Object Model is also a JavaScript object which provides methods to manipulate browsers apart from documrnt object as a whole on any user event. Infact alert/prompt/confirm are BOM methods. BOM(DOM).
+location is one of its object</t>
+  </si>
+  <si>
+    <t>Document Object model. It is an Object of Javascript for the html representation. 
+document.body   represents HTML body as Javascript object
+Javascript helps controlling interactivity of document (in general windows object) as per user events. That’s where these objects come in handy.  
+The Document Object Model is a cross-platform and language-independent interface that treats an XML or HTML document as a tree structure wherein each node is an object representing a part of the document.
+There are mainly 3 types of nodes: text (always leaf), element, comment
+document.head
+document.body
+document.title
+document.documentElement
+Internal Javascript is always written in the end of Document because it loads in a browser latest. Which means in order to have the access to the whole HTML doc, it must be painted already by the browser in the window. If we were to access it before it was painted it would have been impossible.</t>
+  </si>
+  <si>
+    <t>Accessing DOM children elements</t>
+  </si>
+  <si>
+    <t>document.body.firstChild
+document.body.lastChild
+document.body.childNodes -&gt; Array.from(document.body.childNodes)</t>
+  </si>
+  <si>
+    <t>$0 and $1</t>
+  </si>
+  <si>
+    <t>selected HTML element in developer tool is represented by $0 and $1 represents previously selected HTML element</t>
+  </si>
+  <si>
+    <t>Accessing DOM parent elements</t>
+  </si>
+  <si>
+    <t>document.&lt;documentElemen&gt;.parentElement //if no parent return null
+document.&lt;documentElemen&gt;.parentNode
+document.&lt;documentElemen&gt;.nextSibling
+document.&lt;documentElemen&gt;.previousSibling</t>
   </si>
 </sst>
 </file>
@@ -8928,7 +8998,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9209,10 +9279,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4140E-759C-470A-8A2C-5710FE199FCD}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9400,6 +9470,78 @@
       </c>
       <c r="B23" s="1" t="s">
         <v>1121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1158</v>
       </c>
     </row>
   </sheetData>
@@ -11380,7 +11522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40FB394-4690-4F52-A2C9-F88A14F9CD7F}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF62F5F7-6250-4699-85CB-6A9FC9D639BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0959B89F-C448-42D6-8556-D9B7AE07D0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="1165">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -6644,11 +6644,6 @@
     <t>Accessing DOM children elements</t>
   </si>
   <si>
-    <t>document.body.firstChild
-document.body.lastChild
-document.body.childNodes -&gt; Array.from(document.body.childNodes)</t>
-  </si>
-  <si>
     <t>$0 and $1</t>
   </si>
   <si>
@@ -6660,8 +6655,43 @@
   <si>
     <t>document.&lt;documentElemen&gt;.parentElement //if no parent return null
 document.&lt;documentElemen&gt;.parentNode
-document.&lt;documentElemen&gt;.nextSibling
-document.&lt;documentElemen&gt;.previousSibling</t>
+document.&lt;documentElemen&gt;.nextSibling    or .previousElementSibling   (previous sibling whihch is visible element)
+document.&lt;documentElemen&gt;.previousSibling    or  .nextElementSibling   (next sibling which is a visible element)</t>
+  </si>
+  <si>
+    <t>document.body.firstChild   or  .firstElementChild
+document.body.lastChild    or .lastElementChild
+document.body.childNodes -&gt; Array.from(document.body.childNodes)</t>
+  </si>
+  <si>
+    <t>Table navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;table_element&gt;.tHead
+&lt;table_element&gt;.tFoot
+&lt;table_element&gt;.caption
+&lt;table_element&gt;.rows
+&lt;table_element&gt;.rows[index].rowIndex
+</t>
+  </si>
+  <si>
+    <t>Searching DOM</t>
+  </si>
+  <si>
+    <t>document.getElementById(&lt;idString&gt;)    document.getElementsById(&lt;idString&gt;)
+document.getElementByClassName(&lt;idString&gt;)      document.getElementsByClassName(&lt;idString&gt;)
+document.getElementByTagName(&lt;stringTag&gt;)      document.getElementsByTagName(&lt;stringTag&gt;)
+document.getElementByName(&lt;stringTag&gt;)     document.getElementByName(&lt;stringTag&gt;)
+document.querySelectorAll(&lt;#/.&gt;)
+document.querySelector(&lt;#/.&gt;)</t>
+  </si>
+  <si>
+    <t>Matches/Contains/Closest</t>
+  </si>
+  <si>
+    <t>&lt;document_element&gt;.matches("&lt;CSS selector&gt;") // return true/false is CSS selector is present in the selected doc element
+&lt;document_element&gt;.closest("CSS selector")   //return itself or closest ancestor if the CSS selector is present.
+&lt;document_element&gt;.contains(&lt;document_element2&gt;) //return true/false if document_element2 is present in subtree of document_element.</t>
   </si>
 </sst>
 </file>
@@ -9279,10 +9309,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4140E-759C-470A-8A2C-5710FE199FCD}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9525,23 +9555,47 @@
         <v>1153</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>1155</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>1158</v>
+    </row>
+    <row r="33" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1164</v>
       </c>
     </row>
   </sheetData>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0959B89F-C448-42D6-8556-D9B7AE07D0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A4B527-D7AB-4B6E-8170-A8C9DD48AF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="17" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,7 @@
     <sheet name="BlockChain" sheetId="22" r:id="rId24"/>
     <sheet name="ML" sheetId="23" r:id="rId25"/>
     <sheet name="Redis" sheetId="26" r:id="rId26"/>
+    <sheet name="GIT" sheetId="29" r:id="rId27"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="1165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="1184">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -6692,6 +6693,86 @@
     <t>&lt;document_element&gt;.matches("&lt;CSS selector&gt;") // return true/false is CSS selector is present in the selected doc element
 &lt;document_element&gt;.closest("CSS selector")   //return itself or closest ancestor if the CSS selector is present.
 &lt;document_element&gt;.contains(&lt;document_element2&gt;) //return true/false if document_element2 is present in subtree of document_element.</t>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>git add _____</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git add -A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> git add .</t>
+    </r>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>git log -p -&lt;last_x_commits&gt;</t>
+  </si>
+  <si>
+    <t>git diff</t>
+  </si>
+  <si>
+    <t>git diff --staged</t>
+  </si>
+  <si>
+    <t>git checkout</t>
+  </si>
+  <si>
+    <t>git checkout -f</t>
+  </si>
+  <si>
+    <t>git commit -m "______"</t>
+  </si>
+  <si>
+    <t>git commit -a -m "_______"</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>git rm &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>git rm --cached &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>git status -s</t>
+  </si>
+  <si>
+    <t>.gitignore</t>
+  </si>
+  <si>
+    <t>git reset HEAD &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>git restore --staged &lt;file&gt;</t>
   </si>
 </sst>
 </file>
@@ -9311,7 +9392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4140E-759C-470A-8A2C-5710FE199FCD}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -11523,6 +11604,121 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0033F429-AF94-4CD4-996F-868956C2C131}">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="61.81640625" customWidth="1"/>
+    <col min="2" max="2" width="96.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A4B527-D7AB-4B6E-8170-A8C9DD48AF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157CD3F8-5202-4779-BA49-8C7F44670F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="17" activeTab="26" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -30,16 +30,18 @@
     <sheet name="Trie" sheetId="9" r:id="rId15"/>
     <sheet name="FlutterWidgets" sheetId="10" r:id="rId16"/>
     <sheet name="JavaScript" sheetId="28" r:id="rId17"/>
-    <sheet name="React and Node" sheetId="5" r:id="rId18"/>
-    <sheet name="Misc" sheetId="6" r:id="rId19"/>
-    <sheet name="CP Errors and Constraints" sheetId="16" r:id="rId20"/>
-    <sheet name="System Arch" sheetId="17" r:id="rId21"/>
-    <sheet name="OOPS" sheetId="18" r:id="rId22"/>
-    <sheet name="Erlang Basics" sheetId="20" r:id="rId23"/>
-    <sheet name="BlockChain" sheetId="22" r:id="rId24"/>
-    <sheet name="ML" sheetId="23" r:id="rId25"/>
-    <sheet name="Redis" sheetId="26" r:id="rId26"/>
-    <sheet name="GIT" sheetId="29" r:id="rId27"/>
+    <sheet name="GOlang" sheetId="31" r:id="rId18"/>
+    <sheet name="React and Node" sheetId="5" r:id="rId19"/>
+    <sheet name="Misc" sheetId="6" r:id="rId20"/>
+    <sheet name="CP Errors and Constraints" sheetId="16" r:id="rId21"/>
+    <sheet name="System Arch" sheetId="17" r:id="rId22"/>
+    <sheet name="OOPS" sheetId="18" r:id="rId23"/>
+    <sheet name="Erlang Basics" sheetId="20" r:id="rId24"/>
+    <sheet name="BlockChain" sheetId="22" r:id="rId25"/>
+    <sheet name="ML" sheetId="23" r:id="rId26"/>
+    <sheet name="Redis" sheetId="26" r:id="rId27"/>
+    <sheet name="GIT" sheetId="29" r:id="rId28"/>
+    <sheet name="C++Depth" sheetId="30" r:id="rId29"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="1184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="1213">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -6455,16 +6457,6 @@
     <t>Console object</t>
   </si>
   <si>
-    <t>console.log()
-console.error()     //output error script in console in a different, error specific format
-console.clear()       /clear console
-console.assert(&lt;condition&gt;)     //assertion to condition, if failed showcase assertion failed error
-console.table(&lt;object&gt;)     //tabularized output for an object
-console.warn()     //output warning script in console in a different, warning specific format
-console.time(&lt;label string&gt;)   // follwed by timeEnd
-console.timeEnd(&lt;same label string&gt;)   this will output the time associated with the label, that is time it took to hit timeEnd from time function of console object.</t>
-  </si>
-  <si>
     <t>SSR vs SSG vs CSR</t>
   </si>
   <si>
@@ -6773,6 +6765,477 @@
   </si>
   <si>
     <t>git restore --staged &lt;file&gt;</t>
+  </si>
+  <si>
+    <t>Inventor</t>
+  </si>
+  <si>
+    <t>When</t>
+  </si>
+  <si>
+    <t>Compilation</t>
+  </si>
+  <si>
+    <t>Solution Platform</t>
+  </si>
+  <si>
+    <t>Solution Configuration</t>
+  </si>
+  <si>
+    <t>What platform are we targetting for our current compilation (x64,x86)</t>
+  </si>
+  <si>
+    <t>Set of rules that applies to building of a project (debug(disabled optimization), release (optimized,maximized speed) )</t>
+  </si>
+  <si>
+    <t>Bjarne Stroustrup</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Preprocessing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(This happens just before compilation begins (The first thing comiler does is perfom all the preprocessor statements). Compiler simply processes all preprocessor statements. For example #include just copies and pastes all the content (declarations) of content file present in path variable directory or current directory {iostream itself include many header files}, #define replaces occurance of first argument with second argument at the time of preprocessing, #if followed of #endif just makes a piece of code conditional (present not present decided even before compilation). ) A .i extension represents a file that is preprocessed but not compiled to an object intermediate.
+Each header file gets included into .cpp file and then gets compiled. An individual .h (header file) will never be compiled. 
+After preprocessing Compiler tokenizes cpp file text via parsing and converts into a format that compiler can understand. This creates abstract syntax tree (representation of a code).  Once this tree is built, compiler basically derives from it the basic assembly language code (.asm file) which later get converted to binary form via assembler.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Translational Units </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Compiler treats the .cpp file as translational unit and this is always converted to .obj file upon compilation. A .h file will not be compiled to obj files). A translational unit is converted to a .obj intermediate file. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Entry point</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (every executable application holds an entry point which initiates the execution. Generally called main file or main.cpp)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Operators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Symbols that are noting but functions for objects)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Object File</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (.obj) Complier outputs obecjt file for each translational unit ( each .cpp). When we use a function from an another file source  we need to either include it in our current .cpp file or use that function's declaration. When compiler reads that declaration it'll not throw an error of undefined function call. Linker later finds and maps that declaration to the definition present in another .cpp -&gt; .obj file.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Assembly code </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(.asm extension file (performed in silence directly to the output file))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Linker </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Linker utilizes function signature (can be seen in assembly code) to map a function call to its actual definition in present in the project directory)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Single executable Binary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (.exe)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Single Library Binary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (.dll)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Special case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Our main/entry function does hav to return anything, by default if anything is not mentioned it will assume return 0.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Change HTML content</t>
+  </si>
+  <si>
+    <t>console.log()
+console.dir(&lt;HTML element&gt; )   //shows element as a object with html properties as object member
+console.error()     //output error script in console in a different, error specific format
+console.clear()       /clear console
+console.assert(&lt;condition&gt;)     //assertion to condition, if failed showcase assertion failed error
+console.table(&lt;object&gt;)     //tabularized output for an object
+console.warn()     //output warning script in console in a different, warning specific format
+console.time(&lt;label string&gt;)   // follwed by timeEnd
+console.timeEnd(&lt;same label string&gt;)   this will output the time associated with the label, that is time it took to hit timeEnd from time function of console object.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Get the element and .innerHTML =""
+InnerHTML actually gives us the whole inner DOM tree as a string on under the element on which it is applied. Only for element nodes. For other node types we can use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.nodeValue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+.outerHTML will return self plus innerHTML DOM subtree.
+.textContent will return subtree's text content as a string (without tags)</t>
+    </r>
+  </si>
+  <si>
+    <t>HTML hidden attribute</t>
+  </si>
+  <si>
+    <t>&lt;___ hidden&gt; (by default it is true is used)</t>
+  </si>
+  <si>
+    <t>Attribute access</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Element&gt;.getAttribute("&lt;attribute&gt;")   //return its value
+&lt;Element&gt;.setAttribute("&lt;attribute&gt;","&lt;value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;")
+&lt;Element&gt;.hasAttribute("&lt;attibute&gt;")
+&lt;Element&gt;.removeAttribute("&lt;attribute&gt;")</t>
+    </r>
+  </si>
+  <si>
+    <t>Packages in GoLang</t>
+  </si>
+  <si>
+    <t>Packages are similar to namespaces
+At the beginning of the source code/ library code we need to define in which namespace/package this code belongs
+All file stored in same directory must have same package name
+Module init prepares go code module which usually is given by github repository path but not necessarily
+If you have a piece of code in another file inside same directory as of current file, we can directly access it whole global variables (the one those are global and starts with capital letter)
+If you have a piece of code in another directory than current, and want to you a whole global variable we need to import it in import("fmt", "&lt;module&gt;/target_directory_path") and use varible as package_name.Variable in our corrent file.</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assigned as 
+var &lt;variable_name&gt; &lt;data_type&gt;;
+var &lt;variable_name&gt; &lt;data_type&gt; = &lt;value&gt;;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ShortHand Notation
+&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>variable_name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; := &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Datatypes Primitive</t>
+  </si>
+  <si>
+    <t>bool
+string
+float64
+int</t>
+  </si>
+  <si>
+    <t>Type Check in GoLang</t>
+  </si>
+  <si>
+    <t>fmt.Printf("%T",&lt;variable&gt;)
+reflect.TypeOf(&lt;variable&gt;)
+reflect.ValueOf(&lt;Variable&gt;).Kind()</t>
+  </si>
+  <si>
+    <t>Output streams</t>
+  </si>
+  <si>
+    <t>fmt.Printf()   //C style 
+ft.Println() //JAVA style new line appended</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>var &lt;array_variable&gt; [&lt;size&gt;]&lt;type&gt; = {_____}
+var &lt;array_variable&gt; [&lt;size&gt;]&lt;type&gt;
+&lt;array_variable&gt; := [&lt;size&gt;] &lt;type&gt; {_____}
+0 Indexed and uniform type. Fixed length
+Element Access via &lt;arrary_variable&gt;[&lt;index&gt;]</t>
+  </si>
+  <si>
+    <t>Slices</t>
+  </si>
+  <si>
+    <t>Slices are like arrays but they are dynamically resizable i.e. their size is not fixed similar to list in python. Slices are a layer of abstraction over arrays. So when on resizing, the underlying array is changed to a larger array and the contents are copied, but it is completely abstracted from the programmer.
+var &lt;slice_variable&gt; []&lt;datatype&gt;
+&lt;slice_variable&gt; = append(&lt;slice_variable&gt;,&lt;value&gt;)
+Accessing is same as Array
+make([]&lt;dataType&gt;, size, capacity)
+cap(&lt;slice_variable&gt;)
+len(&lt;slice_variable&gt;)</t>
   </si>
 </sst>
 </file>
@@ -6865,7 +7328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6930,6 +7393,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9390,10 +9856,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4140E-759C-470A-8A2C-5710FE199FCD}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9567,116 +10033,140 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>1118</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1119</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1121</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>1143</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1144</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>1150</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>1154</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>1156</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>1159</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>1161</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>1163</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>1164</v>
+    </row>
+    <row r="36" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1198</v>
       </c>
     </row>
   </sheetData>
@@ -9686,6 +10176,82 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8094B6-CB06-4E55-ACD8-76FB0FB9921F}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="60.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="87.36328125" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B48"/>
   <sheetViews>
@@ -10075,195 +10641,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:C45"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="54.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="78.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="174" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="232" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>997</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{27BA61B5-D020-4B8F-AFC9-207EF2FCF94F}"/>
-    <hyperlink ref="B15" r:id="rId3" xr:uid="{3CBD2DB6-D317-4648-A724-BB8E07A2D11B}"/>
-    <hyperlink ref="B18" r:id="rId4" xr:uid="{380A35C1-B608-49A6-BE55-919D13C19771}"/>
-    <hyperlink ref="B17" r:id="rId5" xr:uid="{A09336A8-BC8F-4BD8-B228-65EF322A6F8F}"/>
-    <hyperlink ref="B16" r:id="rId6" xr:uid="{C2505F33-6AF0-49FE-8E4F-CC55FDE37772}"/>
-    <hyperlink ref="B45" r:id="rId7" xr:uid="{8A31E5C5-C7F0-45AA-A855-7A46AC282B8A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
-  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -10751,6 +11128,195 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="54.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="78.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="232" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{27BA61B5-D020-4B8F-AFC9-207EF2FCF94F}"/>
+    <hyperlink ref="B15" r:id="rId3" xr:uid="{3CBD2DB6-D317-4648-A724-BB8E07A2D11B}"/>
+    <hyperlink ref="B18" r:id="rId4" xr:uid="{380A35C1-B608-49A6-BE55-919D13C19771}"/>
+    <hyperlink ref="B17" r:id="rId5" xr:uid="{A09336A8-BC8F-4BD8-B228-65EF322A6F8F}"/>
+    <hyperlink ref="B16" r:id="rId6" xr:uid="{C2505F33-6AF0-49FE-8E4F-CC55FDE37772}"/>
+    <hyperlink ref="B45" r:id="rId7" xr:uid="{8A31E5C5-C7F0-45AA-A855-7A46AC282B8A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -10801,7 +11367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -10869,7 +11435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
@@ -11081,7 +11647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795963BA-6859-4123-9D30-33303FC34949}">
   <dimension ref="A1:B51"/>
   <sheetViews>
@@ -11392,7 +11958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83DB964-4164-49D0-ADB4-4FC69C0AAC83}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -11436,7 +12002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BCC8FF-F300-411D-9A51-322985FEB518}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -11503,7 +12069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317DF638-5B61-47BB-BC39-3309BACE0451}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -11604,11 +12170,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0033F429-AF94-4CD4-996F-868956C2C131}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -11620,97 +12186,157 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F4FD180-F8EE-4952-9EB9-64D62CF59BA4}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="61.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="95.90625" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>1183</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B2" s="23">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>1189</v>
       </c>
     </row>
   </sheetData>
@@ -11911,10 +12537,10 @@
     </row>
     <row r="19" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1122</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1123</v>
       </c>
       <c r="C19" s="10">
         <v>3</v>
@@ -11922,7 +12548,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C20" s="10">
         <v>3</v>
@@ -11930,7 +12556,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C21" s="10">
         <v>3</v>
@@ -11938,10 +12564,10 @@
     </row>
     <row r="22" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>1126</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1127</v>
       </c>
       <c r="C22" s="10">
         <v>2</v>
@@ -11949,7 +12575,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C23" s="10">
         <v>2</v>
@@ -11957,7 +12583,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C24" s="10">
         <v>2</v>
@@ -11965,10 +12591,10 @@
     </row>
     <row r="25" spans="1:3" ht="261" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>1130</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>1131</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
@@ -11976,10 +12602,10 @@
     </row>
     <row r="26" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>1132</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1133</v>
       </c>
       <c r="C26" s="10">
         <v>2</v>
@@ -11987,10 +12613,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>1134</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>1135</v>
       </c>
       <c r="C27" s="10">
         <v>2</v>
@@ -11998,10 +12624,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>1136</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>1137</v>
       </c>
       <c r="C28" s="10">
         <v>2</v>
@@ -12017,10 +12643,10 @@
     </row>
     <row r="30" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>1138</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1139</v>
       </c>
       <c r="C30" s="10">
         <v>3</v>
@@ -12028,7 +12654,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
   </sheetData>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157CD3F8-5202-4779-BA49-8C7F44670F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974F3E79-F3B0-46F2-BCB9-76EBC9A36F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="14" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="1236">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -7236,6 +7236,170 @@
 make([]&lt;dataType&gt;, size, capacity)
 cap(&lt;slice_variable&gt;)
 len(&lt;slice_variable&gt;)</t>
+  </si>
+  <si>
+    <t>Element Creation</t>
+  </si>
+  <si>
+    <t>Element Insertion methods</t>
+  </si>
+  <si>
+    <t>ele = document.createElement(&lt;tag_name&gt;)
+ele.className= "&lt;class&gt;" //Set elements class</t>
+  </si>
+  <si>
+    <t>&lt;document_element&gt;.append(&lt;ele&gt;)     //last in document_node, inside it
+&lt;document_element&gt;.prepend(&lt;ele&gt;)      //first in document node, inside it
+&lt;document_element&gt;.after(&lt;ele&gt;)    //after document_node outside it
+&lt;document_element&gt;.before(&lt;ele&gt;)    //before document_note outside it
+&lt;document_element&gt;.replaceWith(&lt;ele&gt;)
+&lt;document_element&gt;.insertAdjacentHTML('&lt;beforebegin&gt;','&lt;element&gt;')  //above document_element
+&lt;document_element&gt;.insertAdjacentHTML('&lt;beforeend&gt;','&lt;element&gt;')    //inside document element in the last
+&lt;document_element&gt;.insertAdjacentHTML('&lt;afterbegin&gt;','&lt;element&gt;')    //inside document element at first position
+&lt;document_element&gt;.insertAdjacentHTML('&lt;afterend&gt;','&lt;element&gt;')      //below/outside after document element
+same goes for:
+.insertAdjacentElement
+.insertAdjacentText</t>
+  </si>
+  <si>
+    <t>Element Removal</t>
+  </si>
+  <si>
+    <t>&lt;document_element&gt;.remove()</t>
+  </si>
+  <si>
+    <t>Add and remove class</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NOTE: We can have multiple classnames and a single unique ID.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;document_element&gt;.className="&lt;class-names&gt;"
+&lt;document_element&gt;.classList.add("&lt;class-names&gt;")
+&lt;document_element&gt;.classList.remove("&lt;class_names&gt;")
+&lt;document_element&gt;.classList.toggel("&lt;class_names&gt;")
+&lt;document_element&gt;.classList.contains("&lt;class-name&gt;")</t>
+    </r>
+  </si>
+  <si>
+    <t>setTimeout</t>
+  </si>
+  <si>
+    <t>setInterval</t>
+  </si>
+  <si>
+    <t>setTimeout( callback_function, time_in_msec, &lt;argument1&gt;, &lt;argument2&gt;…... );   //returns timerID
+const callback_function = (argument1, argument2…..) =&gt; { ____ }
+clearTimeout(timeerID_of_setTiemout)</t>
+  </si>
+  <si>
+    <t>setInterval( function_call, time_in_msec, &lt;argument1&gt;, &lt;argument2&gt;…... );   //returns timerID
+const function_call= (argument1, argument2…..) =&gt; { ____ }
+clearInterval(timerID_of_setInterval)</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouse: onclick, onmouseenter, onmouseup, onmousedown, onmousemove, onmouseover, oncontextmenu.
+Key: onkeyup, onkeydown
+onsubmit, onfocus
+DOMcontextLoaded
+Now we can use attributes in HTML tags. Or we can use directly them in our script.js
+&lt;document_element&gt;.&lt;event&gt; = () =&gt;{____}
+Better add event Listener:
+const function_const = (e)=&gt;{__________}
+&lt;document_element&gt;.addEventListener('&lt;event&gt;', &lt;function_const&gt;)
+Here "e" is the event object and function_const is the callback function reference. 
+you can get mutiple attributes from event object about event infoemation. e.target gives you doc_element on which event is occured and e.target.value gives value of that doc_element
+</t>
+  </si>
+  <si>
+    <t>CallBack functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A function whih is being executed in a synchronous manner </t>
+  </si>
+  <si>
+    <t>ListNode* left;
+    bool is(ListNode* right){
+        if(right==NULL)return true;
+        bool subans=is(right-&gt;next);
+        if(subans==false){
+            return false;
+        }else if(left-&gt;val!=right-&gt;val){
+            return false;
+        }
+        left=left-&gt;next;
+        return true;
+    }
+    bool isPalindrome(ListNode* head) {
+        if(head==NULL||head-&gt;next==NULL)return true;
+        left=head;
+        return is(head);
+    }</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>Valid palindrome 1</t>
+  </si>
+  <si>
+    <t>Valid Palindrome 2 (Almost palindrome)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bool check(string x){
+        int i=0,j=x.size()-1;
+        while(i&lt;j){
+            if(x[i]!=x[j])return false;
+            i++;j--;
+        }return true;
+    }
+    bool validPalindrome(string s) {
+        int i=0,j=s.size()-1;
+        bool ans=true;
+        while(i&lt;j){
+            if(s[i]!=s[j]){
+                ans=check(s.substr(i,j-i))|| check(s.substr(i+1,j-i));break;
+            }i++;j--;
+        }return ans;
+    }</t>
+  </si>
+  <si>
+    <t>Add spaces to a string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a string and a vector called spaces defining where the spaces should come by o-based index in the original string, return the final string.
+string addSpaces(string s, vector&lt;int&gt;&amp; spaces) {
+        sort(spaces.begin(),spaces.end());
+        string ans="";
+        int j=0;
+        for(int i=0;i&lt;s.size();i++){
+            if(j&lt;spaces.size() &amp;&amp; spaces[j]==i){
+                ans+=" ";
+                j++;
+            }
+            ans+=s[i];
+        }return ans;
+    } </t>
   </si>
 </sst>
 </file>
@@ -7328,7 +7492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7397,6 +7561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8189,7 +8354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
@@ -9856,10 +10021,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4140E-759C-470A-8A2C-5710FE199FCD}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10169,6 +10334,70 @@
         <v>1198</v>
       </c>
     </row>
+    <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10179,7 +10408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8094B6-CB06-4E55-ACD8-76FB0FB9921F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -10648,8 +10877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10730,33 +10959,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>300</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>301</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>380</v>
       </c>
       <c r="C10" s="3">
@@ -10779,11 +11008,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>299</v>
       </c>
       <c r="C13" s="3">
@@ -10996,6 +11225,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="13" t="s">
+        <v>1230</v>
+      </c>
+    </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>310</v>
@@ -11041,7 +11275,6 @@
       <c r="A48" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B48" s="1"/>
       <c r="C48" s="3">
         <v>1</v>
       </c>
@@ -11124,6 +11357,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12347,23 +12581,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45.81640625" customWidth="1"/>
-    <col min="2" max="2" width="82.26953125" customWidth="1"/>
+    <col min="2" max="2" width="82.26953125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>797</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="24" t="s">
         <v>798</v>
       </c>
       <c r="C1" s="3">
@@ -12374,7 +12608,7 @@
       <c r="A2" s="14" t="s">
         <v>799</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="24" t="s">
         <v>800</v>
       </c>
       <c r="C2">
@@ -12387,6 +12621,36 @@
       </c>
       <c r="C3">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -12398,8 +12662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40FB394-4690-4F52-A2C9-F88A14F9CD7F}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12425,11 +12689,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>1073</v>
       </c>
       <c r="C3" s="10">
@@ -12447,22 +12711,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>1074</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>1075</v>
       </c>
       <c r="C6" s="10">
@@ -12535,11 +12799,11 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>1122</v>
       </c>
       <c r="C19" s="10">
@@ -12562,11 +12826,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>1126</v>
       </c>
       <c r="C22" s="10">
@@ -12589,22 +12853,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="261" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>1130</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>1132</v>
       </c>
       <c r="C26" s="10">
@@ -12641,11 +12905,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="3" t="s">
         <v>1138</v>
       </c>
       <c r="C30" s="10">
@@ -12668,7 +12932,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12741,7 +13005,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>704</v>
       </c>
       <c r="C8" s="10">
@@ -12749,7 +13013,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>705</v>
       </c>
       <c r="C9" s="10">
@@ -12848,6 +13112,9 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>761</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1229</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
@@ -14420,7 +14687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" zoomScale="113" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974F3E79-F3B0-46F2-BCB9-76EBC9A36F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C44C2C-1552-4A6A-813B-8E7FBDAB3EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="1236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="1240">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -7335,9 +7335,6 @@
     <t>CallBack functions</t>
   </si>
   <si>
-    <t xml:space="preserve">A function whih is being executed in a synchronous manner </t>
-  </si>
-  <si>
     <t>ListNode* left;
     bool is(ListNode* right){
         if(right==NULL)return true;
@@ -7401,12 +7398,225 @@
         }return ans;
     } </t>
   </si>
+  <si>
+    <t>Asynchrounous Functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An asynchronous function is any function that delivers its result asynchronously – for example, a callback-based function or a Promise-based function. An async function is defined via special syntax, involving the keywords async and await </t>
+  </si>
+  <si>
+    <t>Promises</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A function will be executed in a synchronous manner once the caller function executes.
+Callbacks are passed as an argument to the caller which is then called inside the called/invoked by caller to complete an action. Example:
+function loadScript(script_arg, callback, arg){
+    var scriptEle=document.createElement("script");
+    scriptEle.src=script_arg;
+    scriptEle.onload() = ()=&gt;{callback( arg );}
+    document.head.append(scriptEle);
+}
+function hello(x){alert(x);}
+loadScript("&lt;script_link&gt;", hello, "raj");
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//NOTE onload and onerror are exapmples to check and call for callbacks.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+JavaScript has an asynchronous model. Whenever an asynchronous action is completed you often want to execute some code afterwards. First callbacks were often used to solve this problem. However, when programming code with multiple asynchronous elements a problem arises using callbacks. Because when you nest multiple callbacks inside each other the code becomes hard to maintain very fast. This anti-pattern is called callback hell.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pyramid of Doom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+When we have nested callbacks, the code becomes difficult to manage and our code grows horizontally which in turn is decreasing code readability.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Promises solved many of the issues that appeared in nested callbacks. A key property of promises are that they can be nicely chained together using a promise chain. This allows for much cleaner syntax than callbacks and easier error handling.
+A promise object containes 2 datamembers: state and value.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> state</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be either "pending" (initially) , "fulfilled" or "rejected" (after promise execution completes). </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be whatever we pass to resolve(&lt;here&gt;) or reject(&lt;here&gt;) and it is undefined initially. Once the promise is resolved / rejected with a result, result is the value that is generated and can be used in then()'s callback method.
+Let pro = new Promise(function (resolve,reject){  })//</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>resolve and reject are builtin call backs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+We use promises to ensure parallel execution. This means that if one promise executes in 5 sec and another also executes in 5 sec. In total our code will execute in 5 sec itself. then(follow up callback) and [ catch(error) or .then(null, err)] are promise member functions Example:
+pro.then((val)=&gt;{__do__},(err)=&gt;{__caught__})
+pro.then((val)=&gt;{____}).catch((err)=&gt;{_____})
+Promise chaining:
+let p1 = new Promise((resolve,reject)=&gt;{  
+     setTiemout(()=&gt;{  console.log("p1 resolved"); resolve(23)  }, 2000);
+})
+p1.then( (val)=&gt;{ console.log(value) 
+     let p2 = new Promise( (resolve,reject)=&gt;{  setTimeout(()=&gt;{console.log("p2 is resolved"); resolve("X") }, 2000);  } )
+     return p2;
+}).then((val)=&gt;{console.log(val);})
+OUTPUT: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 seconds
+                 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">p1 resolved
+                 23
+                 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 seconds</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                 p2 is resolved
+                 X
+//</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RESOLVED values are passed on as argument to fucntion of .then() method. That means the method inside .then() has access to previously resolved values and method inside .catch has access to previously rejected values.
+//Even if we return a value in the method of .then() can be used by another chained .then()'s method.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7441,6 +7651,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -7492,7 +7711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7561,7 +7780,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10021,10 +10239,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4140E-759C-470A-8A2C-5710FE199FCD}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10390,12 +10608,28 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>1227</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1228</v>
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1239</v>
       </c>
     </row>
   </sheetData>
@@ -11227,7 +11461,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -12583,21 +12817,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="45.81640625" customWidth="1"/>
-    <col min="2" max="2" width="82.26953125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="82.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>797</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" t="s">
         <v>798</v>
       </c>
       <c r="C1" s="3">
@@ -12608,7 +12842,7 @@
       <c r="A2" s="14" t="s">
         <v>799</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" t="s">
         <v>800</v>
       </c>
       <c r="C2">
@@ -12625,7 +12859,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -12633,10 +12867,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B5" t="s">
         <v>1232</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>1233</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -12644,10 +12878,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B6" t="s">
         <v>1234</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>1235</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -13114,7 +13348,7 @@
         <v>761</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C44C2C-1552-4A6A-813B-8E7FBDAB3EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8C77B6-06EB-4108-9425-601DD084D742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="1240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="1254">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -7610,6 +7610,105 @@
       <t>RESOLVED values are passed on as argument to fucntion of .then() method. That means the method inside .then() has access to previously resolved values and method inside .catch has access to previously rejected values.
 //Even if we return a value in the method of .then() can be used by another chained .then()'s method.</t>
     </r>
+  </si>
+  <si>
+    <t>Async Await</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>async</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> before a function declaration/expression turns the function into an async function. As the name suggests async function are executed asynchronously.
+An async function always returns a promise. It wraps any returned value in Promise.resolve(returnval). However, when an uncaught error is thrown inside the async function it wraps the return value in Promise.catch(returnval).
+Inside async functions you can use the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>await</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> keyword which can be used before any promise. await makes JS code execution stop until the promise is settled. i.e. The promise has to be either fulfilled or rejected until any further code inside the async function is executed.
+async function ansyncExample() {
+    try {
+        const outcome = await randomProm;
+        console.log(outcome);
+    } catch (error) {
+        console.log(error);
+    }
+    // This return value is wrapped in a promise
+    return 'AsyncReturnVal';
+}
+// ansyncExample() returns a promise, we can call its corresponding then method
+ansyncExample().then((value) =&gt; {
+    console.log(value);
+});</t>
+    </r>
+  </si>
+  <si>
+    <t>Astroid Collision</t>
+  </si>
+  <si>
+    <t>Remove k digits</t>
+  </si>
+  <si>
+    <t>Trapping rain water 2</t>
+  </si>
+  <si>
+    <t>Number of Valid Subarrays</t>
+  </si>
+  <si>
+    <t>Basic Calculator 1</t>
+  </si>
+  <si>
+    <t>Basic Calculator 2</t>
+  </si>
+  <si>
+    <t>Basic Calculator 3</t>
+  </si>
+  <si>
+    <t>Lexicographically smallest/Largest subsequesnce</t>
+  </si>
+  <si>
+    <t>Circular Deque</t>
+  </si>
+  <si>
+    <t>Number of recent calls</t>
+  </si>
+  <si>
+    <t>Moving average</t>
+  </si>
+  <si>
+    <t>Hit counter</t>
   </si>
 </sst>
 </file>
@@ -10239,10 +10338,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4140E-759C-470A-8A2C-5710FE199FCD}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10630,6 +10729,14 @@
       </c>
       <c r="B48" s="1" t="s">
         <v>1239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="348" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1241</v>
       </c>
     </row>
   </sheetData>
@@ -12894,10 +13001,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40FB394-4690-4F52-A2C9-F88A14F9CD7F}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13024,7 +13131,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>1070</v>
       </c>
     </row>
@@ -13139,11 +13246,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>1138</v>
       </c>
       <c r="C30" s="10">
@@ -13153,6 +13260,71 @@
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>1139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>1253</v>
       </c>
     </row>
   </sheetData>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8C77B6-06EB-4108-9425-601DD084D742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B61722-554D-4A29-90CA-E30579F20027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1259">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -7709,6 +7709,126 @@
   </si>
   <si>
     <t>Hit counter</t>
+  </si>
+  <si>
+    <t>A valid sub array is one where first element in the sub array is smaller than all other elements. For example if sub array is 1 4 2 5 3 we get sub arrays 1, 1 4, 1 4 2, 1 4 2 5, 1 4 2 5 3, 4, 2, 2 5, 2 5 3, 5, 3. Hence our solution should return 11 (count of valid subarrays). 
+Hint: This is a variation to number of subarrays of size n, and smaller number to right.</t>
+  </si>
+  <si>
+    <t>Given a window size k and an integer array representing stock prices every day, find moving average of each day.
+Like if k=3, array= {1,4,2,7,1,5} the return {1,2.5,2.33, 4.33, 3.33, 4.33}. Hint: you can do it by sliding window or using a queue.</t>
+  </si>
+  <si>
+    <t>Given a list of time in milisec defining time when we received a ping and a time k, find number of pings in window of size k.
+Let us say we have milisec ={1,100,3001,3002,6002} and k=3000, return {1,2,3,3,2}, Use queue and a pointer approach to get queue size on each insertion while comparing front.</t>
+  </si>
+  <si>
+    <r>
+      <t>Given a string made of 'a','b' and 'c' only find if this string can be achieved if one can insert "abc" finite number of times in an empty string"".
+For example if s="abcabcababcc" we can see that this string can be formed by ""-&gt;"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"-&gt;"abc</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"-&gt;"abcabc</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"-&gt;"abcabcab</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c"
+Hint: do reverse. remove abc from given string. we can notice finaly we will get empty string.
+Hint: If you find abc in string remove it. Use stack and push untill you find c.
+function(string a){
+    stack&lt;char&gt; st;
+    for(x:a){
+        if(x=='c'){
+            y=st.top();st.pop();
+            z=st.top();st.pop();
+            if(y!='b' or z!='a')return false;
+        }else{
+            st.push(x);
+        }
+    }if(st.size())return false;
+    return true;
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Same as Number of recent calls</t>
   </si>
 </sst>
 </file>
@@ -13004,13 +13124,13 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="61.08984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="95.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="95.81640625" style="23" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
@@ -13034,7 +13154,7 @@
       <c r="A3" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="23" t="s">
         <v>1073</v>
       </c>
       <c r="C3" s="10">
@@ -13045,7 +13165,7 @@
       <c r="A4" s="3" t="s">
         <v>1059</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="23" t="s">
         <v>1072</v>
       </c>
       <c r="C4" s="10">
@@ -13056,7 +13176,7 @@
       <c r="A5" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="23" t="s">
         <v>1074</v>
       </c>
       <c r="C5" s="10">
@@ -13067,7 +13187,7 @@
       <c r="A6" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="23" t="s">
         <v>1075</v>
       </c>
       <c r="C6" s="10">
@@ -13083,7 +13203,7 @@
       <c r="A8" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="23" t="s">
         <v>1076</v>
       </c>
       <c r="C8" s="10">
@@ -13144,7 +13264,7 @@
       <c r="A19" s="3" t="s">
         <v>1121</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="23" t="s">
         <v>1122</v>
       </c>
       <c r="C19" s="10">
@@ -13171,7 +13291,7 @@
       <c r="A22" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="23" t="s">
         <v>1126</v>
       </c>
       <c r="C22" s="10">
@@ -13198,7 +13318,7 @@
       <c r="A25" s="3" t="s">
         <v>1129</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="23" t="s">
         <v>1130</v>
       </c>
       <c r="C25" s="10">
@@ -13209,7 +13329,7 @@
       <c r="A26" s="3" t="s">
         <v>1131</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="23" t="s">
         <v>1132</v>
       </c>
       <c r="C26" s="10">
@@ -13220,7 +13340,7 @@
       <c r="A27" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="23" t="s">
         <v>1134</v>
       </c>
       <c r="C27" s="10">
@@ -13231,7 +13351,7 @@
       <c r="A28" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="23" t="s">
         <v>1136</v>
       </c>
       <c r="C28" s="10">
@@ -13246,11 +13366,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="23" t="s">
         <v>1138</v>
       </c>
       <c r="C30" s="10">
@@ -13267,64 +13387,94 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>1243</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35" s="23" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C35" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>1250</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B41" s="23" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C41" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B42" s="23" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+        <v>1242</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C43" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>1253</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C44" s="10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B61722-554D-4A29-90CA-E30579F20027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22A8AAB-B593-455B-ACCC-4D57B26AC789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="1267">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -7829,6 +7829,160 @@
   </si>
   <si>
     <t>Same as Number of recent calls</t>
+  </si>
+  <si>
+    <t>Multiple handlers to a single Promise</t>
+  </si>
+  <si>
+    <t>Promise API Static methods</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Proise API helps us control what happens when a bunch of promises resolve/rejects. There are 4 major methods called:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Promise.all([&lt;List of promises&gt;])</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; returns list of responses/values of resolve case (only if all resolved else throw error on console)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Promise.Settled([&lt;List of promises&gt;])</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt;returns list of object with status and value (it waits for all the promises to get complete not necessarily resolved)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Promise.race([&lt;List of promises&gt;])</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; Waits for the first promise to get settled. returns its resolve value or throws an error if promise is rejected.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Promise.any([&lt;List of promises&gt;]) -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wait for the first resolved promise. Returns its resolve value. If all are rejected, this throws an Aggregate error to console.</t>
+    </r>
+  </si>
+  <si>
+    <t>We may want to have multiple actions to be done on completion of a single promise. This can be done by:
+Let us say p1 is the promise (reference);
+p1.then((value)=&gt;{____})
+p1.then((value)=&gt;{______})
+p1.then((value)=&gt;{_____})
+After promise completion then methods are performed in order (top to bottom).</t>
+  </si>
+  <si>
+    <t>Error Handling</t>
+  </si>
+  <si>
+    <r>
+      <t>JavaScript is interpreted and the execution halts if runtime error happens. If you want you code to continue its execution even if some part of code throws an error, we can make use of try and catch block. One thing to note here is that we need to ake sure that the code inside the try and catch block must be synchronous in nature. (If it is asynchronous and error occurs, catch wont work as try will reflect that the code execution was scheduled and during the schedule no error was thrown so catch wont be responsible for catching async error.)
+try{
+}catch(error){
+}catch(error2){
+}
+Error Object: Has properties name and message. Through this we can access the properties of the error generated and even create our own custom errors via "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>throw" keyword</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+throw new &lt;ErrorType&gt;("&lt;Error message&gt;") in try block
+and then we can catch them in catch block as catch(&lt;Error Type&gt; err_var){  ____err_var.nme or err_var.message_____  }</t>
+    </r>
+  </si>
+  <si>
+    <t>Finally claus</t>
+  </si>
+  <si>
+    <t>If error comes for code inside try block, catch code is executed but if not try block is executed and catch is fully ignored. Finally is written at the last which is executed at the last no matter what.
+Try{
+}catch(err){
+}finally{
+}
+finally block will always run no matter what if try produces error or not. Even if catch produces some error, then also finally block will run. In case if catch produces an error and you don't have finally block, your code execution will end after error is printed on console. ie, your executio n thread will not look at code outside catch block. Even if you write "return" in try block, finally block's code will run always.(before retuning)</t>
   </si>
 </sst>
 </file>
@@ -10458,10 +10612,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4140E-759C-470A-8A2C-5710FE199FCD}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10857,6 +11011,38 @@
       </c>
       <c r="B49" s="1" t="s">
         <v>1241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1266</v>
       </c>
     </row>
   </sheetData>
@@ -13123,7 +13309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40FB394-4690-4F52-A2C9-F88A14F9CD7F}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22A8AAB-B593-455B-ACCC-4D57B26AC789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6FF91E-1407-4B4F-AF69-6A198A281B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="1267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1268">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -7983,6 +7983,17 @@
 }finally{
 }
 finally block will always run no matter what if try produces error or not. Even if catch produces some error, then also finally block will run. In case if catch produces an error and you don't have finally block, your code execution will end after error is printed on console. ie, your executio n thread will not look at code outside catch block. Even if you write "return" in try block, finally block's code will run always.(before retuning)</t>
+  </si>
+  <si>
+    <t>Given a list of numbers value denoting size of astroid and sign denoting the direction of movement (=ve means left to right and -ve means right to left find final status / return vector). Rules opposite moving astroids will collide and smaller one will explode and removed and the larger one won't change in size.
+Hint Use stack to get final status.
+while(x in arr &lt;0){st.push(x)}
+else{
+    for(i=index where first positive element is there from left;i&lt;n;i++){
+        if(arr[i]&gt;0)st.push(arr[i]);
+        else{  while(!st.empty()  &amp;&amp;  st.top()&lt;|arr[i]| ){st.pop();}   st.push(arr[i])  }
+    }
+}//fill result of stack in vector and reverse it and return vector;</t>
   </si>
 </sst>
 </file>
@@ -10579,7 +10590,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -10614,7 +10627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4140E-759C-470A-8A2C-5710FE199FCD}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+    <sheetView topLeftCell="A53" workbookViewId="0">
       <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
@@ -13309,8 +13322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40FB394-4690-4F52-A2C9-F88A14F9CD7F}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13571,6 +13584,12 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>1242</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C32" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6FF91E-1407-4B4F-AF69-6A198A281B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEBD212-C3CF-454A-A250-0FC2CEA4E1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1272">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -7994,6 +7994,41 @@
         else{  while(!st.empty()  &amp;&amp;  st.top()&lt;|arr[i]| ){st.pop();}   st.push(arr[i])  }
     }
 }//fill result of stack in vector and reverse it and return vector;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Align
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alignment:Alignment(x,y)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or
+Alignment: Alignment.topleft/topright/centerleft/centerright/bottomleft/bottomright/center</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrapper to a child widget
+</t>
+  </si>
+  <si>
+    <t>child:&lt;Widget&gt;</t>
   </si>
 </sst>
 </file>
@@ -10588,22 +10623,23 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.54296875" style="3" customWidth="1"/>
-    <col min="3" max="4" width="27.453125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="45.7265625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="46" style="3" customWidth="1"/>
+    <col min="3" max="3" width="49.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="54.1796875" style="3" customWidth="1"/>
     <col min="5" max="5" width="27.7265625" style="3" customWidth="1"/>
     <col min="6" max="6" width="27.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>291</v>
       </c>
@@ -10615,6 +10651,20 @@
       </c>
       <c r="D1" s="3" t="s">
         <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1271</v>
       </c>
     </row>
   </sheetData>
@@ -13322,7 +13372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40FB394-4690-4F52-A2C9-F88A14F9CD7F}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEBD212-C3CF-454A-A250-0FC2CEA4E1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E192ADFF-0E1F-4FBF-9789-F88DEACE26C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="1278">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -8029,6 +8029,71 @@
   </si>
   <si>
     <t>child:&lt;Widget&gt;</t>
+  </si>
+  <si>
+    <t>Cell Mitosis</t>
+  </si>
+  <si>
+    <t>Ladder</t>
+  </si>
+  <si>
+    <t>Given n and k showcasing number of stairs and maximum step height on can take from current stair find number of ways you can reach nth staircase from 0. For exam ple if k=3 person can jump from 0-1,0-2,0-3; 1-2,1-3,1-4…..and so on. 
+Hint make use of sliding window and DP.</t>
+  </si>
+  <si>
+    <t>Given n representing number of cells; you need to find minimum steps to reach n cells from 1 cell if cell can be doubled or +1 or -1.
+Hint use tabulation and start building from 1 to n in dp[n+1]. 
+If i is even dp[i]=min(dp[i/2],dp[i-1]);
+else            dp[i]=min(dp[i-1],dp[(i+1)/2]);</t>
+  </si>
+  <si>
+    <t>Maximum K partition</t>
+  </si>
+  <si>
+    <t>Given a an integer array and a number k where k&lt;|arr|; where we need to partition array into subarrays of size k so the total number of partitions is ceil(|arr|/k). You need to find max sum of elements that are chose in a way:  atmost one element from each partitioned subarray and distance between 2 adjacent chosen elements not equal to k.
+Hint: use max and second_max in each partition. Then check if index of current element is equal to index of max element from previous partition. if yes here maximum sum=second_max+this element, else maximum sum here = maximum element + this element.
+// elements of a are positive
+    int a[14]={4,2,7,   9,5,1,   4,6,3,   8,1,4,  7,5};
+    int dp[14]={0},k;
+    cin&gt;&gt;k;
+    int maxx=INT_MIN,secmax=INT_MIN,ind=-1;
+    for(int i=0;i&lt;k;i++){
+        ind=(a[i]&gt;maxx?i:ind);
+        if(a[i]&gt;maxx){
+            secmax=maxx;
+            maxx=a[i];
+        }else if(a[i]&lt;=maxx &amp;&amp; a[i]&gt;secmax){
+            secmax=a[i];
+        }
+    }
+    dp[k]={0};
+    int i=k;
+    while(i&lt;14){
+        int x=i;
+        while(x&lt;14 &amp;&amp; x&lt;i+k){
+            if(x-ind==k){
+                dp[x-i]=secmax+a[x];
+            }else{
+                dp[x-i]=maxx+a[x];
+            }
+            x++;
+        }
+        int y=0;
+        while(y&lt;x-i){
+            ind=(dp[y]&gt;maxx?i+y:ind);
+            if(dp[y]&gt;maxx){
+                secmax=maxx;
+                maxx=dp[y];
+            }else if(dp[y]&lt;=maxx &amp;&amp; dp[y]&gt;secmax){
+                secmax=dp[y];
+            }
+            y++;
+        }
+        for(int m=0;m&lt;k;m++){
+            cout&lt;&lt;dp[m]&lt;&lt;" ";
+        }cout&lt;&lt;endl;
+        i=x;
+    }//return max in dp</t>
   </si>
 </sst>
 </file>
@@ -10625,7 +10690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -14855,10 +14920,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14890,42 +14955,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>922</v>
+        <v>1273</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1274</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1014</v>
+        <v>1272</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1275</v>
       </c>
       <c r="C4" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1036</v>
+        <v>1276</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1277</v>
       </c>
       <c r="C5" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1036</v>
+        <v>922</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
@@ -14933,32 +14998,32 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>1038</v>
+        <v>1013</v>
       </c>
       <c r="B7" t="s">
-        <v>1036</v>
+        <v>1014</v>
       </c>
       <c r="C7" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B8" t="s">
         <v>1036</v>
       </c>
       <c r="C8" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>923</v>
+        <v>1037</v>
       </c>
       <c r="B9" t="s">
-        <v>977</v>
+        <v>1036</v>
       </c>
       <c r="C9" s="10">
         <v>2</v>
@@ -14966,29 +15031,32 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>993</v>
+        <v>1038</v>
       </c>
       <c r="B10" t="s">
-        <v>994</v>
+        <v>1036</v>
       </c>
       <c r="C10" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>978</v>
+        <v>1039</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1036</v>
       </c>
       <c r="C11" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>979</v>
+        <v>923</v>
       </c>
       <c r="B12" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="C12" s="10">
         <v>2</v>
@@ -14996,43 +15064,40 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
       <c r="B13" t="s">
-        <v>982</v>
+        <v>994</v>
       </c>
       <c r="C13" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>1040</v>
+      <c r="A14" s="3" t="s">
+        <v>978</v>
       </c>
       <c r="C14" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="B15" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="C15" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>996</v>
+        <v>981</v>
+      </c>
+      <c r="B16" t="s">
+        <v>982</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
@@ -15040,75 +15105,78 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1003</v>
+        <v>983</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1040</v>
       </c>
       <c r="C17" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>70</v>
+        <v>984</v>
       </c>
       <c r="B18" t="s">
-        <v>351</v>
+        <v>985</v>
       </c>
       <c r="C18" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>73</v>
+      <c r="A19" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>996</v>
       </c>
       <c r="C19" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>71</v>
+      <c r="A20" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1003</v>
       </c>
       <c r="C20" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>351</v>
       </c>
       <c r="C21" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>74</v>
+      <c r="A22" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C22" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" t="s">
-        <v>989</v>
+      <c r="A23" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C23" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" t="s">
-        <v>1001</v>
+        <v>72</v>
       </c>
       <c r="C24" s="10">
         <v>1</v>
@@ -15116,95 +15184,101 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>992</v>
+        <v>74</v>
       </c>
       <c r="C25" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>77</v>
+      <c r="A26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s">
+        <v>989</v>
       </c>
       <c r="C26" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>990</v>
+      <c r="A27" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>991</v>
+        <v>1001</v>
       </c>
       <c r="C27" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>992</v>
       </c>
       <c r="C28" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C29" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B30" s="10"/>
+      <c r="A30" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="B30" t="s">
+        <v>991</v>
+      </c>
       <c r="C30" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="B31" s="10"/>
+        <v>78</v>
+      </c>
       <c r="C31" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="C32" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>491</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="B33" s="10"/>
       <c r="C33" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>490</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="B34" s="10"/>
       <c r="C34" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C35" s="10">
         <v>2</v>
@@ -15212,279 +15286,303 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C36" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C37" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C38" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B39" t="s">
         <v>896</v>
       </c>
-      <c r="C36" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C37" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C38" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1009</v>
-      </c>
       <c r="C39" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B40" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="C40" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="B41" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="C41" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B42" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="C42" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>1032</v>
+      <c r="A43" s="4" t="s">
+        <v>1010</v>
       </c>
       <c r="B43" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="C43" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C44" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C45" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="319" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>944</v>
+        <v>1032</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C46" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>964</v>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>986</v>
-      </c>
-      <c r="C74" s="10">
-        <v>2</v>
+        <v>965</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="C77" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B78" t="s">
         <v>987</v>
       </c>
-      <c r="C75" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
+      <c r="C78" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="C76" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="13" t="s">
+      <c r="C79" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="13" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B85" t="s">
         <v>621</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C85" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B86" t="s">
         <v>623</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C86" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B87" t="s">
         <v>625</v>
       </c>
-      <c r="C84" s="10">
+      <c r="C87" s="10">
         <v>3</v>
       </c>
     </row>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E192ADFF-0E1F-4FBF-9789-F88DEACE26C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D0A87C-8DD4-4E95-B00C-C2BE97E61DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="1278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="1282">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -8094,6 +8094,26 @@
         }cout&lt;&lt;endl;
         i=x;
     }//return max in dp</t>
+  </si>
+  <si>
+    <t>Autocomplete&lt;DT&gt;</t>
+  </si>
+  <si>
+    <t>onSelected: (&lt;DT&gt; x){_in case of select from options this should run__}</t>
+  </si>
+  <si>
+    <t>optionsBuilder: (TextEditingValue x){ _____ }
+return Iterables&lt;DT&gt;               x is value that is being entered in the textField of Autocomplete</t>
+  </si>
+  <si>
+    <t>Example:
+return Autocomplete&lt;String&gt;(
+    optionsBuilder: (TextEditingValue r){ 
+           if(r.text=="") return Iterable&lt;String&gt;.empty();
+           else{   return &lt;list_created&gt;.where((String x){return x.contains(r.text.lowerCase());  });     }
+    },
+    onSelected: (String val){print(val);},
+);</t>
   </si>
 </sst>
 </file>
@@ -8195,7 +8215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -8263,6 +8283,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10688,24 +10711,24 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="34.90625" style="17" customWidth="1"/>
     <col min="2" max="2" width="46" style="3" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="71.7265625" style="3" customWidth="1"/>
     <col min="4" max="4" width="54.1796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="84.08984375" style="3" customWidth="1"/>
     <col min="6" max="6" width="27.453125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>291</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -10718,8 +10741,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
         <v>1268</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -10730,6 +10753,20 @@
       </c>
       <c r="D2" s="3" t="s">
         <v>1271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1281</v>
       </c>
     </row>
   </sheetData>
@@ -14922,7 +14959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D0A87C-8DD4-4E95-B00C-C2BE97E61DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2F1A1E-0C18-4080-A325-69592FA2C024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="1282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1295">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -8114,6 +8114,244 @@
     },
     onSelected: (String val){print(val);},
 );</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a string representing a number and k denoting number of digits to be removed (any) from given string such that smallest valued number is obtained. For example: s="1432231" and k=3, return 122` as this will be smallest number after removing 4,3 and 3.
+Use the Stacks view property (A stack can give us a non-decreasing or non-increasing view.) Start iterating from msb of given string and check if element entering in stack is less than top or not. If yes pop untill k exists and st in not empty and top&gt;element else push(element).
+At the end of loop if k&gt;0, pop from stack untill k=0. Ans = reverse of stack elements
+</t>
+  </si>
+  <si>
+    <t>Maximum area histogram advanced variation. If histogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only -,+
+If you don't encounter a "(" just sum up your ans based on sign. Once you encounter "(" put calculated sum and last sign into a stack and again initialize sum=0 to get sum inside (__). If you encounter ")"  pull top sign multiply it to current sum and st.pop() and add it with st.top(). 
+stack&lt;int&gt; st;
+    int sign=1;
+    int sum=0;
+    for(int i=0;i&lt;s.size();i++){
+        if(s[i]&gt;=48&amp;&amp;s[i]&lt;58){
+            int j=i+1;
+            while(s[j]&gt;=48&amp;&amp;s[j]&lt;58){
+                j++;
+            }
+            string sub=s.substr(i,j-i);
+            sum+=(sign*stoi(sub));
+            i=j-1;
+            sign=1;
+        }else if(s[i]=='('){
+            st.push(sum);
+            st.push(sign);
+            sum=0;
+            sign=1;
+        }else if(s[i]==')'){
+            sum*=st.top();
+            st.pop();
+            sum+=st.top();
+            st.pop();
+        }else if(s[i]=='-'){
+            sign=-1;
+        }
+    }cout&lt;&lt;sum;
+</t>
+  </si>
+  <si>
+    <t>Fetch API</t>
+  </si>
+  <si>
+    <r>
+      <t>JS can be used to send and receive network requests using API endpoints when needed (AJAX). "fetch" API is used to get/post/update/delete resources over the network. This method returns a promise response object. Now this response contains data members like status, ok, heaader and methods like text (converts response object into a string) and json(converts response object into parsesd json). 
+let p=fetch("&lt;end-point-url&gt;", &lt;oprions object&gt;)
+By default options object is {method:"get"}
+since It is asynchronous, it returns a promise. which is handled in 2 step method (it is a 2 stage process)-&gt; resolve status and then response object-body conversion. i.e:
+p</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>((response)=&gt;{return response.json();})</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">((json_response)=&gt;{console.log(json_response);} )
+//NOTE either use response.json() or response.text()-&gt; choose only one other wise the interpreter throws an error. both are asynchronous in nature.
+options object is second argument of fetch API: it can contain various propertirs(keys):
+method:&lt;string&gt;;
+header:&lt;object&gt;:{"Content-type:application/json"}//generally-&gt; type of body data you are sending
+body:&lt;object&gt;:{____data you need to store/update/delete}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//Note body is object string usually given as: JSON.stringyfy(json_object/JS_object), whereas JSON.parse(valid_object_string)converts the valid object string to json object.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+//Below is the usual way of handling fetch :
+let x=&lt;javascript_object&gt;;
+const DBmethod = async (x)=&gt;{  &lt;create options object&gt; ; let p= await fetch( _ , _ ); let response = await response.json(); return response;  }
+caller(){..........DBmethod(x);}</t>
+    </r>
+  </si>
+  <si>
+    <t>Cookies in JS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A cookie is small string of information that is sent by server to be stored directly onto the client's machine/in browser abd accessed everytime(available everytime untill cookie expiration to the server when client sends request) to the Server.
+In browser you can see number of cookie as k-v pairs seperated by ";"  and "&lt;key_string&gt;"="&lt;value_string&gt;". 
+Now how do we set the cookie?
+document.cookie=`${encodeURIComponent(&lt;keyStringvar&gt;)}=${encodeURIComponent(&lt;valueString&gt;)}`
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decodeURIComponent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is used to decode the encoded string.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">//Note: This method do not overwrite existing cookie and and add/update 1 cookie at a time
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If &lt;keyString&gt; already exists then it updates the value of it else it appends the pair to the cookie list.
+//properties to the cookie can be provided as: document.cookie="&lt;keyString&gt;=&lt;valueString&gt;;&lt;prop&gt;=&lt;value&gt;;&lt;prop&gt;=&lt;value&gt;"
+These properties can be expires=&lt;dataobjectString&gt;, path=&lt;urlWhere Cookie is sent&gt;. This cookie will only be available to that website (only injected to this path).
+//Single cookie size must not exceed 4KB and total cookie are restricted to 20 per website.</t>
+    </r>
+  </si>
+  <si>
+    <t>Loacl Storage</t>
+  </si>
+  <si>
+    <t>Session Storage</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Similar to local storage except for the fact that session storage has limited scopr to a single tab. It cannot survive ta close and browser restart. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All methods are also same for sessionStorage object.</t>
+    </r>
+  </si>
+  <si>
+    <t>Storage Event</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If an event associated to local/session storage happens we can make use of window object's onStorage method to trigger a function accordingly. This event has various properties whch can be seen vis console.log.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>window.onStorage =(event) =&gt;{ console.log(event);}</t>
+    </r>
+  </si>
+  <si>
+    <t>In case if you want to staore something on client's browser which is not being shared to server everytime a resuest is sent to it like in case of cookies, we can make use of local-storage object which is directly connected to your storage associated with browser application. Local storage is available globally for browser(in its any tab, any browser instance...), in all tabs and survives tab close and browser restart.
+localStorage.setItem(&lt;ketString&gt;,&lt;ValueString&gt;)
+localStorage.getItem(&lt;keyString&gt;)
+localStorage.length
+localStorage.clear()
+localStorage.removeItem(&lt;keyString&gt;)
+localStorage.key(index)   (0-based and if out-of-bound, returns null)
+If you want to store objects as value in localstorage the you can you JSON.stringyfy(obj)-&gt;JSON.parse(str)
+Local storge is visible under Application tab in Chrome dev tools ( Ctrl+i )</t>
   </si>
 </sst>
 </file>
@@ -10713,7 +10951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -10777,10 +11015,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4140E-759C-470A-8A2C-5710FE199FCD}">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11208,6 +11446,46 @@
       </c>
       <c r="B53" s="1" t="s">
         <v>1266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1293</v>
       </c>
     </row>
   </sheetData>
@@ -13474,8 +13752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40FB394-4690-4F52-A2C9-F88A14F9CD7F}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13572,7 +13850,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>1064</v>
       </c>
     </row>
@@ -13634,6 +13912,9 @@
       <c r="A21" s="3" t="s">
         <v>1124</v>
       </c>
+      <c r="B21" s="23" t="s">
+        <v>1283</v>
+      </c>
       <c r="C21" s="10">
         <v>3</v>
       </c>
@@ -13718,7 +13999,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="4" t="s">
         <v>1137</v>
       </c>
       <c r="B30" s="23" t="s">
@@ -13748,6 +14029,12 @@
       <c r="A33" s="3" t="s">
         <v>1243</v>
       </c>
+      <c r="B33" s="23" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C33" s="10">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
@@ -13768,6 +14055,12 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>1246</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C36" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2F1A1E-0C18-4080-A325-69592FA2C024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF56CFEB-AAB9-4CDB-81EE-AC7369F052BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="1301">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -1303,23 +1303,6 @@
     }
     j++;
 return ans;</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">absorbing(bool) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>true
-Prevent touch action</t>
-    </r>
   </si>
   <si>
     <r>
@@ -8000,30 +7983,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alignment:Alignment(x,y)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> or
-Alignment: Alignment.topleft/topright/centerleft/centerright/bottomleft/bottomright/center</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Wrapper to a child widget
 </t>
   </si>
@@ -8106,16 +8065,6 @@
 return Iterables&lt;DT&gt;               x is value that is being entered in the textField of Autocomplete</t>
   </si>
   <si>
-    <t>Example:
-return Autocomplete&lt;String&gt;(
-    optionsBuilder: (TextEditingValue r){ 
-           if(r.text=="") return Iterable&lt;String&gt;.empty();
-           else{   return &lt;list_created&gt;.where((String x){return x.contains(r.text.lowerCase());  });     }
-    },
-    onSelected: (String val){print(val);},
-);</t>
-  </si>
-  <si>
     <t xml:space="preserve">Given a string representing a number and k denoting number of digits to be removed (any) from given string such that smallest valued number is obtained. For example: s="1432231" and k=3, return 122` as this will be smallest number after removing 4,3 and 3.
 Use the Stacks view property (A stack can give us a non-decreasing or non-increasing view.) Start iterating from msb of given string and check if element entering in stack is less than top or not. If yes pop untill k exists and st in not empty and top&gt;element else push(element).
 At the end of loop if k&gt;0, pop from stack untill k=0. Ans = reverse of stack elements
@@ -8352,6 +8301,141 @@
 localStorage.key(index)   (0-based and if out-of-bound, returns null)
 If you want to store objects as value in localstorage the you can you JSON.stringyfy(obj)-&gt;JSON.parse(str)
 Local storge is visible under Application tab in Chrome dev tools ( Ctrl+i )</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+return Autocomplete&lt;String&gt;(
+    optionsBuilder: (TextEditingValue r){ 
+           if(r.text=="") return Iterable&lt;String&gt;.empty();
+           else{   return &lt;list_created&gt;.where((String x){return x.contains(r.text.lowerCase());  });     }
+    },
+    onSelected: (String val){print(val);},
+);</t>
+    </r>
+  </si>
+  <si>
+    <t>IgnorePointer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alignment:Alignment(x,y)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or
+Alignment: Alignment.topleft/topright/centerleft/centerright/bottomleft/bottomright/center
+//x and y can be 0 to 1; 1,1 denotes bottom right and 0,0 denotes top left.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">absorbing(bool) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true
+Prevent touch action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on whole subtree.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ignoring (bool): </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">false
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prevent touch action on current widget, but following subtree widgets will get the action.</t>
+    </r>
+  </si>
+  <si>
+    <t>Maximum sum subsequence in 2*n grid with non-adacent elements allowed</t>
+  </si>
+  <si>
+    <t>Maximum sum if atmost 2 elements in a row can be chosen</t>
+  </si>
+  <si>
+    <t>int incl = max(grid[0][0], grid[1][0]);
+int excl = 0, excl_new
+for (int i = 1; i&lt;n; i++ )
+    {        excl_new = max(excl, incl);
+             incl = excl + max(grid[0][i], grid[1][i]);       
+             excl = excl_new;
+    }return max(excl,incl);</t>
+  </si>
+  <si>
+    <t>CAN Be opmimized.
+Take a grid dp[3][n] denoting maximum sum till j if arr[j] is ith element chosen in a row.
+Dp[0][0]=Dp[1][0]=arr[0]; Dp[2][0]=0;
+Dp[0][j]=Dp[2][j-1]+arr[j];
+Dp[1][j]=Dp[0][j-1]+arr[j];
+Dp[2][j] = max(  Dp[0][j-1],Dp[1][j-1],Dp[2][j-1]  );</t>
   </si>
 </sst>
 </file>
@@ -8453,7 +8537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -8524,6 +8608,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9900,10 +9988,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>457</v>
       </c>
       <c r="C58" s="3">
         <v>3</v>
@@ -9911,10 +9999,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>459</v>
       </c>
       <c r="C59" s="3">
         <v>3</v>
@@ -9922,7 +10010,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C60" s="3">
         <v>2</v>
@@ -9930,10 +10018,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>462</v>
       </c>
       <c r="C61" s="3">
         <v>2</v>
@@ -9941,10 +10029,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>464</v>
       </c>
       <c r="C62" s="3">
         <v>3</v>
@@ -9973,7 +10061,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C1" s="3">
         <v>2</v>
@@ -9981,10 +10069,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
@@ -9992,10 +10080,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B3" t="s">
         <v>562</v>
-      </c>
-      <c r="B3" t="s">
-        <v>563</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -10003,10 +10091,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B4" t="s">
         <v>564</v>
-      </c>
-      <c r="B4" t="s">
-        <v>565</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -10014,7 +10102,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -10022,7 +10110,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -10030,7 +10118,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
@@ -10038,10 +10126,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B8" t="s">
         <v>569</v>
-      </c>
-      <c r="B8" t="s">
-        <v>570</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
@@ -10049,7 +10137,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -10057,10 +10145,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B10" t="s">
         <v>572</v>
-      </c>
-      <c r="B10" t="s">
-        <v>573</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -10068,10 +10156,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B11" t="s">
         <v>574</v>
-      </c>
-      <c r="B11" t="s">
-        <v>575</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
@@ -10079,7 +10167,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -10087,7 +10175,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -10095,10 +10183,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B14" t="s">
         <v>578</v>
-      </c>
-      <c r="B14" t="s">
-        <v>579</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -10106,7 +10194,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
@@ -10114,10 +10202,10 @@
     </row>
     <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -10125,107 +10213,107 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -10250,72 +10338,72 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
+        <v>932</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C14" s="21">
         <v>1</v>
@@ -10323,7 +10411,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C15" s="21">
         <v>1</v>
@@ -10331,7 +10419,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C16" s="21">
         <v>2</v>
@@ -10339,35 +10427,35 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C22" s="21">
         <v>3</v>
@@ -10375,10 +10463,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C23" s="21">
         <v>3</v>
@@ -10386,12 +10474,12 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
   </sheetData>
@@ -10525,10 +10613,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -10556,10 +10644,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="116" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>477</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>478</v>
       </c>
       <c r="C1" s="3">
         <v>2</v>
@@ -10567,10 +10655,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2" t="s">
         <v>479</v>
-      </c>
-      <c r="B2" t="s">
-        <v>480</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -10578,23 +10666,23 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" t="s">
         <v>481</v>
-      </c>
-      <c r="B3" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" t="s">
         <v>591</v>
-      </c>
-      <c r="B4" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -10602,7 +10690,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -10610,10 +10698,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B8" t="s">
         <v>605</v>
-      </c>
-      <c r="B8" t="s">
-        <v>606</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -10621,34 +10709,34 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B9" t="s">
         <v>607</v>
-      </c>
-      <c r="B9" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B10" t="s">
         <v>609</v>
-      </c>
-      <c r="B10" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B12" t="s">
         <v>612</v>
-      </c>
-      <c r="B12" t="s">
-        <v>613</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -10656,10 +10744,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="B13" t="s">
         <v>614</v>
-      </c>
-      <c r="B13" t="s">
-        <v>615</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -10667,26 +10755,26 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B14" t="s">
         <v>617</v>
-      </c>
-      <c r="B14" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B16" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="B17" t="s">
         <v>627</v>
-      </c>
-      <c r="B17" t="s">
-        <v>628</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -10715,67 +10803,67 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C13" s="21">
         <v>3</v>
@@ -10783,7 +10871,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -10884,10 +10972,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" t="s">
         <v>264</v>
-      </c>
-      <c r="B8" t="s">
-        <v>265</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -10895,10 +10983,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9" t="s">
         <v>273</v>
-      </c>
-      <c r="B9" t="s">
-        <v>274</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -10906,7 +10994,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -10914,10 +11002,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>847</v>
+      </c>
+      <c r="B11" t="s">
         <v>848</v>
-      </c>
-      <c r="B11" t="s">
-        <v>849</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -10925,7 +11013,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -10933,10 +11021,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>850</v>
+      </c>
+      <c r="B13" t="s">
         <v>851</v>
-      </c>
-      <c r="B13" t="s">
-        <v>852</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -10949,10 +11037,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10967,44 +11055,55 @@
   <sheetData>
     <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1270</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1269</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1280</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1281</v>
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1269</v>
       </c>
     </row>
   </sheetData>
@@ -11017,7 +11116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4140E-759C-470A-8A2C-5710FE199FCD}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
@@ -11029,463 +11128,463 @@
   <sheetData>
     <row r="1" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1079</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1080</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1081</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1089</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1092</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>1095</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>1099</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1101</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>1103</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1105</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>1107</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>1109</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1112</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>1115</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>1119</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1120</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>1142</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>1149</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>1153</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>1155</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1156</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>1158</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>1160</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>1162</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>1197</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>1217</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>1219</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>1225</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>1235</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1236</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="348" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>1240</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>1260</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>1263</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>1265</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
   </sheetData>
@@ -11510,58 +11609,58 @@
   <sheetData>
     <row r="1" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>1199</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>1201</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>1203</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>1205</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>1207</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>1209</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>1211</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>1212</v>
       </c>
     </row>
   </sheetData>
@@ -11804,156 +11903,156 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="319" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="406" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="319" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -11980,7 +12079,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C1" s="3">
         <v>1</v>
@@ -11988,7 +12087,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -11996,10 +12095,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -12007,10 +12106,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -12018,10 +12117,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -12029,10 +12128,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -12040,10 +12139,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
@@ -12051,10 +12150,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
@@ -12062,10 +12161,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -12073,10 +12172,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
@@ -12084,7 +12183,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
@@ -12092,7 +12191,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C12" s="3">
         <v>4</v>
@@ -12100,10 +12199,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -12111,7 +12210,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -12119,10 +12218,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
@@ -12130,10 +12229,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>382</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -12141,7 +12240,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -12149,7 +12248,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
@@ -12157,10 +12256,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -12168,10 +12267,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="C20" s="3">
         <v>3</v>
@@ -12179,7 +12278,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -12187,7 +12286,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -12195,10 +12294,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
@@ -12206,7 +12305,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
@@ -12214,10 +12313,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -12225,7 +12324,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
@@ -12233,10 +12332,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="C27" s="3">
         <v>3</v>
@@ -12244,7 +12343,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C28" s="3">
         <v>3</v>
@@ -12252,7 +12351,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
@@ -12260,10 +12359,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>379</v>
       </c>
       <c r="C30" s="3">
         <v>3</v>
@@ -12271,10 +12370,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C31" s="3">
         <v>2</v>
@@ -12282,12 +12381,12 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
@@ -12295,10 +12394,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>583</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
@@ -12306,10 +12405,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>586</v>
       </c>
       <c r="C35" s="3">
         <v>2</v>
@@ -12317,15 +12416,15 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="13" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C44" s="3">
         <v>2</v>
@@ -12333,10 +12432,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="C45" s="3">
         <v>2</v>
@@ -12344,7 +12443,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -12352,10 +12451,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="C47" s="3">
         <v>2</v>
@@ -12363,7 +12462,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -12371,10 +12470,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C49" s="3">
         <v>2</v>
@@ -12382,10 +12481,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C50" s="3">
         <v>2</v>
@@ -12393,10 +12492,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C51" s="3">
         <v>2</v>
@@ -12404,7 +12503,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C52" s="3">
         <v>4</v>
@@ -12412,7 +12511,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
@@ -12420,7 +12519,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C54" s="3">
         <v>2</v>
@@ -12428,7 +12527,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
@@ -12436,10 +12535,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>432</v>
       </c>
       <c r="C56" s="3">
         <v>2</v>
@@ -12512,116 +12611,116 @@
     </row>
     <row r="8" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>762</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>764</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="B18" s="11" t="s">
         <v>766</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="232" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>997</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>999</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
   </sheetData>
@@ -12656,34 +12755,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -12707,50 +12806,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -12775,195 +12874,195 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>418</v>
+      </c>
+      <c r="B28" t="s">
         <v>419</v>
-      </c>
-      <c r="B28" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>425</v>
+      </c>
+      <c r="B34" t="s">
         <v>426</v>
-      </c>
-      <c r="B34" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -12987,292 +13086,292 @@
   <sheetData>
     <row r="1" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>714</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>722</v>
+      </c>
+      <c r="B7" t="s">
         <v>723</v>
-      </c>
-      <c r="B7" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B14" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B15" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B16" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B17" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B20" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>741</v>
+      </c>
+      <c r="B22" t="s">
         <v>742</v>
-      </c>
-      <c r="B22" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="B25" t="s">
         <v>750</v>
-      </c>
-      <c r="B25" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B29" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B30" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>772</v>
+      </c>
+      <c r="B41" t="s">
         <v>773</v>
-      </c>
-      <c r="B41" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>774</v>
+      </c>
+      <c r="B42" t="s">
         <v>775</v>
-      </c>
-      <c r="B42" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>776</v>
+      </c>
+      <c r="B43" t="s">
         <v>777</v>
-      </c>
-      <c r="B43" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>778</v>
+      </c>
+      <c r="B44" t="s">
         <v>779</v>
-      </c>
-      <c r="B44" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>780</v>
+      </c>
+      <c r="B45" t="s">
         <v>781</v>
-      </c>
-      <c r="B45" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>783</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>784</v>
+      </c>
+      <c r="B47" t="s">
         <v>785</v>
-      </c>
-      <c r="B47" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>787</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>789</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>791</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>795</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>796</v>
       </c>
     </row>
   </sheetData>
@@ -13298,26 +13397,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>802</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>804</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>806</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -13342,50 +13441,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="B1" t="s">
         <v>817</v>
-      </c>
-      <c r="B1" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="B3" t="s">
         <v>824</v>
-      </c>
-      <c r="B3" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
   </sheetData>
@@ -13409,15 +13508,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B2" s="1">
         <v>6379</v>
@@ -13425,66 +13524,66 @@
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="290" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="319" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="290" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
   </sheetData>
@@ -13510,97 +13609,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
   </sheetData>
@@ -13625,15 +13724,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B2" s="23">
         <v>1979</v>
@@ -13641,26 +13740,26 @@
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
   </sheetData>
@@ -13685,10 +13784,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="B1" t="s">
         <v>797</v>
-      </c>
-      <c r="B1" t="s">
-        <v>798</v>
       </c>
       <c r="C1" s="3">
         <v>3</v>
@@ -13696,10 +13795,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="B2" t="s">
         <v>799</v>
-      </c>
-      <c r="B2" t="s">
-        <v>800</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -13707,7 +13806,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -13715,7 +13814,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -13723,10 +13822,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B5" t="s">
         <v>1231</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1232</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -13734,10 +13833,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B6" t="s">
         <v>1233</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1234</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -13765,7 +13864,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C1" s="10">
         <v>1</v>
@@ -13773,7 +13872,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -13781,10 +13880,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -13792,10 +13891,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -13803,10 +13902,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
@@ -13814,10 +13913,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
@@ -13825,15 +13924,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C8" s="10">
         <v>2</v>
@@ -13841,60 +13940,60 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B19" s="23" t="s">
         <v>1121</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>1122</v>
       </c>
       <c r="C19" s="10">
         <v>3</v>
@@ -13902,7 +14001,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C20" s="10">
         <v>3</v>
@@ -13910,10 +14009,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="C21" s="10">
         <v>3</v>
@@ -13921,10 +14020,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>1125</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>1126</v>
       </c>
       <c r="C22" s="10">
         <v>2</v>
@@ -13932,7 +14031,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C23" s="10">
         <v>2</v>
@@ -13940,7 +14039,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C24" s="10">
         <v>2</v>
@@ -13948,10 +14047,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B25" s="23" t="s">
         <v>1129</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>1130</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
@@ -13959,10 +14058,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B26" s="23" t="s">
         <v>1131</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>1132</v>
       </c>
       <c r="C26" s="10">
         <v>2</v>
@@ -13970,10 +14069,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>1133</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>1134</v>
       </c>
       <c r="C27" s="10">
         <v>2</v>
@@ -13981,10 +14080,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>1135</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>1136</v>
       </c>
       <c r="C28" s="10">
         <v>2</v>
@@ -13992,7 +14091,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C29" s="10">
         <v>3</v>
@@ -14000,10 +14099,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B30" s="23" t="s">
         <v>1137</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>1138</v>
       </c>
       <c r="C30" s="10">
         <v>3</v>
@@ -14011,15 +14110,15 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B32" s="23" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C32" s="10">
         <v>2</v>
@@ -14027,10 +14126,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B33" s="23" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C33" s="10">
         <v>3</v>
@@ -14038,15 +14137,15 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="B35" s="23" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C35" s="10">
         <v>3</v>
@@ -14054,10 +14153,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="C36" s="10">
         <v>2</v>
@@ -14065,30 +14164,30 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C41" s="10">
         <v>2</v>
@@ -14096,10 +14195,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C42" s="10">
         <v>1</v>
@@ -14107,10 +14206,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C43" s="10">
         <v>2</v>
@@ -14118,10 +14217,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C44" s="10">
         <v>2</v>
@@ -14150,10 +14249,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C1" s="10">
         <v>1</v>
@@ -14161,10 +14260,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C2" s="10">
         <v>2</v>
@@ -14172,7 +14271,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -14180,7 +14279,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
@@ -14188,7 +14287,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -14196,7 +14295,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -14204,7 +14303,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
@@ -14212,7 +14311,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C8" s="10">
         <v>2</v>
@@ -14220,7 +14319,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C9" s="10">
         <v>2</v>
@@ -14228,7 +14327,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C10" s="10">
         <v>2</v>
@@ -14236,7 +14335,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C11" s="10">
         <v>2</v>
@@ -14244,10 +14343,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C12" s="10">
         <v>2</v>
@@ -14255,10 +14354,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C13" s="10">
         <v>3</v>
@@ -14266,7 +14365,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -14274,10 +14373,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C15" s="10">
         <v>2</v>
@@ -14285,7 +14384,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C16" s="10">
         <v>3</v>
@@ -14293,7 +14392,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C17" s="10">
         <v>2</v>
@@ -14301,7 +14400,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -14309,7 +14408,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C19" s="10">
         <v>2</v>
@@ -14317,10 +14416,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
@@ -14328,10 +14427,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C21" s="10">
         <v>3</v>
@@ -14339,10 +14438,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C22" s="10">
         <v>3</v>
@@ -14350,7 +14449,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C23" s="10">
         <v>2</v>
@@ -14358,7 +14457,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C24" s="10">
         <v>2</v>
@@ -14366,7 +14465,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
@@ -14374,7 +14473,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C26" s="10">
         <v>3</v>
@@ -14382,7 +14481,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C27" s="10">
         <v>3</v>
@@ -14390,7 +14489,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C28" s="10">
         <v>1</v>
@@ -14398,7 +14497,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C29" s="10">
         <v>3</v>
@@ -14406,17 +14505,17 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
   </sheetData>
@@ -14441,10 +14540,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>433</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>434</v>
       </c>
       <c r="C1" s="10">
         <v>1</v>
@@ -14452,10 +14551,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>436</v>
       </c>
       <c r="C2" s="10">
         <v>2</v>
@@ -14463,7 +14562,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -14471,10 +14570,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
@@ -14482,7 +14581,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -14490,10 +14589,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>442</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -14501,10 +14600,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C7" s="10">
         <v>2</v>
@@ -14512,10 +14611,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C8" s="10">
         <v>3</v>
@@ -14523,7 +14622,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
@@ -14531,10 +14630,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>447</v>
       </c>
       <c r="C10" s="10">
         <v>1</v>
@@ -14542,10 +14641,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>449</v>
       </c>
       <c r="C11" s="10">
         <v>3</v>
@@ -14553,10 +14652,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>451</v>
       </c>
       <c r="C12" s="10">
         <v>3</v>
@@ -14564,10 +14663,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C13" s="10">
         <v>3</v>
@@ -14575,10 +14674,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>455</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -14586,7 +14685,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C15" s="10">
         <v>1</v>
@@ -14594,7 +14693,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C16" s="10">
         <v>1</v>
@@ -14602,7 +14701,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C17" s="10">
         <v>1</v>
@@ -14610,7 +14709,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C18" s="10">
         <v>1</v>
@@ -14618,7 +14717,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C19" s="10">
         <v>1</v>
@@ -14626,10 +14725,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C20" s="10">
         <v>3</v>
@@ -14637,10 +14736,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>599</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>600</v>
       </c>
       <c r="C21" s="10">
         <v>1</v>
@@ -14648,10 +14747,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>877</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>878</v>
       </c>
       <c r="C22" s="10">
         <v>2</v>
@@ -14659,10 +14758,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>889</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>890</v>
       </c>
       <c r="C23" s="10">
         <v>3</v>
@@ -14670,10 +14769,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
+        <v>890</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>891</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>892</v>
       </c>
       <c r="C24" s="10">
         <v>3</v>
@@ -14681,10 +14780,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>893</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>894</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
@@ -14692,10 +14791,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>901</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>902</v>
       </c>
       <c r="C26" s="10">
         <v>1</v>
@@ -14703,10 +14802,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>903</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>904</v>
       </c>
       <c r="C27" s="10">
         <v>2</v>
@@ -14714,10 +14813,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>907</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>908</v>
       </c>
       <c r="C28" s="10">
         <v>2</v>
@@ -14725,12 +14824,12 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C32" s="10">
         <v>2</v>
@@ -14738,7 +14837,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C33" s="10">
         <v>2</v>
@@ -14746,7 +14845,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C34" s="10">
         <v>3</v>
@@ -14754,7 +14853,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C35" s="10">
         <v>3</v>
@@ -14762,7 +14861,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C36" s="10">
         <v>3</v>
@@ -14770,10 +14869,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>881</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>882</v>
       </c>
       <c r="C37" s="10">
         <v>3</v>
@@ -14781,10 +14880,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>883</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>884</v>
       </c>
       <c r="C38" s="10">
         <v>3</v>
@@ -14792,10 +14891,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>905</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>906</v>
       </c>
       <c r="C39" s="10">
         <v>3</v>
@@ -14803,15 +14902,15 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>854</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>855</v>
       </c>
       <c r="C43" s="10">
         <v>1</v>
@@ -14819,104 +14918,104 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>858</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>863</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>867</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>874</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C58" s="10">
         <v>3</v>
@@ -14924,10 +15023,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>897</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>898</v>
       </c>
       <c r="C59" s="10">
         <v>3</v>
@@ -14935,10 +15034,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>899</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>900</v>
       </c>
       <c r="C60" s="10">
         <v>1</v>
@@ -14946,7 +15045,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C61" s="10">
         <v>1</v>
@@ -14954,10 +15053,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C62" s="10">
         <v>2</v>
@@ -14965,7 +15064,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C63" s="10">
         <v>1</v>
@@ -14973,7 +15072,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C64" s="10">
         <v>1</v>
@@ -14981,7 +15080,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C65" s="10">
         <v>1</v>
@@ -14989,10 +15088,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>915</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>916</v>
       </c>
       <c r="C66" s="10">
         <v>3</v>
@@ -15000,10 +15099,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>917</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>918</v>
       </c>
       <c r="C67" s="10">
         <v>1</v>
@@ -15011,10 +15110,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>919</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>920</v>
       </c>
       <c r="C68" s="10">
         <v>3</v>
@@ -15022,10 +15121,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C69" s="10">
         <v>2</v>
@@ -15033,10 +15132,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>1041</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>1042</v>
       </c>
       <c r="C70" s="10">
         <v>2</v>
@@ -15044,10 +15143,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>1043</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>1044</v>
       </c>
       <c r="C71" s="10">
         <v>2</v>
@@ -15055,10 +15154,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C72" s="10">
         <v>2</v>
@@ -15066,7 +15165,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C73" s="10">
         <v>2</v>
@@ -15074,10 +15173,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>1049</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>1050</v>
       </c>
       <c r="C74" s="10">
         <v>3</v>
@@ -15109,7 +15208,7 @@
         <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="10">
         <v>2</v>
@@ -15222,10 +15321,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -15233,10 +15332,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="C15" s="10">
         <v>2</v>
@@ -15250,16 +15349,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="63.90625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="25" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
@@ -15267,8 +15366,8 @@
       <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
-        <v>975</v>
+      <c r="B1" s="25" t="s">
+        <v>974</v>
       </c>
       <c r="C1" s="10">
         <v>1</v>
@@ -15276,43 +15375,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="B2" t="s">
-        <v>976</v>
+        <v>563</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>975</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B4" s="25" t="s">
         <v>1273</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C3" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1275</v>
       </c>
       <c r="C4" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1277</v>
+        <v>1274</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>1275</v>
       </c>
       <c r="C5" s="10">
         <v>3</v>
@@ -15320,7 +15419,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
@@ -15328,10 +15427,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>1013</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1014</v>
       </c>
       <c r="C7" s="10">
         <v>2</v>
@@ -15339,10 +15438,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B8" s="25" t="s">
         <v>1035</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1036</v>
       </c>
       <c r="C8" s="10">
         <v>2</v>
@@ -15350,10 +15449,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B9" t="s">
         <v>1036</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>1035</v>
       </c>
       <c r="C9" s="10">
         <v>2</v>
@@ -15361,10 +15460,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1036</v>
+        <v>1037</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>1035</v>
       </c>
       <c r="C10" s="10">
         <v>3</v>
@@ -15372,10 +15471,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1036</v>
+        <v>1038</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>1035</v>
       </c>
       <c r="C11" s="10">
         <v>3</v>
@@ -15383,10 +15482,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="B12" t="s">
-        <v>977</v>
+        <v>922</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>976</v>
       </c>
       <c r="C12" s="10">
         <v>2</v>
@@ -15394,10 +15493,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>993</v>
-      </c>
-      <c r="B13" t="s">
-        <v>994</v>
       </c>
       <c r="C13" s="10">
         <v>2</v>
@@ -15405,7 +15504,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -15413,10 +15512,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>979</v>
-      </c>
-      <c r="B15" t="s">
-        <v>980</v>
       </c>
       <c r="C15" s="10">
         <v>2</v>
@@ -15424,73 +15523,76 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>981</v>
       </c>
-      <c r="B16" t="s">
-        <v>982</v>
-      </c>
       <c r="C16" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>983</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>1040</v>
+      <c r="A17" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>1299</v>
       </c>
       <c r="C17" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="26" t="s">
+        <v>982</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C19" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>984</v>
       </c>
-      <c r="B18" t="s">
-        <v>985</v>
-      </c>
-      <c r="C18" s="10">
+      <c r="C20" s="10">
         <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>995</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>996</v>
-      </c>
-      <c r="C19" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C20" s="10">
-        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" t="s">
-        <v>351</v>
+        <v>994</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>995</v>
       </c>
       <c r="C21" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>73</v>
+        <v>1001</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>1002</v>
       </c>
       <c r="C22" s="10">
         <v>2</v>
@@ -15498,74 +15600,74 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>350</v>
       </c>
       <c r="C23" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>72</v>
+      <c r="A24" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C24" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C25" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" t="s">
-        <v>989</v>
+      <c r="A26" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C26" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1001</v>
+        <v>74</v>
       </c>
       <c r="C27" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>992</v>
+      <c r="A28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>988</v>
       </c>
       <c r="C28" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>1000</v>
       </c>
       <c r="C29" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>990</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="A30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>991</v>
       </c>
       <c r="C30" s="10">
@@ -15574,57 +15676,60 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>79</v>
+      <c r="A32" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>990</v>
       </c>
       <c r="C32" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="B33" s="10"/>
+        <v>78</v>
+      </c>
       <c r="C33" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="B34" s="10"/>
+        <v>79</v>
+      </c>
       <c r="C34" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>488</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="B35" s="10"/>
       <c r="C35" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>491</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="B36" s="10"/>
       <c r="C36" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C37" s="10">
         <v>2</v>
@@ -15632,7 +15737,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C38" s="10">
         <v>2</v>
@@ -15640,65 +15745,59 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C39" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C40" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="B41" s="25" t="s">
         <v>895</v>
       </c>
-      <c r="B39" t="s">
-        <v>896</v>
-      </c>
-      <c r="C39" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C40" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1007</v>
-      </c>
       <c r="C41" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1009</v>
+        <v>1003</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>1004</v>
       </c>
       <c r="C42" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1015</v>
+        <v>1005</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>1006</v>
       </c>
       <c r="C43" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1016</v>
+        <v>1007</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>1008</v>
       </c>
       <c r="C44" s="10">
         <v>3</v>
@@ -15706,213 +15805,235 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1017</v>
+        <v>1009</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>1014</v>
       </c>
       <c r="C45" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="319" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>1033</v>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>1015</v>
       </c>
       <c r="C46" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>943</v>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C47" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C48" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
         <v>964</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>986</v>
-      </c>
-      <c r="C77" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="B78" t="s">
-        <v>987</v>
-      </c>
-      <c r="C78" s="10">
-        <v>2</v>
+        <v>965</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>1034</v>
+        <v>985</v>
       </c>
       <c r="C79" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="13" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="B85" t="s">
-        <v>621</v>
-      </c>
-      <c r="C85" s="10">
-        <v>3</v>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>986</v>
+      </c>
+      <c r="C80" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C81" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="B86" t="s">
-        <v>623</v>
-      </c>
-      <c r="C86" s="10">
-        <v>3</v>
+      <c r="A86" s="13" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>620</v>
+      </c>
+      <c r="C87" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>622</v>
+      </c>
+      <c r="C88" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B89" s="25" t="s">
         <v>624</v>
       </c>
-      <c r="B87" t="s">
-        <v>625</v>
-      </c>
-      <c r="C87" s="10">
+      <c r="C89" s="10">
         <v>3</v>
       </c>
     </row>
@@ -15998,7 +16119,7 @@
         <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C8" s="10">
         <v>2</v>
@@ -16009,7 +16130,7 @@
         <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
@@ -16028,7 +16149,7 @@
         <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C11" s="10">
         <v>2</v>
@@ -16050,7 +16171,7 @@
         <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
@@ -16061,7 +16182,7 @@
         <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -16138,7 +16259,7 @@
         <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C24" s="10">
         <v>3</v>
@@ -16238,10 +16359,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C35" s="10">
         <v>2</v>
@@ -16249,10 +16370,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C36" s="10">
         <v>2</v>
@@ -16260,10 +16381,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C37" s="10">
         <v>2</v>
@@ -16271,10 +16392,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B38" t="s">
         <v>332</v>
-      </c>
-      <c r="B38" t="s">
-        <v>333</v>
       </c>
       <c r="C38" s="10">
         <v>3</v>
@@ -16282,10 +16403,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B39" t="s">
         <v>337</v>
-      </c>
-      <c r="B39" t="s">
-        <v>338</v>
       </c>
       <c r="C39" s="10">
         <v>3</v>
@@ -16293,7 +16414,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C40" s="10">
         <v>3</v>
@@ -16301,10 +16422,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B41" t="s">
         <v>341</v>
-      </c>
-      <c r="B41" t="s">
-        <v>342</v>
       </c>
       <c r="C41" s="10">
         <v>2</v>
@@ -16312,10 +16433,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B42" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C42" s="10">
         <v>3</v>
@@ -16323,10 +16444,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="C43" s="10">
         <v>3</v>
@@ -16334,10 +16455,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B44" t="s">
         <v>387</v>
-      </c>
-      <c r="B44" t="s">
-        <v>388</v>
       </c>
       <c r="C44" s="10">
         <v>3</v>
@@ -16345,10 +16466,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>474</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>475</v>
       </c>
       <c r="C45" s="10">
         <v>3</v>
@@ -16356,10 +16477,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B46" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C46" s="10">
         <v>3</v>
@@ -16367,10 +16488,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B47" t="s">
         <v>484</v>
-      </c>
-      <c r="B47" t="s">
-        <v>485</v>
       </c>
       <c r="C47" s="10">
         <v>3</v>
@@ -16378,10 +16499,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B48" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C48" s="10">
         <v>2</v>
@@ -16389,10 +16510,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B49" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C49" s="10">
         <v>2</v>
@@ -16400,10 +16521,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B50" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C50" s="10">
         <v>2</v>
@@ -16411,10 +16532,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B51" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C51" s="10">
         <v>3</v>
@@ -16422,10 +16543,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B52" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C52" s="10">
         <v>3</v>
@@ -16433,10 +16554,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B53" t="s">
         <v>540</v>
-      </c>
-      <c r="B53" t="s">
-        <v>541</v>
       </c>
       <c r="C53" s="10">
         <v>3</v>
@@ -16444,10 +16565,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B54" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C54" s="10">
         <v>2</v>
@@ -16455,10 +16576,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B55" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C55" s="10">
         <v>2</v>
@@ -16466,10 +16587,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B56" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C56" s="10">
         <v>2</v>
@@ -16477,10 +16598,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B57" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C57" s="10">
         <v>2</v>
@@ -16488,20 +16609,20 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B60" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C60" s="10">
         <v>2</v>
@@ -16509,25 +16630,25 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B64" t="s">
         <v>558</v>
-      </c>
-      <c r="B64" t="s">
-        <v>559</v>
       </c>
       <c r="C64" s="10">
         <v>2</v>
@@ -16535,10 +16656,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B65" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C65" s="10">
         <v>2</v>
@@ -16546,15 +16667,15 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B67" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C67" s="10">
         <v>2</v>
@@ -16562,10 +16683,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="B68" t="s">
         <v>648</v>
-      </c>
-      <c r="B68" t="s">
-        <v>649</v>
       </c>
       <c r="C68" s="10">
         <v>3</v>
@@ -16573,10 +16694,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B69" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C69" s="10">
         <v>2</v>
@@ -16584,10 +16705,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B70" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C70" s="10">
         <v>3</v>
@@ -16595,7 +16716,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C71" s="10">
         <v>2</v>
@@ -16603,10 +16724,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="B72" t="s">
         <v>638</v>
-      </c>
-      <c r="B72" t="s">
-        <v>639</v>
       </c>
       <c r="C72" s="10">
         <v>3</v>
@@ -16614,10 +16735,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="B73" t="s">
         <v>640</v>
-      </c>
-      <c r="B73" t="s">
-        <v>641</v>
       </c>
       <c r="C73" s="10">
         <v>3</v>
@@ -16625,7 +16746,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C74" s="10">
         <v>2</v>
@@ -16633,10 +16754,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B75" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C75" s="10">
         <v>3</v>
@@ -16644,10 +16765,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="B76" t="s">
         <v>644</v>
-      </c>
-      <c r="B76" t="s">
-        <v>645</v>
       </c>
       <c r="C76" s="10">
         <v>2</v>
@@ -16655,10 +16776,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B77" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C77" s="10">
         <v>3</v>
@@ -16669,7 +16790,7 @@
         <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C78" s="10">
         <v>2</v>
@@ -16677,10 +16798,10 @@
     </row>
     <row r="79" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C79" s="10">
         <v>2</v>
@@ -16688,10 +16809,10 @@
     </row>
     <row r="80" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C80" s="10">
         <v>3</v>
@@ -16699,7 +16820,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C81" s="10">
         <v>3</v>
@@ -16707,10 +16828,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B82" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C82" s="10">
         <v>2</v>
@@ -16718,7 +16839,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C83" s="10">
         <v>2</v>
@@ -16726,7 +16847,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C84" s="10">
         <v>2</v>
@@ -16734,7 +16855,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C85" s="10">
         <v>2</v>
@@ -16742,10 +16863,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B86" t="s">
         <v>696</v>
-      </c>
-      <c r="B86" t="s">
-        <v>697</v>
       </c>
       <c r="C86" s="10">
         <v>3</v>
@@ -16753,15 +16874,15 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>672</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>673</v>
       </c>
       <c r="C89" s="10">
         <v>3</v>
@@ -16769,10 +16890,10 @@
     </row>
     <row r="90" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>674</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>675</v>
       </c>
       <c r="C90" s="10">
         <v>3</v>
@@ -16780,10 +16901,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="B91" t="s">
         <v>676</v>
-      </c>
-      <c r="B91" t="s">
-        <v>677</v>
       </c>
       <c r="C91" s="10">
         <v>3</v>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF56CFEB-AAB9-4CDB-81EE-AC7369F052BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB7BA8B-DA19-459E-BB4C-DBC0945BCB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="1301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1303">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -732,9 +732,6 @@
   </si>
   <si>
     <t>Http vs Websockets vs SocketIO</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sUEq35F-ELY</t>
   </si>
   <si>
     <t>Stateless Communication protocol technology that helps in server client communication which is real time in nature and supports bidirectional data flow. This protocol provides full-duplex communication channels over a single TCP connection. It is initiated with a HTTP request to upgrade to a fully interactive and 2-way communication session.
@@ -8437,12 +8434,216 @@
 Dp[1][j]=Dp[0][j-1]+arr[j];
 Dp[2][j] = max(  Dp[0][j-1],Dp[1][j-1],Dp[2][j-1]  );</t>
   </si>
+  <si>
+    <t>HTTP is stateless(everytime an http request is sent to a server, additional user information is requred to the server in order to establish TCP again) and formed over Layer 4 TCP protocol{duplex} (Through an initial handshake a TCP connection is established. This handshake method just nivolves signaling from SYN and ACK flags). HTTP is build on top of TCP but although TCP allows bidirectional communication, HTTP allows only one way communication which means at a time only one party can use the channel. This gives HTTP a plus point. Server handling HTTP are scalable.
+Websocket is also a duplex protocol built over TCP. It is initiated when HTTP formed over TCP is upgraded to a Websocket support. This protocol allows the channel to have 2 way communication. Hence it utilizes TCP bidirectional potential. Here handshake and closing signals are one-way. Websockets acquire lower bandwidth and are fast as compared to HTTP but are not scalable. Phonecall analogy on websockets and postman-letter analogy on HTTP.
+ref: /watch?v=sUEq35F-ELY (for http polling and socket IO)</t>
+  </si>
+  <si>
+    <t>GraphQL and Rest API</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">REST = Representational State Transfer. A convention about how communication should happen on HTTP. It provides guideline on handling HTTP request and responses. REST also hold concept of status code which shows response statuses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1xx = Information request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+100 Continue; 101 Switching protocol; 102 Processing
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2xx = Success</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+200 OK; 201 Created;202 Accepted; 203 Non-Authoritative Information;204 No content;
+205 Reset Content; 207-Multi-status; 206 Partial content;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3xx = Redirection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+301: Permanent Redirect/no longer available; 302/307: Temporarily unavailable; 305 Use Proxy
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4xx = Client Error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+400 Bad request; 401 Unauthorized; 402 Payment required; 403 Forbidden; 404 Not found
+405 Method not allowed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5xx = Server Error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+500 Internal Server Error; 501 Not implemented; 502 Bad gateway; 503 Service Unavailable
+504 Gateway timeout; 505 HTTP version not supported; 508 Bandwidth limit crossed
+507 Insufficient storage
+GraphQL is an open-source data query and manipulation language for APIs, and a runtime for fulfilling queries with existing data. GraphQL is a query language and server-side runtime for application programming interfaces (APIs) that prioritizes giving clients exactly the data they request and no more. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>As an alternative to REST, GraphQL lets developers construct requests that pull data from multiple data sources in a single API call. 
+A GraphQL schema is made up of object types, which define which kind of object you can request and what fields it has. As queries come in, GraphQL validates the queries against the schema. GraphQL then executes the validated queries.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Advantages of GraphQL: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">GraphQL calls are handled in a single round trip. Clients get what they request with no overfetching.
+Strongly defined data types reduce miscommunication between the client and the server. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Distadvantages of GraphQL:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GraphQL shifts much of the work of a data query to the server side, which adds complexity for server developers.
+Caching is more complex than with REST.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8485,6 +8686,14 @@
     <font>
       <b/>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -8537,7 +8746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -8568,9 +8777,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -8609,13 +8815,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8894,6 +9102,94 @@
         <a:xfrm>
           <a:off x="3848100" y="15106650"/>
           <a:ext cx="4817329" cy="1955800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>17027</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>183492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>2311400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D20E12B-29EA-4FC2-0835-28029A5DC260}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9586477" y="20808292"/>
+          <a:ext cx="5507473" cy="2312058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>2295777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66560</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>5194300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F21221DC-2B9F-2976-55C8-150BCEBAB711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9582150" y="23104727"/>
+          <a:ext cx="5540260" cy="2898523"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9578,10 +9874,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
@@ -9611,7 +9907,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C21" s="3">
         <v>4</v>
@@ -9715,7 +10011,7 @@
         <v>45</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C31" s="3">
         <v>3</v>
@@ -9726,7 +10022,7 @@
         <v>60</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C32" s="3">
         <v>2</v>
@@ -9750,7 +10046,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>64</v>
@@ -9777,10 +10073,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="C38" s="3">
         <v>2</v>
@@ -9788,10 +10084,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="C39" s="3">
         <v>1</v>
@@ -9799,10 +10095,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="C40" s="3">
         <v>2</v>
@@ -9810,10 +10106,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>181</v>
       </c>
       <c r="C41" s="3">
         <v>3</v>
@@ -9821,10 +10117,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="C42" s="3">
         <v>3</v>
@@ -9832,10 +10128,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="C43" s="3">
         <v>4</v>
@@ -9843,10 +10139,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>187</v>
       </c>
       <c r="C44" s="3">
         <v>4</v>
@@ -9854,10 +10150,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="C45" s="3">
         <v>2</v>
@@ -9865,7 +10161,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -9873,7 +10169,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C47" s="3">
         <v>2</v>
@@ -9881,10 +10177,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -9892,10 +10188,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C49" s="3">
         <v>2</v>
@@ -9903,10 +10199,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C50" s="3">
         <v>3</v>
@@ -9914,10 +10210,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>199</v>
       </c>
       <c r="C51" s="3">
         <v>3</v>
@@ -9925,10 +10221,10 @@
     </row>
     <row r="52" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>202</v>
       </c>
       <c r="C52" s="3">
         <v>3</v>
@@ -9936,10 +10232,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="C53" s="3">
         <v>2</v>
@@ -9947,10 +10243,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C54" s="3">
         <v>1</v>
@@ -9958,10 +10254,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C55" s="3">
         <v>2</v>
@@ -9969,10 +10265,10 @@
     </row>
     <row r="56" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="C56" s="3">
         <v>3</v>
@@ -9980,7 +10276,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C57" s="3">
         <v>2</v>
@@ -9988,10 +10284,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="C58" s="3">
         <v>3</v>
@@ -9999,10 +10295,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>458</v>
       </c>
       <c r="C59" s="3">
         <v>3</v>
@@ -10010,7 +10306,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C60" s="3">
         <v>2</v>
@@ -10018,10 +10314,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>461</v>
       </c>
       <c r="C61" s="3">
         <v>2</v>
@@ -10029,10 +10325,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>463</v>
       </c>
       <c r="C62" s="3">
         <v>3</v>
@@ -10061,7 +10357,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C1" s="3">
         <v>2</v>
@@ -10069,10 +10365,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
@@ -10080,10 +10376,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B3" t="s">
         <v>561</v>
-      </c>
-      <c r="B3" t="s">
-        <v>562</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -10091,10 +10387,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4" t="s">
         <v>563</v>
-      </c>
-      <c r="B4" t="s">
-        <v>564</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -10102,7 +10398,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -10110,7 +10406,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -10118,7 +10414,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
@@ -10126,10 +10422,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="B8" t="s">
         <v>568</v>
-      </c>
-      <c r="B8" t="s">
-        <v>569</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
@@ -10137,7 +10433,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -10145,10 +10441,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B10" t="s">
         <v>571</v>
-      </c>
-      <c r="B10" t="s">
-        <v>572</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -10156,10 +10452,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B11" t="s">
         <v>573</v>
-      </c>
-      <c r="B11" t="s">
-        <v>574</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
@@ -10167,7 +10463,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -10175,7 +10471,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -10183,10 +10479,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="B14" t="s">
         <v>577</v>
-      </c>
-      <c r="B14" t="s">
-        <v>578</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -10194,7 +10490,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
@@ -10202,10 +10498,10 @@
     </row>
     <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -10213,107 +10509,107 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -10333,153 +10629,153 @@
   <cols>
     <col min="1" max="1" width="61.08984375" customWidth="1"/>
     <col min="2" max="2" width="87.08984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="21"/>
+    <col min="3" max="3" width="8.7265625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
+        <v>931</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>933</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>935</v>
-      </c>
-      <c r="C14" s="21">
+        <v>934</v>
+      </c>
+      <c r="C14" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>934</v>
-      </c>
-      <c r="C15" s="21">
+        <v>933</v>
+      </c>
+      <c r="C15" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>936</v>
-      </c>
-      <c r="C16" s="21">
+        <v>935</v>
+      </c>
+      <c r="C16" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="C22" s="21">
+        <v>968</v>
+      </c>
+      <c r="C22" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>970</v>
-      </c>
-      <c r="C23" s="21">
+        <v>969</v>
+      </c>
+      <c r="C23" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
   </sheetData>
@@ -10503,10 +10799,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -10514,10 +10810,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>218</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -10525,10 +10821,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -10536,10 +10832,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -10547,10 +10843,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -10558,10 +10854,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -10569,10 +10865,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>226</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -10580,10 +10876,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -10591,10 +10887,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -10602,10 +10898,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -10613,10 +10909,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -10644,10 +10940,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="116" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>476</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>477</v>
       </c>
       <c r="C1" s="3">
         <v>2</v>
@@ -10655,10 +10951,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B2" t="s">
         <v>478</v>
-      </c>
-      <c r="B2" t="s">
-        <v>479</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -10666,23 +10962,23 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B3" t="s">
         <v>480</v>
-      </c>
-      <c r="B3" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B4" t="s">
         <v>590</v>
-      </c>
-      <c r="B4" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -10690,7 +10986,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -10698,10 +10994,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B8" t="s">
         <v>604</v>
-      </c>
-      <c r="B8" t="s">
-        <v>605</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -10709,34 +11005,34 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B9" t="s">
         <v>606</v>
-      </c>
-      <c r="B9" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B10" t="s">
         <v>608</v>
-      </c>
-      <c r="B10" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="B12" t="s">
         <v>611</v>
-      </c>
-      <c r="B12" t="s">
-        <v>612</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -10744,10 +11040,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B13" t="s">
         <v>613</v>
-      </c>
-      <c r="B13" t="s">
-        <v>614</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -10755,26 +11051,26 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="B14" t="s">
         <v>616</v>
-      </c>
-      <c r="B14" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B16" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B17" t="s">
         <v>626</v>
-      </c>
-      <c r="B17" t="s">
-        <v>627</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -10798,80 +11094,80 @@
   <cols>
     <col min="1" max="1" width="54.81640625" customWidth="1"/>
     <col min="2" max="2" width="87" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="21"/>
+    <col min="3" max="3" width="8.7265625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>844</v>
-      </c>
-      <c r="C13" s="21">
+        <v>843</v>
+      </c>
+      <c r="C13" s="20">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -10895,10 +11191,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -10906,10 +11202,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -10917,10 +11213,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -10928,10 +11224,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -10939,10 +11235,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -10950,10 +11246,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -10961,10 +11257,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -10972,10 +11268,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" t="s">
         <v>263</v>
-      </c>
-      <c r="B8" t="s">
-        <v>264</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -10983,10 +11279,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" t="s">
         <v>272</v>
-      </c>
-      <c r="B9" t="s">
-        <v>273</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -10994,7 +11290,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -11002,10 +11298,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>846</v>
+      </c>
+      <c r="B11" t="s">
         <v>847</v>
-      </c>
-      <c r="B11" t="s">
-        <v>848</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -11013,7 +11309,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -11021,10 +11317,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>849</v>
+      </c>
+      <c r="B13" t="s">
         <v>850</v>
-      </c>
-      <c r="B13" t="s">
-        <v>851</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -11045,7 +11341,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.90625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="34.90625" style="16" customWidth="1"/>
     <col min="2" max="2" width="46" style="3" customWidth="1"/>
     <col min="3" max="3" width="71.7265625" style="3" customWidth="1"/>
     <col min="4" max="4" width="54.1796875" style="3" customWidth="1"/>
@@ -11054,56 +11350,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>290</v>
+      <c r="A1" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
-        <v>1267</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>1268</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1294</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
-        <v>1276</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1269</v>
       </c>
     </row>
   </sheetData>
@@ -11128,463 +11424,463 @@
   <sheetData>
     <row r="1" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1078</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1079</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1080</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1083</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1084</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1085</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1089</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1091</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1092</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>1094</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>1096</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1097</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>1098</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>1100</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1101</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>1102</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1103</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1104</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1105</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>1106</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>1108</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>1111</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>1114</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1115</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>1141</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>1148</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>1152</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>1154</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>1157</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1158</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>1159</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1160</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>1161</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>1194</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>1196</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>1216</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>1218</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>1224</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>1234</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="348" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>1239</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1240</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>1259</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>1262</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>1264</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>1282</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>1284</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>1287</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1288</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>1289</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1290</v>
       </c>
     </row>
   </sheetData>
@@ -11604,63 +11900,63 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="60.36328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="87.36328125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="87.36328125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>1198</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>1200</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>1202</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>1204</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>1206</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>1208</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>1210</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>1211</v>
       </c>
     </row>
   </sheetData>
@@ -11903,156 +12199,156 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="319" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="406" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="319" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -12079,7 +12375,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C1" s="3">
         <v>1</v>
@@ -12087,7 +12383,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -12095,10 +12391,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -12106,10 +12402,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -12117,10 +12413,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -12128,10 +12424,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -12139,10 +12435,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>275</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
@@ -12150,10 +12446,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
@@ -12161,10 +12457,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -12172,10 +12468,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
@@ -12183,7 +12479,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
@@ -12191,7 +12487,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C12" s="3">
         <v>4</v>
@@ -12199,10 +12495,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -12210,7 +12506,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -12218,10 +12514,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
@@ -12229,10 +12525,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -12240,7 +12536,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -12248,7 +12544,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C18" s="3">
         <v>2</v>
@@ -12256,10 +12552,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -12267,10 +12563,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="C20" s="3">
         <v>3</v>
@@ -12278,7 +12574,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -12286,7 +12582,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -12294,10 +12590,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
@@ -12305,7 +12601,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C24" s="3">
         <v>3</v>
@@ -12313,10 +12609,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -12324,7 +12620,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
@@ -12332,10 +12628,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="C27" s="3">
         <v>3</v>
@@ -12343,7 +12639,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C28" s="3">
         <v>3</v>
@@ -12351,7 +12647,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C29" s="3">
         <v>2</v>
@@ -12359,10 +12655,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="C30" s="3">
         <v>3</v>
@@ -12370,10 +12666,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C31" s="3">
         <v>2</v>
@@ -12381,12 +12677,12 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
@@ -12394,10 +12690,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>581</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>582</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
@@ -12405,26 +12701,26 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>585</v>
-      </c>
       <c r="C35" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="13" t="s">
-        <v>1228</v>
+      <c r="A43" s="12" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C44" s="3">
         <v>2</v>
@@ -12432,10 +12728,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="C45" s="3">
         <v>2</v>
@@ -12443,7 +12739,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C46" s="3">
         <v>1</v>
@@ -12451,10 +12747,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="C47" s="3">
         <v>2</v>
@@ -12462,7 +12758,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C48" s="3">
         <v>1</v>
@@ -12470,10 +12766,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C49" s="3">
         <v>2</v>
@@ -12481,10 +12777,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C50" s="3">
         <v>2</v>
@@ -12492,10 +12788,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C51" s="3">
         <v>2</v>
@@ -12503,7 +12799,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C52" s="3">
         <v>4</v>
@@ -12511,7 +12807,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C53" s="3">
         <v>1</v>
@@ -12519,7 +12815,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C54" s="3">
         <v>2</v>
@@ -12527,7 +12823,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C55" s="3">
         <v>1</v>
@@ -12535,10 +12831,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>430</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>431</v>
       </c>
       <c r="C56" s="3">
         <v>2</v>
@@ -12552,190 +12848,200 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="54.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="21" customWidth="1"/>
     <col min="3" max="3" width="78.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="B2" s="25" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="174" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="174" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="B12" s="11" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>761</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>763</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>765</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="232" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>997</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>996</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B44" s="21" t="s">
         <v>1050</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>1070</v>
+        <v>1051</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>1302</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="B12" r:id="rId2" xr:uid="{27BA61B5-D020-4B8F-AFC9-207EF2FCF94F}"/>
-    <hyperlink ref="B15" r:id="rId3" xr:uid="{3CBD2DB6-D317-4648-A724-BB8E07A2D11B}"/>
-    <hyperlink ref="B18" r:id="rId4" xr:uid="{380A35C1-B608-49A6-BE55-919D13C19771}"/>
-    <hyperlink ref="B17" r:id="rId5" xr:uid="{A09336A8-BC8F-4BD8-B228-65EF322A6F8F}"/>
-    <hyperlink ref="B16" r:id="rId6" xr:uid="{C2505F33-6AF0-49FE-8E4F-CC55FDE37772}"/>
-    <hyperlink ref="B45" r:id="rId7" xr:uid="{8A31E5C5-C7F0-45AA-A855-7A46AC282B8A}"/>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{27BA61B5-D020-4B8F-AFC9-207EF2FCF94F}"/>
+    <hyperlink ref="B15" r:id="rId2" xr:uid="{3CBD2DB6-D317-4648-A724-BB8E07A2D11B}"/>
+    <hyperlink ref="B18" r:id="rId3" xr:uid="{380A35C1-B608-49A6-BE55-919D13C19771}"/>
+    <hyperlink ref="B17" r:id="rId4" xr:uid="{A09336A8-BC8F-4BD8-B228-65EF322A6F8F}"/>
+    <hyperlink ref="B16" r:id="rId5" xr:uid="{C2505F33-6AF0-49FE-8E4F-CC55FDE37772}"/>
+    <hyperlink ref="B45" r:id="rId6" xr:uid="{8A31E5C5-C7F0-45AA-A855-7A46AC282B8A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
-  <drawing r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -12755,34 +13061,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -12806,50 +13112,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -12874,195 +13180,195 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B24" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>417</v>
+      </c>
+      <c r="B28" t="s">
         <v>418</v>
-      </c>
-      <c r="B28" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>424</v>
+      </c>
+      <c r="B34" t="s">
         <v>425</v>
-      </c>
-      <c r="B34" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -13086,292 +13392,292 @@
   <sheetData>
     <row r="1" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>713</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>717</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>748</v>
+      <c r="B4" s="13" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>721</v>
+      </c>
+      <c r="B7" t="s">
         <v>722</v>
-      </c>
-      <c r="B7" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B14" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B15" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B16" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B17" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B20" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B21" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>740</v>
+      </c>
+      <c r="B22" t="s">
         <v>741</v>
       </c>
-      <c r="B22" t="s">
-        <v>742</v>
-      </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="B25" t="s">
         <v>749</v>
-      </c>
-      <c r="B25" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
         <v>751</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B29" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B30" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>771</v>
+      </c>
+      <c r="B41" t="s">
         <v>772</v>
-      </c>
-      <c r="B41" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>773</v>
+      </c>
+      <c r="B42" t="s">
         <v>774</v>
-      </c>
-      <c r="B42" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>775</v>
+      </c>
+      <c r="B43" t="s">
         <v>776</v>
-      </c>
-      <c r="B43" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>777</v>
+      </c>
+      <c r="B44" t="s">
         <v>778</v>
-      </c>
-      <c r="B44" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>779</v>
+      </c>
+      <c r="B45" t="s">
         <v>780</v>
-      </c>
-      <c r="B45" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>782</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>783</v>
+      </c>
+      <c r="B47" t="s">
         <v>784</v>
-      </c>
-      <c r="B47" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>786</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="B49" s="17" t="s">
         <v>788</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>790</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>794</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -13397,26 +13703,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>801</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>803</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>805</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -13441,50 +13747,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="B1" t="s">
         <v>816</v>
-      </c>
-      <c r="B1" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="B3" t="s">
         <v>823</v>
-      </c>
-      <c r="B3" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>828</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -13508,15 +13814,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B2" s="1">
         <v>6379</v>
@@ -13524,66 +13830,66 @@
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1019</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="290" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="319" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="290" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>1024</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="290" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="319" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="290" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1025</v>
       </c>
     </row>
   </sheetData>
@@ -13609,97 +13915,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
   </sheetData>
@@ -13719,47 +14025,47 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="61.26953125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="95.90625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="95.90625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>1189</v>
+        <v>1181</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B2" s="23">
+        <v>1182</v>
+      </c>
+      <c r="B2" s="22">
         <v>1979</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>1190</v>
+        <v>1183</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>1187</v>
+        <v>1184</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>1188</v>
+        <v>1185</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>1187</v>
       </c>
     </row>
   </sheetData>
@@ -13783,22 +14089,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1" t="s">
         <v>796</v>
-      </c>
-      <c r="B1" t="s">
-        <v>797</v>
       </c>
       <c r="C1" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="B2" t="s">
         <v>798</v>
-      </c>
-      <c r="B2" t="s">
-        <v>799</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -13806,7 +14112,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -13814,7 +14120,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -13822,10 +14128,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B5" t="s">
         <v>1230</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1231</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -13833,10 +14139,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B6" t="s">
         <v>1232</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1233</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -13858,13 +14164,13 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="61.08984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="95.81640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="95.81640625" style="22" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C1" s="10">
         <v>1</v>
@@ -13872,7 +14178,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -13880,10 +14186,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>1072</v>
+        <v>1054</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>1071</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -13891,10 +14197,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>1071</v>
+        <v>1057</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>1070</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -13902,10 +14208,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>1073</v>
+        <v>1055</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>1072</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
@@ -13913,10 +14219,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>1074</v>
+        <v>1056</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>1073</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
@@ -13924,15 +14230,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>1075</v>
+        <v>1058</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>1074</v>
       </c>
       <c r="C8" s="10">
         <v>2</v>
@@ -13940,60 +14246,60 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>1120</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>1121</v>
       </c>
       <c r="C19" s="10">
         <v>3</v>
@@ -14001,7 +14307,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C20" s="10">
         <v>3</v>
@@ -14009,10 +14315,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>1280</v>
+        <v>1122</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>1279</v>
       </c>
       <c r="C21" s="10">
         <v>3</v>
@@ -14020,10 +14326,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>1124</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>1125</v>
       </c>
       <c r="C22" s="10">
         <v>2</v>
@@ -14031,7 +14337,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C23" s="10">
         <v>2</v>
@@ -14039,7 +14345,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C24" s="10">
         <v>2</v>
@@ -14047,10 +14353,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>1128</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>1129</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
@@ -14058,10 +14364,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>1130</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>1131</v>
       </c>
       <c r="C26" s="10">
         <v>2</v>
@@ -14069,10 +14375,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>1132</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>1133</v>
       </c>
       <c r="C27" s="10">
         <v>2</v>
@@ -14080,10 +14386,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>1134</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>1135</v>
       </c>
       <c r="C28" s="10">
         <v>2</v>
@@ -14091,7 +14397,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C29" s="10">
         <v>3</v>
@@ -14099,10 +14405,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>1136</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>1137</v>
       </c>
       <c r="C30" s="10">
         <v>3</v>
@@ -14110,15 +14416,15 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>1266</v>
+        <v>1240</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>1265</v>
       </c>
       <c r="C32" s="10">
         <v>2</v>
@@ -14126,10 +14432,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>1279</v>
+        <v>1241</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>1278</v>
       </c>
       <c r="C33" s="10">
         <v>3</v>
@@ -14137,15 +14443,15 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>1253</v>
+        <v>1243</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>1252</v>
       </c>
       <c r="C35" s="10">
         <v>3</v>
@@ -14153,10 +14459,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>1281</v>
+        <v>1244</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>1280</v>
       </c>
       <c r="C36" s="10">
         <v>2</v>
@@ -14164,30 +14470,30 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>1255</v>
+        <v>1249</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>1254</v>
       </c>
       <c r="C41" s="10">
         <v>2</v>
@@ -14195,10 +14501,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>1254</v>
+        <v>1250</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>1253</v>
       </c>
       <c r="C42" s="10">
         <v>1</v>
@@ -14206,10 +14512,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>1256</v>
+        <v>1240</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>1255</v>
       </c>
       <c r="C43" s="10">
         <v>2</v>
@@ -14217,10 +14523,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>1252</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>1257</v>
+        <v>1251</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>1256</v>
       </c>
       <c r="C44" s="10">
         <v>2</v>
@@ -14249,10 +14555,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C1" s="10">
         <v>1</v>
@@ -14260,10 +14566,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C2" s="10">
         <v>2</v>
@@ -14271,7 +14577,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -14279,7 +14585,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
@@ -14287,7 +14593,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -14295,7 +14601,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -14303,7 +14609,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
@@ -14311,7 +14617,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C8" s="10">
         <v>2</v>
@@ -14319,7 +14625,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C9" s="10">
         <v>2</v>
@@ -14327,7 +14633,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C10" s="10">
         <v>2</v>
@@ -14335,7 +14641,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C11" s="10">
         <v>2</v>
@@ -14343,10 +14649,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C12" s="10">
         <v>2</v>
@@ -14354,10 +14660,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C13" s="10">
         <v>3</v>
@@ -14365,7 +14671,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -14373,10 +14679,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C15" s="10">
         <v>2</v>
@@ -14384,7 +14690,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C16" s="10">
         <v>3</v>
@@ -14392,7 +14698,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C17" s="10">
         <v>2</v>
@@ -14400,7 +14706,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -14408,7 +14714,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C19" s="10">
         <v>2</v>
@@ -14416,10 +14722,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
@@ -14427,10 +14733,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C21" s="10">
         <v>3</v>
@@ -14438,10 +14744,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C22" s="10">
         <v>3</v>
@@ -14449,7 +14755,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C23" s="10">
         <v>2</v>
@@ -14457,7 +14763,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C24" s="10">
         <v>2</v>
@@ -14465,7 +14771,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
@@ -14473,7 +14779,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C26" s="10">
         <v>3</v>
@@ -14481,7 +14787,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C27" s="10">
         <v>3</v>
@@ -14489,7 +14795,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C28" s="10">
         <v>1</v>
@@ -14497,7 +14803,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C29" s="10">
         <v>3</v>
@@ -14505,17 +14811,17 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
   </sheetData>
@@ -14540,10 +14846,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="C1" s="10">
         <v>1</v>
@@ -14551,10 +14857,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="C2" s="10">
         <v>2</v>
@@ -14562,7 +14868,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -14570,10 +14876,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>437</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>438</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
@@ -14581,7 +14887,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -14589,21 +14895,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>440</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>441</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
-        <v>442</v>
+      <c r="A7" s="11" t="s">
+        <v>441</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C7" s="10">
         <v>2</v>
@@ -14611,10 +14917,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C8" s="10">
         <v>3</v>
@@ -14622,7 +14928,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
@@ -14630,10 +14936,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>446</v>
       </c>
       <c r="C10" s="10">
         <v>1</v>
@@ -14641,10 +14947,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>447</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>448</v>
       </c>
       <c r="C11" s="10">
         <v>3</v>
@@ -14652,21 +14958,21 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="C12" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
-        <v>451</v>
+      <c r="A13" s="11" t="s">
+        <v>450</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C13" s="10">
         <v>3</v>
@@ -14674,10 +14980,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>454</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -14685,7 +14991,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C15" s="10">
         <v>1</v>
@@ -14693,7 +14999,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C16" s="10">
         <v>1</v>
@@ -14701,7 +15007,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C17" s="10">
         <v>1</v>
@@ -14709,26 +15015,26 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C18" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
-        <v>596</v>
+      <c r="A19" s="11" t="s">
+        <v>595</v>
       </c>
       <c r="C19" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
-        <v>597</v>
+      <c r="A20" s="11" t="s">
+        <v>596</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C20" s="10">
         <v>3</v>
@@ -14736,54 +15042,54 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>598</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>599</v>
       </c>
       <c r="C21" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>877</v>
-      </c>
       <c r="C22" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
+        <v>887</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>888</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>889</v>
       </c>
       <c r="C23" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>890</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>891</v>
       </c>
       <c r="C24" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
+        <v>891</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>892</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>893</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
@@ -14791,10 +15097,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>900</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>901</v>
       </c>
       <c r="C26" s="10">
         <v>1</v>
@@ -14802,10 +15108,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>902</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>903</v>
       </c>
       <c r="C27" s="10">
         <v>2</v>
@@ -14813,10 +15119,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>906</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>907</v>
       </c>
       <c r="C28" s="10">
         <v>2</v>
@@ -14824,12 +15130,12 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C32" s="10">
         <v>2</v>
@@ -14837,7 +15143,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C33" s="10">
         <v>2</v>
@@ -14845,7 +15151,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C34" s="10">
         <v>3</v>
@@ -14853,37 +15159,37 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C35" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
-        <v>878</v>
+      <c r="A36" s="11" t="s">
+        <v>877</v>
       </c>
       <c r="C36" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>880</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>881</v>
       </c>
       <c r="C37" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="11" t="s">
+        <v>881</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>882</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>883</v>
       </c>
       <c r="C38" s="10">
         <v>3</v>
@@ -14891,10 +15197,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>904</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>905</v>
       </c>
       <c r="C39" s="10">
         <v>3</v>
@@ -14902,15 +15208,15 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>853</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>854</v>
       </c>
       <c r="C43" s="10">
         <v>1</v>
@@ -14918,104 +15224,104 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>857</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>862</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>866</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="12" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>873</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C58" s="10">
         <v>3</v>
@@ -15023,10 +15329,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>896</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>897</v>
       </c>
       <c r="C59" s="10">
         <v>3</v>
@@ -15034,10 +15340,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>898</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>899</v>
       </c>
       <c r="C60" s="10">
         <v>1</v>
@@ -15045,7 +15351,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C61" s="10">
         <v>1</v>
@@ -15053,10 +15359,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C62" s="10">
         <v>2</v>
@@ -15064,7 +15370,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C63" s="10">
         <v>1</v>
@@ -15072,7 +15378,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C64" s="10">
         <v>1</v>
@@ -15080,7 +15386,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C65" s="10">
         <v>1</v>
@@ -15088,10 +15394,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>914</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>915</v>
       </c>
       <c r="C66" s="10">
         <v>3</v>
@@ -15099,10 +15405,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>916</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>917</v>
       </c>
       <c r="C67" s="10">
         <v>1</v>
@@ -15110,10 +15416,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>918</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>919</v>
       </c>
       <c r="C68" s="10">
         <v>3</v>
@@ -15121,10 +15427,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C69" s="10">
         <v>2</v>
@@ -15132,10 +15438,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>1040</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>1041</v>
       </c>
       <c r="C70" s="10">
         <v>2</v>
@@ -15143,10 +15449,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>1042</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>1043</v>
       </c>
       <c r="C71" s="10">
         <v>2</v>
@@ -15154,10 +15460,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C72" s="10">
         <v>2</v>
@@ -15165,18 +15471,18 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C73" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="11" t="s">
         <v>1047</v>
       </c>
-      <c r="C73" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="12" t="s">
+      <c r="B74" s="3" t="s">
         <v>1048</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>1049</v>
       </c>
       <c r="C74" s="10">
         <v>3</v>
@@ -15208,7 +15514,7 @@
         <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C1" s="10">
         <v>2</v>
@@ -15282,7 +15588,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -15310,10 +15616,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="C13" s="10">
         <v>2</v>
@@ -15321,10 +15627,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -15332,10 +15638,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="C15" s="10">
         <v>2</v>
@@ -15351,14 +15657,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="63.90625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
@@ -15366,8 +15672,8 @@
       <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>974</v>
+      <c r="B1" t="s">
+        <v>973</v>
       </c>
       <c r="C1" s="10">
         <v>1</v>
@@ -15375,10 +15681,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>975</v>
+        <v>562</v>
+      </c>
+      <c r="B2" t="s">
+        <v>974</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -15386,10 +15692,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B3" t="s">
         <v>1271</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>1272</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -15397,10 +15703,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1270</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>1273</v>
+        <v>1269</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1272</v>
       </c>
       <c r="C4" s="10">
         <v>3</v>
@@ -15408,10 +15714,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B5" t="s">
         <v>1274</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>1275</v>
       </c>
       <c r="C5" s="10">
         <v>3</v>
@@ -15419,7 +15725,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
@@ -15427,10 +15733,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B7" t="s">
         <v>1012</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>1013</v>
       </c>
       <c r="C7" s="10">
         <v>2</v>
@@ -15438,10 +15744,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B8" t="s">
         <v>1034</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>1035</v>
       </c>
       <c r="C8" s="10">
         <v>2</v>
@@ -15449,10 +15755,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B9" s="25" t="s">
         <v>1035</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1034</v>
       </c>
       <c r="C9" s="10">
         <v>2</v>
@@ -15460,10 +15766,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>1035</v>
+        <v>1036</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1034</v>
       </c>
       <c r="C10" s="10">
         <v>3</v>
@@ -15471,10 +15777,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>1035</v>
+        <v>1037</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1034</v>
       </c>
       <c r="C11" s="10">
         <v>3</v>
@@ -15482,10 +15788,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>976</v>
+        <v>921</v>
+      </c>
+      <c r="B12" t="s">
+        <v>975</v>
       </c>
       <c r="C12" s="10">
         <v>2</v>
@@ -15493,10 +15799,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="B13" t="s">
         <v>992</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>993</v>
       </c>
       <c r="C13" s="10">
         <v>2</v>
@@ -15504,7 +15810,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -15512,10 +15818,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="B15" t="s">
         <v>978</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>979</v>
       </c>
       <c r="C15" s="10">
         <v>2</v>
@@ -15523,10 +15829,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="B16" t="s">
         <v>980</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>981</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
@@ -15534,10 +15840,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>1297</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>1299</v>
+        <v>1296</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1298</v>
       </c>
       <c r="C17" s="10">
         <v>2</v>
@@ -15545,21 +15851,21 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>1300</v>
+        <v>1297</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1299</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="26" t="s">
-        <v>982</v>
+      <c r="A19" s="24" t="s">
+        <v>981</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C19" s="10">
         <v>3</v>
@@ -15567,10 +15873,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="B20" t="s">
         <v>983</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>984</v>
       </c>
       <c r="C20" s="10">
         <v>3</v>
@@ -15578,10 +15884,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>994</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>995</v>
       </c>
       <c r="C21" s="10">
         <v>2</v>
@@ -15589,10 +15895,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B22" t="s">
         <v>1001</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>1002</v>
       </c>
       <c r="C22" s="10">
         <v>2</v>
@@ -15602,8 +15908,8 @@
       <c r="A23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>350</v>
+      <c r="B23" t="s">
+        <v>349</v>
       </c>
       <c r="C23" s="10">
         <v>1</v>
@@ -15645,8 +15951,8 @@
       <c r="A28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>988</v>
+      <c r="B28" t="s">
+        <v>987</v>
       </c>
       <c r="C28" s="10">
         <v>3</v>
@@ -15656,8 +15962,8 @@
       <c r="A29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>1000</v>
+      <c r="B29" t="s">
+        <v>999</v>
       </c>
       <c r="C29" s="10">
         <v>1</v>
@@ -15668,7 +15974,7 @@
         <v>76</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C30" s="10">
         <v>2</v>
@@ -15684,10 +15990,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="B32" t="s">
         <v>989</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>990</v>
       </c>
       <c r="C32" s="10">
         <v>2</v>
@@ -15711,7 +16017,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10">
@@ -15720,7 +16026,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10">
@@ -15729,7 +16035,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C37" s="10">
         <v>2</v>
@@ -15737,7 +16043,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C38" s="10">
         <v>2</v>
@@ -15745,7 +16051,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C39" s="10">
         <v>2</v>
@@ -15753,7 +16059,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C40" s="10">
         <v>2</v>
@@ -15761,10 +16067,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="B41" t="s">
         <v>894</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>895</v>
       </c>
       <c r="C41" s="10">
         <v>2</v>
@@ -15772,10 +16078,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B42" t="s">
         <v>1003</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>1004</v>
       </c>
       <c r="C42" s="10">
         <v>1</v>
@@ -15783,10 +16089,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B43" t="s">
         <v>1005</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>1006</v>
       </c>
       <c r="C43" s="10">
         <v>1</v>
@@ -15794,10 +16100,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B44" t="s">
         <v>1007</v>
-      </c>
-      <c r="B44" s="25" t="s">
-        <v>1008</v>
       </c>
       <c r="C44" s="10">
         <v>3</v>
@@ -15805,10 +16111,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B45" s="25" t="s">
-        <v>1014</v>
+        <v>1008</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1013</v>
       </c>
       <c r="C45" s="10">
         <v>3</v>
@@ -15816,10 +16122,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B46" s="25" t="s">
-        <v>1015</v>
+        <v>1010</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1014</v>
       </c>
       <c r="C46" s="10">
         <v>3</v>
@@ -15827,10 +16133,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>1016</v>
+        <v>1009</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1015</v>
       </c>
       <c r="C47" s="10">
         <v>3</v>
@@ -15838,10 +16144,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B48" t="s">
         <v>1031</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>1032</v>
       </c>
       <c r="C48" s="10">
         <v>3</v>
@@ -15849,132 +16155,132 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C79" s="10">
         <v>2</v>
@@ -15982,10 +16288,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>987</v>
-      </c>
-      <c r="B80" s="25" t="s">
         <v>986</v>
+      </c>
+      <c r="B80" t="s">
+        <v>985</v>
       </c>
       <c r="C80" s="10">
         <v>2</v>
@@ -15993,23 +16299,23 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C81" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="13" t="s">
-        <v>618</v>
+      <c r="A86" s="12" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B87" t="s">
         <v>619</v>
-      </c>
-      <c r="B87" s="25" t="s">
-        <v>620</v>
       </c>
       <c r="C87" s="10">
         <v>3</v>
@@ -16017,10 +16323,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B88" t="s">
         <v>621</v>
-      </c>
-      <c r="B88" s="25" t="s">
-        <v>622</v>
       </c>
       <c r="C88" s="10">
         <v>3</v>
@@ -16028,10 +16334,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B89" t="s">
         <v>623</v>
-      </c>
-      <c r="B89" s="25" t="s">
-        <v>624</v>
       </c>
       <c r="C89" s="10">
         <v>3</v>
@@ -16119,7 +16425,7 @@
         <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C8" s="10">
         <v>2</v>
@@ -16130,7 +16436,7 @@
         <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
@@ -16149,7 +16455,7 @@
         <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C11" s="10">
         <v>2</v>
@@ -16171,7 +16477,7 @@
         <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
@@ -16182,7 +16488,7 @@
         <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -16259,7 +16565,7 @@
         <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C24" s="10">
         <v>3</v>
@@ -16267,7 +16573,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
@@ -16275,10 +16581,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C26" s="10">
         <v>2</v>
@@ -16286,15 +16592,15 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="C28" s="10">
         <v>2</v>
@@ -16302,10 +16608,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" t="s">
         <v>232</v>
-      </c>
-      <c r="B29" t="s">
-        <v>233</v>
       </c>
       <c r="C29" s="10">
         <v>2</v>
@@ -16313,10 +16619,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" t="s">
         <v>234</v>
-      </c>
-      <c r="B30" t="s">
-        <v>235</v>
       </c>
       <c r="C30" s="10">
         <v>2</v>
@@ -16324,10 +16630,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" t="s">
         <v>236</v>
-      </c>
-      <c r="B31" t="s">
-        <v>237</v>
       </c>
       <c r="C31" s="10">
         <v>3</v>
@@ -16335,7 +16641,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C32" s="10">
         <v>1</v>
@@ -16343,7 +16649,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C33" s="10">
         <v>1</v>
@@ -16351,7 +16657,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C34" s="10">
         <v>1</v>
@@ -16359,10 +16665,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B35" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C35" s="10">
         <v>2</v>
@@ -16370,10 +16676,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B36" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C36" s="10">
         <v>2</v>
@@ -16381,10 +16687,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B37" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C37" s="10">
         <v>2</v>
@@ -16392,10 +16698,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B38" t="s">
         <v>331</v>
-      </c>
-      <c r="B38" t="s">
-        <v>332</v>
       </c>
       <c r="C38" s="10">
         <v>3</v>
@@ -16403,10 +16709,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B39" t="s">
         <v>336</v>
-      </c>
-      <c r="B39" t="s">
-        <v>337</v>
       </c>
       <c r="C39" s="10">
         <v>3</v>
@@ -16414,7 +16720,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C40" s="10">
         <v>3</v>
@@ -16422,10 +16728,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B41" t="s">
         <v>340</v>
-      </c>
-      <c r="B41" t="s">
-        <v>341</v>
       </c>
       <c r="C41" s="10">
         <v>2</v>
@@ -16433,10 +16739,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B42" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C42" s="10">
         <v>3</v>
@@ -16444,10 +16750,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="C43" s="10">
         <v>3</v>
@@ -16455,10 +16761,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B44" t="s">
         <v>386</v>
-      </c>
-      <c r="B44" t="s">
-        <v>387</v>
       </c>
       <c r="C44" s="10">
         <v>3</v>
@@ -16466,10 +16772,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>474</v>
       </c>
       <c r="C45" s="10">
         <v>3</v>
@@ -16477,10 +16783,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B46" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C46" s="10">
         <v>3</v>
@@ -16488,10 +16794,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B47" t="s">
         <v>483</v>
-      </c>
-      <c r="B47" t="s">
-        <v>484</v>
       </c>
       <c r="C47" s="10">
         <v>3</v>
@@ -16499,10 +16805,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B48" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C48" s="10">
         <v>2</v>
@@ -16510,10 +16816,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B49" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C49" s="10">
         <v>2</v>
@@ -16521,10 +16827,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B50" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C50" s="10">
         <v>2</v>
@@ -16532,10 +16838,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B51" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C51" s="10">
         <v>3</v>
@@ -16543,10 +16849,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B52" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C52" s="10">
         <v>3</v>
@@ -16554,10 +16860,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B53" t="s">
         <v>539</v>
-      </c>
-      <c r="B53" t="s">
-        <v>540</v>
       </c>
       <c r="C53" s="10">
         <v>3</v>
@@ -16565,10 +16871,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B54" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C54" s="10">
         <v>2</v>
@@ -16576,10 +16882,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B55" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C55" s="10">
         <v>2</v>
@@ -16587,10 +16893,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B56" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C56" s="10">
         <v>2</v>
@@ -16598,10 +16904,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B57" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C57" s="10">
         <v>2</v>
@@ -16609,20 +16915,20 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B60" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C60" s="10">
         <v>2</v>
@@ -16630,25 +16936,25 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B64" t="s">
         <v>557</v>
-      </c>
-      <c r="B64" t="s">
-        <v>558</v>
       </c>
       <c r="C64" s="10">
         <v>2</v>
@@ -16656,10 +16962,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B65" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C65" s="10">
         <v>2</v>
@@ -16667,15 +16973,15 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B67" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C67" s="10">
         <v>2</v>
@@ -16683,10 +16989,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="B68" t="s">
         <v>647</v>
-      </c>
-      <c r="B68" t="s">
-        <v>648</v>
       </c>
       <c r="C68" s="10">
         <v>3</v>
@@ -16694,10 +17000,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B69" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C69" s="10">
         <v>2</v>
@@ -16705,10 +17011,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B70" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C70" s="10">
         <v>3</v>
@@ -16716,7 +17022,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C71" s="10">
         <v>2</v>
@@ -16724,10 +17030,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B72" t="s">
         <v>637</v>
-      </c>
-      <c r="B72" t="s">
-        <v>638</v>
       </c>
       <c r="C72" s="10">
         <v>3</v>
@@ -16735,10 +17041,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="B73" t="s">
         <v>639</v>
-      </c>
-      <c r="B73" t="s">
-        <v>640</v>
       </c>
       <c r="C73" s="10">
         <v>3</v>
@@ -16746,7 +17052,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C74" s="10">
         <v>2</v>
@@ -16754,10 +17060,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B75" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C75" s="10">
         <v>3</v>
@@ -16765,10 +17071,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B76" t="s">
         <v>643</v>
-      </c>
-      <c r="B76" t="s">
-        <v>644</v>
       </c>
       <c r="C76" s="10">
         <v>2</v>
@@ -16776,10 +17082,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B77" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C77" s="10">
         <v>3</v>
@@ -16790,7 +17096,7 @@
         <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C78" s="10">
         <v>2</v>
@@ -16798,10 +17104,10 @@
     </row>
     <row r="79" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C79" s="10">
         <v>2</v>
@@ -16809,10 +17115,10 @@
     </row>
     <row r="80" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C80" s="10">
         <v>3</v>
@@ -16820,7 +17126,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C81" s="10">
         <v>3</v>
@@ -16828,10 +17134,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B82" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C82" s="10">
         <v>2</v>
@@ -16839,7 +17145,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C83" s="10">
         <v>2</v>
@@ -16847,7 +17153,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C84" s="10">
         <v>2</v>
@@ -16855,7 +17161,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C85" s="10">
         <v>2</v>
@@ -16863,26 +17169,26 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="B86" t="s">
         <v>695</v>
-      </c>
-      <c r="B86" t="s">
-        <v>696</v>
       </c>
       <c r="C86" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="13" t="s">
-        <v>670</v>
+      <c r="A88" s="12" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>671</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>672</v>
       </c>
       <c r="C89" s="10">
         <v>3</v>
@@ -16890,10 +17196,10 @@
     </row>
     <row r="90" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>673</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>674</v>
       </c>
       <c r="C90" s="10">
         <v>3</v>
@@ -16901,10 +17207,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B91" t="s">
         <v>675</v>
-      </c>
-      <c r="B91" t="s">
-        <v>676</v>
       </c>
       <c r="C91" s="10">
         <v>3</v>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB7BA8B-DA19-459E-BB4C-DBC0945BCB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39943DAC-4983-4D98-BD29-8223406ED48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="11" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1305">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -8637,6 +8637,23 @@
       <t>GraphQL shifts much of the work of a data query to the server side, which adds complexity for server developers.
 Caching is more complex than with REST.</t>
     </r>
+  </si>
+  <si>
+    <t>Trapping rain water, O(1) space</t>
+  </si>
+  <si>
+    <t>Given a 2D grid, representing heights of blocks at ith-jth position, find amount of rain water being stored in between.
+Intuition: For water to be stored in between, we need the boundary to be big enough. So logically let us assume all non-boundary elements are 0. Then amount of water that can be stored= number of non-boundary elements * minimum height in boundary elements. We need to check minimum at each step and the delegate the same job to non-boundary elements. This is a priority queue question.
+Sol:
+struct Pairr{
+    int row; int col; int height;
+    Pairr(int x, int y, int z){  row=x;col=y;height=z;  }
+}
+bool compare(Pairr a, Pairr b){
+    return a.height&lt;b.height;
+}
+sol(grid){
+}</t>
   </si>
 </sst>
 </file>
@@ -8746,7 +8763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -8817,9 +8834,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12850,8 +12864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12873,7 +12887,7 @@
       <c r="A2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="21" t="s">
         <v>1300</v>
       </c>
       <c r="C2">
@@ -14155,10 +14169,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40FB394-4690-4F52-A2C9-F88A14F9CD7F}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14290,7 +14304,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>1075</v>
       </c>
     </row>
@@ -14404,54 +14418,57 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>1136</v>
+      <c r="A30" s="3" t="s">
+        <v>1303</v>
       </c>
       <c r="C30" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>1137</v>
+      <c r="A31" s="4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C31" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C32" s="10">
-        <v>2</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C33" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="116" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B34" s="21" t="s">
         <v>1278</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C34" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>1243</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>1252</v>
+      <c r="B35" s="21" t="s">
+        <v>1304</v>
       </c>
       <c r="C35" s="10">
         <v>3</v>
@@ -14459,76 +14476,87 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>1280</v>
+        <v>1252</v>
       </c>
       <c r="C36" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>1245</v>
+        <v>1244</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C37" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>1249</v>
-      </c>
-      <c r="B41" s="22" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C41" s="10">
-        <v>2</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C42" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>1240</v>
+        <v>1250</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C43" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C44" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B45" s="22" t="s">
         <v>1256</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C45" s="10">
         <v>2</v>
       </c>
     </row>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39943DAC-4983-4D98-BD29-8223406ED48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014BBAC9-FB20-4408-83F8-7956EC66AB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="1305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="1314">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -8642,6 +8642,10 @@
     <t>Trapping rain water, O(1) space</t>
   </si>
   <si>
+    <t>Given a string representing a number and k denoting number of elements in your resultant subsequence find a subsequence of size k from given string which is minimal on value.
+Same as remove k digits.</t>
+  </si>
+  <si>
     <t>Given a 2D grid, representing heights of blocks at ith-jth position, find amount of rain water being stored in between.
 Intuition: For water to be stored in between, we need the boundary to be big enough. So logically let us assume all non-boundary elements are 0. Then amount of water that can be stored= number of non-boundary elements * minimum height in boundary elements. We need to check minimum at each step and the delegate the same job to non-boundary elements. This is a priority queue question.
 Sol:
@@ -8653,7 +8657,144 @@
     return a.height&lt;b.height;
 }
 sol(grid){
+    int n=grid.size(); int m=grid[0].size();
+    priority_queue&lt;Pairr&gt; pq; //min heap
+    bool vis[n][m];
+    memset(vis,false,sizeof(vis));
+    for(int i=0;i&lt;n;i++){
+        for(int j=0;j&lt;m;j++){
+            if(i==0||j==0||j==m-1||i==n-1){vis[i][j]=true; Pairr x; x.row=i; x.col=j; x.height=arr[i][j];}
+        }
+    } int dir[4][2] ={{0,1},{1,0},{0,-1},{-1,0}};
+    while(!pq.empty()){
+        Pairr temp=pq.top();
+        pq.pop();
+        for(auto r:dir){
+            int rowdash=temp.row+r[0];
+            int coldash=temp.col+r[1];
+            if(rowdash&gt;0 &amp;&amp; rowdash&lt;n &amp;&amp; coldash&gt;0 &amp;&amp; coldash&lt;m &amp;&amp; !vis[rowdash][coldash]){
+                water+= max(0,temp.height-arr[rowdash][coldash]);
+                if(arr[rowdash][coldash]&gt;=temp.height){Pairr x(rowdash,coldash,arr[rowdash][coldash]);pq.push(x); }
+                else{  Pairr x(rowdash,coldash, temp.height); pq.push(x);  }
+                vis[rowdash][coldash]=true;
+            }
+        }
+    }return water;
 }</t>
+  </si>
+  <si>
+    <t>Prototype in OOPs JS</t>
+  </si>
+  <si>
+    <r>
+      <t>Prototype is a special part of javaScipt object. If you create a JS object you can see a specil property once you console log the object called Prototype in the console. This is automatically added (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prototypical inheritance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">). In case if you called a data member or member function which you didn't define in the object, JS will look for that into the prototype property in that object. If not found it'll throw an error else you'll be getting the desired resilt. A prototype of object can be reassigned to null or reference to another object.
+If prototype is reassigned to a new object, and you call a method which is not present in prototype of current object, then JS will look after that in prototype of prototype. This is called prototypr chaining.
+Prototype can be accessed via x.__proto__, where x is the object.
+Console:
+x.__proto__
+//object with members-&gt; {toLocalString, hasOwnProperty, toString, valueOf, custructor.......}
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Classes and Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class is a extensible form template/blueprint to a real entity.
+Syntax:
+class &lt;ClassName&gt;{
+     member functions and variables;
+}
+let &lt;object_var&gt; = new &lt;ClassName&gt;
+//Like in python, class variables are not specifically metioned like in C++, but rather used in methods using this pointer/reference of the current object.
+</t>
+  </si>
+  <si>
+    <t>Constructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constructor()//default
+constructor(datamember1_value , datamember2_value , ….){
+    this.datamember1=datamember1_value;
+    this.datamember2=datamember2_value;…..
+}//parameterized
+</t>
+  </si>
+  <si>
+    <t>Inheritance</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class &lt;Parent&gt;{
+    …..
+}
+class &lt;Child&gt; extends &lt;Parent&gt;{
+    …...
+}
+Child will have all member functions of Parent as well as additional members which are either new or overrided(If the method is already present in Parent class but the is defined again in child class but modified then for the object of child class the method will be overrided and modified, but not for the object of Parent class).
+Now what if you need to call a method (which is in parent) in our child class. That is let us in child class the parent class's method is override. Now when the child class object calls this method then only the method defined in child will run. What if we need to call this method from parent and the perform our additional logic in child? </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">We use super keyword.
+super is reference to parent class. So we can use super.method which is being override in child for the mentioned purpose.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Parent{   call(){.........}   }
+Child extends Parent{    call(){   super.call();    &lt;child additional logic&gt;;   }    }
+Overriding in Constructor: This works little differently in case of constructors.
+When we extends properties of parent class to a child class then the constructor of parent is also passed on to the child class. In acse if you do not specify a constructor in child class, it will make use of parent class's constructor. But if you do create a child class constructor, then we need to follow these rules:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1) the first step in constructor method should be to call parent class constructor (by super(&lt;desired arg to parent constructor&gt;)   );
+2) the super() must come before the use of this reference in child class.
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -11424,10 +11565,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4140E-759C-470A-8A2C-5710FE199FCD}">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11895,6 +12036,38 @@
       </c>
       <c r="B58" s="1" t="s">
         <v>1289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="391.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1313</v>
       </c>
     </row>
   </sheetData>
@@ -14171,8 +14344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40FB394-4690-4F52-A2C9-F88A14F9CD7F}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14463,12 +14636,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>1242</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C35" s="10">
         <v>3</v>
@@ -14506,9 +14679,15 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>1247</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C40" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014BBAC9-FB20-4408-83F8-7956EC66AB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E930CC43-C33E-41FC-8E99-1F76147DA449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="5" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="1324">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -6497,17 +6497,6 @@
     <t>Valid Stack sequence</t>
   </si>
   <si>
-    <t>Given 2 sequences on denoting push and other denoting pop, find if pop sequence can be formed if we push/pop the element from push sequence in certain order. All elements are distince and both seqences have same length.
-Stack&lt;int&gt; st;
-int j=0;
-for(ele in push_seq){
-    st.push(ele);
-    while(!st.empty() &amp;&amp; pop[i]==st.top()){
-        j++; st.pop();
-    }
-} return j==st.size();</t>
-  </si>
-  <si>
     <t>Minimum bracket to add and make valid parantheses sequence</t>
   </si>
   <si>
@@ -8795,6 +8784,87 @@
 2) the super() must come before the use of this reference in child class.
 </t>
     </r>
+  </si>
+  <si>
+    <t>Minimum sum if atmost 2 elements in a row are allowed to be excluded</t>
+  </si>
+  <si>
+    <t>This is inverse of previous question. If you find the answer of previous question as ans (say) subtrct it from sum of all elements in array arr.
+Or Use This approach:
+dp[i]=min(dp[i-1],dp[i-2],dp[i-3])+arr[i];
+in the end;
+return min(dp[n],dp[n-1],dp[n-2]);</t>
+  </si>
+  <si>
+    <t>Rain water Harvesting/Rain trapping</t>
+  </si>
+  <si>
+    <t>Stack O(1) space/Stack next and previous greater element approach</t>
+  </si>
+  <si>
+    <t>FloodFill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given an array denoting graph elements. That is for example arr={1,2,2,3,1}, There are 3 components connected( 3 connected graph). We can choose one node and change its color. If the chosen node has connected nodes (adjacent nodes) they will acquire that color. Find minimum steps to convert whole array to same color.
+For example 5 2 2 1 -&gt; 2 2 2 1 -&gt; 1 1 1 1 (2) and 4 5 2 2 1 3 5 5 -&gt; 4 5 1 1 1 3 5 5-&gt; 4 5 3 3 3 3 5 5-&gt; 4 5 5 5 5 5 5 5-&gt; 4 4 4 4 4 4 4 4 (4).
+Use MCM in DP:
+int solve(int arr[],int dp[][8], int l, int r){
+    if(l&gt;=r){
+        return dp[l][r]=0;
+    }else if(l==(r-1)){
+        return dp[l][r]=(arr[l]!=arr[r]);
+    }
+    if(dp[l][r]&gt;0){
+        return dp[l][r];
+    }
+    if(arr[l]==arr[r])
+        return dp[l][r]=1+solve(arr,dp,l+1,r-1);
+    return dp[l][r]=min(1+solve(arr,dp,l+1,r),1+solve(arr,dp,l,r-1));
+} </t>
+  </si>
+  <si>
+    <t>Ladder 2</t>
+  </si>
+  <si>
+    <t>Given a binary array denoting ladder and snake(on which you cannot step) and k (maximum length jump from your position). Find number of ways to reach end of arr. Same as above. Except while filling dp[i] from dp[i-1,i-k] check if arr[i]==1. If arr[i]=1, dp[i]=0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given string with numbers, '+', '-', '/', '*' and '  '. Evaluate equation.
+Stack&lt;int&gt; st;
+for(int i=0;i&lt;n;i++){
+    if(s[i] is a digit){
+        int num=form(s,i);
+        i=i-1;
+        if(sign=='+'){
+            st.push(num);
+        }else if(sign=='-'){
+            st.push(-num);
+        }else if(sign=='*'){
+            int x=st.top();st.pop();
+            st.push(x*num);
+        }else{
+            int x=st.top();st.pop();
+            st.push(x/num);
+         }
+    }else if(s[i] is not '   '){
+        sign=s[i];
+    }
+} //now empty stack by summing its element.
+</t>
+  </si>
+  <si>
+    <t>Given 2 sequences on denoting push and other denoting pop, find if pop sequence can be formed if we push/pop the element from push sequence in certain order. All elements are distinct and both seqences have same length. For example push: 7 2 9 4 5, pop: 4 5 9 2 7. pop can be achieved by push push elements till 4, pop 4, push 5, pop 5 and pop remaining. check if we popped all and nothing from pop sequence is there to check.
+Stack&lt;int&gt; st;
+int j=0;
+for(ele in push_seq){
+    st.push(ele);
+    while(!st.empty() &amp;&amp; pop_seq[ j ]==st.top()){
+        j++; st.pop();
+    }
+} return j==st.size();</t>
+  </si>
+  <si>
+    <t>Check if word is valid after insertion</t>
   </si>
 </sst>
 </file>
@@ -8904,7 +8974,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -8976,6 +9046,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
@@ -11509,7 +11583,7 @@
         <v>289</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>260</v>
@@ -11520,41 +11594,41 @@
     </row>
     <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1266</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1267</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1293</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1268</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1276</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
   </sheetData>
@@ -11567,7 +11641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4140E-759C-470A-8A2C-5710FE199FCD}">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
@@ -11747,7 +11821,7 @@
         <v>1116</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
@@ -11760,314 +11834,314 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>1140</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>1147</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>1148</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>1151</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>1153</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>1156</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>1158</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>1160</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>1193</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>1194</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>1196</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>1216</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>1217</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>1223</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>1233</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>1234</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="348" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>1238</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>1258</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>1261</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>1263</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>1281</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>1283</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>1286</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>1288</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>1306</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>1308</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>1310</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>1312</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>1313</v>
       </c>
     </row>
   </sheetData>
@@ -12080,8 +12154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8094B6-CB06-4E55-ACD8-76FB0FB9921F}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12092,58 +12166,58 @@
   <sheetData>
     <row r="1" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>1197</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1198</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>1199</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>1201</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>1203</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>1205</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>1206</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>1207</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>1209</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>1210</v>
       </c>
     </row>
   </sheetData>
@@ -12899,7 +12973,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -13061,7 +13135,7 @@
         <v>160</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13211,10 +13285,10 @@
     </row>
     <row r="46" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B46" s="21" t="s">
         <v>1301</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>1302</v>
       </c>
     </row>
   </sheetData>
@@ -14102,97 +14176,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
   </sheetData>
@@ -14217,42 +14291,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B2" s="22">
+        <v>1181</v>
+      </c>
+      <c r="B2" s="25">
         <v>1979</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
   </sheetData>
@@ -14307,7 +14381,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -14315,10 +14389,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B5" t="s">
         <v>1229</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1230</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -14326,10 +14400,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B6" t="s">
         <v>1231</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1232</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -14344,14 +14418,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40FB394-4690-4F52-A2C9-F88A14F9CD7F}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="61.08984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="95.81640625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="95.81640625" style="21" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
@@ -14386,29 +14460,29 @@
       <c r="A4" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>1070</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>1072</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>1073</v>
       </c>
       <c r="C6" s="10">
@@ -14424,7 +14498,7 @@
       <c r="A8" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>1074</v>
       </c>
       <c r="C8" s="10">
@@ -14504,8 +14578,8 @@
       <c r="A21" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>1279</v>
+      <c r="B21" s="21" t="s">
+        <v>1278</v>
       </c>
       <c r="C21" s="10">
         <v>3</v>
@@ -14516,7 +14590,7 @@
         <v>1123</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>1124</v>
+        <v>1322</v>
       </c>
       <c r="C22" s="10">
         <v>2</v>
@@ -14524,7 +14598,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C23" s="10">
         <v>2</v>
@@ -14532,7 +14606,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C24" s="10">
         <v>2</v>
@@ -14540,10 +14614,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>1127</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>1128</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
@@ -14551,10 +14625,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>1129</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>1130</v>
       </c>
       <c r="C26" s="10">
         <v>2</v>
@@ -14562,10 +14636,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>1131</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>1132</v>
       </c>
       <c r="C27" s="10">
         <v>2</v>
@@ -14573,10 +14647,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B28" s="21" t="s">
         <v>1133</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>1134</v>
       </c>
       <c r="C28" s="10">
         <v>2</v>
@@ -14592,7 +14666,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C30" s="10">
         <v>3</v>
@@ -14600,10 +14674,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>1135</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>1136</v>
       </c>
       <c r="C31" s="10">
         <v>3</v>
@@ -14611,37 +14685,37 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C33" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C33" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="116" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>1241</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>1278</v>
+      <c r="B34" s="22" t="s">
+        <v>1277</v>
       </c>
       <c r="C34" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>1242</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>1305</v>
+        <v>1241</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>1304</v>
       </c>
       <c r="C35" s="10">
         <v>3</v>
@@ -14649,10 +14723,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C36" s="10">
         <v>3</v>
@@ -14660,31 +14734,37 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C37" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>1244</v>
       </c>
-      <c r="B37" s="22" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C37" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>1245</v>
+      <c r="B38" s="22" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C38" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>1247</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>1304</v>
+      <c r="B40" s="22" t="s">
+        <v>1303</v>
       </c>
       <c r="C40" s="10">
         <v>3</v>
@@ -14692,15 +14772,15 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C42" s="10">
         <v>2</v>
@@ -14708,10 +14788,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C43" s="10">
         <v>1</v>
@@ -14719,10 +14799,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>1240</v>
+        <v>1323</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C44" s="10">
         <v>2</v>
@@ -14730,10 +14810,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>1251</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>1256</v>
+        <v>1250</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>1255</v>
       </c>
       <c r="C45" s="10">
         <v>2</v>
@@ -14932,7 +15012,7 @@
         <v>759</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
@@ -15862,7 +15942,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
@@ -15871,7 +15951,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="63.90625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="26" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
@@ -15879,7 +15959,7 @@
       <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="26" t="s">
         <v>973</v>
       </c>
       <c r="C1" s="10">
@@ -15890,41 +15970,38 @@
       <c r="A2" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="26" t="s">
         <v>974</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>1270</v>
       </c>
-      <c r="B3" t="s">
-        <v>1271</v>
-      </c>
       <c r="C3" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C4" s="10">
-        <v>3</v>
+        <v>1319</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1320</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1273</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1274</v>
+        <v>1268</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>1271</v>
       </c>
       <c r="C5" s="10">
         <v>3</v>
@@ -15932,18 +16009,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>920</v>
+        <v>1272</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>1273</v>
       </c>
       <c r="C6" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1012</v>
+        <v>920</v>
       </c>
       <c r="C7" s="10">
         <v>2</v>
@@ -15951,10 +16028,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1034</v>
+        <v>1011</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>1012</v>
       </c>
       <c r="C8" s="10">
         <v>2</v>
@@ -15962,9 +16039,9 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>1034</v>
       </c>
       <c r="C9" s="10">
@@ -15973,20 +16050,20 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>1034</v>
       </c>
       <c r="C10" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B11" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>1034</v>
       </c>
       <c r="C11" s="10">
@@ -15995,21 +16072,21 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="B12" t="s">
-        <v>975</v>
+        <v>1037</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>1034</v>
       </c>
       <c r="C12" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>991</v>
-      </c>
-      <c r="B13" t="s">
-        <v>992</v>
+        <v>921</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>975</v>
       </c>
       <c r="C13" s="10">
         <v>2</v>
@@ -16017,7 +16094,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>976</v>
+        <v>991</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>992</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -16025,10 +16105,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="B15" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C15" s="10">
         <v>2</v>
@@ -16036,10 +16113,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="B16" t="s">
-        <v>980</v>
+        <v>977</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>978</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
@@ -16047,10 +16124,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1298</v>
+        <v>979</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>980</v>
       </c>
       <c r="C17" s="10">
         <v>2</v>
@@ -16058,73 +16135,76 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>1297</v>
       </c>
-      <c r="B18" t="s">
-        <v>1299</v>
-      </c>
       <c r="C18" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C19" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="24" t="s">
         <v>981</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C21" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" s="26" t="s">
         <v>983</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C22" s="10">
         <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>993</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>994</v>
-      </c>
-      <c r="C21" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C22" s="10">
-        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" t="s">
-        <v>349</v>
+        <v>993</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>994</v>
       </c>
       <c r="C23" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>73</v>
+        <v>1000</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>1001</v>
       </c>
       <c r="C24" s="10">
         <v>2</v>
@@ -16132,75 +16212,75 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>349</v>
       </c>
       <c r="C25" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>72</v>
+      <c r="A26" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C26" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C27" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B28" t="s">
-        <v>987</v>
+      <c r="A28" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C28" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" t="s">
-        <v>999</v>
+        <v>74</v>
       </c>
       <c r="C29" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>990</v>
+      <c r="A30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>987</v>
       </c>
       <c r="C30" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>999</v>
       </c>
       <c r="C31" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
-        <v>988</v>
-      </c>
-      <c r="B32" t="s">
-        <v>989</v>
+      <c r="A32" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>990</v>
       </c>
       <c r="C32" s="10">
         <v>2</v>
@@ -16208,57 +16288,60 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>79</v>
+      <c r="A34" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>989</v>
       </c>
       <c r="C34" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="B35" s="10"/>
+        <v>78</v>
+      </c>
       <c r="C35" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="B36" s="10"/>
+        <v>79</v>
+      </c>
       <c r="C36" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>486</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="B37" s="10"/>
       <c r="C37" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>489</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="B38" s="10"/>
       <c r="C38" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C39" s="10">
         <v>2</v>
@@ -16266,7 +16349,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C40" s="10">
         <v>2</v>
@@ -16274,65 +16357,59 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C41" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C42" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" s="26" t="s">
         <v>894</v>
       </c>
-      <c r="C41" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C42" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1005</v>
-      </c>
       <c r="C43" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1007</v>
+        <v>1002</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>1003</v>
       </c>
       <c r="C44" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1013</v>
+        <v>1004</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>1005</v>
       </c>
       <c r="C45" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1014</v>
+        <v>1006</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>1007</v>
       </c>
       <c r="C46" s="10">
         <v>3</v>
@@ -16340,213 +16417,257 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1015</v>
+        <v>1008</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>1013</v>
       </c>
       <c r="C47" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1031</v>
+      <c r="A48" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>1014</v>
       </c>
       <c r="C48" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C49" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C50" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C51" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
         <v>951</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" ht="290" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C76" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
         <v>963</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="C79" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
-        <v>986</v>
-      </c>
-      <c r="B80" t="s">
-        <v>985</v>
-      </c>
-      <c r="C80" s="10">
-        <v>2</v>
+        <v>964</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="C81" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>985</v>
+      </c>
+      <c r="C82" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="C81" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="12" t="s">
+      <c r="C83" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="12" t="s">
         <v>617</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="B87" t="s">
-        <v>619</v>
-      </c>
-      <c r="C87" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="B88" t="s">
-        <v>621</v>
-      </c>
-      <c r="C88" s="10">
-        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>619</v>
+      </c>
+      <c r="C89" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="C90" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B91" s="26" t="s">
         <v>623</v>
       </c>
-      <c r="C89" s="10">
+      <c r="C91" s="10">
         <v>3</v>
       </c>
     </row>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E930CC43-C33E-41FC-8E99-1F76147DA449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B37B321-183E-4FC1-8656-FB7EAC0E95DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,7 @@
     <sheet name="C++Depth" sheetId="30" r:id="rId29"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="1324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="1342">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -7099,83 +7100,10 @@
     <t>Variables</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Assigned as 
-var &lt;variable_name&gt; &lt;data_type&gt;;
-var &lt;variable_name&gt; &lt;data_type&gt; = &lt;value&gt;;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ShortHand Notation
-&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>variable_name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; := &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
     <t>Datatypes Primitive</t>
   </si>
   <si>
-    <t>bool
-string
-float64
-int</t>
-  </si>
-  <si>
     <t>Type Check in GoLang</t>
-  </si>
-  <si>
-    <t>fmt.Printf("%T",&lt;variable&gt;)
-reflect.TypeOf(&lt;variable&gt;)
-reflect.ValueOf(&lt;Variable&gt;).Kind()</t>
   </si>
   <si>
     <t>Output streams</t>
@@ -8710,16 +8638,6 @@
     <t>Classes and Object</t>
   </si>
   <si>
-    <t xml:space="preserve">Class is a extensible form template/blueprint to a real entity.
-Syntax:
-class &lt;ClassName&gt;{
-     member functions and variables;
-}
-let &lt;object_var&gt; = new &lt;ClassName&gt;
-//Like in python, class variables are not specifically metioned like in C++, but rather used in methods using this pointer/reference of the current object.
-</t>
-  </si>
-  <si>
     <t>Constructor</t>
   </si>
   <si>
@@ -8865,6 +8783,492 @@
   </si>
   <si>
     <t>Check if word is valid after insertion</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Assigned as 
+var &lt;variable_name&gt; &lt;data_type&gt;;
+var &lt;variable_name&gt; &lt;data_type&gt; = &lt;value&gt;;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ShortHand Notation
+&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>variable_name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; := &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //This cannot be used outside the function.</t>
+    </r>
+  </si>
+  <si>
+    <t>fmt.Printf("%T",&lt;variable&gt;)
+reflect.TypeOf(&lt;variable&gt;)                  //import reflect.
+reflect.ValueOf(&lt;Variable&gt;).Kind()</t>
+  </si>
+  <si>
+    <t>Hello world</t>
+  </si>
+  <si>
+    <t xml:space="preserve">package main
+import ("fmt")
+func main() {
+    fmt.Println("hello world")
+}
+&gt;&gt;go run &lt;filename&gt;.go //runs code
+&gt;&gt;go build &lt;filename&gt;.go //build executable…the you will run executable
+&gt;&gt;ls
+&gt;&gt;./&lt;filename&gt;        //execuatble name is same as &lt;filename&gt;.go
+</t>
+  </si>
+  <si>
+    <t>bool
+string              //by default ""
+float64
+int, int8, int16, int32, int64                   //by default 0
+uint, uint8, uint16, uint32, uint64                   //by default 0</t>
+  </si>
+  <si>
+    <t>fmt</t>
+  </si>
+  <si>
+    <t>Print("&lt;str&gt;", "&lt;var&gt;"…..)                 //o/p stream stays on same line
+Println("&lt;str&gt;", "&lt;var&gt;"…..)
+Printf( &lt;str with format specifiers&gt;, &lt;var1&gt;, &lt;var2&gt;…..  )                                                  //formatting string
+Format Specifiers: %v    -&gt;    variable value (%t bool, %d uint,int, %p pointer, %s string, %x %o %b base 8-16-2)
+                                  %q    -&gt;    quoted variable value if variable is a string
+                                  %T    -&gt;    type of coresponding variable
+                                  %9.2f    -&gt;   width 9, precision 2
+var x string = Sprintf(&lt;like Printf&gt;)      returns the whole output as a string
+var x string = Sprintln(&lt;string with var seperated by ,&gt;)</t>
+  </si>
+  <si>
+    <t>Access modifires</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public: when you want to access the members everywhere in your application.
+private: when you want to access the members only inside the class.
+protected: when you want to access the members inside the class and its subclasses.
+By default, all members (properties, fields, methods, or functions) of classes are public accessible from outside the class.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Public:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+class Employee
+{
+    constructor(name: string){  this.employeeName = name }
+    greet() {
+        console.log(`Good Morning ${this.employeeName}`)
+    }
+}
+let employee = new Employee('Ossama')
+employee.greet()
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Private members can not accessible from outside the class, and it can access only internally within the class.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">class Employee
+{
+    constructor(name: string){ this.employeeName = name }
+    greet() {
+        console.log(`Good Morning ${this.employeeName}`)
+    }    private convertToString(num: number) {
+        return num.toString()
+    }
+} let employee = new Employee('Ossama')
+employee.convertToString(20)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Protected members are accessible only internally within the class or any class that extends it, but not externally.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+class Employee
+{
+    public employeeName: string
+    constructor(name: string){ this.employeeName = name }
+    protected greet() {
+        console.log(`Good Morning ${this.employeeName}`)
+    }
+}
+class Manager extends Employee
+{
+    public managerName: string
+    constructor(managerName: string) {
+        super(managerName) // super refer to the Employee constructor
+    }
+    managerGreet() {
+        this.greet()
+    }
+}
+let manager = new Manager('Ossama')
+manager.greet()
+manager.managerGreet()</t>
+    </r>
+  </si>
+  <si>
+    <t>Static members</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Only one instance for all objects to a class and accessed via Class Name not object name.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Go through this code:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class MyClass {
+  // class constructor, equivalent to
+  // the function body of a constructor
+  constructor() {
+    const privateVariable = 'private value'; // Private variable at the constructor scope
+    this.publicVariable = 'public value'; // Public property
+    this.privilegedMethod = function() {
+      // Public Method with access to the constructor scope variables
+      console.log(privateVariable);
+    };
+  }
+  // Prototype methods:
+  publicMethod() {
+    console.log(this.publicVariable);
+  }
+  // Static properties shared by all instances
+  static staticProperty = 'static value';
+  static staticMethod() {
+    console.log(this.staticProperty);
+  }
+}
+// We can add properties to the class prototype
+MyClass.prototype.additionalMethod = function() {
+  console.log(this.publicVariable);
+};
+var myInstance = new MyClass();
+myInstance.publicMethod();       // "public value"
+myInstance.additionalMethod(); // "public value"
+myInstance.privilegedMethod(); // "private value"
+MyClass.staticMethod();             // "static value"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Class is a extensible form template/blueprint to a real entity.
+Syntax:
+class &lt;ClassName&gt;{
+     member functions and variables;
+}
+let &lt;object_var&gt; = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;ClassName&gt;
+//Like in python, class variables are not specifically metioned like in C++, but rather used in methods using this pointer/reference of the current object.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>IIFE, Immediately invoked Function Expression</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">These is a function that is without a name and can be async and invoked as soon as Javascript is loaded and initiates running. 
+This is usually used to invoked to avoid polluting global namespace and run onload with asyn property. Definition and call are written at the same time.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>....//funtion body</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+)()</t>
+    </r>
+  </si>
+  <si>
+    <t>Destructuring and Spread operator</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Through Examples (basically we use spread operatoe "..." to open a container and collecting them into another) and (Destructuring as the name suggest is used to open and map elements to another or same type another container)
+On List:
+[a, b] = [10, 20];
+[a, b, ...rest] = [10, 20, 30, 40, 50]; // a=10,b=20 and rest=[30,40,50]
+const x = [1, 2, 3, 4, 5];
+const [y, z] = x; //y=1,z=2
+const [y,z, ,...rest] = x   //y=1,z=2, rest=[4,5]
+on Object:
+const {a,b} = obj; //obj is an object with keys "a" and "b"
+const { a, ...others } = { a: 1, b: 2, c: 3 };
+console.log(others); // { b: 2, c: 3 }
+let arr=[1,2,3]
+let obj = {...arr} //  {0:1,1:2,2:3}  indices becomes keys
+console.log({...obj , 0:100} )  //by this obj is updated to {0:100,1:2, 2:3}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOTE: in order to update obj must be spreaded first and updated value must be provided afterwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Each destructured property can have a default value. The default value is used when the property is not present, or has value undefined. It is not used if the property has value null.
+const [a = 1] = []; // a is 1
+const { b = 2 } = { b: undefined }; // b is 2
+const { c = 2 } = { c: null }; // c is null</t>
+    </r>
+  </si>
+  <si>
+    <t>Local and global scope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local scope is associated with vairiable being available only in a block or function level. Global variable has a scope available to all in the script. It is a good practice to assign local vaiables with "let" key word and vaiables assigned with var keyword are always globally accessible.  </t>
+  </si>
+  <si>
+    <t>Hoisting</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hoisting refers to the method where JS interpreter appears to move all declarations on the top of script before executions.
+Variables can thus be referenced before they are declared in JS.
+Hoisting only move the declarations on top, not initializations. Untill the line of initialization is reached the varible will be undefined in case of "var" variables but in case of let, this will throw error. Therefore let/const variables (normal variables or function references) require you to put them on top and initialize. But a var function reference must be declared+initialized otherwise JS throws an error that &lt;&gt; is not a function as functoin reference cannot be undefined.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In short function reference and class expressions is not hoisted. class expression is {const/var c= class{.....}}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+JS do not require function declaration as C. All JS functions are declared and defined at the same time. So hoisting moves functions declaration and defintion on top. 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Closure</t>
+  </si>
+  <si>
+    <t>Closures are functions binded with their lexical environment (variable references). It is ususally seen in nested functions. A closure has it scope expended till global. Which means is a variable is not found in closure functions own scope the it searches for that in its lexical environment. and in the end in global scope.
+Examples
+function init() {
+  var name = 'Mozilla'; // name is a local variable created by init
+  function displayName() {
+    // displayName() is the inner function, a closure
+    console.log(name); // use variable declared in the parent function
+  }
+  name="Puma"
+  displayName();
+}
+init(); //we will get Puma, as lexical variable reference to name varible is updated in parent function.
+function returnFunc(){
+    const x=()=&gt;{
+        var name="Puma"
+        console.log(name)
+        const y=()=&gt;{
+           console.log(name)
+           const z = ()=&gt;{consloe.log(name); } z();
+        }
+        name="Pun";
+        y();
+    }
+    return x;
+}
+let a = returnFunc();
+a(); //   first x will access name with "Puma" and then y gets called with updated name as "Pun" so as z when called.</t>
   </si>
 </sst>
 </file>
@@ -8974,7 +9378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -9049,7 +9453,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
@@ -11583,7 +11986,7 @@
         <v>289</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>260</v>
@@ -11594,41 +11997,41 @@
     </row>
     <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1294</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
   </sheetData>
@@ -11639,10 +12042,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4140E-759C-470A-8A2C-5710FE199FCD}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11954,194 +12357,250 @@
     </row>
     <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="348" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>1256</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1308</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1312</v>
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="348" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="145" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1341</v>
       </c>
     </row>
   </sheetData>
@@ -12152,7 +12611,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8094B6-CB06-4E55-ACD8-76FB0FB9921F}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -12161,10 +12620,10 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="60.36328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="87.36328125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="98" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>1196</v>
       </c>
@@ -12172,52 +12631,68 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B4" s="21" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="B5" s="21" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B6" s="21" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="B7" s="21" t="s">
         <v>1202</v>
       </c>
-      <c r="B4" s="21" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="B8" s="21" t="s">
         <v>1204</v>
       </c>
-      <c r="B5" s="21" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="B9" s="21" t="s">
         <v>1206</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="145" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>1208</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>1209</v>
       </c>
     </row>
   </sheetData>
@@ -12973,7 +13448,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -13135,7 +13610,7 @@
         <v>160</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13285,10 +13760,10 @@
     </row>
     <row r="46" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
   </sheetData>
@@ -14381,7 +14856,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -14389,10 +14864,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="B5" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -14400,10 +14875,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="B6" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -14418,7 +14893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40FB394-4690-4F52-A2C9-F88A14F9CD7F}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -14579,7 +15054,7 @@
         <v>1122</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C21" s="10">
         <v>3</v>
@@ -14590,7 +15065,7 @@
         <v>1123</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="C22" s="10">
         <v>2</v>
@@ -14666,7 +15141,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C30" s="10">
         <v>3</v>
@@ -14690,10 +15165,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C33" s="10">
         <v>2</v>
@@ -14701,10 +15176,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C34" s="10">
         <v>3</v>
@@ -14712,10 +15187,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C35" s="10">
         <v>3</v>
@@ -14723,10 +15198,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="C36" s="10">
         <v>3</v>
@@ -14734,10 +15209,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C37" s="10">
         <v>2</v>
@@ -14745,10 +15220,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="C38" s="10">
         <v>2</v>
@@ -14756,15 +15231,15 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C40" s="10">
         <v>3</v>
@@ -14772,15 +15247,15 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="C42" s="10">
         <v>2</v>
@@ -14788,10 +15263,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B43" s="22" t="s">
         <v>1249</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>1252</v>
       </c>
       <c r="C43" s="10">
         <v>1</v>
@@ -14799,10 +15274,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="C44" s="10">
         <v>2</v>
@@ -14810,10 +15285,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C45" s="10">
         <v>2</v>
@@ -15012,7 +15487,7 @@
         <v>759</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
@@ -15951,7 +16426,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="63.90625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" style="10"/>
   </cols>
   <sheetData>
@@ -15959,7 +16434,7 @@
       <c r="A1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" t="s">
         <v>973</v>
       </c>
       <c r="C1" s="10">
@@ -15970,7 +16445,7 @@
       <c r="A2" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" t="s">
         <v>974</v>
       </c>
       <c r="C2" s="10">
@@ -15979,10 +16454,10 @@
     </row>
     <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -15990,18 +16465,18 @@
     </row>
     <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B5" t="s">
         <v>1268</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>1271</v>
       </c>
       <c r="C5" s="10">
         <v>3</v>
@@ -16009,10 +16484,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1272</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>1273</v>
+        <v>1269</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1270</v>
       </c>
       <c r="C6" s="10">
         <v>3</v>
@@ -16030,7 +16505,7 @@
       <c r="A8" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" t="s">
         <v>1012</v>
       </c>
       <c r="C8" s="10">
@@ -16041,7 +16516,7 @@
       <c r="A9" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" t="s">
         <v>1034</v>
       </c>
       <c r="C9" s="10">
@@ -16052,7 +16527,7 @@
       <c r="A10" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" t="s">
         <v>1034</v>
       </c>
       <c r="C10" s="10">
@@ -16063,7 +16538,7 @@
       <c r="A11" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" t="s">
         <v>1034</v>
       </c>
       <c r="C11" s="10">
@@ -16074,7 +16549,7 @@
       <c r="A12" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" t="s">
         <v>1034</v>
       </c>
       <c r="C12" s="10">
@@ -16085,7 +16560,7 @@
       <c r="A13" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" t="s">
         <v>975</v>
       </c>
       <c r="C13" s="10">
@@ -16096,7 +16571,7 @@
       <c r="A14" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" t="s">
         <v>992</v>
       </c>
       <c r="C14" s="10">
@@ -16115,7 +16590,7 @@
       <c r="A16" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" t="s">
         <v>978</v>
       </c>
       <c r="C16" s="10">
@@ -16126,7 +16601,7 @@
       <c r="A17" s="3" t="s">
         <v>979</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" t="s">
         <v>980</v>
       </c>
       <c r="C17" s="10">
@@ -16135,10 +16610,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>1297</v>
+        <v>1292</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1294</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -16146,10 +16621,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>1296</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>1298</v>
+        <v>1293</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1295</v>
       </c>
       <c r="C19" s="10">
         <v>2</v>
@@ -16157,10 +16632,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>1314</v>
+        <v>1309</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1310</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
@@ -16181,7 +16656,7 @@
       <c r="A22" s="3" t="s">
         <v>982</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" t="s">
         <v>983</v>
       </c>
       <c r="C22" s="10">
@@ -16203,7 +16678,7 @@
       <c r="A24" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="B24" s="26" t="s">
+      <c r="B24" t="s">
         <v>1001</v>
       </c>
       <c r="C24" s="10">
@@ -16214,7 +16689,7 @@
       <c r="A25" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" t="s">
         <v>349</v>
       </c>
       <c r="C25" s="10">
@@ -16257,7 +16732,7 @@
       <c r="A30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" t="s">
         <v>987</v>
       </c>
       <c r="C30" s="10">
@@ -16268,7 +16743,7 @@
       <c r="A31" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" t="s">
         <v>999</v>
       </c>
       <c r="C31" s="10">
@@ -16298,7 +16773,7 @@
       <c r="A34" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" t="s">
         <v>989</v>
       </c>
       <c r="C34" s="10">
@@ -16375,7 +16850,7 @@
       <c r="A43" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" t="s">
         <v>894</v>
       </c>
       <c r="C43" s="10">
@@ -16386,7 +16861,7 @@
       <c r="A44" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="B44" s="26" t="s">
+      <c r="B44" t="s">
         <v>1003</v>
       </c>
       <c r="C44" s="10">
@@ -16397,7 +16872,7 @@
       <c r="A45" s="4" t="s">
         <v>1004</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" t="s">
         <v>1005</v>
       </c>
       <c r="C45" s="10">
@@ -16408,7 +16883,7 @@
       <c r="A46" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="B46" s="26" t="s">
+      <c r="B46" t="s">
         <v>1007</v>
       </c>
       <c r="C46" s="10">
@@ -16419,7 +16894,7 @@
       <c r="A47" s="4" t="s">
         <v>1008</v>
       </c>
-      <c r="B47" s="26" t="s">
+      <c r="B47" t="s">
         <v>1013</v>
       </c>
       <c r="C47" s="10">
@@ -16430,7 +16905,7 @@
       <c r="A48" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" t="s">
         <v>1014</v>
       </c>
       <c r="C48" s="10">
@@ -16441,7 +16916,7 @@
       <c r="A49" s="4" t="s">
         <v>1009</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" t="s">
         <v>1015</v>
       </c>
       <c r="C49" s="10">
@@ -16452,7 +16927,7 @@
       <c r="A50" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" t="s">
         <v>1031</v>
       </c>
       <c r="C50" s="10">
@@ -16461,10 +16936,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>1315</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>1316</v>
+        <v>1311</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1312</v>
       </c>
       <c r="C51" s="10">
         <v>2</v>
@@ -16587,10 +17062,10 @@
     </row>
     <row r="76" spans="1:3" ht="290" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="C76" s="10">
         <v>3</v>
@@ -16618,7 +17093,7 @@
       <c r="A82" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="B82" s="26" t="s">
+      <c r="B82" t="s">
         <v>985</v>
       </c>
       <c r="C82" s="10">
@@ -16642,7 +17117,7 @@
       <c r="A89" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="B89" s="26" t="s">
+      <c r="B89" t="s">
         <v>619</v>
       </c>
       <c r="C89" s="10">
@@ -16653,7 +17128,7 @@
       <c r="A90" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B90" s="26" t="s">
+      <c r="B90" t="s">
         <v>621</v>
       </c>
       <c r="C90" s="10">
@@ -16664,7 +17139,7 @@
       <c r="A91" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="B91" s="26" t="s">
+      <c r="B91" t="s">
         <v>623</v>
       </c>
       <c r="C91" s="10">

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B37B321-183E-4FC1-8656-FB7EAC0E95DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F928EAEE-0699-4DC4-AEEF-874B9A8367A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="6" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,6 @@
     <sheet name="C++Depth" sheetId="30" r:id="rId29"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="1342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="1345">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -7116,23 +7115,7 @@
     <t>Array</t>
   </si>
   <si>
-    <t>var &lt;array_variable&gt; [&lt;size&gt;]&lt;type&gt; = {_____}
-var &lt;array_variable&gt; [&lt;size&gt;]&lt;type&gt;
-&lt;array_variable&gt; := [&lt;size&gt;] &lt;type&gt; {_____}
-0 Indexed and uniform type. Fixed length
-Element Access via &lt;arrary_variable&gt;[&lt;index&gt;]</t>
-  </si>
-  <si>
     <t>Slices</t>
-  </si>
-  <si>
-    <t>Slices are like arrays but they are dynamically resizable i.e. their size is not fixed similar to list in python. Slices are a layer of abstraction over arrays. So when on resizing, the underlying array is changed to a larger array and the contents are copied, but it is completely abstracted from the programmer.
-var &lt;slice_variable&gt; []&lt;datatype&gt;
-&lt;slice_variable&gt; = append(&lt;slice_variable&gt;,&lt;value&gt;)
-Accessing is same as Array
-make([]&lt;dataType&gt;, size, capacity)
-cap(&lt;slice_variable&gt;)
-len(&lt;slice_variable&gt;)</t>
   </si>
   <si>
     <t>Element Creation</t>
@@ -9269,6 +9252,141 @@
 }
 let a = returnFunc();
 a(); //   first x will access name with "Puma" and then y gets called with updated name as "Pun" so as z when called.</t>
+  </si>
+  <si>
+    <t>Multi dimensional Array</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Uniform type, fixed length and mutable.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+var &lt;array_variable&gt; [&lt;size&gt;]&lt;type&gt; = {_____}
+var &lt;array_variable&gt; [&lt;size&gt;]&lt;type&gt;
+&lt;array_variable&gt; := [&lt;size&gt;] &lt;type&gt; {_____}
+var &lt;array_variable&gt; := [...]&lt;type&gt; {_____}     //this declaration where size is not defined requires initialization.
+0 Indexed and uniform type. Fixed length
+Element Access via &lt;arrary_variable&gt;[&lt;index&gt;]
+len(&lt;array_variable&gt;)     returns int-&gt; length of array.
+A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">n array is of value type not of reference type. So when the array is assigned to a new variable, then the changes made in the new variable do not affect the original array. Arrays in Golang are value types unlike other languages like C, C++, and Java where arrays are reference types.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>== operator can be used to compare 2 arrays if datatype is same.
+NOTE: The length of an array is part of its type. So the array a[5]int and a[10]int are completely distinct types, and you cannot assign one to the other.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">var &lt;array_variable&gt; [size][size].. = [size][size]..&lt;data_type&gt; {//init}
+var &lt;array_variable&gt; [size][size].. = [size][size]..&lt;data&gt;   //declaration withut initialization. initialize with zero by the compiler automatically. Default value of this array is 0. 
+0 indexed, accessed via &lt;array_variable&gt;[index];
+len(&lt;array_variable&gt;) gives the count of number of elements inside array. For a 2D array it'll give number of arrays in the &lt;array_variable&gt; </t>
+  </si>
+  <si>
+    <r>
+      <t>Slices are like arrays but they are dynamically resizable i.e. their size is not fixed similar to list in python. Slices are a layer of abstraction over arrays. So when on resizing, the underlying array is changed to a larger array and the contents are copied, but it is completely abstracted from the programmer.
+var &lt;slice_variable&gt; []&lt;datatype&gt;
+&lt;slice_variable&gt; = append(&lt;slice_variable&gt;,&lt;value&gt;)     //append method returns new slice(array under the hood with added value).
+Accessing is same as Array
+make([]&lt;dataType&gt;, size, capacity)
+cap(&lt;slice_variable&gt;)
+len(&lt;slice_variable&gt;)
+Slice ranges:   &lt;slice_variable&gt;[initial_index : last_index_not_included]               //</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>returns new slice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                         &lt;slice_variable&gt; [:]    //complete slice
+                         &lt;slice_variable&gt; [start_index :]      //complete slice past start index (including it)
+                         &lt;slice_variable&gt; [:lastindex_not_included]       //   complete slice per last index which is not included
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Build with characters in single quotes '_'
+Declaration:  var &lt;string_variable&gt; string;     //initialized with "" (empty string)
+Initialization var &lt;string_variable&gt; string = " _____ ";
+len(&lt;string_variable&gt;)                // length/size of string
+Accessing:     &lt;string&gt;[&lt;index&gt;]                 //gets the character at index in &lt;string_variable&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String ranges is same as slice ranges and returns new string;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Comparison:
+     ==
+     strings.EqualFold(&lt;str1&gt;,&lt;str2&gt;)   //camparison by unicode casefolding, case insensitive.
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -11986,7 +12104,7 @@
         <v>289</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>260</v>
@@ -11997,41 +12115,41 @@
     </row>
     <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>1262</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1289</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1273</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
   </sheetData>
@@ -12044,7 +12162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4140E-759C-470A-8A2C-5710FE199FCD}">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+    <sheetView topLeftCell="A69" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
@@ -12357,250 +12475,250 @@
     </row>
     <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>1207</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>1208</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>1210</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>1215</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>1216</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>1231</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="348" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="348" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
     </row>
   </sheetData>
@@ -12611,16 +12729,16 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8094B6-CB06-4E55-ACD8-76FB0FB9921F}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="60.36328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="98" style="22" customWidth="1"/>
+    <col min="2" max="2" width="120.26953125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="145" x14ac:dyDescent="0.35">
@@ -12633,18 +12751,18 @@
     </row>
     <row r="2" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
@@ -12652,7 +12770,7 @@
         <v>1198</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
@@ -12660,7 +12778,7 @@
         <v>1199</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -12668,7 +12786,7 @@
         <v>1200</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -12679,20 +12797,36 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>1203</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>1205</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>1206</v>
+      <c r="B10" s="21" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>1344</v>
       </c>
     </row>
   </sheetData>
@@ -13448,7 +13582,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -13610,7 +13744,7 @@
         <v>160</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -13760,10 +13894,10 @@
     </row>
     <row r="46" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
     </row>
   </sheetData>
@@ -14856,7 +14990,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -14864,10 +14998,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B5" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -14875,10 +15009,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B6" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -15054,7 +15188,7 @@
         <v>1122</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C21" s="10">
         <v>3</v>
@@ -15065,7 +15199,7 @@
         <v>1123</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C22" s="10">
         <v>2</v>
@@ -15141,7 +15275,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C30" s="10">
         <v>3</v>
@@ -15165,10 +15299,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C33" s="10">
         <v>2</v>
@@ -15176,10 +15310,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="C34" s="10">
         <v>3</v>
@@ -15187,10 +15321,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C35" s="10">
         <v>3</v>
@@ -15198,10 +15332,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C36" s="10">
         <v>3</v>
@@ -15209,10 +15343,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C37" s="10">
         <v>2</v>
@@ -15220,10 +15354,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="C38" s="10">
         <v>2</v>
@@ -15231,15 +15365,15 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="C40" s="10">
         <v>3</v>
@@ -15247,15 +15381,15 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C42" s="10">
         <v>2</v>
@@ -15263,10 +15397,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C43" s="10">
         <v>1</v>
@@ -15274,10 +15408,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C44" s="10">
         <v>2</v>
@@ -15285,10 +15419,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C45" s="10">
         <v>2</v>
@@ -15487,7 +15621,7 @@
         <v>759</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
@@ -16454,10 +16588,10 @@
     </row>
     <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -16465,18 +16599,18 @@
     </row>
     <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B5" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C5" s="10">
         <v>3</v>
@@ -16484,10 +16618,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B6" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C6" s="10">
         <v>3</v>
@@ -16610,10 +16744,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B18" t="s">
         <v>1292</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1294</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -16621,10 +16755,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B19" t="s">
         <v>1293</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1295</v>
       </c>
       <c r="C19" s="10">
         <v>2</v>
@@ -16632,10 +16766,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="B20" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
@@ -16936,10 +17070,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="B51" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="C51" s="10">
         <v>2</v>
@@ -17062,10 +17196,10 @@
     </row>
     <row r="76" spans="1:3" ht="290" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="C76" s="10">
         <v>3</v>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F928EAEE-0699-4DC4-AEEF-874B9A8367A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B26E34-C394-4567-9B1C-5041B8F81DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1352">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -9355,11 +9355,32 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Build with characters in single quotes '_'
+      <t>Build with characters in single quotes '_'
 Declaration:  var &lt;string_variable&gt; string;     //initialized with "" (empty string)
 Initialization var &lt;string_variable&gt; string = " _____ ";
 len(&lt;string_variable&gt;)                // length/size of string
-Accessing:     &lt;string&gt;[&lt;index&gt;]                 //gets the character at index in &lt;string_variable&gt;
+Accessing:     &lt;string&gt;[&lt;index&gt;]                 //gets the character at index in &lt;string_variable&gt;.....</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>returns int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -9385,7 +9406,326 @@
 Comparison:
      ==
      strings.EqualFold(&lt;str1&gt;,&lt;str2&gt;)   //camparison by unicode casefolding, case insensitive.
+Methods:
+strings.Contains(&lt;str1&gt;, &lt;str2&gt;)                    //returns boolean
+strings.ContainsAny(&lt;str1&gt;,&lt;str2&gt;)              //returns boolean if any character of &lt;str2&gt; present in &lt;str1&gt;
+strings.HasPrefix(&lt;str1&gt;, &lt;str2&gt;)                   //returns boolean, same as startsWith()
+strings.HasSuffix(&lt;str1&gt;, &lt;str2&gt;)                   //returns boolean, same as endsWith()
+strings.Count(&lt;str1&gt;, &lt;str2&gt;)                         //returns count (int)  of non-overlapping instances of &lt;str2&gt; in &lt;str1&gt;
+strings.Index(&lt;str1&gt;, &lt;str2&gt;)                          //returns index, start index for whole &lt;str2&gt; in &lt;str1&gt;
+strings.IndexAny(&lt;str1&gt;, &lt;str2&gt;)                   //returns index, start index for any character of &lt;str2&gt; in &lt;str1&gt;
+strings.LaastIndex(&lt;str1&gt;, &lt;str2&gt;)                 //returns index, last index for whole &lt;str2&gt; in &lt;str1&gt;
+strings.LastIndexAny(&lt;str1&gt;, &lt;str2&gt;)            //returns index, last index for any character of &lt;str2&gt; in &lt;str1&gt;
+strings.ToUpper(&lt;str&gt;)                                    //returns new string with the effect
+strings.ToLower(&lt;str&gt;)                                    //returns new string with the effect
+strings.Title(&lt;str&gt;)                                            //space camel casing, returns new string with the effect
+strings.TrimSpaces(&lt;str&gt;)                                   --</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>returns new string (below all)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+strings.Trim(&lt;str&gt;,&lt;char_set&gt;)                      //Trim leading and trailing characters of &lt;char_set&gt;
+strings.TrimLeft(&lt;str&gt;,&lt;char_set&gt;)               //Trim leading characters of &lt;char_set&gt;
+strings.TrimRight(&lt;str&gt;,&lt;char_set&gt;)             //Trim trailing characters of &lt;char_set&gt;
+strings.TrimPrefix(&lt;str&gt;, &lt;pat1&gt;)
+strings.TrimSuffix(&lt;str&gt;, &lt;pat2&gt;)
+strings.Split(&lt;str&gt;, &lt;seperator_string&gt;)      //new arr/slice
+strings.SplitAfter(&lt;str&gt;, &lt;seperator_string&gt;)      //new arr/slice, this method do not remove the seperator, instead tears into list after the seperator.
+strings.Join(&lt;arr/slice&gt;, "&lt;joining_symbol&gt;")  //new string
 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strconv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Itoa(-42)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strconv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.FormatInt(&lt;int&gt;, &lt;base&gt;)</t>
+    </r>
+  </si>
+  <si>
+    <t>Sort Library</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">sort.Ints(&lt;integer_iterable&gt;)                              //sort integer iterable container, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>returns nothing, container is modified</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+sort.SearchInts(&lt;sorted_Iterable&gt;)                  //index when sorted, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>conatiner is not modified</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+sort.Strings(&lt;strings_iterable&gt;)                        //sort string iterable container, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>returns nothing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+sort.SearchStrings(&lt;string_iterables&gt;)            //index when sorted, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contianer is not modified</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>for i := 1; i &lt; 5; i++ {        }     //</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for loop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+n := 1
+for n &lt; 5 {
+	n *= 2                         //</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>While loop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}
+sum := 0
+for {     }                                    //</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Infinite Loop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+for i, s := range strings {      }    //</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>For in loop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+for _, s := range strings {       }     //</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>For in loop, index ignored (a variable ignored)</t>
+    </r>
+  </si>
+  <si>
+    <t>Conditionals</t>
+  </si>
+  <si>
+    <t>if &lt;condition&gt; {}
+else if &lt;condition&gt; {}
+else {}</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">func &lt;function_name&gt;(&lt;arg1&gt; &lt;DT1&gt;, …...) {    }
+NOTE: you can pass function as argument as well:   &lt;function_name&gt; func(DT1,DT2…...) in function argument list.
+Return multiple data:
+func &lt;function_name&gt;(&lt;arg1&gt; &lt;DT1&gt;,…...) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(&lt;return DT1&gt;, &lt;return DT2&gt;......)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {__function body__}</t>
     </r>
   </si>
 </sst>
@@ -12162,8 +12502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4140E-759C-470A-8A2C-5710FE199FCD}">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12729,10 +13069,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8094B6-CB06-4E55-ACD8-76FB0FB9921F}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12821,12 +13161,44 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="203" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>785</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>1344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>1351</v>
       </c>
     </row>
   </sheetData>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B26E34-C394-4567-9B1C-5041B8F81DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC64C41A-B8B3-49EA-AE51-87F69770714D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="1366">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -9727,6 +9727,142 @@
       </rPr>
       <t xml:space="preserve"> {__function body__}</t>
     </r>
+  </si>
+  <si>
+    <t>Sort string comparison</t>
+  </si>
+  <si>
+    <t>Some file managers sort filenames taking into account case of the letters, others compare strings as if all of the letters are of the same case. That may lead to different ways of filename ordering. Call two filenames an unstable pair if their ordering depends on the case.
+For filename1 = "aa" and filename2 = "AAB", the output should be true Because "AAB" &lt; "aa", but "AAB" &gt; "AA".
+For filename1 = "A" and filename2 = "z", the output should be false. Both "A" &lt; "z" and "a" &lt; "z".
+bool solution(string f1, string f2) {
+    string x=f1, y=f2;
+    transform(f1.begin(),f1.end(),f1.begin(),::tolower);
+    transform(f2.begin(),f2.end(),f2.begin(),::tolower);
+    if(x&lt;y ^ f1&lt;f2 || x&gt;y ^ f1&gt;f2){
+        return true;
+    }return false;
+}</t>
+  </si>
+  <si>
+    <t>Box stacking problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a vaector of vectors where v[i].size() is always 3 and denotes length, breadth and width of a box. For these type of boxes with unlimited supply of each type, stack them up to form a tower where the condition is a type orientation is not repeated more than once,(if we have 1,3,4-&gt; we can use 1,3,4  and 3,1,4 and 4,3,1) and a box at bottom is having interface area greater than a box on its top. 
+Hint LIS variation. </t>
+  </si>
+  <si>
+    <t>Count of strings that can be formed from anothers string characters.</t>
+  </si>
+  <si>
+    <t>Given 2 strings a and b, find number of strings a that can be formed from characters in string b.
+int solution(string a, string b) {
+    map&lt;char,int&gt; mp1,mp2;
+    for(auto x:b){
+        mp2[x]++;
+    }
+    for(auto x:a){
+        mp1[x]++;
+    }
+    map&lt;char,int&gt; :: iterator itr=mp1.begin();
+    int m=INT_MAX;
+    for(;itr!=mp1.end();itr++){
+        mp1[itr-&gt;first]= mp2[itr-&gt;first]/mp1[itr-&gt;first];
+        m=min(m,mp1[itr-&gt;first]);
+    }
+    return m;
+}</t>
+  </si>
+  <si>
+    <t>Given 2 strings check wether one is substitution cipher of other.</t>
+  </si>
+  <si>
+    <t>bool solution(string string1, string string2) {
+    map&lt;char,char&gt; mp;
+    int A[26]={0};
+    for(int i=0;i&lt;string2.size();i++){
+        if(mp.find(string1[i])!=mp.end()){
+            if(mp[string1[i]]==string2[i]){
+                cout&lt;&lt;mp[string1[i]]&lt;&lt;" ";
+                continue;
+            }else{
+                return false;
+            }
+        }else{
+            if(A[string2[i]-'a']==1){
+                return false;
+            }
+            mp[string1[i]]=string2[i];
+            A[string2[i]-'a']=1;
+        }   
+    }return true;
+}</t>
+  </si>
+  <si>
+    <t>Find maximum squared number that can be obtained by rearranging lower case alphabethical string, where each alphabet is (1 to 1) mapped with a digit.</t>
+  </si>
+  <si>
+    <t>Given a string consisting of lowercase English letters, find the largest square number which can be obtained by reordering the string's characters and replacing them with any digits you need (leading zeros are not allowed) where same characters always map to the same digits and different characters always map to different digits.
+Hint: we need largest squared number, so we start from MAX = 999... till a MIN = 999.... with one less '9'. Remember MAX is same length as given string. But we need to chech the numbers property if it is a square or not. So instead we start looping with sqrt(MAX) till sqrt(MIN) {by decrement}. Assuming we already have sorted frequency map of input string, we make frequency map of our i*i number and check whether the sorted frequency map (size = 26 instead of 10) is same as out input string's sorted frequency map. If yes, we got our mapping and ans i*i; Sort is needed to make sure map is identical and each alphabet in map is having 1:1 mapping.
+int solution(string s) {
+    std::vector&lt;long long&gt; v1(26, 0);
+    for(auto a : s)
+        v1[a - 'a']++;
+    sort(v1.begin(), v1.end());
+    for(long long i = pow(10, (s.size() / 2) + 1); i &gt;= pow(10,(s.size() - 1) / 2 ); --i)
+    {   
+        std::vector&lt;long long&gt; v2(26, 0);
+        for(long long g = i * i; g &gt; 0; g /= 10)
+            v2[g % 10]++;
+        sort(v2.begin(), v2.end());
+        if (v1 == v2)
+            return i * i;
+    }
+    return -1;
+}</t>
+  </si>
+  <si>
+    <t>Unique Submatrices 1 (submatrices of size 2*2)</t>
+  </si>
+  <si>
+    <t>int solution(vector&lt;vector&lt;int&gt;&gt; matrix) {
+    map&lt;vector&lt;vector&lt;int&gt;&gt;,bool&gt; mp;
+    int count=0;
+    for(int i=0;i&lt;matrix.size()-1;i++){
+        int x=0,y=1;
+        while(y&lt;matrix[0].size()){
+            vector&lt;vector&lt;int&gt;&gt; v={{matrix[i][x],matrix[i][y]},{matrix[i+1][x],matrix[i+1][y]}};
+            if(mp.find(v)==mp.end()){
+                mp[v]=true;
+                count++;
+            }
+            x++;y++;
+        }
+    }return count;
+}</t>
+  </si>
+  <si>
+    <t>Inversion of candle state</t>
+  </si>
+  <si>
+    <t>N candles are placed in a row, some of them are initially lit. For each candle from the 1st to the Nth the following algorithm is applied: if the observed candle is lit then states of this candle and all candles before it are changed to the opposite. Which candles will remain lit after applying the algorithm to all candles in the order they are placed in the line?
+Hint: Try examples
+vector&lt;int&gt; solution(vector&lt;int&gt; a) {
+    vector&lt;int&gt; ans(a.size(),0);
+    int j=a.size()-1;
+    bool invert=false;
+    while(j&gt;=0){
+        if(a[j]==1){
+            invert=!invert;
+        }
+        if(invert){
+            ans[j]=(a[j]==1)?0:1;
+        }else{
+            ans[j]=a[j];
+        }
+        j--;
+    }return ans;
+}</t>
   </si>
 </sst>
 </file>
@@ -9836,7 +9972,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -9910,6 +10046,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13071,7 +13210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8094B6-CB06-4E55-ACD8-76FB0FB9921F}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -13602,10 +13741,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14079,6 +14218,17 @@
         <v>430</v>
       </c>
       <c r="C56" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C57" s="3">
         <v>2</v>
       </c>
     </row>
@@ -15318,76 +15468,121 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.81640625" customWidth="1"/>
-    <col min="2" max="2" width="82.26953125" customWidth="1"/>
+    <col min="1" max="1" width="66.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="82.26953125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>795</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="22" t="s">
         <v>796</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="22" t="s">
         <v>798</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="22" t="s">
         <v>1224</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="22" t="s">
         <v>1226</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="26">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C7" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C8" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C9" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C10" s="26">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -16101,8 +16296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16393,6 +16588,17 @@
         <v>906</v>
       </c>
       <c r="C28" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C29" s="10">
         <v>2</v>
       </c>
     </row>
@@ -16923,10 +17129,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17062,23 +17268,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="B13" t="s">
-        <v>975</v>
-      </c>
-      <c r="C13" s="10">
-        <v>2</v>
+        <v>1354</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>991</v>
+        <v>921</v>
       </c>
       <c r="B14" t="s">
-        <v>992</v>
+        <v>975</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -17086,7 +17289,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>976</v>
+        <v>991</v>
+      </c>
+      <c r="B15" t="s">
+        <v>992</v>
       </c>
       <c r="C15" s="10">
         <v>2</v>
@@ -17094,10 +17300,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="B16" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
@@ -17105,10 +17308,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B17" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C17" s="10">
         <v>2</v>
@@ -17116,21 +17319,21 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="B18" t="s">
+        <v>980</v>
+      </c>
+      <c r="C18" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>1290</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>1292</v>
-      </c>
-      <c r="C18" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1293</v>
       </c>
       <c r="C19" s="10">
         <v>2</v>
@@ -17138,32 +17341,32 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
         <v>1307</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>1308</v>
       </c>
-      <c r="C20" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="24" t="s">
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="24" t="s">
         <v>981</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>1038</v>
-      </c>
-      <c r="C21" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>982</v>
-      </c>
-      <c r="B22" t="s">
-        <v>983</v>
       </c>
       <c r="C22" s="10">
         <v>3</v>
@@ -17171,56 +17374,59 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="B23" t="s">
+        <v>983</v>
+      </c>
+      <c r="C23" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="C23" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="C24" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
         <v>1000</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>1001</v>
       </c>
-      <c r="C24" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="C25" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>349</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C26" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="C27" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C28" s="10">
         <v>1</v>
@@ -17228,92 +17434,91 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="C30" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>987</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C31" s="10">
         <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" t="s">
-        <v>999</v>
-      </c>
-      <c r="C31" s="10">
-        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>990</v>
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>999</v>
       </c>
       <c r="C32" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C33" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C34" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
         <v>988</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>989</v>
       </c>
-      <c r="C34" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="C35" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="B37" s="10"/>
+        <v>79</v>
+      </c>
       <c r="C37" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10">
@@ -17322,15 +17527,16 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>486</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="B39" s="10"/>
       <c r="C39" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C40" s="10">
         <v>2</v>
@@ -17338,7 +17544,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C41" s="10">
         <v>2</v>
@@ -17346,7 +17552,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C42" s="10">
         <v>2</v>
@@ -17354,32 +17560,29 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C43" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
         <v>893</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>894</v>
       </c>
-      <c r="C43" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1003</v>
-      </c>
       <c r="C44" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B45" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C45" s="10">
         <v>1</v>
@@ -17387,21 +17590,21 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B46" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C46" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B47" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="C47" s="10">
         <v>3</v>
@@ -17409,10 +17612,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B48" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C48" s="10">
         <v>3</v>
@@ -17420,21 +17623,21 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B49" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C49" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>1030</v>
+      <c r="A50" s="4" t="s">
+        <v>1009</v>
       </c>
       <c r="B50" t="s">
-        <v>1031</v>
+        <v>1015</v>
       </c>
       <c r="C50" s="10">
         <v>3</v>
@@ -17442,165 +17645,165 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C51" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>1310</v>
       </c>
-      <c r="C51" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>940</v>
+      <c r="C52" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="290" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
+    <row r="77" spans="1:3" ht="290" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B77" s="5" t="s">
         <v>1312</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C77" s="10">
         <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
         <v>964</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="C81" s="10">
-        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>986</v>
-      </c>
-      <c r="B82" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C82" s="10">
         <v>2</v>
@@ -17608,34 +17811,34 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="B83" t="s">
+        <v>985</v>
+      </c>
+      <c r="C83" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="C83" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="12" t="s">
+      <c r="C84" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="12" t="s">
         <v>617</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="B89" t="s">
-        <v>619</v>
-      </c>
-      <c r="C89" s="10">
-        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B90" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C90" s="10">
         <v>3</v>
@@ -17643,12 +17846,23 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B91" t="s">
+        <v>621</v>
+      </c>
+      <c r="C91" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>623</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C92" s="10">
         <v>3</v>
       </c>
     </row>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC64C41A-B8B3-49EA-AE51-87F69770714D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA4AFF0-F887-44BA-AA76-2AFD31CC3A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="1374">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -9863,6 +9863,31 @@
         j--;
     }return ans;
 }</t>
+  </si>
+  <si>
+    <t>Catlan Number</t>
+  </si>
+  <si>
+    <t>Hint: Use example and intuition if arr[i][j] == 0 and if arr[i][j] == 1. we use MINIMUM.
+dp[i][j]=min(dp[i-1][j], dp[i-1][j-1], dp[i][j-1])+1</t>
+  </si>
+  <si>
+    <t>Number of binary search trees</t>
+  </si>
+  <si>
+    <t>Counting valleys and mountains</t>
+  </si>
+  <si>
+    <t>Combination of balanced parantheses</t>
+  </si>
+  <si>
+    <t>Non-intersecting chords in circle</t>
+  </si>
+  <si>
+    <t>Ways of Polygon triangulation</t>
+  </si>
+  <si>
+    <t>Minimum score of triangulation</t>
   </si>
 </sst>
 </file>
@@ -9972,7 +9997,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -10047,6 +10072,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -15478,7 +15504,7 @@
   <cols>
     <col min="1" max="1" width="66.1796875" style="3" customWidth="1"/>
     <col min="2" max="2" width="82.26953125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="26"/>
+    <col min="3" max="3" width="8.7265625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -15488,7 +15514,7 @@
       <c r="B1" s="22" t="s">
         <v>796</v>
       </c>
-      <c r="C1" s="26">
+      <c r="C1" s="27">
         <v>3</v>
       </c>
     </row>
@@ -15499,7 +15525,7 @@
       <c r="B2" s="22" t="s">
         <v>798</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="27">
         <v>3</v>
       </c>
     </row>
@@ -15507,7 +15533,7 @@
       <c r="A3" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="27">
         <v>3</v>
       </c>
     </row>
@@ -15515,7 +15541,7 @@
       <c r="A4" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="27">
         <v>1</v>
       </c>
     </row>
@@ -15526,7 +15552,7 @@
       <c r="B5" s="22" t="s">
         <v>1224</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="27">
         <v>2</v>
       </c>
     </row>
@@ -15537,7 +15563,7 @@
       <c r="B6" s="22" t="s">
         <v>1226</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="27">
         <v>1</v>
       </c>
     </row>
@@ -15548,7 +15574,7 @@
       <c r="B7" s="22" t="s">
         <v>1353</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="27">
         <v>2</v>
       </c>
     </row>
@@ -15559,7 +15585,7 @@
       <c r="B8" s="22" t="s">
         <v>1357</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="27">
         <v>2</v>
       </c>
     </row>
@@ -15570,7 +15596,7 @@
       <c r="B9" s="22" t="s">
         <v>1359</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="27">
         <v>2</v>
       </c>
     </row>
@@ -15581,7 +15607,7 @@
       <c r="B10" s="22" t="s">
         <v>1361</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="27">
         <v>3</v>
       </c>
     </row>
@@ -16296,7 +16322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
@@ -17129,10 +17155,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17665,204 +17691,263 @@
         <v>2</v>
       </c>
     </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C53" s="10">
+        <v>2</v>
+      </c>
+    </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>940</v>
+        <v>1368</v>
+      </c>
+      <c r="C54" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>941</v>
+        <v>1369</v>
+      </c>
+      <c r="C55" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>942</v>
+        <v>1370</v>
+      </c>
+      <c r="C56" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>943</v>
+        <v>1371</v>
+      </c>
+      <c r="C57" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>944</v>
+        <v>1372</v>
+      </c>
+      <c r="C58" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
-        <v>948</v>
+        <v>1373</v>
+      </c>
+      <c r="C59" s="10">
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
         <v>955</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="290" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C77" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="C82" s="10">
-        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>986</v>
-      </c>
-      <c r="B83" t="s">
-        <v>985</v>
-      </c>
-      <c r="C83" s="10">
-        <v>2</v>
+        <v>956</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C84" s="10">
-        <v>2</v>
+        <v>957</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="3" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="3" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="12" t="s">
-        <v>617</v>
+      <c r="A89" s="3" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="B90" t="s">
-        <v>619</v>
+        <v>1311</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>1312</v>
       </c>
       <c r="C90" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="B91" t="s">
-        <v>621</v>
-      </c>
-      <c r="C91" s="10">
-        <v>3</v>
-      </c>
-    </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="3" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="C95" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="B96" t="s">
+        <v>985</v>
+      </c>
+      <c r="C96" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C97" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="12" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B103" t="s">
+        <v>619</v>
+      </c>
+      <c r="C103" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="B104" t="s">
+        <v>621</v>
+      </c>
+      <c r="C104" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B105" t="s">
         <v>623</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C105" s="10">
         <v>3</v>
       </c>
     </row>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA4AFF0-F887-44BA-AA76-2AFD31CC3A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DDD225-E74B-46FE-B424-59B923E74B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="1374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="1399">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -2095,9 +2095,6 @@
   </si>
   <si>
     <t>Power of 2</t>
-  </si>
-  <si>
-    <t>Set bits==1</t>
   </si>
   <si>
     <t>Missing Number</t>
@@ -4893,25 +4890,13 @@
     <t>Check</t>
   </si>
   <si>
-    <t>AND 0</t>
-  </si>
-  <si>
     <t>SET</t>
   </si>
   <si>
-    <t>OR 1</t>
-  </si>
-  <si>
     <t>UNSET</t>
   </si>
   <si>
-    <t>AND 1</t>
-  </si>
-  <si>
     <t>TOGGEL</t>
-  </si>
-  <si>
-    <t>XOR 1</t>
   </si>
   <si>
     <t>n bit all zeros = 0</t>
@@ -8727,9 +8712,6 @@
     <t>Ladder 2</t>
   </si>
   <si>
-    <t>Given a binary array denoting ladder and snake(on which you cannot step) and k (maximum length jump from your position). Find number of ways to reach end of arr. Same as above. Except while filling dp[i] from dp[i-1,i-k] check if arr[i]==1. If arr[i]=1, dp[i]=0;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Given string with numbers, '+', '-', '/', '*' and '  '. Evaluate equation.
 Stack&lt;int&gt; st;
 for(int i=0;i&lt;n;i++){
@@ -9888,6 +9870,397 @@
   </si>
   <si>
     <t>Minimum score of triangulation</t>
+  </si>
+  <si>
+    <t>Longest Palindromic subsequence</t>
+  </si>
+  <si>
+    <t>Count of Palindromic subsequences</t>
+  </si>
+  <si>
+    <t>Count of Palindromic substrings</t>
+  </si>
+  <si>
+    <t>Count distinct Subsequences</t>
+  </si>
+  <si>
+    <t>Count distinct Palindromic Subsequences</t>
+  </si>
+  <si>
+    <t>Given a binary array denoting ladder and snake(on which you cannot step) and k (maximum length jump from your position). Find number of ways to reach end of arr. 
+Same as above. Except while filling dp[i] from dp[i-1,i-k] check if arr[i]==1. If arr[i]=1, dp[i]=0;</t>
+  </si>
+  <si>
+    <t>Minimum time to reach all stations</t>
+  </si>
+  <si>
+    <t>Given n = number of cities and 2 arrays of length n-1 each describing red and blue bus route. Each element in red and blue array specifies time it take to reach from one stop to another. Bus lines covers same stations and if someone changes line in between the from red to blue it is p units of time and from blue to red it is q units of time (p an q also given). Find minimum time to cover all stations. Return an array denoting minimum time for each station. first element of answer array is always 0.
+1D DP</t>
+  </si>
+  <si>
+    <t>Maps</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Associative memory storage with key value pairs and fixed DT throughout
+Declaring Var:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+var &lt;Map_var&gt; map[&lt;key_DT&gt;]&lt;value_DT&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Initialization:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+var &lt;Map_var&gt; map[&lt;key_DT&gt;]&lt;value_DT&gt; = map[&lt;key_DT&gt;]&lt;value_DT&gt;{}            //empty initialization
+&lt;Map_var&gt; := map[&lt;key_DT&gt;]&lt;value_DT&gt; {____:____, ____:____, ...}
+&lt;Map_var&gt; := make(map[&lt;key_DT&gt;]&lt;value_DT&gt;)                                                          //empty initialization
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accessing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;Map_var&gt;[&lt;key&gt;]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Looping: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for key,value := </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;Map_var&gt; {}                                                                             //accessing via loop both keys and values
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Setting Value: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;Map_var&gt;[key]=&lt;value&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Checking if key exists:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   i, ok = &lt;Map_var&gt;[&lt;key&gt;]   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">//Here i is given the value if key exists in Map_var and ok=true, else ok = false and i is set to 0;
+Length: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>len(&lt;Map_var&gt;)</t>
+    </r>
+  </si>
+  <si>
+    <t>Pass By value</t>
+  </si>
+  <si>
+    <t>Pass by values DT (Strings, Ints, Float Booleans, Arrays, Structs)
+Pass by reference/pointer DT (Slices, Maps, Functions)</t>
+  </si>
+  <si>
+    <t>Pointers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Declaration:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+var &lt;pointer_var&gt; *&lt;DT_pointing to&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Initialization:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+var &lt;pointer_var&gt; *&lt;DT_pointing to&gt; = &amp;&lt;variable_pointing to&gt;
+&lt;pointer_var&gt; := &amp;&lt;variable_pointing to&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pass By reference:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;call_Function&gt;(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>variable)
+&lt;Function declaration&gt;(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>variable){  __  }</t>
+    </r>
+  </si>
+  <si>
+    <t>Structs/Custom Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type &lt;struct_name&gt; struct {
+         &lt;var_name1&gt; &lt;var_type&gt;
+         &lt;var_name2&gt; &lt;var_type&gt;…....
+}
+var &lt;variable for struct&gt; &lt;struct_name&gt; = &lt;struct_name&gt; {   &lt;variable_name1&gt; : &lt;value&gt;….....   }
+Accessing struct properties:    </t>
+  </si>
+  <si>
+    <t>OR 1, set at ith position then,  number|1&lt;&lt;i</t>
+  </si>
+  <si>
+    <t>AND 1, check ith bit, number&amp;1&lt;&lt;i</t>
+  </si>
+  <si>
+    <t>AND 0, unset at ith position, number&amp;~(1&lt;&lt;i)</t>
+  </si>
+  <si>
+    <t>XOR 1, toggel ith bit, number^1&lt;&lt;I;</t>
+  </si>
+  <si>
+    <t>__builtin_popcount() OR __builtin_popcountll()</t>
+  </si>
+  <si>
+    <t>Count set bits in and integer and long long integer</t>
+  </si>
+  <si>
+    <t>Check odd even</t>
+  </si>
+  <si>
+    <t>AND 1==0 then even else odd.</t>
+  </si>
+  <si>
+    <t>Multiply  and divide by 2</t>
+  </si>
+  <si>
+    <t>number&lt;&lt;1 or number&gt;&gt;1.</t>
+  </si>
+  <si>
+    <t>check = int(character)&amp;1&lt;&lt;5==0 then upper-case, else lower-case
+to convert from lower to upper-case unset 5th bit and to convert from upper to lower set 5th bit.</t>
+  </si>
+  <si>
+    <t>Check if character is uppercase or lower case Or convert from upper to lower or lower to upper</t>
+  </si>
+  <si>
+    <t>Clear till ith position. Unset all bits from ith till end</t>
+  </si>
+  <si>
+    <t>number &amp; ~((1&lt;&lt;(i+1))-1)</t>
+  </si>
+  <si>
+    <t>Set bits==1 OR if number&amp;(number-1)==0 then power of 2 else not. Number-1 will have all set bits till MSB.</t>
   </si>
 </sst>
 </file>
@@ -9997,7 +10370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -10072,9 +10445,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11539,10 +11918,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>455</v>
       </c>
       <c r="C58" s="3">
         <v>3</v>
@@ -11550,10 +11929,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>457</v>
       </c>
       <c r="C59" s="3">
         <v>3</v>
@@ -11561,7 +11940,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C60" s="3">
         <v>2</v>
@@ -11569,10 +11948,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>460</v>
       </c>
       <c r="C61" s="3">
         <v>2</v>
@@ -11580,10 +11959,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>462</v>
       </c>
       <c r="C62" s="3">
         <v>3</v>
@@ -11612,7 +11991,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C1" s="3">
         <v>2</v>
@@ -11620,10 +11999,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
@@ -11631,10 +12010,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B3" t="s">
         <v>560</v>
-      </c>
-      <c r="B3" t="s">
-        <v>561</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -11642,10 +12021,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B4" t="s">
         <v>562</v>
-      </c>
-      <c r="B4" t="s">
-        <v>563</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -11653,7 +12032,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -11661,7 +12040,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -11669,7 +12048,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
@@ -11677,10 +12056,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="B8" t="s">
         <v>567</v>
-      </c>
-      <c r="B8" t="s">
-        <v>568</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
@@ -11688,7 +12067,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -11696,10 +12075,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="B10" t="s">
         <v>570</v>
-      </c>
-      <c r="B10" t="s">
-        <v>571</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -11707,10 +12086,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="B11" t="s">
         <v>572</v>
-      </c>
-      <c r="B11" t="s">
-        <v>573</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
@@ -11718,7 +12097,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -11726,7 +12105,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -11734,10 +12113,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="B14" t="s">
         <v>576</v>
-      </c>
-      <c r="B14" t="s">
-        <v>577</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -11745,7 +12124,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
@@ -11753,10 +12132,10 @@
     </row>
     <row r="19" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -11764,107 +12143,107 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -11889,60 +12268,60 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="B12" s="1"/>
     </row>
@@ -11954,7 +12333,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="C14" s="20">
         <v>1</v>
@@ -11962,7 +12341,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="C15" s="20">
         <v>1</v>
@@ -11970,7 +12349,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="C16" s="20">
         <v>2</v>
@@ -11978,35 +12357,35 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="C22" s="20">
         <v>3</v>
@@ -12014,10 +12393,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="C23" s="20">
         <v>3</v>
@@ -12025,12 +12404,12 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
     </row>
   </sheetData>
@@ -12182,7 +12561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -12195,10 +12574,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="116" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>475</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>476</v>
       </c>
       <c r="C1" s="3">
         <v>2</v>
@@ -12206,10 +12585,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2" t="s">
         <v>477</v>
-      </c>
-      <c r="B2" t="s">
-        <v>478</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -12217,23 +12596,23 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B3" t="s">
         <v>479</v>
-      </c>
-      <c r="B3" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="B4" t="s">
         <v>589</v>
-      </c>
-      <c r="B4" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -12241,7 +12620,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -12249,10 +12628,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B8" t="s">
         <v>603</v>
-      </c>
-      <c r="B8" t="s">
-        <v>604</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -12260,34 +12639,34 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B9" t="s">
         <v>605</v>
-      </c>
-      <c r="B9" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="B10" t="s">
         <v>607</v>
-      </c>
-      <c r="B10" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B12" t="s">
         <v>610</v>
-      </c>
-      <c r="B12" t="s">
-        <v>611</v>
       </c>
       <c r="C12" s="3">
         <v>2</v>
@@ -12295,10 +12674,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="B13" t="s">
         <v>612</v>
-      </c>
-      <c r="B13" t="s">
-        <v>613</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -12306,26 +12685,26 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="B14" t="s">
         <v>615</v>
-      </c>
-      <c r="B14" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B16" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="B17" t="s">
         <v>625</v>
-      </c>
-      <c r="B17" t="s">
-        <v>626</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -12354,67 +12733,67 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C13" s="20">
         <v>3</v>
@@ -12422,7 +12801,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -12545,7 +12924,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -12553,10 +12932,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>845</v>
+      </c>
+      <c r="B11" t="s">
         <v>846</v>
-      </c>
-      <c r="B11" t="s">
-        <v>847</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -12564,7 +12943,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -12572,10 +12951,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>848</v>
+      </c>
+      <c r="B13" t="s">
         <v>849</v>
-      </c>
-      <c r="B13" t="s">
-        <v>850</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -12609,7 +12988,7 @@
         <v>289</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>260</v>
@@ -12620,41 +12999,41 @@
     </row>
     <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
     </row>
   </sheetData>
@@ -12679,551 +13058,551 @@
   <sheetData>
     <row r="1" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1076</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>1137</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1142</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>1149</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="348" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>1279</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>1284</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="348" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
     </row>
   </sheetData>
@@ -13234,136 +13613,168 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8094B6-CB06-4E55-ACD8-76FB0FB9921F}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="60.36328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="120.26953125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="124.54296875" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>1351</v>
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="174" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="116" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>1383</v>
       </c>
     </row>
   </sheetData>
@@ -13606,156 +14017,156 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>508</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>510</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>513</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="319" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="406" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="319" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -13823,7 +14234,7 @@
         <v>269</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C5" s="3">
         <v>2</v>
@@ -14073,10 +14484,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C31" s="3">
         <v>2</v>
@@ -14084,12 +14495,12 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C33" s="3">
         <v>2</v>
@@ -14097,10 +14508,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>580</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>581</v>
       </c>
       <c r="C34" s="3">
         <v>2</v>
@@ -14108,10 +14519,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>583</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>584</v>
       </c>
       <c r="C35" s="3">
         <v>2</v>
@@ -14119,7 +14530,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -14249,10 +14660,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="C57" s="3">
         <v>2</v>
@@ -14292,7 +14703,7 @@
         <v>160</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -14352,100 +14763,100 @@
     </row>
     <row r="11" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>470</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>760</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>762</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>764</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="232" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
     </row>
   </sheetData>
@@ -14810,292 +15221,292 @@
   <sheetData>
     <row r="1" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>712</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>720</v>
+      </c>
+      <c r="B7" t="s">
         <v>721</v>
-      </c>
-      <c r="B7" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B9" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B14" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B15" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B16" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B17" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B20" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B21" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>739</v>
+      </c>
+      <c r="B22" t="s">
         <v>740</v>
-      </c>
-      <c r="B22" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="B25" t="s">
         <v>748</v>
-      </c>
-      <c r="B25" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B29" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B30" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>770</v>
+      </c>
+      <c r="B41" t="s">
         <v>771</v>
-      </c>
-      <c r="B41" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>772</v>
+      </c>
+      <c r="B42" t="s">
         <v>773</v>
-      </c>
-      <c r="B42" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>774</v>
+      </c>
+      <c r="B43" t="s">
         <v>775</v>
-      </c>
-      <c r="B43" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>776</v>
+      </c>
+      <c r="B44" t="s">
         <v>777</v>
-      </c>
-      <c r="B44" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>778</v>
+      </c>
+      <c r="B45" t="s">
         <v>779</v>
-      </c>
-      <c r="B45" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>781</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>782</v>
+      </c>
+      <c r="B47" t="s">
         <v>783</v>
-      </c>
-      <c r="B47" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>785</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="B49" s="17" t="s">
         <v>787</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>789</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>793</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -15121,26 +15532,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>800</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>802</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>804</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>805</v>
       </c>
     </row>
   </sheetData>
@@ -15165,50 +15576,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="B1" t="s">
         <v>815</v>
-      </c>
-      <c r="B1" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="B3" t="s">
         <v>822</v>
-      </c>
-      <c r="B3" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>827</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -15232,15 +15643,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="B2" s="1">
         <v>6379</v>
@@ -15248,66 +15659,66 @@
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="290" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="319" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1025</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="290" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -15333,97 +15744,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
     </row>
   </sheetData>
@@ -15448,15 +15859,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="B2" s="25">
         <v>1979</v>
@@ -15464,26 +15875,26 @@
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
     </row>
   </sheetData>
@@ -15504,110 +15915,110 @@
   <cols>
     <col min="1" max="1" width="66.1796875" style="3" customWidth="1"/>
     <col min="2" max="2" width="82.26953125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="27"/>
+    <col min="3" max="3" width="8.7265625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
+        <v>794</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>795</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>796</v>
-      </c>
-      <c r="C1" s="27">
+      <c r="C1" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>797</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>798</v>
-      </c>
-      <c r="C2" s="27">
+      <c r="C2" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="C3" s="27">
+        <v>798</v>
+      </c>
+      <c r="C3" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C4" s="27">
+        <v>1217</v>
+      </c>
+      <c r="C4" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C5" s="27">
+        <v>1219</v>
+      </c>
+      <c r="C5" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C6" s="27">
+        <v>1221</v>
+      </c>
+      <c r="C6" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C7" s="27">
+        <v>1347</v>
+      </c>
+      <c r="C7" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C8" s="27">
+        <v>1351</v>
+      </c>
+      <c r="C8" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C9" s="27">
+        <v>1353</v>
+      </c>
+      <c r="C9" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C10" s="27">
+        <v>1355</v>
+      </c>
+      <c r="C10" s="26">
         <v>3</v>
       </c>
     </row>
@@ -15633,7 +16044,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="C1" s="10">
         <v>1</v>
@@ -15641,7 +16052,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -15649,10 +16060,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -15660,10 +16071,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -15671,10 +16082,10 @@
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
@@ -15682,10 +16093,10 @@
     </row>
     <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
@@ -15693,15 +16104,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="C8" s="10">
         <v>2</v>
@@ -15709,60 +16120,60 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="C19" s="10">
         <v>3</v>
@@ -15770,7 +16181,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="C20" s="10">
         <v>3</v>
@@ -15778,10 +16189,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="C21" s="10">
         <v>3</v>
@@ -15789,10 +16200,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="C22" s="10">
         <v>2</v>
@@ -15800,7 +16211,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="C23" s="10">
         <v>2</v>
@@ -15808,7 +16219,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="C24" s="10">
         <v>2</v>
@@ -15816,10 +16227,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
@@ -15827,10 +16238,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="C26" s="10">
         <v>2</v>
@@ -15838,10 +16249,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="C27" s="10">
         <v>2</v>
@@ -15849,10 +16260,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="C28" s="10">
         <v>2</v>
@@ -15868,7 +16279,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="C30" s="10">
         <v>3</v>
@@ -15876,10 +16287,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="C31" s="10">
         <v>3</v>
@@ -15887,15 +16298,15 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="C33" s="10">
         <v>2</v>
@@ -15903,10 +16314,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="C34" s="10">
         <v>3</v>
@@ -15914,10 +16325,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="C35" s="10">
         <v>3</v>
@@ -15925,10 +16336,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="C36" s="10">
         <v>3</v>
@@ -15936,10 +16347,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="C37" s="10">
         <v>2</v>
@@ -15947,10 +16358,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="C38" s="10">
         <v>2</v>
@@ -15958,15 +16369,15 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="C40" s="10">
         <v>3</v>
@@ -15974,15 +16385,15 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B42" s="22" t="s">
         <v>1243</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>1248</v>
       </c>
       <c r="C42" s="10">
         <v>2</v>
@@ -15990,10 +16401,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="C43" s="10">
         <v>1</v>
@@ -16001,10 +16412,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="C44" s="10">
         <v>2</v>
@@ -16012,10 +16423,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B45" s="21" t="s">
         <v>1245</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>1250</v>
       </c>
       <c r="C45" s="10">
         <v>2</v>
@@ -16058,7 +16469,7 @@
         <v>342</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C2" s="10">
         <v>2</v>
@@ -16066,7 +16477,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -16074,7 +16485,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
@@ -16082,7 +16493,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -16090,7 +16501,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -16098,7 +16509,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
@@ -16106,7 +16517,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C8" s="10">
         <v>2</v>
@@ -16114,7 +16525,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C9" s="10">
         <v>2</v>
@@ -16122,7 +16533,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C10" s="10">
         <v>2</v>
@@ -16130,7 +16541,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C11" s="10">
         <v>2</v>
@@ -16138,10 +16549,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C12" s="10">
         <v>2</v>
@@ -16149,10 +16560,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C13" s="10">
         <v>3</v>
@@ -16160,7 +16571,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -16168,10 +16579,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C15" s="10">
         <v>2</v>
@@ -16179,7 +16590,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C16" s="10">
         <v>3</v>
@@ -16187,7 +16598,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C17" s="10">
         <v>2</v>
@@ -16195,7 +16606,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -16203,7 +16614,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C19" s="10">
         <v>2</v>
@@ -16211,10 +16622,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
@@ -16222,10 +16633,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C21" s="10">
         <v>3</v>
@@ -16233,10 +16644,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C22" s="10">
         <v>3</v>
@@ -16244,7 +16655,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C23" s="10">
         <v>2</v>
@@ -16252,7 +16663,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C24" s="10">
         <v>2</v>
@@ -16260,7 +16671,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
@@ -16268,7 +16679,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C26" s="10">
         <v>3</v>
@@ -16276,7 +16687,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C27" s="10">
         <v>3</v>
@@ -16284,7 +16695,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C28" s="10">
         <v>1</v>
@@ -16292,7 +16703,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C29" s="10">
         <v>3</v>
@@ -16300,17 +16711,17 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
   </sheetData>
@@ -16320,10 +16731,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16387,7 +16798,7 @@
         <v>439</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>440</v>
+        <v>1398</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -16395,10 +16806,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C7" s="10">
         <v>2</v>
@@ -16406,10 +16817,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="C8" s="10">
         <v>3</v>
@@ -16417,7 +16828,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
@@ -16425,10 +16836,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>445</v>
       </c>
       <c r="C10" s="10">
         <v>1</v>
@@ -16436,10 +16847,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>447</v>
       </c>
       <c r="C11" s="10">
         <v>3</v>
@@ -16447,10 +16858,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>449</v>
       </c>
       <c r="C12" s="10">
         <v>3</v>
@@ -16458,10 +16869,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C13" s="10">
         <v>3</v>
@@ -16469,10 +16880,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>453</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -16480,7 +16891,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C15" s="10">
         <v>1</v>
@@ -16488,7 +16899,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C16" s="10">
         <v>1</v>
@@ -16496,7 +16907,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C17" s="10">
         <v>1</v>
@@ -16504,7 +16915,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C18" s="10">
         <v>1</v>
@@ -16512,7 +16923,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C19" s="10">
         <v>1</v>
@@ -16520,10 +16931,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="C20" s="10">
         <v>3</v>
@@ -16531,10 +16942,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>597</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>598</v>
       </c>
       <c r="C21" s="10">
         <v>1</v>
@@ -16542,10 +16953,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C22" s="10">
         <v>2</v>
@@ -16553,10 +16964,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="C23" s="10">
         <v>3</v>
@@ -16564,10 +16975,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="C24" s="10">
         <v>3</v>
@@ -16575,10 +16986,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
@@ -16586,10 +16997,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="C26" s="10">
         <v>1</v>
@@ -16597,10 +17008,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="C27" s="10">
         <v>2</v>
@@ -16608,10 +17019,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="C28" s="10">
         <v>2</v>
@@ -16619,10 +17030,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>1364</v>
+        <v>1358</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1365</v>
+        <v>1359</v>
       </c>
       <c r="C29" s="10">
         <v>2</v>
@@ -16630,12 +17041,12 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C32" s="10">
         <v>2</v>
@@ -16643,7 +17054,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C33" s="10">
         <v>2</v>
@@ -16651,7 +17062,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C34" s="10">
         <v>3</v>
@@ -16659,7 +17070,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C35" s="10">
         <v>3</v>
@@ -16667,7 +17078,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="C36" s="10">
         <v>3</v>
@@ -16675,10 +17086,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="C37" s="10">
         <v>3</v>
@@ -16686,10 +17097,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="C38" s="10">
         <v>3</v>
@@ -16697,10 +17108,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="C39" s="10">
         <v>3</v>
@@ -16708,15 +17119,15 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>852</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>853</v>
       </c>
       <c r="C43" s="10">
         <v>1</v>
@@ -16724,169 +17135,172 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>856</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>857</v>
-      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="19" t="s">
+        <v>858</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="19" t="s">
         <v>859</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+      <c r="B48" s="7" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="19" t="s">
+        <v>860</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="19" t="s">
         <v>861</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>863</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>866</v>
+      <c r="B50" s="7" t="s">
+        <v>1387</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>868</v>
+      <c r="A52" s="19" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>885</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>871</v>
+      <c r="A55" s="19" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>1388</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="11" t="s">
-        <v>886</v>
+      <c r="A56" s="19" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C56" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="C58" s="10">
-        <v>3</v>
+      <c r="A57" s="19" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A58" s="29" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>1394</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>896</v>
+      <c r="A59" s="19" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>1397</v>
       </c>
       <c r="C59" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>897</v>
+        <v>880</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>898</v>
-      </c>
-      <c r="C60" s="10">
-        <v>1</v>
+        <v>866</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="C61" s="10">
-        <v>1</v>
+      <c r="A61" s="11" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>908</v>
+        <v>867</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>912</v>
-      </c>
-      <c r="C62" s="10">
-        <v>2</v>
+        <v>868</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>909</v>
+        <v>869</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>879</v>
       </c>
       <c r="C63" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>910</v>
+        <v>890</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>891</v>
       </c>
       <c r="C64" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>911</v>
+        <v>892</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>893</v>
       </c>
       <c r="C65" s="10">
         <v>1</v>
@@ -16894,97 +17308,140 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>914</v>
+        <v>902</v>
       </c>
       <c r="C66" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>915</v>
+        <v>903</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="C67" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>918</v>
+        <v>904</v>
       </c>
       <c r="C68" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>1043</v>
+        <v>905</v>
       </c>
       <c r="C69" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>1040</v>
+        <v>906</v>
       </c>
       <c r="C70" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>1041</v>
+        <v>908</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>1042</v>
+        <v>909</v>
       </c>
       <c r="C71" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>1045</v>
+        <v>910</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1044</v>
+        <v>911</v>
       </c>
       <c r="C72" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>1046</v>
+        <v>912</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>913</v>
       </c>
       <c r="C73" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="11" t="s">
-        <v>1047</v>
+      <c r="A74" s="1" t="s">
+        <v>914</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="C74" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C75" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C76" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C77" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C78" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="11" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C79" s="10">
         <v>3</v>
       </c>
     </row>
@@ -17155,10 +17612,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17173,7 +17630,7 @@
         <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C1" s="10">
         <v>1</v>
@@ -17181,40 +17638,43 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B2" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1264</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1265</v>
+        <v>1259</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1260</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>1314</v>
+        <v>1308</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="B5" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="C5" s="10">
         <v>3</v>
@@ -17222,10 +17682,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="B6" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="C6" s="10">
         <v>3</v>
@@ -17233,7 +17693,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C7" s="10">
         <v>2</v>
@@ -17241,10 +17701,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="C8" s="10">
         <v>2</v>
@@ -17252,10 +17712,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="B9" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="C9" s="10">
         <v>2</v>
@@ -17263,51 +17723,51 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="B10" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="C10" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>1036</v>
+      <c r="A11" s="4" t="s">
+        <v>1031</v>
       </c>
       <c r="B11" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="C11" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>1037</v>
+      <c r="A12" s="4" t="s">
+        <v>1032</v>
       </c>
       <c r="B12" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="C12" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>1355</v>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1349</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="B14" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="C14" s="10">
         <v>2</v>
@@ -17315,10 +17775,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="B15" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="C15" s="10">
         <v>2</v>
@@ -17326,7 +17786,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="C16" s="10">
         <v>2</v>
@@ -17334,10 +17794,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="B17" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C17" s="10">
         <v>2</v>
@@ -17345,10 +17805,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="B18" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -17356,10 +17816,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="B19" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="C19" s="10">
         <v>2</v>
@@ -17367,10 +17827,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="B20" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
@@ -17378,10 +17838,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="B21" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="C21" s="10">
         <v>2</v>
@@ -17389,10 +17849,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="C22" s="10">
         <v>3</v>
@@ -17400,10 +17860,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="B23" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="C23" s="10">
         <v>3</v>
@@ -17411,10 +17871,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C24" s="10">
         <v>2</v>
@@ -17422,10 +17882,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="B25" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="C25" s="10">
         <v>2</v>
@@ -17479,7 +17939,7 @@
         <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="C31" s="10">
         <v>3</v>
@@ -17490,7 +17950,7 @@
         <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="C32" s="10">
         <v>1</v>
@@ -17501,7 +17961,7 @@
         <v>76</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="C33" s="10">
         <v>2</v>
@@ -17517,10 +17977,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="B35" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C35" s="10">
         <v>2</v>
@@ -17544,7 +18004,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="10">
@@ -17553,7 +18013,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="10">
@@ -17562,7 +18022,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C40" s="10">
         <v>2</v>
@@ -17570,7 +18030,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C41" s="10">
         <v>2</v>
@@ -17578,7 +18038,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C42" s="10">
         <v>2</v>
@@ -17586,7 +18046,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C43" s="10">
         <v>2</v>
@@ -17594,32 +18054,32 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="B44" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="C44" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1003</v>
+      <c r="A45" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>1375</v>
       </c>
       <c r="C45" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="B46" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="C46" s="10">
         <v>1</v>
@@ -17627,21 +18087,21 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="B47" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="C47" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
       <c r="B48" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="C48" s="10">
         <v>3</v>
@@ -17649,10 +18109,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="B49" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="C49" s="10">
         <v>3</v>
@@ -17660,21 +18120,21 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B50" t="s">
         <v>1009</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1015</v>
       </c>
       <c r="C50" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>1030</v>
+      <c r="A51" s="4" t="s">
+        <v>1004</v>
       </c>
       <c r="B51" t="s">
-        <v>1031</v>
+        <v>1010</v>
       </c>
       <c r="C51" s="10">
         <v>3</v>
@@ -17682,18 +18142,21 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>1309</v>
+        <v>1025</v>
       </c>
       <c r="B52" t="s">
-        <v>1310</v>
+        <v>1026</v>
       </c>
       <c r="C52" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>1366</v>
+        <v>1304</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1305</v>
       </c>
       <c r="C53" s="10">
         <v>2</v>
@@ -17701,7 +18164,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>1368</v>
+        <v>1360</v>
       </c>
       <c r="C54" s="10">
         <v>2</v>
@@ -17709,7 +18172,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="C55" s="10">
         <v>2</v>
@@ -17717,7 +18180,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>1370</v>
+        <v>1363</v>
       </c>
       <c r="C56" s="10">
         <v>2</v>
@@ -17725,7 +18188,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="C57" s="10">
         <v>2</v>
@@ -17733,221 +18196,259 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="C58" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>1373</v>
+        <v>1366</v>
       </c>
       <c r="C59" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C60" s="10">
         <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>955</v>
+        <v>949</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>1370</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>956</v>
+        <v>798</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>957</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
-        <v>959</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B90" s="26" t="s">
-        <v>1312</v>
-      </c>
-      <c r="C90" s="10">
-        <v>3</v>
+        <v>954</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
-        <v>984</v>
-      </c>
-      <c r="C95" s="10">
-        <v>2</v>
+        <v>957</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C94" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>986</v>
-      </c>
-      <c r="B96" t="s">
-        <v>985</v>
-      </c>
-      <c r="C96" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C97" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="12" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="C99" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B100" t="s">
+        <v>980</v>
+      </c>
+      <c r="C100" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C101" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" s="12" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="3" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="3" t="s">
+      <c r="B107" t="s">
         <v>618</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C107" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="C103" s="10">
+      <c r="B108" t="s">
+        <v>620</v>
+      </c>
+      <c r="C108" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="B104" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="C104" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="3" t="s">
+      <c r="B109" t="s">
         <v>622</v>
       </c>
-      <c r="B105" t="s">
-        <v>623</v>
-      </c>
-      <c r="C105" s="10">
+      <c r="C109" s="10">
         <v>3</v>
       </c>
     </row>
@@ -18063,7 +18564,7 @@
         <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C11" s="10">
         <v>2</v>
@@ -18085,7 +18586,7 @@
         <v>92</v>
       </c>
       <c r="B13" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
@@ -18298,7 +18799,7 @@
         <v>329</v>
       </c>
       <c r="B37" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C37" s="10">
         <v>2</v>
@@ -18350,7 +18851,7 @@
         <v>382</v>
       </c>
       <c r="B42" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C42" s="10">
         <v>3</v>
@@ -18380,10 +18881,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="C45" s="10">
         <v>3</v>
@@ -18391,10 +18892,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B46" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C46" s="10">
         <v>3</v>
@@ -18402,10 +18903,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B47" t="s">
         <v>482</v>
-      </c>
-      <c r="B47" t="s">
-        <v>483</v>
       </c>
       <c r="C47" s="10">
         <v>3</v>
@@ -18413,10 +18914,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B48" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C48" s="10">
         <v>2</v>
@@ -18424,10 +18925,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B49" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C49" s="10">
         <v>2</v>
@@ -18435,10 +18936,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B50" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C50" s="10">
         <v>2</v>
@@ -18446,10 +18947,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B51" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C51" s="10">
         <v>3</v>
@@ -18457,10 +18958,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B52" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C52" s="10">
         <v>3</v>
@@ -18468,10 +18969,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B53" t="s">
         <v>538</v>
-      </c>
-      <c r="B53" t="s">
-        <v>539</v>
       </c>
       <c r="C53" s="10">
         <v>3</v>
@@ -18479,10 +18980,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B54" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C54" s="10">
         <v>2</v>
@@ -18490,10 +18991,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B55" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C55" s="10">
         <v>2</v>
@@ -18501,10 +19002,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C56" s="10">
         <v>2</v>
@@ -18512,10 +19013,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C57" s="10">
         <v>2</v>
@@ -18523,20 +19024,20 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B60" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C60" s="10">
         <v>2</v>
@@ -18544,25 +19045,25 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B64" t="s">
         <v>556</v>
-      </c>
-      <c r="B64" t="s">
-        <v>557</v>
       </c>
       <c r="C64" s="10">
         <v>2</v>
@@ -18570,10 +19071,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B65" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C65" s="10">
         <v>2</v>
@@ -18581,15 +19082,15 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B67" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C67" s="10">
         <v>2</v>
@@ -18597,10 +19098,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="B68" t="s">
         <v>646</v>
-      </c>
-      <c r="B68" t="s">
-        <v>647</v>
       </c>
       <c r="C68" s="10">
         <v>3</v>
@@ -18608,10 +19109,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B69" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C69" s="10">
         <v>2</v>
@@ -18619,10 +19120,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B70" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C70" s="10">
         <v>3</v>
@@ -18630,7 +19131,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C71" s="10">
         <v>2</v>
@@ -18638,10 +19139,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="B72" t="s">
         <v>636</v>
-      </c>
-      <c r="B72" t="s">
-        <v>637</v>
       </c>
       <c r="C72" s="10">
         <v>3</v>
@@ -18649,10 +19150,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="B73" t="s">
         <v>638</v>
-      </c>
-      <c r="B73" t="s">
-        <v>639</v>
       </c>
       <c r="C73" s="10">
         <v>3</v>
@@ -18660,7 +19161,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C74" s="10">
         <v>2</v>
@@ -18668,10 +19169,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B75" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C75" s="10">
         <v>3</v>
@@ -18679,10 +19180,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="B76" t="s">
         <v>642</v>
-      </c>
-      <c r="B76" t="s">
-        <v>643</v>
       </c>
       <c r="C76" s="10">
         <v>2</v>
@@ -18690,10 +19191,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B77" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C77" s="10">
         <v>3</v>
@@ -18704,7 +19205,7 @@
         <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C78" s="10">
         <v>2</v>
@@ -18712,10 +19213,10 @@
     </row>
     <row r="79" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C79" s="10">
         <v>2</v>
@@ -18723,10 +19224,10 @@
     </row>
     <row r="80" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C80" s="10">
         <v>3</v>
@@ -18734,7 +19235,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C81" s="10">
         <v>3</v>
@@ -18742,10 +19243,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B82" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C82" s="10">
         <v>2</v>
@@ -18753,7 +19254,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C83" s="10">
         <v>2</v>
@@ -18761,7 +19262,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C84" s="10">
         <v>2</v>
@@ -18769,7 +19270,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C85" s="10">
         <v>2</v>
@@ -18777,10 +19278,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="B86" t="s">
         <v>694</v>
-      </c>
-      <c r="B86" t="s">
-        <v>695</v>
       </c>
       <c r="C86" s="10">
         <v>3</v>
@@ -18788,15 +19289,15 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>670</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>671</v>
       </c>
       <c r="C89" s="10">
         <v>3</v>
@@ -18804,10 +19305,10 @@
     </row>
     <row r="90" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>672</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>673</v>
       </c>
       <c r="C90" s="10">
         <v>3</v>
@@ -18815,10 +19316,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="B91" t="s">
         <v>674</v>
-      </c>
-      <c r="B91" t="s">
-        <v>675</v>
       </c>
       <c r="C91" s="10">
         <v>3</v>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DDD225-E74B-46FE-B424-59B923E74B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC51F2D-F460-4B52-B231-A7B77D2CDD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="13" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="1399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="1405">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -8852,17 +8852,6 @@
     <t>fmt</t>
   </si>
   <si>
-    <t>Print("&lt;str&gt;", "&lt;var&gt;"…..)                 //o/p stream stays on same line
-Println("&lt;str&gt;", "&lt;var&gt;"…..)
-Printf( &lt;str with format specifiers&gt;, &lt;var1&gt;, &lt;var2&gt;…..  )                                                  //formatting string
-Format Specifiers: %v    -&gt;    variable value (%t bool, %d uint,int, %p pointer, %s string, %x %o %b base 8-16-2)
-                                  %q    -&gt;    quoted variable value if variable is a string
-                                  %T    -&gt;    type of coresponding variable
-                                  %9.2f    -&gt;   width 9, precision 2
-var x string = Sprintf(&lt;like Printf&gt;)      returns the whole output as a string
-var x string = Sprintln(&lt;string with var seperated by ,&gt;)</t>
-  </si>
-  <si>
     <t>Access modifires</t>
   </si>
   <si>
@@ -10209,65 +10198,313 @@
     <t>Structs/Custom Type</t>
   </si>
   <si>
-    <t xml:space="preserve">type &lt;struct_name&gt; struct {
+    <t>OR 1, set at ith position then,  number|1&lt;&lt;i</t>
+  </si>
+  <si>
+    <t>AND 1, check ith bit, number&amp;1&lt;&lt;i</t>
+  </si>
+  <si>
+    <t>AND 0, unset at ith position, number&amp;~(1&lt;&lt;i)</t>
+  </si>
+  <si>
+    <t>XOR 1, toggel ith bit, number^1&lt;&lt;I;</t>
+  </si>
+  <si>
+    <t>__builtin_popcount() OR __builtin_popcountll()</t>
+  </si>
+  <si>
+    <t>Count set bits in and integer and long long integer</t>
+  </si>
+  <si>
+    <t>Check odd even</t>
+  </si>
+  <si>
+    <t>AND 1==0 then even else odd.</t>
+  </si>
+  <si>
+    <t>Multiply  and divide by 2</t>
+  </si>
+  <si>
+    <t>number&lt;&lt;1 or number&gt;&gt;1.</t>
+  </si>
+  <si>
+    <t>check = int(character)&amp;1&lt;&lt;5==0 then upper-case, else lower-case
+to convert from lower to upper-case unset 5th bit and to convert from upper to lower set 5th bit.</t>
+  </si>
+  <si>
+    <t>Check if character is uppercase or lower case Or convert from upper to lower or lower to upper</t>
+  </si>
+  <si>
+    <t>Clear till ith position. Unset all bits from ith till end</t>
+  </si>
+  <si>
+    <t>number &amp; ~((1&lt;&lt;(i+1))-1)</t>
+  </si>
+  <si>
+    <t>Set bits==1 OR if number&amp;(number-1)==0 then power of 2 else not. Number-1 will have all set bits till MSB.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Defining:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+type &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>struct_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; struct {
          &lt;var_name1&gt; &lt;var_type&gt;
          &lt;var_name2&gt; &lt;var_type&gt;…....
 }
-var &lt;variable for struct&gt; &lt;struct_name&gt; = &lt;struct_name&gt; {   &lt;variable_name1&gt; : &lt;value&gt;….....   }
-Accessing struct properties:    </t>
-  </si>
-  <si>
-    <t>OR 1, set at ith position then,  number|1&lt;&lt;i</t>
-  </si>
-  <si>
-    <t>AND 1, check ith bit, number&amp;1&lt;&lt;i</t>
-  </si>
-  <si>
-    <t>AND 0, unset at ith position, number&amp;~(1&lt;&lt;i)</t>
-  </si>
-  <si>
-    <t>XOR 1, toggel ith bit, number^1&lt;&lt;I;</t>
-  </si>
-  <si>
-    <t>__builtin_popcount() OR __builtin_popcountll()</t>
-  </si>
-  <si>
-    <t>Count set bits in and integer and long long integer</t>
-  </si>
-  <si>
-    <t>Check odd even</t>
-  </si>
-  <si>
-    <t>AND 1==0 then even else odd.</t>
-  </si>
-  <si>
-    <t>Multiply  and divide by 2</t>
-  </si>
-  <si>
-    <t>number&lt;&lt;1 or number&gt;&gt;1.</t>
-  </si>
-  <si>
-    <t>check = int(character)&amp;1&lt;&lt;5==0 then upper-case, else lower-case
-to convert from lower to upper-case unset 5th bit and to convert from upper to lower set 5th bit.</t>
-  </si>
-  <si>
-    <t>Check if character is uppercase or lower case Or convert from upper to lower or lower to upper</t>
-  </si>
-  <si>
-    <t>Clear till ith position. Unset all bits from ith till end</t>
-  </si>
-  <si>
-    <t>number &amp; ~((1&lt;&lt;(i+1))-1)</t>
-  </si>
-  <si>
-    <t>Set bits==1 OR if number&amp;(number-1)==0 then power of 2 else not. Number-1 will have all set bits till MSB.</t>
+var &lt;variable for struct&gt; &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>struct_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; = &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>struct_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt; {   &lt;variable_name1&gt; : &lt;value&gt;….....   }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accessing struct properties:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    
+&lt;variable_for_struct&gt;.&lt;var_name_i&gt;                                       //&lt;var_name&gt; is properties in struct type defined
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">How to create member functions for struct type (Reciever function):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>func (&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>struct_var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>struct_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;) &lt;reciever function name&gt;(args....)  (&lt;return DT&gt;)  {  __________  }
+//This function is now associated with struct "&lt;struct_name&gt;" an can be accessed via its object and can use our struct in itself via &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>struct_var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Print("&lt;str&gt;", "&lt;var&gt;"…..)                 //o/p stream stays on same line
+Println("&lt;str&gt;", "&lt;var&gt;"…..)
+Printf( &lt;str with format specifiers&gt;, &lt;var1&gt;, &lt;var2&gt;…..  )                                                  //formatting string
+Format Specifiers: %v    -&gt;    variable value (%t bool, %d uint,int, %p pointer, %s string, %x %o %b base 8-16-2)
+                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%+-&lt;number&gt;v     -&gt; used to print variable utilizing only &lt;number&gt; units of space added to left if positive else to right if negative.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                  %q    -&gt;    quoted variable value if variable is a string
+                                  %T    -&gt;    type of coresponding variable
+                                  %9.2f    -&gt;   width 9, precision 2
+var x string = Sprintf(&lt;like Printf&gt;)      returns the whole output as a string
+var x string = Sprintln(&lt;string with var seperated by ,&gt;)</t>
+    </r>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open and transparent across the network
+Distributed (immutable local ledger)
+Peer verification and Security
+Efficient
+Permanent because immutable.
+Composition of Block:    Block Number (Unique), Nonce (may not be unique and mutable part in the block, Miners adjust it to bring Hash in a target zone and give Proof of work-&gt;Mining), Data, Previous Hash, and Hash (64 char hexadecimal string generated via SHA-256).
+Network holds million nodes where there is no central authority to control, and each node works to validate and add transactions to the ledger, There is no central ledger to refer but instead we have local ledgers on eachnode to verify and cross-check+add. 
+Immutable Ledger-&gt; records/ data in ledger can be changed but inorder to reflect that change, this change must be injected to more than 50% of total network nodes in a short period of time (after which cross-verification among network node happens). If someone tries to modify entry in the ledger other nodes can check and notice that difference via there own local copy of ledger and out of all ledgers that holds the majority will replace others local ledgers. If one is modified, and checking expires, all the other nodes will point out that the attacked node is having a part of ledger wrong and hence it must be replaced with the right/majority part among all ledgers. There for the ledgers always holds the data which majority will reflect. </t>
+  </si>
+  <si>
+    <t>Smart Contract</t>
+  </si>
+  <si>
+    <t>Traditional vs Smart contract</t>
+  </si>
+  <si>
+    <t>Automated, Not error-prone, No third party, Fast and Cost efficient.</t>
+  </si>
+  <si>
+    <t>Proof of Work</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10324,6 +10561,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -10370,7 +10621,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -10448,12 +10699,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -12422,7 +12669,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12561,8 +12808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12602,11 +12849,11 @@
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>589</v>
       </c>
     </row>
@@ -13530,7 +13777,7 @@
         <v>1297</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="87" x14ac:dyDescent="0.35">
@@ -13551,58 +13798,58 @@
     </row>
     <row r="63" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>1319</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>1321</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>1322</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>1324</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="348" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>1326</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>1328</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>1330</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>1332</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1333</v>
       </c>
     </row>
   </sheetData>
@@ -13615,8 +13862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8094B6-CB06-4E55-ACD8-76FB0FB9921F}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13641,12 +13888,12 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>1317</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1318</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
@@ -13686,15 +13933,15 @@
         <v>1198</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
@@ -13702,7 +13949,7 @@
         <v>1199</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
@@ -13710,15 +13957,15 @@
         <v>784</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>1339</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>1340</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
@@ -13726,55 +13973,55 @@
         <v>1098</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>1342</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>1344</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>1376</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>1378</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>1380</v>
       </c>
-      <c r="B18" s="21" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>1382</v>
-      </c>
       <c r="B19" s="21" t="s">
-        <v>1383</v>
+        <v>1397</v>
       </c>
     </row>
   </sheetData>
@@ -14660,10 +14907,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>1356</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>1357</v>
       </c>
       <c r="C57" s="3">
         <v>2</v>
@@ -15518,10 +15765,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83DB964-4164-49D0-ADB4-4FC69C0AAC83}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15552,6 +15799,32 @@
       </c>
       <c r="B3" s="5" t="s">
         <v>804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="261" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>1404</v>
       </c>
     </row>
   </sheetData>
@@ -15980,10 +16253,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>1346</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>1347</v>
       </c>
       <c r="C7" s="26">
         <v>2</v>
@@ -15991,10 +16264,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>1350</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>1351</v>
       </c>
       <c r="C8" s="26">
         <v>2</v>
@@ -16002,10 +16275,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>1352</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>1353</v>
       </c>
       <c r="C9" s="26">
         <v>2</v>
@@ -16013,10 +16286,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>1354</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>1355</v>
       </c>
       <c r="C10" s="26">
         <v>3</v>
@@ -16798,7 +17071,7 @@
         <v>439</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -17030,10 +17303,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>1358</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>1359</v>
       </c>
       <c r="C29" s="10">
         <v>2</v>
@@ -17159,7 +17432,7 @@
         <v>858</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -17167,7 +17440,7 @@
         <v>859</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -17175,7 +17448,7 @@
         <v>860</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -17183,7 +17456,7 @@
         <v>861</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -17208,18 +17481,18 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="19" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="C56" s="10">
         <v>1</v>
@@ -17227,26 +17500,26 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="19" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>1392</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A58" s="29" t="s">
-        <v>1395</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="19" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="C59" s="10">
         <v>2</v>
@@ -17663,7 +17936,7 @@
         <v>1308</v>
       </c>
       <c r="B4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -17756,10 +18029,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B13" t="s">
         <v>1348</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -18065,10 +18338,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B45" t="s">
         <v>1374</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>1375</v>
       </c>
       <c r="C45" s="10">
         <v>2</v>
@@ -18164,7 +18437,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C54" s="10">
         <v>2</v>
@@ -18172,7 +18445,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C55" s="10">
         <v>2</v>
@@ -18180,7 +18453,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C56" s="10">
         <v>2</v>
@@ -18188,7 +18461,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C57" s="10">
         <v>2</v>
@@ -18196,7 +18469,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C58" s="10">
         <v>2</v>
@@ -18204,7 +18477,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C59" s="10">
         <v>3</v>
@@ -18212,7 +18485,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="C60" s="10">
         <v>4</v>
@@ -18300,17 +18573,17 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -18320,12 +18593,12 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -18408,7 +18681,7 @@
         <v>1027</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C101" s="10">
         <v>2</v>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC51F2D-F460-4B52-B231-A7B77D2CDD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3495C1C-0BE0-4980-8C40-8DE447FCCC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="13" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="1405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="1412">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -9325,148 +9325,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Build with characters in single quotes '_'
-Declaration:  var &lt;string_variable&gt; string;     //initialized with "" (empty string)
-Initialization var &lt;string_variable&gt; string = " _____ ";
-len(&lt;string_variable&gt;)                // length/size of string
-Accessing:     &lt;string&gt;[&lt;index&gt;]                 //gets the character at index in &lt;string_variable&gt;.....</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>returns int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>String ranges is same as slice ranges and returns new string;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Comparison:
-     ==
-     strings.EqualFold(&lt;str1&gt;,&lt;str2&gt;)   //camparison by unicode casefolding, case insensitive.
-Methods:
-strings.Contains(&lt;str1&gt;, &lt;str2&gt;)                    //returns boolean
-strings.ContainsAny(&lt;str1&gt;,&lt;str2&gt;)              //returns boolean if any character of &lt;str2&gt; present in &lt;str1&gt;
-strings.HasPrefix(&lt;str1&gt;, &lt;str2&gt;)                   //returns boolean, same as startsWith()
-strings.HasSuffix(&lt;str1&gt;, &lt;str2&gt;)                   //returns boolean, same as endsWith()
-strings.Count(&lt;str1&gt;, &lt;str2&gt;)                         //returns count (int)  of non-overlapping instances of &lt;str2&gt; in &lt;str1&gt;
-strings.Index(&lt;str1&gt;, &lt;str2&gt;)                          //returns index, start index for whole &lt;str2&gt; in &lt;str1&gt;
-strings.IndexAny(&lt;str1&gt;, &lt;str2&gt;)                   //returns index, start index for any character of &lt;str2&gt; in &lt;str1&gt;
-strings.LaastIndex(&lt;str1&gt;, &lt;str2&gt;)                 //returns index, last index for whole &lt;str2&gt; in &lt;str1&gt;
-strings.LastIndexAny(&lt;str1&gt;, &lt;str2&gt;)            //returns index, last index for any character of &lt;str2&gt; in &lt;str1&gt;
-strings.ToUpper(&lt;str&gt;)                                    //returns new string with the effect
-strings.ToLower(&lt;str&gt;)                                    //returns new string with the effect
-strings.Title(&lt;str&gt;)                                            //space camel casing, returns new string with the effect
-strings.TrimSpaces(&lt;str&gt;)                                   --</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>returns new string (below all)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-strings.Trim(&lt;str&gt;,&lt;char_set&gt;)                      //Trim leading and trailing characters of &lt;char_set&gt;
-strings.TrimLeft(&lt;str&gt;,&lt;char_set&gt;)               //Trim leading characters of &lt;char_set&gt;
-strings.TrimRight(&lt;str&gt;,&lt;char_set&gt;)             //Trim trailing characters of &lt;char_set&gt;
-strings.TrimPrefix(&lt;str&gt;, &lt;pat1&gt;)
-strings.TrimSuffix(&lt;str&gt;, &lt;pat2&gt;)
-strings.Split(&lt;str&gt;, &lt;seperator_string&gt;)      //new arr/slice
-strings.SplitAfter(&lt;str&gt;, &lt;seperator_string&gt;)      //new arr/slice, this method do not remove the seperator, instead tears into list after the seperator.
-strings.Join(&lt;arr/slice&gt;, "&lt;joining_symbol&gt;")  //new string
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>strconv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.Itoa(-42)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>strconv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.FormatInt(&lt;int&gt;, &lt;base&gt;)</t>
-    </r>
-  </si>
-  <si>
     <t>Sort Library</t>
   </si>
   <si>
@@ -10245,202 +10103,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Defining:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-type &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>struct_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; struct {
-         &lt;var_name1&gt; &lt;var_type&gt;
-         &lt;var_name2&gt; &lt;var_type&gt;…....
-}
-var &lt;variable for struct&gt; &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>struct_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; = &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>struct_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&gt; {   &lt;variable_name1&gt; : &lt;value&gt;….....   }
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Accessing struct properties:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    
-&lt;variable_for_struct&gt;.&lt;var_name_i&gt;                                       //&lt;var_name&gt; is properties in struct type defined
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">How to create member functions for struct type (Reciever function):
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>func (&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>struct_var</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>struct_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;) &lt;reciever function name&gt;(args....)  (&lt;return DT&gt;)  {  __________  }
-//This function is now associated with struct "&lt;struct_name&gt;" an can be accessed via its object and can use our struct in itself via &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>struct_var</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&gt;
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Print("&lt;str&gt;", "&lt;var&gt;"…..)                 //o/p stream stays on same line
 Println("&lt;str&gt;", "&lt;var&gt;"…..)
 Printf( &lt;str with format specifiers&gt;, &lt;var1&gt;, &lt;var2&gt;…..  )                                                  //formatting string
@@ -10498,6 +10160,424 @@
   </si>
   <si>
     <t>Proof of Work</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Defining:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+type &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>struct_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; struct {
+         &lt;var_name1&gt; &lt;var_type&gt;
+         &lt;var_name2&gt; &lt;var_type&gt;…....
+}
+var &lt;variable for struct&gt; &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>struct_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; = &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>struct_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt; {   &lt;variable_name1&gt; : &lt;value&gt;….....   }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accessing struct properties:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    
+&lt;variable_for_struct&gt;.&lt;var_name_i&gt;                                       //&lt;var_name&gt; is properties in struct type defined
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">How to create member functions for struct type (Reciever function):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>func (&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>struct_var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>struct_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;) &lt;reciever function name&gt;(args....)  (&lt;return DT&gt;)  {  __________  }
+//This function is now associated with struct "&lt;struct_name&gt;" an can be accessed via its object only and can use our struct in itself via &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>struct_var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;
+//This makes it possible to use this function analogous to member functions.
+NOTE: inorder to make use of object/struct inside reciever function and you want to make changes to the object/struct, make sure you pass by pointer because as we discussed, struct are of group 1 category and hence passed by value by default. So in order for changes to occur permanently we need to make sure we have passed struct/object by pointer in reciever argument.</t>
+    </r>
+  </si>
+  <si>
+    <t>User input (from stdin)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">reader := bufio.NewReader(os.Stdin)
+&lt;variable name&gt;, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = reader.ReadString('&lt;delimitin agent,till when/what char input should be considered&gt;')
+Or create separate input taking function as:
+func getInput(prompt string, r *bufio.Readedr) (string, error) { 
+    fmt.Print(promt);
+    input, err := r.ReadString('&lt;delimiter agent that breaks input stream&gt;')
+    return strings.TrimSpace(input),err
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Switch statement</t>
+  </si>
+  <si>
+    <t>Syntax:
+switch &lt;option&gt;{
+    case &lt;value&gt;:
+          &lt;perform_this&gt;
+   default:
+         &lt;what to do is option is incorrect&gt;
+}</t>
+  </si>
+  <si>
+    <r>
+      <t>Build with characters in single quotes '_'
+Declaration:  var &lt;string_variable&gt; string;     //initialized with "" (empty string)
+Initialization var &lt;string_variable&gt; string = " _____ ";
+len(&lt;string_variable&gt;)                // length/size of string
+Accessing:     &lt;string&gt;[&lt;index&gt;]                 //gets the character at index in &lt;string_variable&gt;.....</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>returns int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String ranges is same as slice ranges and returns new string;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Comparison:
+     ==
+     strings.EqualFold(&lt;str1&gt;,&lt;str2&gt;)   //camparison by unicode casefolding, case insensitive.
+Methods:
+strings.Contains(&lt;str1&gt;, &lt;str2&gt;)                    //returns boolean
+strings.ContainsAny(&lt;str1&gt;,&lt;str2&gt;)              //returns boolean if any character of &lt;str2&gt; present in &lt;str1&gt;
+strings.HasPrefix(&lt;str1&gt;, &lt;str2&gt;)                   //returns boolean, same as startsWith()
+strings.HasSuffix(&lt;str1&gt;, &lt;str2&gt;)                   //returns boolean, same as endsWith()
+strings.Count(&lt;str1&gt;, &lt;str2&gt;)                         //returns count (int)  of non-overlapping instances of &lt;str2&gt; in &lt;str1&gt;
+strings.Index(&lt;str1&gt;, &lt;str2&gt;)                          //returns index, start index for whole &lt;str2&gt; in &lt;str1&gt;
+strings.IndexAny(&lt;str1&gt;, &lt;str2&gt;)                   //returns index, start index for any character of &lt;str2&gt; in &lt;str1&gt;
+strings.LaastIndex(&lt;str1&gt;, &lt;str2&gt;)                 //returns index, last index for whole &lt;str2&gt; in &lt;str1&gt;
+strings.LastIndexAny(&lt;str1&gt;, &lt;str2&gt;)            //returns index, last index for any character of &lt;str2&gt; in &lt;str1&gt;
+strings.ToUpper(&lt;str&gt;)                                    //returns new string with the effect
+strings.ToLower(&lt;str&gt;)                                    //returns new string with the effect
+strings.Title(&lt;str&gt;)                                            //space camel casing, returns new string with the effect
+strings.TrimSpaces(&lt;str&gt;)                                   --</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>returns new string (below all)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+strings.Trim(&lt;str&gt;,&lt;char_set&gt;)                      //Trim leading and trailing characters of &lt;char_set&gt;
+strings.TrimLeft(&lt;str&gt;,&lt;char_set&gt;)               //Trim leading characters of &lt;char_set&gt;
+strings.TrimRight(&lt;str&gt;,&lt;char_set&gt;)             //Trim trailing characters of &lt;char_set&gt;
+strings.TrimPrefix(&lt;str&gt;, &lt;pat1&gt;)
+strings.TrimSuffix(&lt;str&gt;, &lt;pat2&gt;)
+strings.Split(&lt;str&gt;, &lt;seperator_string&gt;)      //new arr/slice
+strings.SplitAfter(&lt;str&gt;, &lt;seperator_string&gt;)      //new arr/slice, this method do not remove the seperator, instead tears into list after the seperator.
+strings.Join(&lt;arr/slice&gt;, "&lt;joining_symbol&gt;")  //new string
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strconv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Itoa(-42)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strconv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.FormatInt(&lt;int&gt;, &lt;base&gt;)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strconv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.ParseFloat(&lt;variable&gt;, &lt;target float bits&gt;)</t>
+    </r>
+  </si>
+  <si>
+    <t>nil is the return value in case any inbuilt method that return error, returns no error. Error = nil in absence of error.</t>
+  </si>
+  <si>
+    <t>GOOS</t>
+  </si>
+  <si>
+    <t>GOOS="&lt;windows/linux/darvin&gt;" go build       //build go application for provided platform. By default it is the one on which you are building the app.</t>
   </si>
 </sst>
 </file>
@@ -13860,10 +13940,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8094B6-CB06-4E55-ACD8-76FB0FB9921F}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13893,7 +13973,7 @@
         <v>1317</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
@@ -13957,15 +14037,15 @@
         <v>784</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>1337</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>1338</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
@@ -13973,55 +14053,87 @@
         <v>1098</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>1341</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>1343</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>1344</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>1375</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>1376</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>1377</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>1379</v>
       </c>
-      <c r="B18" s="21" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>1381</v>
-      </c>
       <c r="B19" s="21" t="s">
-        <v>1397</v>
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="12" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>1411</v>
       </c>
     </row>
   </sheetData>
@@ -14907,10 +15019,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>1355</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>1356</v>
       </c>
       <c r="C57" s="3">
         <v>2</v>
@@ -15767,7 +15879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83DB964-4164-49D0-ADB4-4FC69C0AAC83}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -15803,28 +15915,28 @@
     </row>
     <row r="4" spans="1:2" ht="261" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
     </row>
   </sheetData>
@@ -16253,10 +16365,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>1345</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>1346</v>
       </c>
       <c r="C7" s="26">
         <v>2</v>
@@ -16264,10 +16376,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>1349</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>1350</v>
       </c>
       <c r="C8" s="26">
         <v>2</v>
@@ -16275,10 +16387,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>1351</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>1352</v>
       </c>
       <c r="C9" s="26">
         <v>2</v>
@@ -16286,10 +16398,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>1353</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>1354</v>
       </c>
       <c r="C10" s="26">
         <v>3</v>
@@ -17071,7 +17183,7 @@
         <v>439</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -17303,10 +17415,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>1357</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>1358</v>
       </c>
       <c r="C29" s="10">
         <v>2</v>
@@ -17432,7 +17544,7 @@
         <v>858</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
@@ -17440,7 +17552,7 @@
         <v>859</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
@@ -17448,7 +17560,7 @@
         <v>860</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
@@ -17456,7 +17568,7 @@
         <v>861</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
@@ -17481,18 +17593,18 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="19" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>1388</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>1389</v>
       </c>
       <c r="C56" s="10">
         <v>1</v>
@@ -17500,26 +17612,26 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="19" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>1390</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="19" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>1394</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>1395</v>
       </c>
       <c r="C59" s="10">
         <v>2</v>
@@ -17936,7 +18048,7 @@
         <v>1308</v>
       </c>
       <c r="B4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -18029,10 +18141,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B13" t="s">
         <v>1347</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1348</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -18338,10 +18450,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B45" t="s">
         <v>1373</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1374</v>
       </c>
       <c r="C45" s="10">
         <v>2</v>
@@ -18437,7 +18549,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="C54" s="10">
         <v>2</v>
@@ -18445,7 +18557,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C55" s="10">
         <v>2</v>
@@ -18453,7 +18565,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C56" s="10">
         <v>2</v>
@@ -18461,7 +18573,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="C57" s="10">
         <v>2</v>
@@ -18469,7 +18581,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="C58" s="10">
         <v>2</v>
@@ -18477,7 +18589,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="C59" s="10">
         <v>3</v>
@@ -18485,7 +18597,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="C60" s="10">
         <v>4</v>
@@ -18573,17 +18685,17 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
@@ -18593,12 +18705,12 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -18681,7 +18793,7 @@
         <v>1027</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="C101" s="10">
         <v>2</v>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3495C1C-0BE0-4980-8C40-8DE447FCCC13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9155F0FA-1659-4AB2-8C8C-262730AD6FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="6" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <sheet name="CP Errors and Constraints" sheetId="16" r:id="rId21"/>
     <sheet name="System Arch" sheetId="17" r:id="rId22"/>
     <sheet name="OOPS" sheetId="18" r:id="rId23"/>
-    <sheet name="Erlang Basics" sheetId="20" r:id="rId24"/>
+    <sheet name="GraphQL" sheetId="32" r:id="rId24"/>
     <sheet name="BlockChain" sheetId="22" r:id="rId25"/>
     <sheet name="ML" sheetId="23" r:id="rId26"/>
     <sheet name="Redis" sheetId="26" r:id="rId27"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="1412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="1360">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -3897,149 +3897,6 @@
     <t>Reverse a Linked List Data change</t>
   </si>
   <si>
-    <t>Erlang</t>
-  </si>
-  <si>
-    <t>General purpose, simple and dynamically typed with auto runtime grabage collection.
-Functional programming which is concurrency oriented.
-Provides feature of lightweight concurrency(run-mulltiple processes simultaneously)-&gt;fault tolerance
-Allows no shared data-scaling
-Immutability
-Fault isolation-&gt; localization of errors
-"Self-heal" meaning it provides with swappin of code in case of fault/crash helping in availability.
-No user-defined data-types (simplicity)
--&gt; Developed by ERRICSON for supporting constant uptime. (some processes enables to monitor running processes and bring them back up to help the system up end running.)</t>
-  </si>
-  <si>
-    <t>Syntax is similar to prolog</t>
-  </si>
-  <si>
-    <t>Variables are always initialized and immutable. Starts with Capital Alphabet</t>
-  </si>
-  <si>
-    <t>Funtions</t>
-  </si>
-  <si>
-    <t>b()</t>
-  </si>
-  <si>
-    <t>f()</t>
-  </si>
-  <si>
-    <t>show all variable bindings</t>
-  </si>
-  <si>
-    <t>forget all variable bindings</t>
-  </si>
-  <si>
-    <t>f(X)</t>
-  </si>
-  <si>
-    <t>forget "X" variable bindings</t>
-  </si>
-  <si>
-    <t>h()</t>
-  </si>
-  <si>
-    <t>h(mod)</t>
-  </si>
-  <si>
-    <t>h(func,mod)</t>
-  </si>
-  <si>
-    <t>ht()</t>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>help about "mod" module</t>
-  </si>
-  <si>
-    <t>help about "func" function in "mod" module</t>
-  </si>
-  <si>
-    <t>help about function with arity in module</t>
-  </si>
-  <si>
-    <t>h(func,Arity)</t>
-  </si>
-  <si>
-    <t>uptime()</t>
-  </si>
-  <si>
-    <t>regs()</t>
-  </si>
-  <si>
-    <t>nregs()</t>
-  </si>
-  <si>
-    <t>pwd()</t>
-  </si>
-  <si>
-    <t>ls()</t>
-  </si>
-  <si>
-    <t>ls(dir)</t>
-  </si>
-  <si>
-    <t>q()</t>
-  </si>
-  <si>
-    <t>i()</t>
-  </si>
-  <si>
-    <t>ni()</t>
-  </si>
-  <si>
-    <t>information about the networked system</t>
-  </si>
-  <si>
-    <t>system info.</t>
-  </si>
-  <si>
-    <t>quit. (after ^G)</t>
-  </si>
-  <si>
-    <t>change working directory</t>
-  </si>
-  <si>
-    <t>information abot registered processes</t>
-  </si>
-  <si>
-    <t>information about all registered processes</t>
-  </si>
-  <si>
-    <t>help().</t>
-  </si>
-  <si>
-    <t>Inline Functions</t>
-  </si>
-  <si>
-    <t>Var = fun_keyword(attributes) -&gt; &lt;whatever to return&gt; end.</t>
-  </si>
-  <si>
-    <t>Example:    sq = fun(X) -&gt; X*X end.                                            (returns square of X)</t>
-  </si>
-  <si>
-    <t>Sell Commands</t>
-  </si>
-  <si>
-    <t>^A</t>
-  </si>
-  <si>
-    <t>^E</t>
-  </si>
-  <si>
-    <t>^G and then h</t>
-  </si>
-  <si>
-    <t>Move to end of line</t>
-  </si>
-  <si>
-    <t>Move to start of the line</t>
-  </si>
-  <si>
     <t>Swap Pairs</t>
   </si>
   <si>
@@ -4079,496 +3936,7 @@
     <t>Mid, separate after mid, and reverse second half, Now mingle.</t>
   </si>
   <si>
-    <t>Comments begin with %</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - export([</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> function_name/number_of_arg</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, ])</t>
-    </r>
-  </si>
-  <si>
-    <t>This defines the abstraction for a module. Hides what is not needed to be used out by the developer and provides only those things that needs to be used out in the module</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - module(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>module_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>To which module does this file belong</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - import (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>module_name, [ function_name/number_of_args, ]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>From which module what functions are needed to be imported here in current file.</t>
-  </si>
-  <si>
-    <t>Arithmatic operators</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> + - / * div (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>integer_division</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) rem (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Logical</t>
-  </si>
-  <si>
-    <t>and or xor not</t>
-  </si>
-  <si>
-    <t>Comparison</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> =:= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">data and type equal
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">=/= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">data and type not equal
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>==</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> data equal
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/= </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">data not equal
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;, &lt;, =&lt;, &gt;=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (Please note the later 2)</t>
-    </r>
-  </si>
-  <si>
-    <t>Bitwise operator</t>
-  </si>
-  <si>
-    <t>band, bor, bxor, bnot</t>
-  </si>
-  <si>
     <t>Strings</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">standard output formatting:    io:fwrite( "String is ~p with ~p.",  [str1, str2]) (o/p: "String is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">str1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>str2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.") </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>output is in double quotes
-Assignment formatting :           Str3=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">io_lib:format( "String is ~s with ~s", [str1,str2] ),
-                                                       io.fwrite(Str3) (o/p: String is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Str1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Str2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.)                                                            </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">string stored is without double quotes
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Concatenation: string:concat(Str,Str2)
-Index:                  string:chr(Str, $</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>character to find</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)
-String index:       string:str(ParentString, SubString)
-Substring:           string:substr(SearchString, startIndex, characters)
-                             string:to_upper()
-                             string:to_lower()</t>
-    </r>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Defined in []
-[]++[] means concatenation of 2 lists
-[]--[] means intersection of 2 strings.
-NOTE: Multiple line function ends with , on each line except for the last, which ends with .
-hd(List_name) first element of the list
-tl(List_name) All elements except first
-ListVariable1 = [Element | ListVariable] This will add Element infront of ListVaiable and assign it to a ListVariable1
-List Comprehension is Forming list and list manipulation.
-L1 = [element || element &lt;- From_LIST, optional_condition_on each element of From_LIST]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>//This element can be a tuple/atom,number,bool.....anything which specifies an element of the list.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Our list is variable lenght list. Fixed length list is called tuple.</t>
-    </r>
-  </si>
-  <si>
-    <t>Built in type checking boolean functions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_atom(), 
-is_float(),
-is_integer()
-is_boolean(),
-is_list(),
-is_tuple(),
-</t>
-  </si>
-  <si>
-    <t>cd("_______")</t>
-  </si>
-  <si>
-    <t>Working dir.</t>
-  </si>
-  <si>
-    <t>Node Creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">go to Bin folder of Erlang and cmd&gt; werl -name &lt;node name@IP&gt; -setcookie &lt;cookieName&gt;
-net_adm:ping('&lt;othernodename on same ip&gt;').
-Pong-&gt;success
-erlang:set_cookie(node(),'newCookieName').
-node()//node name.
-nodes()//other connected nodes list
-rpc:call('nodeTowhichdata is send',&lt;targetNodeModule&gt;,&lt;ThatModule'sFunction&gt;,[args of function]).
-</t>
   </si>
   <si>
     <t>KMP Algorithm</t>
@@ -5358,9 +4726,6 @@
         ans=min(ans, f(n-(i*i)));
     }return dp[n]=ans;
 }</t>
-  </si>
-  <si>
-    <t>Minimum cost in maze</t>
   </si>
   <si>
     <t>Same as minimum cost in maze, except that we traverse from left to right</t>
@@ -8328,202 +7693,6 @@
     <t>GraphQL and Rest API</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">REST = Representational State Transfer. A convention about how communication should happen on HTTP. It provides guideline on handling HTTP request and responses. REST also hold concept of status code which shows response statuses:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1xx = Information request</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-100 Continue; 101 Switching protocol; 102 Processing
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2xx = Success</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-200 OK; 201 Created;202 Accepted; 203 Non-Authoritative Information;204 No content;
-205 Reset Content; 207-Multi-status; 206 Partial content;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3xx = Redirection</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-301: Permanent Redirect/no longer available; 302/307: Temporarily unavailable; 305 Use Proxy
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4xx = Client Error</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-400 Bad request; 401 Unauthorized; 402 Payment required; 403 Forbidden; 404 Not found
-405 Method not allowed
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>5xx = Server Error</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-500 Internal Server Error; 501 Not implemented; 502 Bad gateway; 503 Service Unavailable
-504 Gateway timeout; 505 HTTP version not supported; 508 Bandwidth limit crossed
-507 Insufficient storage
-GraphQL is an open-source data query and manipulation language for APIs, and a runtime for fulfilling queries with existing data. GraphQL is a query language and server-side runtime for application programming interfaces (APIs) that prioritizes giving clients exactly the data they request and no more. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>As an alternative to REST, GraphQL lets developers construct requests that pull data from multiple data sources in a single API call. 
-A GraphQL schema is made up of object types, which define which kind of object you can request and what fields it has. As queries come in, GraphQL validates the queries against the schema. GraphQL then executes the validated queries.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Advantages of GraphQL: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">GraphQL calls are handled in a single round trip. Clients get what they request with no overfetching.
-Strongly defined data types reduce miscommunication between the client and the server. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Distadvantages of GraphQL:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GraphQL shifts much of the work of a data query to the server side, which adds complexity for server developers.
-Caching is more complex than with REST.</t>
-    </r>
-  </si>
-  <si>
     <t>Trapping rain water, O(1) space</t>
   </si>
   <si>
@@ -10102,41 +9271,6 @@
     <t>Set bits==1 OR if number&amp;(number-1)==0 then power of 2 else not. Number-1 will have all set bits till MSB.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Print("&lt;str&gt;", "&lt;var&gt;"…..)                 //o/p stream stays on same line
-Println("&lt;str&gt;", "&lt;var&gt;"…..)
-Printf( &lt;str with format specifiers&gt;, &lt;var1&gt;, &lt;var2&gt;…..  )                                                  //formatting string
-Format Specifiers: %v    -&gt;    variable value (%t bool, %d uint,int, %p pointer, %s string, %x %o %b base 8-16-2)
-                                  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>%+-&lt;number&gt;v     -&gt; used to print variable utilizing only &lt;number&gt; units of space added to left if positive else to right if negative.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                                  %q    -&gt;    quoted variable value if variable is a string
-                                  %T    -&gt;    type of coresponding variable
-                                  %9.2f    -&gt;   width 9, precision 2
-var x string = Sprintf(&lt;like Printf&gt;)      returns the whole output as a string
-var x string = Sprintln(&lt;string with var seperated by ,&gt;)</t>
-    </r>
-  </si>
-  <si>
     <t>Properties</t>
   </si>
   <si>
@@ -10360,39 +9494,6 @@
   </si>
   <si>
     <t>User input (from stdin)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">reader := bufio.NewReader(os.Stdin)
-&lt;variable name&gt;, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>status*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = reader.ReadString('&lt;delimitin agent,till when/what char input should be considered&gt;')
-Or create separate input taking function as:
-func getInput(prompt string, r *bufio.Readedr) (string, error) { 
-    fmt.Print(promt);
-    input, err := r.ReadString('&lt;delimiter agent that breaks input stream&gt;')
-    return strings.TrimSpace(input),err
-}</t>
-    </r>
   </si>
   <si>
     <t>Switch statement</t>
@@ -10578,6 +9679,432 @@
   </si>
   <si>
     <t>GOOS="&lt;windows/linux/darvin&gt;" go build       //build go application for provided platform. By default it is the one on which you are building the app.</t>
+  </si>
+  <si>
+    <t>go env</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">reader := bufio.NewReader(os.Stdin)
+&lt;variable name&gt;, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>status*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = reader.ReadString('&lt;delimitin agent,till when/what char input should be considered&gt;')
+fmt.Scanf("&lt;format specifier&gt;",&lt;input_var&gt;)      //for non-strings
+Or create separate input taking function as:
+func getInput(prompt string, r *bufio.Readedr) (string, error) { 
+    fmt.Print(promt);
+    input, err := r.ReadString('&lt;delimiter agent that breaks input stream&gt;')
+    return strings.TrimSpace(input),err
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">REST = Representational State Transfer. A convention about how communication should happen on HTTP. It provides guideline on handling HTTP request and responses. REST also hold concept of status code which shows response statuses:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1xx = Information request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+100 Continue; 101 Switching protocol; 102 Processing
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2xx = Success</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+200 OK; 201 Created;202 Accepted; 203 Non-Authoritative Information;204 No content;
+205 Reset Content; 207-Multi-status; 206 Partial content;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3xx = Redirection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+301: Permanent Redirect/no longer available; 302/307: Temporarily unavailable; 305 Use Proxy
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4xx = Client Error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+400 Bad request; 401 Unauthorized; 402 Payment required; 403 Forbidden; 404 Not found
+405 Method not allowed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5xx = Server Error</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+500 Internal Server Error; 501 Not implemented; 502 Bad gateway; 503 Service Unavailable
+504 Gateway timeout; 505 HTTP version not supported; 508 Bandwidth limit crossed
+507 Insufficient storage
+GraphQL is an open-source data query and manipulation language for APIs, and a runtime for fulfilling queries with existing data. GraphQL is a query language and server-side runtime for application programming interfaces (APIs) that prioritizes giving clients exactly the data they request and no more. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>As an alternative to REST, GraphQL lets developers construct requests that pull data from multiple data sources in a single API call. 
+A GraphQL schema is made up of object types, which define which kind of object you can request and what fields it has. As queries come in, GraphQL validates the queries against the schema. GraphQL then executes the validated queries.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Advantages of GraphQL: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">GraphQL calls are handled in a single round trip. Clients get what they request with no overfetching.
+Strongly defined data types reduce miscommunication between the client and the server. 
+Helps reduce connection complexity by providing on one endpoint to handle requests. In case of REST as our demands grow our request types increases thereby increasing number of end-points.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Distadvantages of GraphQL:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GraphQL shifts much of the work of a data query to the server side, which adds complexity for server developers.
+Caching is more complex than with REST.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Print("&lt;str&gt;", "&lt;var&gt;"…..)                 //o/p stream stays on same line
+Println("&lt;str&gt;", "&lt;var&gt;"…..)
+Printf( &lt;str with format specifiers&gt;, &lt;var1&gt;, &lt;var2&gt;…..  )                                                  //formatting string
+Format Specifiers: %v    -&gt;    variable value (%t bool, %d uint,int, %p pointer, %s string, %x %o %b base 8-16-2)
+                                  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%+-&lt;number&gt;v     -&gt; used to print variable utilizing only &lt;number&gt; units of space added to left if positive else to right if negative.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                                  %q    -&gt;    quoted variable value if variable is a string
+                                  %T    -&gt;    type of coresponding variable
+                                  %9.2f    -&gt;   width 9, precision 2
+var x string = Sprintf(&lt;like Printf&gt;)      returns the whole output as a string
+var x string = Sprintln(&lt;string with var seperated by ,&gt;)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Formate Specifiers
+Integer: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">%b, %d, %o, %x, %X
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Float: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">%e, %E, %x, %X, %f, %g
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">String: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">%q, %s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Boolean: %t
+Pointer: %p</t>
+    </r>
+  </si>
+  <si>
+    <t>Search in a row-wise and column wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Start from mat[0][m-1].</t>
+  </si>
+  <si>
+    <t>Count rank of an element in a row-wise and column-wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Similar approach. Here we need to count number of element less than or equal to given element.</t>
+  </si>
+  <si>
+    <t>Search in a strictly sorted matrix. Last element of i-1 row is smaller than first element of ith row.</t>
+  </si>
+  <si>
+    <t>This Keyword in Javascript</t>
+  </si>
+  <si>
+    <t>Arrow functions make use of lexical this from parent.
+Normal functions can make use of this which points to window object (if function inside function..) or object pointing this if function is inside object.
+This points to current object inside an object. If this is inside a function(arrow) it will take the this from its parent. but if the this keyword inside an object is used in a function inside a function, then it will happen to point windows object. 
+Inside an event listener, this will point to the  element that recieved the event.</t>
+  </si>
+  <si>
+    <t>NodeJS REPL</t>
+  </si>
+  <si>
+    <t>Read Evaluate Print Loop, is a programming language environment (basically a console window) that takes single expression as user input and returns the result back to the console after execution. The REPL session provides a convenient way to quickly test simple JavaScript code.</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>Minimum/Maximum cost in maze</t>
+  </si>
+  <si>
+    <t>Frog Jump</t>
+  </si>
+  <si>
+    <t>Same scenario as previous question but we need to output just number of ways.</t>
+  </si>
+  <si>
+    <t>Frog jump (number of ways)</t>
+  </si>
+  <si>
+    <r>
+      <t>Given that we need to reach end of array represent block heights and we are at first block. The energy spent to move from ith block to jth block is | (arr[i]-arr[j]) |. Find minimum energy to spend to move from 1 to nth block provided we can take jump of 1 or 2 lengths. (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>You can also solve if instead of 1 and 2 let us say at max k length of jumps are allowed at a time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Ninja training</t>
+  </si>
+  <si>
+    <t>Gieven that a ninja can do 1 of 3 activities each day (fight,run,defense), and given a 3*n arrays representing earning points for ith activity on jth day. Ninja cannot take same activity on 2 consecutive days. Find maximum earning points he can earn at the end of n days.</t>
   </si>
 </sst>
 </file>
@@ -10701,7 +10228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -10739,18 +10266,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -10781,6 +10298,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11166,55 +10686,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1352550</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>78763</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5D5068-C960-4251-9921-33804FEF7AC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1352550" y="7188200"/>
-          <a:ext cx="3530600" cy="1177313"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>63501</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -11260,7 +10731,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -12590,65 +12061,65 @@
   <cols>
     <col min="1" max="1" width="61.08984375" customWidth="1"/>
     <col min="2" max="2" width="87.08984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="20"/>
+    <col min="3" max="3" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>917</v>
+        <v>848</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>918</v>
+        <v>849</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>919</v>
+        <v>850</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>920</v>
+        <v>851</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>921</v>
+        <v>852</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>922</v>
+        <v>853</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>923</v>
+        <v>854</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>924</v>
+        <v>855</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>925</v>
+        <v>856</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>926</v>
+        <v>857</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>927</v>
+        <v>858</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>965</v>
+        <v>896</v>
       </c>
       <c r="B12" s="1"/>
     </row>
@@ -12660,83 +12131,83 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>929</v>
-      </c>
-      <c r="C14" s="20">
+        <v>860</v>
+      </c>
+      <c r="C14" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>928</v>
-      </c>
-      <c r="C15" s="20">
+        <v>859</v>
+      </c>
+      <c r="C15" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>930</v>
-      </c>
-      <c r="C16" s="20">
+        <v>861</v>
+      </c>
+      <c r="C16" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>931</v>
+        <v>862</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>932</v>
+        <v>863</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>933</v>
+        <v>864</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>934</v>
+        <v>865</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>960</v>
+        <v>891</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>961</v>
+        <v>892</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>963</v>
-      </c>
-      <c r="C22" s="20">
+        <v>894</v>
+      </c>
+      <c r="C22" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>962</v>
+        <v>893</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>964</v>
-      </c>
-      <c r="C23" s="20">
+        <v>895</v>
+      </c>
+      <c r="C23" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>966</v>
+        <v>897</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>967</v>
+        <v>898</v>
       </c>
     </row>
   </sheetData>
@@ -13055,80 +12526,80 @@
   <cols>
     <col min="1" max="1" width="54.81640625" customWidth="1"/>
     <col min="2" max="2" width="87" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="20"/>
+    <col min="3" max="3" width="8.7265625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>830</v>
+        <v>761</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>831</v>
+        <v>762</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>832</v>
+        <v>763</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>833</v>
+        <v>764</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>834</v>
+        <v>765</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>835</v>
+        <v>766</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>836</v>
+        <v>767</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>837</v>
+        <v>768</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>838</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>839</v>
+        <v>770</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>840</v>
+        <v>771</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>841</v>
+        <v>772</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>842</v>
-      </c>
-      <c r="C13" s="20">
+        <v>773</v>
+      </c>
+      <c r="C13" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>843</v>
+        <v>774</v>
       </c>
     </row>
   </sheetData>
@@ -13251,7 +12722,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>844</v>
+        <v>775</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -13259,10 +12730,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>845</v>
+        <v>776</v>
       </c>
       <c r="B11" t="s">
-        <v>846</v>
+        <v>777</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -13270,7 +12741,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>847</v>
+        <v>778</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -13278,10 +12749,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>848</v>
+        <v>779</v>
       </c>
       <c r="B13" t="s">
-        <v>849</v>
+        <v>780</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -13302,7 +12773,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.90625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="34.90625" style="13" customWidth="1"/>
     <col min="2" max="2" width="46" style="3" customWidth="1"/>
     <col min="3" max="3" width="71.7265625" style="3" customWidth="1"/>
     <col min="4" max="4" width="54.1796875" style="3" customWidth="1"/>
@@ -13311,11 +12782,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>289</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1283</v>
+        <v>1213</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>260</v>
@@ -13325,42 +12796,42 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>1255</v>
+      <c r="A2" s="19" t="s">
+        <v>1185</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1256</v>
+        <v>1186</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1282</v>
+        <v>1212</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1257</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
-        <v>1264</v>
+      <c r="A3" s="13" t="s">
+        <v>1194</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1266</v>
+        <v>1196</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1265</v>
+        <v>1195</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1280</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
-        <v>1281</v>
+      <c r="A4" s="13" t="s">
+        <v>1211</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1284</v>
+        <v>1214</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1257</v>
+        <v>1187</v>
       </c>
     </row>
   </sheetData>
@@ -13371,10 +12842,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4140E-759C-470A-8A2C-5710FE199FCD}">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13385,551 +12856,567 @@
   <sheetData>
     <row r="1" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1071</v>
+        <v>1001</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1076</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1072</v>
+        <v>1002</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1073</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1074</v>
+        <v>1004</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1075</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1077</v>
+        <v>1007</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1078</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1079</v>
+        <v>1009</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1080</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1081</v>
+        <v>1011</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1084</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>1082</v>
+        <v>1012</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1083</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>1085</v>
+        <v>1015</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1086</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>1087</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>1088</v>
+        <v>1018</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1089</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>1090</v>
+        <v>1020</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1091</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>1092</v>
+        <v>1022</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1093</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>1094</v>
+        <v>1024</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1095</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>1096</v>
+        <v>1026</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1097</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>1098</v>
+        <v>1028</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1099</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>1100</v>
+        <v>1030</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1101</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>784</v>
+        <v>724</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1104</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>1102</v>
+        <v>1032</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1103</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>1105</v>
+        <v>1035</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1106</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>1107</v>
+        <v>1037</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1110</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>1108</v>
+        <v>1038</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1109</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>1111</v>
+        <v>1041</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1185</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>1112</v>
+        <v>1042</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1113</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>1132</v>
+        <v>1062</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1137</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>1133</v>
+        <v>1063</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1136</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>1134</v>
+        <v>1064</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1135</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>1138</v>
+        <v>1068</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1140</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>1139</v>
+        <v>1069</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1143</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>1141</v>
+        <v>1071</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1142</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>1144</v>
+        <v>1074</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1149</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>1145</v>
+        <v>1075</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1146</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>1147</v>
+        <v>1077</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1148</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>1150</v>
+        <v>1080</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1151</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>1152</v>
+        <v>1082</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1153</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>1154</v>
+        <v>1084</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1155</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>1184</v>
+        <v>1114</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1186</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>1187</v>
+        <v>1117</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1188</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>1189</v>
+        <v>1119</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1190</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>1200</v>
+        <v>1130</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1202</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>1201</v>
+        <v>1131</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1203</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>1204</v>
+        <v>1134</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1205</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>1206</v>
+        <v>1136</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1207</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>1208</v>
+        <v>1138</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1210</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>1209</v>
+        <v>1139</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1211</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>1212</v>
+        <v>1142</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1213</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>1214</v>
+        <v>1144</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1225</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>1222</v>
+        <v>1152</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1223</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>1224</v>
+        <v>1154</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1226</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="348" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>1227</v>
+        <v>1157</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1228</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>1246</v>
+        <v>1176</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1249</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>1247</v>
+        <v>1177</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1248</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>1250</v>
+        <v>1180</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1251</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>1252</v>
+        <v>1182</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1253</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="362.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>1270</v>
+        <v>1200</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1271</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>1272</v>
+        <v>1202</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1273</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>1274</v>
+        <v>1204</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1279</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>1275</v>
+        <v>1205</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1276</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>1277</v>
+        <v>1207</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1278</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>1295</v>
+        <v>1224</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1296</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>1297</v>
+        <v>1226</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1322</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>1298</v>
+        <v>1227</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1299</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>1300</v>
+        <v>1229</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1301</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>1318</v>
+        <v>1247</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1319</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>1320</v>
+        <v>1249</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1321</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>1323</v>
+        <v>1252</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1324</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="348" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>1325</v>
+        <v>1254</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1326</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>1327</v>
+        <v>1256</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1328</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>1329</v>
+        <v>1258</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1330</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>1331</v>
+        <v>1260</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1332</v>
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1351</v>
       </c>
     </row>
   </sheetData>
@@ -13940,200 +13427,205 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8094B6-CB06-4E55-ACD8-76FB0FB9921F}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="60.36328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="124.54296875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="124.54296875" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1192</v>
+        <v>1121</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+        <v>1243</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>1396</v>
+        <v>1246</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1342</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1193</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>1312</v>
+        <v>1123</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1194</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>1316</v>
+        <v>1124</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>1245</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1195</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>1313</v>
+        <v>1125</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
+        <v>1126</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+        <v>1128</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>1335</v>
+        <v>1262</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>1264</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>1336</v>
+        <v>1129</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>1265</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>1408</v>
+        <v>724</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>1335</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>1337</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>1338</v>
+        <v>1266</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>1267</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>1339</v>
+        <v>1028</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>1340</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>1341</v>
+        <v>1269</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>1342</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>1343</v>
+        <v>1271</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>1272</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>1374</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>1375</v>
+        <v>1303</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>1304</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>1376</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>1377</v>
+        <v>1305</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>1306</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>1378</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>1379</v>
+        <v>1307</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>1308</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+        <v>1309</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>1405</v>
+        <v>1332</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>1340</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>1407</v>
+        <v>1333</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>1334</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
-        <v>867</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>1409</v>
+        <v>798</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>1336</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>1411</v>
+        <v>1337</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>1339</v>
       </c>
     </row>
   </sheetData>
@@ -14537,16 +14029,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="82.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="72.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="100.1796875" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
@@ -14889,7 +14381,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>1216</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -15019,13 +14511,40 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>1354</v>
+        <v>1283</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>1355</v>
+        <v>1284</v>
       </c>
       <c r="C57" s="3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C59" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>1347</v>
       </c>
     </row>
   </sheetData>
@@ -15038,14 +14557,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="54.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="82.1796875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="82.1796875" style="17" customWidth="1"/>
     <col min="3" max="3" width="78.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15053,7 +14572,7 @@
       <c r="A1" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>161</v>
       </c>
     </row>
@@ -15061,8 +14580,8 @@
       <c r="A2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>1289</v>
+      <c r="B2" s="17" t="s">
+        <v>1219</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -15072,7 +14591,7 @@
       <c r="A3" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>164</v>
       </c>
     </row>
@@ -15100,7 +14619,7 @@
       <c r="A8" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="17" t="s">
         <v>371</v>
       </c>
     </row>
@@ -15108,7 +14627,7 @@
       <c r="A9" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="17" t="s">
         <v>373</v>
       </c>
     </row>
@@ -15116,7 +14635,7 @@
       <c r="A10" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="17" t="s">
         <v>375</v>
       </c>
     </row>
@@ -15124,7 +14643,7 @@
       <c r="A11" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>470</v>
       </c>
     </row>
@@ -15132,7 +14651,7 @@
       <c r="A12" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="17" t="s">
         <v>685</v>
       </c>
     </row>
@@ -15150,72 +14669,72 @@
       <c r="A15" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="17" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>760</v>
+        <v>714</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>762</v>
+        <v>716</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>763</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>764</v>
+        <v>718</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="232" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>990</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>992</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>991</v>
+        <v>920</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>922</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>993</v>
+        <v>923</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>1044</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>1045</v>
+        <v>974</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>1064</v>
+        <v>976</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B46" s="21" t="s">
-        <v>1291</v>
+        <v>1220</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>1341</v>
       </c>
     </row>
   </sheetData>
@@ -15565,313 +15084,18 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795963BA-6859-4123-9D30-33303FC34949}">
-  <dimension ref="A1:B51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A85D3F-F869-4B5F-A387-8239AEF1D4FC}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B50" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="69.81640625" customWidth="1"/>
-    <col min="2" max="2" width="104.6328125" customWidth="1"/>
+    <col min="1" max="1" width="69.7265625" customWidth="1"/>
+    <col min="2" max="2" width="113.54296875" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="145" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>711</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
-        <v>715</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>716</v>
-      </c>
-      <c r="B5" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>717</v>
-      </c>
-      <c r="B6" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>720</v>
-      </c>
-      <c r="B7" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>722</v>
-      </c>
-      <c r="B8" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>723</v>
-      </c>
-      <c r="B9" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>724</v>
-      </c>
-      <c r="B10" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>730</v>
-      </c>
-      <c r="B11" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>732</v>
-      </c>
-      <c r="B14" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>733</v>
-      </c>
-      <c r="B15" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>790</v>
-      </c>
-      <c r="B16" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>734</v>
-      </c>
-      <c r="B17" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>737</v>
-      </c>
-      <c r="B20" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>738</v>
-      </c>
-      <c r="B21" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>739</v>
-      </c>
-      <c r="B22" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="15" t="s">
-        <v>747</v>
-      </c>
-      <c r="B25" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>751</v>
-      </c>
-      <c r="B29" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>752</v>
-      </c>
-      <c r="B30" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>770</v>
-      </c>
-      <c r="B41" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>772</v>
-      </c>
-      <c r="B42" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>774</v>
-      </c>
-      <c r="B43" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>776</v>
-      </c>
-      <c r="B44" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>778</v>
-      </c>
-      <c r="B45" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>780</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>782</v>
-      </c>
-      <c r="B47" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="116" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>793</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15891,52 +15115,52 @@
   <sheetData>
     <row r="1" spans="1:2" ht="174" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>800</v>
+        <v>730</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>801</v>
+        <v>732</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>802</v>
+        <v>733</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>803</v>
+        <v>734</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>804</v>
+        <v>735</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="261" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1397</v>
+        <v>1325</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1398</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1399</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1400</v>
+        <v>1328</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1401</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>1402</v>
+        <v>1330</v>
       </c>
     </row>
   </sheetData>
@@ -15961,50 +15185,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>814</v>
+        <v>745</v>
       </c>
       <c r="B1" t="s">
-        <v>815</v>
+        <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>816</v>
+        <v>747</v>
       </c>
       <c r="B2" t="s">
-        <v>824</v>
+        <v>755</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>821</v>
+        <v>752</v>
       </c>
       <c r="B3" t="s">
-        <v>822</v>
+        <v>753</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>823</v>
+        <v>754</v>
       </c>
       <c r="B4" t="s">
-        <v>825</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>826</v>
+        <v>757</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>827</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>829</v>
+        <v>760</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>828</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -16028,15 +15252,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1011</v>
+        <v>941</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1024</v>
+        <v>954</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1012</v>
+        <v>942</v>
       </c>
       <c r="B2" s="1">
         <v>6379</v>
@@ -16044,66 +15268,66 @@
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1013</v>
+        <v>943</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1014</v>
+        <v>944</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1016</v>
+        <v>946</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1018</v>
+        <v>948</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="290" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>1015</v>
+        <v>945</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1017</v>
+        <v>947</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="319" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
-        <v>1015</v>
+        <v>945</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1022</v>
+        <v>952</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>1015</v>
+        <v>945</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1020</v>
+        <v>950</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="290" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>1015</v>
+        <v>945</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1021</v>
+        <v>951</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>1015</v>
+        <v>945</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1023</v>
+        <v>953</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>1015</v>
+        <v>945</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1019</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>
@@ -16129,97 +15353,97 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>1156</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1157</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1158</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1159</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1160</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>1161</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>1162</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>1163</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>1164</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1165</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>1166</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>1167</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1168</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1169</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1170</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>1171</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>1172</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>1173</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>1174</v>
+        <v>1104</v>
       </c>
     </row>
   </sheetData>
@@ -16239,47 +15463,47 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="61.26953125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="95.90625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="95.90625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1182</v>
+        <v>1105</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B2" s="25">
+        <v>1106</v>
+      </c>
+      <c r="B2" s="21">
         <v>1979</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>1183</v>
+        <v>1107</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>1180</v>
+        <v>1108</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>1181</v>
+        <v>1109</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>1111</v>
       </c>
     </row>
   </sheetData>
@@ -16299,111 +15523,111 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="66.1796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="82.26953125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="26"/>
+    <col min="2" max="2" width="82.26953125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>794</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>795</v>
-      </c>
-      <c r="C1" s="26">
+        <v>725</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>726</v>
+      </c>
+      <c r="C1" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>796</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>797</v>
-      </c>
-      <c r="C2" s="26">
+        <v>727</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>728</v>
+      </c>
+      <c r="C2" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="C3" s="26">
+        <v>729</v>
+      </c>
+      <c r="C3" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C4" s="26">
+        <v>1147</v>
+      </c>
+      <c r="C4" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1218</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C5" s="26">
+        <v>1148</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C5" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C6" s="26">
+        <v>1150</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C6" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C7" s="26">
+        <v>1273</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C7" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C8" s="26">
+        <v>1277</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C8" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C9" s="26">
+        <v>1279</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C9" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C10" s="26">
+        <v>1281</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C10" s="22">
         <v>3</v>
       </c>
     </row>
@@ -16423,13 +15647,13 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="61.08984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="95.81640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="95.81640625" style="17" customWidth="1"/>
     <col min="3" max="3" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>1047</v>
+        <v>977</v>
       </c>
       <c r="C1" s="10">
         <v>1</v>
@@ -16437,7 +15661,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>1048</v>
+        <v>978</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -16445,10 +15669,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>1066</v>
+        <v>979</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>996</v>
       </c>
       <c r="C3" s="10">
         <v>2</v>
@@ -16456,10 +15680,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>1065</v>
+        <v>982</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>995</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -16467,10 +15691,10 @@
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>1067</v>
+        <v>980</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>997</v>
       </c>
       <c r="C5" s="10">
         <v>2</v>
@@ -16478,10 +15702,10 @@
     </row>
     <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>1068</v>
+        <v>981</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>998</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
@@ -16489,15 +15713,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>1054</v>
+        <v>984</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>1069</v>
+        <v>983</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>999</v>
       </c>
       <c r="C8" s="10">
         <v>2</v>
@@ -16505,60 +15729,60 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>1055</v>
+        <v>985</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>1056</v>
+        <v>986</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>1057</v>
+        <v>987</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>1058</v>
+        <v>988</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>1059</v>
+        <v>989</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>1060</v>
+        <v>990</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>1061</v>
+        <v>991</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>1062</v>
+        <v>992</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>1063</v>
+        <v>993</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>1070</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>1115</v>
+        <v>1044</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>1045</v>
       </c>
       <c r="C19" s="10">
         <v>3</v>
@@ -16566,7 +15790,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>1116</v>
+        <v>1046</v>
       </c>
       <c r="C20" s="10">
         <v>3</v>
@@ -16574,10 +15798,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>1268</v>
+        <v>1047</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>1198</v>
       </c>
       <c r="C21" s="10">
         <v>3</v>
@@ -16585,10 +15809,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>1310</v>
+        <v>1048</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>1239</v>
       </c>
       <c r="C22" s="10">
         <v>2</v>
@@ -16596,7 +15820,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>1119</v>
+        <v>1049</v>
       </c>
       <c r="C23" s="10">
         <v>2</v>
@@ -16604,7 +15828,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>1120</v>
+        <v>1050</v>
       </c>
       <c r="C24" s="10">
         <v>2</v>
@@ -16612,10 +15836,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>1122</v>
+        <v>1051</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>1052</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
@@ -16623,10 +15847,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>1124</v>
+        <v>1053</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>1054</v>
       </c>
       <c r="C26" s="10">
         <v>2</v>
@@ -16634,10 +15858,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>1126</v>
+        <v>1055</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>1056</v>
       </c>
       <c r="C27" s="10">
         <v>2</v>
@@ -16645,10 +15869,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>1128</v>
+        <v>1057</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>1058</v>
       </c>
       <c r="C28" s="10">
         <v>2</v>
@@ -16664,7 +15888,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>1292</v>
+        <v>1221</v>
       </c>
       <c r="C30" s="10">
         <v>3</v>
@@ -16672,10 +15896,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>1130</v>
+        <v>1059</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>1060</v>
       </c>
       <c r="C31" s="10">
         <v>3</v>
@@ -16683,15 +15907,15 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>1131</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>1254</v>
+        <v>1159</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>1184</v>
       </c>
       <c r="C33" s="10">
         <v>2</v>
@@ -16699,10 +15923,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>1267</v>
+        <v>1160</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>1197</v>
       </c>
       <c r="C34" s="10">
         <v>3</v>
@@ -16710,10 +15934,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>1231</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>1294</v>
+        <v>1161</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>1223</v>
       </c>
       <c r="C35" s="10">
         <v>3</v>
@@ -16721,10 +15945,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>1232</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>1241</v>
+        <v>1162</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>1171</v>
       </c>
       <c r="C36" s="10">
         <v>3</v>
@@ -16732,10 +15956,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>1233</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>1269</v>
+        <v>1163</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>1199</v>
       </c>
       <c r="C37" s="10">
         <v>2</v>
@@ -16743,10 +15967,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>1309</v>
+        <v>1164</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>1238</v>
       </c>
       <c r="C38" s="10">
         <v>2</v>
@@ -16754,15 +15978,15 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>1235</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>1236</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>1293</v>
+        <v>1166</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>1222</v>
       </c>
       <c r="C40" s="10">
         <v>3</v>
@@ -16770,15 +15994,15 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>1237</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>1243</v>
+        <v>1168</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>1173</v>
       </c>
       <c r="C42" s="10">
         <v>2</v>
@@ -16786,10 +16010,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>1242</v>
+        <v>1169</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>1172</v>
       </c>
       <c r="C43" s="10">
         <v>1</v>
@@ -16797,10 +16021,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>1244</v>
+        <v>1240</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>1174</v>
       </c>
       <c r="C44" s="10">
         <v>2</v>
@@ -16808,10 +16032,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>1240</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>1245</v>
+        <v>1170</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>1175</v>
       </c>
       <c r="C45" s="10">
         <v>2</v>
@@ -16937,7 +16161,7 @@
         <v>705</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>807</v>
+        <v>738</v>
       </c>
       <c r="C12" s="10">
         <v>2</v>
@@ -16948,7 +16172,7 @@
         <v>706</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>808</v>
+        <v>739</v>
       </c>
       <c r="C13" s="10">
         <v>3</v>
@@ -16967,7 +16191,7 @@
         <v>708</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>806</v>
+        <v>737</v>
       </c>
       <c r="C15" s="10">
         <v>2</v>
@@ -16991,7 +16215,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>756</v>
+        <v>711</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -16999,7 +16223,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>757</v>
+        <v>712</v>
       </c>
       <c r="C19" s="10">
         <v>2</v>
@@ -17007,10 +16231,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>758</v>
+        <v>713</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>1215</v>
+        <v>1145</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
@@ -17018,10 +16242,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>805</v>
+        <v>736</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>768</v>
+        <v>723</v>
       </c>
       <c r="C21" s="10">
         <v>3</v>
@@ -17029,10 +16253,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>765</v>
+        <v>720</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>809</v>
+        <v>740</v>
       </c>
       <c r="C22" s="10">
         <v>3</v>
@@ -17040,7 +16264,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>766</v>
+        <v>721</v>
       </c>
       <c r="C23" s="10">
         <v>2</v>
@@ -17048,7 +16272,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>767</v>
+        <v>722</v>
       </c>
       <c r="C24" s="10">
         <v>2</v>
@@ -17056,7 +16280,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>810</v>
+        <v>741</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
@@ -17064,7 +16288,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>811</v>
+        <v>742</v>
       </c>
       <c r="C26" s="10">
         <v>3</v>
@@ -17072,7 +16296,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>812</v>
+        <v>743</v>
       </c>
       <c r="C27" s="10">
         <v>3</v>
@@ -17080,7 +16304,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>813</v>
+        <v>744</v>
       </c>
       <c r="C28" s="10">
         <v>1</v>
@@ -17088,7 +16312,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>817</v>
+        <v>748</v>
       </c>
       <c r="C29" s="10">
         <v>3</v>
@@ -17096,17 +16320,17 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>818</v>
+        <v>749</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>820</v>
+        <v>751</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>819</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -17183,7 +16407,7 @@
         <v>439</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>1395</v>
+        <v>1324</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -17205,7 +16429,7 @@
         <v>441</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>873</v>
+        <v>804</v>
       </c>
       <c r="C8" s="10">
         <v>3</v>
@@ -17319,7 +16543,7 @@
         <v>595</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>878</v>
+        <v>809</v>
       </c>
       <c r="C20" s="10">
         <v>3</v>
@@ -17338,10 +16562,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="11" t="s">
-        <v>870</v>
+        <v>801</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>871</v>
+        <v>802</v>
       </c>
       <c r="C22" s="10">
         <v>2</v>
@@ -17349,10 +16573,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
-        <v>882</v>
+        <v>813</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>883</v>
+        <v>814</v>
       </c>
       <c r="C23" s="10">
         <v>3</v>
@@ -17360,10 +16584,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
-        <v>884</v>
+        <v>815</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>885</v>
+        <v>816</v>
       </c>
       <c r="C24" s="10">
         <v>3</v>
@@ -17371,10 +16595,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
-        <v>886</v>
+        <v>817</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>887</v>
+        <v>818</v>
       </c>
       <c r="C25" s="10">
         <v>3</v>
@@ -17382,10 +16606,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>894</v>
+        <v>825</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>895</v>
+        <v>826</v>
       </c>
       <c r="C26" s="10">
         <v>1</v>
@@ -17393,10 +16617,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>896</v>
+        <v>827</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>897</v>
+        <v>828</v>
       </c>
       <c r="C27" s="10">
         <v>2</v>
@@ -17404,10 +16628,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>900</v>
+        <v>831</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>901</v>
+        <v>832</v>
       </c>
       <c r="C28" s="10">
         <v>2</v>
@@ -17415,10 +16639,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
-        <v>1356</v>
+        <v>1285</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1357</v>
+        <v>1286</v>
       </c>
       <c r="C29" s="10">
         <v>2</v>
@@ -17463,7 +16687,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>872</v>
+        <v>803</v>
       </c>
       <c r="C36" s="10">
         <v>3</v>
@@ -17471,10 +16695,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>874</v>
+        <v>805</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>875</v>
+        <v>806</v>
       </c>
       <c r="C37" s="10">
         <v>3</v>
@@ -17482,10 +16706,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="11" t="s">
-        <v>876</v>
+        <v>807</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>877</v>
+        <v>808</v>
       </c>
       <c r="C38" s="10">
         <v>3</v>
@@ -17493,10 +16717,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>898</v>
+        <v>829</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>899</v>
+        <v>830</v>
       </c>
       <c r="C39" s="10">
         <v>3</v>
@@ -17504,15 +16728,15 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>850</v>
+        <v>781</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>851</v>
+        <v>782</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>852</v>
+        <v>783</v>
       </c>
       <c r="C43" s="10">
         <v>1</v>
@@ -17520,118 +16744,118 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>853</v>
+        <v>784</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>854</v>
+        <v>785</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>857</v>
+        <v>788</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>855</v>
+        <v>786</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>856</v>
+        <v>787</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="19" t="s">
-        <v>858</v>
+      <c r="A47" s="15" t="s">
+        <v>789</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1382</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="19" t="s">
-        <v>859</v>
+      <c r="A48" s="15" t="s">
+        <v>790</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1381</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="19" t="s">
-        <v>860</v>
+      <c r="A49" s="15" t="s">
+        <v>791</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1383</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="19" t="s">
-        <v>861</v>
+      <c r="A50" s="15" t="s">
+        <v>792</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>1384</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>862</v>
+        <v>793</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="19" t="s">
-        <v>863</v>
+      <c r="A52" s="15" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>865</v>
+        <v>796</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>864</v>
+        <v>795</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="19" t="s">
-        <v>1386</v>
+      <c r="A55" s="15" t="s">
+        <v>1315</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1385</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="19" t="s">
-        <v>1387</v>
+      <c r="A56" s="15" t="s">
+        <v>1316</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1388</v>
+        <v>1317</v>
       </c>
       <c r="C56" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="19" t="s">
-        <v>1389</v>
+      <c r="A57" s="15" t="s">
+        <v>1318</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1390</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>1392</v>
+        <v>1321</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1391</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="19" t="s">
-        <v>1393</v>
+      <c r="A59" s="15" t="s">
+        <v>1322</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1394</v>
+        <v>1323</v>
       </c>
       <c r="C59" s="10">
         <v>2</v>
@@ -17639,31 +16863,31 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>880</v>
+        <v>811</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>866</v>
+        <v>797</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
-        <v>881</v>
+        <v>812</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>867</v>
+        <v>798</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>868</v>
+        <v>799</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>869</v>
+        <v>800</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>879</v>
+        <v>810</v>
       </c>
       <c r="C63" s="10">
         <v>3</v>
@@ -17671,10 +16895,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>890</v>
+        <v>821</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>891</v>
+        <v>822</v>
       </c>
       <c r="C64" s="10">
         <v>3</v>
@@ -17682,10 +16906,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>892</v>
+        <v>823</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>893</v>
+        <v>824</v>
       </c>
       <c r="C65" s="10">
         <v>1</v>
@@ -17693,7 +16917,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>902</v>
+        <v>833</v>
       </c>
       <c r="C66" s="10">
         <v>1</v>
@@ -17701,10 +16925,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>903</v>
+        <v>834</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>907</v>
+        <v>838</v>
       </c>
       <c r="C67" s="10">
         <v>2</v>
@@ -17712,7 +16936,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>904</v>
+        <v>835</v>
       </c>
       <c r="C68" s="10">
         <v>1</v>
@@ -17720,7 +16944,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>905</v>
+        <v>836</v>
       </c>
       <c r="C69" s="10">
         <v>1</v>
@@ -17728,7 +16952,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>906</v>
+        <v>837</v>
       </c>
       <c r="C70" s="10">
         <v>1</v>
@@ -17736,10 +16960,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>908</v>
+        <v>839</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>909</v>
+        <v>840</v>
       </c>
       <c r="C71" s="10">
         <v>3</v>
@@ -17747,10 +16971,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>910</v>
+        <v>841</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>911</v>
+        <v>842</v>
       </c>
       <c r="C72" s="10">
         <v>1</v>
@@ -17758,10 +16982,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>912</v>
+        <v>843</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>913</v>
+        <v>844</v>
       </c>
       <c r="C73" s="10">
         <v>3</v>
@@ -17769,10 +16993,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>914</v>
+        <v>845</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>1038</v>
+        <v>968</v>
       </c>
       <c r="C74" s="10">
         <v>2</v>
@@ -17780,10 +17004,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>1034</v>
+        <v>964</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>1035</v>
+        <v>965</v>
       </c>
       <c r="C75" s="10">
         <v>2</v>
@@ -17791,10 +17015,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>1036</v>
+        <v>966</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>1037</v>
+        <v>967</v>
       </c>
       <c r="C76" s="10">
         <v>2</v>
@@ -17802,10 +17026,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>1040</v>
+        <v>970</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>1039</v>
+        <v>969</v>
       </c>
       <c r="C77" s="10">
         <v>2</v>
@@ -17813,7 +17037,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>1041</v>
+        <v>971</v>
       </c>
       <c r="C78" s="10">
         <v>2</v>
@@ -17821,10 +17045,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="s">
-        <v>1042</v>
+        <v>972</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1043</v>
+        <v>973</v>
       </c>
       <c r="C79" s="10">
         <v>3</v>
@@ -17930,7 +17154,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -17997,10 +17221,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18015,7 +17239,7 @@
         <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>968</v>
+        <v>899</v>
       </c>
       <c r="C1" s="10">
         <v>1</v>
@@ -18026,7 +17250,7 @@
         <v>561</v>
       </c>
       <c r="B2" t="s">
-        <v>969</v>
+        <v>900</v>
       </c>
       <c r="C2" s="10">
         <v>1</v>
@@ -18034,73 +17258,76 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1259</v>
+        <v>1354</v>
       </c>
       <c r="B3" t="s">
-        <v>1260</v>
+        <v>1357</v>
       </c>
       <c r="C3" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>1308</v>
+        <v>1356</v>
       </c>
       <c r="B4" t="s">
-        <v>1371</v>
+        <v>1355</v>
       </c>
       <c r="C4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>1258</v>
+        <v>1189</v>
       </c>
       <c r="B5" t="s">
-        <v>1261</v>
+        <v>1190</v>
       </c>
       <c r="C5" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>1262</v>
+        <v>1237</v>
       </c>
       <c r="B6" t="s">
-        <v>1263</v>
+        <v>1300</v>
       </c>
       <c r="C6" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>915</v>
+        <v>1188</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1191</v>
       </c>
       <c r="C7" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>1006</v>
+        <v>1192</v>
       </c>
       <c r="B8" t="s">
-        <v>1007</v>
+        <v>1193</v>
       </c>
       <c r="C8" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>1028</v>
+        <v>1358</v>
       </c>
       <c r="B9" t="s">
-        <v>1029</v>
+        <v>1359</v>
       </c>
       <c r="C9" s="10">
         <v>2</v>
@@ -18108,81 +17335,84 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1029</v>
+        <v>846</v>
       </c>
       <c r="C10" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>1031</v>
+      <c r="A11" s="3" t="s">
+        <v>936</v>
       </c>
       <c r="B11" t="s">
-        <v>1029</v>
+        <v>937</v>
       </c>
       <c r="C11" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="B12" t="s">
+        <v>959</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="B13" t="s">
+        <v>959</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="B14" t="s">
+        <v>959</v>
+      </c>
+      <c r="C14" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C12" s="10">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="B15" t="s">
+        <v>959</v>
+      </c>
+      <c r="C15" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="B14" t="s">
-        <v>970</v>
-      </c>
-      <c r="C14" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>986</v>
-      </c>
-      <c r="B15" t="s">
-        <v>987</v>
-      </c>
-      <c r="C15" s="10">
-        <v>2</v>
-      </c>
-    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>971</v>
+      <c r="A16" s="4" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1276</v>
       </c>
       <c r="C16" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>972</v>
+        <v>847</v>
       </c>
       <c r="B17" t="s">
-        <v>973</v>
+        <v>901</v>
       </c>
       <c r="C17" s="10">
         <v>2</v>
@@ -18190,10 +17420,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>974</v>
+        <v>916</v>
       </c>
       <c r="B18" t="s">
-        <v>975</v>
+        <v>917</v>
       </c>
       <c r="C18" s="10">
         <v>2</v>
@@ -18201,141 +17431,141 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1287</v>
+        <v>902</v>
       </c>
       <c r="C19" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
-        <v>1286</v>
+      <c r="A20" s="3" t="s">
+        <v>903</v>
       </c>
       <c r="B20" t="s">
-        <v>1288</v>
+        <v>904</v>
       </c>
       <c r="C20" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
-        <v>1302</v>
+      <c r="A21" s="3" t="s">
+        <v>905</v>
       </c>
       <c r="B21" t="s">
-        <v>1303</v>
+        <v>906</v>
       </c>
       <c r="C21" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="24" t="s">
-        <v>976</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>1033</v>
+      <c r="A22" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1217</v>
       </c>
       <c r="C22" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C23" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C24" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="20" t="s">
+        <v>907</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C25" s="10">
         <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>977</v>
-      </c>
-      <c r="B23" t="s">
-        <v>978</v>
-      </c>
-      <c r="C23" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>988</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>989</v>
-      </c>
-      <c r="C24" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="B25" t="s">
-        <v>996</v>
-      </c>
-      <c r="C25" s="10">
-        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>70</v>
+        <v>908</v>
       </c>
       <c r="B26" t="s">
-        <v>349</v>
+        <v>909</v>
       </c>
       <c r="C26" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>73</v>
+      <c r="A27" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>919</v>
       </c>
       <c r="C27" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>71</v>
+      <c r="A28" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="B28" t="s">
+        <v>926</v>
       </c>
       <c r="C28" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>349</v>
       </c>
       <c r="C29" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>74</v>
+      <c r="A30" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C30" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" t="s">
-        <v>982</v>
+      <c r="A31" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C31" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>994</v>
+        <v>72</v>
       </c>
       <c r="C32" s="10">
         <v>1</v>
@@ -18343,95 +17573,101 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>985</v>
+        <v>74</v>
       </c>
       <c r="C33" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>77</v>
+      <c r="A34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>912</v>
       </c>
       <c r="C34" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
-        <v>983</v>
+      <c r="A35" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>984</v>
+        <v>924</v>
       </c>
       <c r="C35" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>915</v>
       </c>
       <c r="C36" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C37" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="B38" s="10"/>
+      <c r="A38" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="B38" t="s">
+        <v>914</v>
+      </c>
       <c r="C38" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="B39" s="10"/>
+        <v>78</v>
+      </c>
       <c r="C39" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>485</v>
+        <v>79</v>
       </c>
       <c r="C40" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>488</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="B41" s="10"/>
       <c r="C41" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>487</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="B42" s="10"/>
       <c r="C42" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C43" s="10">
         <v>2</v>
@@ -18439,10 +17675,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="B44" t="s">
-        <v>889</v>
+        <v>488</v>
       </c>
       <c r="C44" s="10">
         <v>2</v>
@@ -18450,122 +17683,125 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>1372</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1373</v>
+        <v>487</v>
       </c>
       <c r="C45" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
-        <v>997</v>
-      </c>
-      <c r="B46" t="s">
-        <v>998</v>
+      <c r="A46" s="3" t="s">
+        <v>486</v>
       </c>
       <c r="C46" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
-        <v>999</v>
+      <c r="A47" s="3" t="s">
+        <v>819</v>
       </c>
       <c r="B47" t="s">
-        <v>1000</v>
+        <v>820</v>
       </c>
       <c r="C47" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="4" t="s">
-        <v>1001</v>
+      <c r="A48" s="3" t="s">
+        <v>1301</v>
       </c>
       <c r="B48" t="s">
-        <v>1002</v>
+        <v>1302</v>
       </c>
       <c r="C48" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
-        <v>1003</v>
+        <v>927</v>
       </c>
       <c r="B49" t="s">
-        <v>1008</v>
+        <v>928</v>
       </c>
       <c r="C49" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
-        <v>1005</v>
+        <v>929</v>
       </c>
       <c r="B50" t="s">
-        <v>1009</v>
+        <v>930</v>
       </c>
       <c r="C50" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>1004</v>
+        <v>931</v>
       </c>
       <c r="B51" t="s">
-        <v>1010</v>
+        <v>932</v>
       </c>
       <c r="C51" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>1025</v>
+      <c r="A52" s="4" t="s">
+        <v>933</v>
       </c>
       <c r="B52" t="s">
-        <v>1026</v>
+        <v>938</v>
       </c>
       <c r="C52" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>1304</v>
+      <c r="A53" s="4" t="s">
+        <v>935</v>
       </c>
       <c r="B53" t="s">
-        <v>1305</v>
+        <v>939</v>
       </c>
       <c r="C53" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>1358</v>
+      <c r="A54" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="B54" t="s">
+        <v>940</v>
       </c>
       <c r="C54" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>1360</v>
+        <v>955</v>
+      </c>
+      <c r="B55" t="s">
+        <v>956</v>
       </c>
       <c r="C55" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>1361</v>
+        <v>1233</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1234</v>
       </c>
       <c r="C56" s="10">
         <v>2</v>
@@ -18573,7 +17809,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>1362</v>
+        <v>1287</v>
       </c>
       <c r="C57" s="10">
         <v>2</v>
@@ -18581,7 +17817,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>1363</v>
+        <v>1289</v>
       </c>
       <c r="C58" s="10">
         <v>2</v>
@@ -18589,251 +17825,280 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>1364</v>
+        <v>1290</v>
       </c>
       <c r="C59" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>1365</v>
+        <v>1291</v>
       </c>
       <c r="C60" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C61" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C62" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C63" s="10">
         <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>938</v>
+        <v>866</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>939</v>
+        <v>867</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>940</v>
+        <v>868</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>941</v>
+        <v>869</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>942</v>
+        <v>870</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>943</v>
+        <v>871</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>944</v>
+        <v>872</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>945</v>
+        <v>873</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>946</v>
+        <v>874</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>947</v>
+        <v>875</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>948</v>
+        <v>876</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>949</v>
+        <v>877</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>950</v>
+        <v>878</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>1306</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C94" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>958</v>
+        <v>888</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>959</v>
+        <v>1235</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C97" s="10">
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>979</v>
-      </c>
-      <c r="C99" s="10">
-        <v>2</v>
+        <v>889</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>981</v>
-      </c>
-      <c r="B100" t="s">
-        <v>980</v>
-      </c>
-      <c r="C100" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C101" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="12" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="12" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C102" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="B103" t="s">
+        <v>910</v>
+      </c>
+      <c r="C103" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C104" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" s="12" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="3" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B110" t="s">
         <v>618</v>
       </c>
-      <c r="C107" s="10">
+      <c r="C110" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="3" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B111" t="s">
         <v>620</v>
       </c>
-      <c r="C108" s="10">
+      <c r="C111" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="3" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B112" t="s">
         <v>622</v>
       </c>
-      <c r="C109" s="10">
+      <c r="C112" s="10">
         <v>3</v>
       </c>
     </row>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9155F0FA-1659-4AB2-8C8C-262730AD6FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B6FD2A-2422-4028-99E5-3C19B1470189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="1365">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -10105,6 +10105,37 @@
   </si>
   <si>
     <t>Gieven that a ninja can do 1 of 3 activities each day (fight,run,defense), and given a 3*n arrays representing earning points for ith activity on jth day. Ninja cannot take same activity on 2 consecutive days. Find maximum earning points he can earn at the end of n days.</t>
+  </si>
+  <si>
+    <t>cin&gt;&gt;n;
+    for(int i=2;i&lt;=n/2;){
+        if(n%i==0){
+            cout&lt;&lt;i&lt;&lt;" * ";n=n/i;
+        }else{
+            i++;
+        }
+    }
+    if(n!=1){
+        cout&lt;&lt;n;
+    }</t>
+  </si>
+  <si>
+    <t>Prime factor representation of a number</t>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>Conatins Duplicate</t>
+  </si>
+  <si>
+    <t>map&lt;int ,int&gt; mp;
+        for(int i=0;i&lt;nums.size();i++){
+            if(mp[nums[i]]&gt;0 &amp;&amp; abs(mp[nums[i]]-i-1)&lt;=k){
+                return true;
+            }
+            mp[nums[i]]=i+1;
+        }return false;</t>
   </si>
 </sst>
 </file>
@@ -14031,8 +14062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14348,6 +14379,9 @@
       <c r="A32" s="7" t="s">
         <v>584</v>
       </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
@@ -14377,6 +14411,33 @@
       </c>
       <c r="C35" s="3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
@@ -17223,8 +17284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Algobooklet.xlsx
+++ b/Algobooklet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\videos\COLLEGE\CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B6FD2A-2422-4028-99E5-3C19B1470189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70BF851-2C35-4574-A24E-8217C25F7758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" tabRatio="778" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Binary Search" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="1365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="1366">
   <si>
     <t>Search insert Position</t>
   </si>
@@ -10136,6 +10136,9 @@
             }
             mp[nums[i]]=i+1;
         }return false;</t>
+  </si>
+  <si>
+    <t>npm install &lt;package&gt;</t>
   </si>
 </sst>
 </file>
@@ -12873,10 +12876,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E4140E-759C-470A-8A2C-5710FE199FCD}">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13448,6 +13451,21 @@
       </c>
       <c r="B71" s="1" t="s">
         <v>1351</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -14062,7 +14080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
